--- a/공학용계산기 Development Report_메가톤.xlsx
+++ b/공학용계산기 Development Report_메가톤.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\인공지능 강의자료\자바\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12396"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12396" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="7" r:id="rId1"/>
@@ -505,7 +505,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="General&quot;%&quot;"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
@@ -667,8 +667,10 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Malgun Gothic"/>
       <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1752,327 +1754,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2085,23 +1766,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2125,14 +1794,389 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2140,58 +2184,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3010,15 +3012,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>144781</xdr:colOff>
+      <xdr:colOff>304801</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>524381</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>13841</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3035,7 +3037,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2034541" y="8976360"/>
+          <a:off x="2194561" y="8907780"/>
           <a:ext cx="2391280" cy="1524000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3110,13 +3112,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3125,7 +3127,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2019300" y="10485120"/>
+          <a:off x="2019300" y="10431780"/>
           <a:ext cx="4472940" cy="594360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3236,66 +3238,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="직사각형 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2026920" y="8976360"/>
-          <a:ext cx="2407920" cy="1524000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -3395,8 +3337,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>13841</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
@@ -3404,24 +3346,24 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>236220</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="17" name="꺾인 연결선 16"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="6" idx="3"/>
-          <a:endCxn id="14" idx="3"/>
+          <a:endCxn id="3" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4434840" y="6469380"/>
-          <a:ext cx="373380" cy="3268980"/>
+          <a:off x="4585841" y="6469380"/>
+          <a:ext cx="222379" cy="3200400"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -424489"/>
+            <a:gd name="adj1" fmla="val -726435"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="25400">
@@ -3809,6 +3751,290 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>297181</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7621</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="그림 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2186941" y="11018520"/>
+          <a:ext cx="2392680" cy="1866900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="직사각형 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2453640" y="9517380"/>
+          <a:ext cx="716280" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1996440" y="12900660"/>
+          <a:ext cx="4472940" cy="594360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t> - </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>기록 조회를 통해서 계산한 결과들을</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t> 최대 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>20</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>개까지 조회할 수 있으며</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>기록 삭제도 가능하다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>297182</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>563881</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="꺾인 연결선 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="1"/>
+          <a:endCxn id="18" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="2186942" y="9662160"/>
+          <a:ext cx="266699" cy="2289810"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 185715"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3874,15 +4100,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>90352</xdr:colOff>
+          <xdr:colOff>91440</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>108858</xdr:rowOff>
+          <xdr:rowOff>106680</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>576945</xdr:colOff>
+          <xdr:colOff>579120</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>391885</xdr:rowOff>
+          <xdr:rowOff>388620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3928,7 +4154,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3957,15 +4183,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>523606</xdr:colOff>
+          <xdr:colOff>525780</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>119744</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>965566</xdr:colOff>
+          <xdr:colOff>967740</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>377735</xdr:rowOff>
+          <xdr:rowOff>381000</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4011,7 +4237,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4040,15 +4266,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>954679</xdr:colOff>
+          <xdr:colOff>952500</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>94707</xdr:rowOff>
+          <xdr:rowOff>91440</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>1447800</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>402772</xdr:rowOff>
+          <xdr:rowOff>403860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4094,7 +4320,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4123,15 +4349,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>90352</xdr:colOff>
+          <xdr:colOff>91440</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>108857</xdr:rowOff>
+          <xdr:rowOff>106680</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>576945</xdr:colOff>
+          <xdr:colOff>579120</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>391884</xdr:rowOff>
+          <xdr:rowOff>388620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4177,7 +4403,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4206,15 +4432,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>523606</xdr:colOff>
+          <xdr:colOff>525780</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>119743</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>965566</xdr:colOff>
+          <xdr:colOff>967740</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>377734</xdr:rowOff>
+          <xdr:rowOff>381000</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4260,7 +4486,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4289,15 +4515,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>954679</xdr:colOff>
+          <xdr:colOff>952500</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>94706</xdr:rowOff>
+          <xdr:rowOff>91440</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>1447800</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>402771</xdr:rowOff>
+          <xdr:rowOff>403860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4343,7 +4569,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4372,15 +4598,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>90352</xdr:colOff>
+          <xdr:colOff>91440</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>108858</xdr:rowOff>
+          <xdr:rowOff>106680</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>576945</xdr:colOff>
+          <xdr:colOff>579120</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>391885</xdr:rowOff>
+          <xdr:rowOff>388620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4426,7 +4652,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4455,15 +4681,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>523606</xdr:colOff>
+          <xdr:colOff>525780</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>119744</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>965566</xdr:colOff>
+          <xdr:colOff>967740</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>377735</xdr:rowOff>
+          <xdr:rowOff>381000</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4509,7 +4735,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4538,15 +4764,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>954679</xdr:colOff>
+          <xdr:colOff>952500</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>94707</xdr:rowOff>
+          <xdr:rowOff>91440</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>1447800</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>402772</xdr:rowOff>
+          <xdr:rowOff>403860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4592,7 +4818,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4621,15 +4847,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>90352</xdr:colOff>
+          <xdr:colOff>91440</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>119743</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>576945</xdr:colOff>
+          <xdr:colOff>579120</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>402770</xdr:rowOff>
+          <xdr:rowOff>403860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4675,7 +4901,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4704,13 +4930,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>523606</xdr:colOff>
+          <xdr:colOff>525780</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>130629</xdr:rowOff>
+          <xdr:rowOff>129540</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>965566</xdr:colOff>
+          <xdr:colOff>967740</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>388620</xdr:rowOff>
         </xdr:to>
@@ -4758,7 +4984,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4787,15 +5013,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>954679</xdr:colOff>
+          <xdr:colOff>952500</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>105592</xdr:rowOff>
+          <xdr:rowOff>106680</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>1447800</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>413657</xdr:rowOff>
+          <xdr:rowOff>411480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4841,7 +5067,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4870,15 +5096,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>90352</xdr:colOff>
+          <xdr:colOff>91440</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>108858</xdr:rowOff>
+          <xdr:rowOff>106680</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>576945</xdr:colOff>
+          <xdr:colOff>579120</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>391885</xdr:rowOff>
+          <xdr:rowOff>388620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4924,7 +5150,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4953,15 +5179,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>523606</xdr:colOff>
+          <xdr:colOff>525780</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>119744</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>965566</xdr:colOff>
+          <xdr:colOff>967740</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>377735</xdr:rowOff>
+          <xdr:rowOff>381000</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5007,7 +5233,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5036,15 +5262,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>954679</xdr:colOff>
+          <xdr:colOff>952500</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>94707</xdr:rowOff>
+          <xdr:rowOff>91440</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>1447800</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>402772</xdr:rowOff>
+          <xdr:rowOff>403860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5090,7 +5316,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5119,15 +5345,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>90352</xdr:colOff>
+          <xdr:colOff>91440</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>87086</xdr:rowOff>
+          <xdr:rowOff>83820</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>576945</xdr:colOff>
+          <xdr:colOff>579120</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>370113</xdr:rowOff>
+          <xdr:rowOff>373380</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5173,7 +5399,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5202,15 +5428,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>523606</xdr:colOff>
+          <xdr:colOff>525780</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>97972</xdr:rowOff>
+          <xdr:rowOff>99060</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>965566</xdr:colOff>
+          <xdr:colOff>967740</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>355963</xdr:rowOff>
+          <xdr:rowOff>358140</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5256,7 +5482,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5285,9 +5511,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>954679</xdr:colOff>
+          <xdr:colOff>952500</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>72935</xdr:rowOff>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
@@ -5339,7 +5565,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5368,15 +5594,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>90352</xdr:colOff>
+          <xdr:colOff>91440</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>97972</xdr:rowOff>
+          <xdr:rowOff>99060</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>576945</xdr:colOff>
+          <xdr:colOff>579120</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>380999</xdr:rowOff>
+          <xdr:rowOff>381000</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5422,7 +5648,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5451,15 +5677,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>523606</xdr:colOff>
+          <xdr:colOff>525780</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>108858</xdr:rowOff>
+          <xdr:rowOff>106680</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>965566</xdr:colOff>
+          <xdr:colOff>967740</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>366849</xdr:rowOff>
+          <xdr:rowOff>365760</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5505,7 +5731,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5534,15 +5760,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>954679</xdr:colOff>
+          <xdr:colOff>952500</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>83821</xdr:rowOff>
+          <xdr:rowOff>83820</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>1447800</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>391886</xdr:rowOff>
+          <xdr:rowOff>388620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5588,7 +5814,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5617,13 +5843,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>90352</xdr:colOff>
+          <xdr:colOff>91440</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>97973</xdr:rowOff>
+          <xdr:rowOff>99060</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>576945</xdr:colOff>
+          <xdr:colOff>579120</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>381000</xdr:rowOff>
         </xdr:to>
@@ -5671,7 +5897,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5700,15 +5926,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>523606</xdr:colOff>
+          <xdr:colOff>525780</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>108859</xdr:rowOff>
+          <xdr:rowOff>106680</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>965566</xdr:colOff>
+          <xdr:colOff>967740</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>366850</xdr:rowOff>
+          <xdr:rowOff>365760</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5754,7 +5980,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5783,15 +6009,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>954679</xdr:colOff>
+          <xdr:colOff>952500</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>83822</xdr:rowOff>
+          <xdr:rowOff>83820</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>1447800</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>391887</xdr:rowOff>
+          <xdr:rowOff>388620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5837,7 +6063,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5866,15 +6092,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>90352</xdr:colOff>
+          <xdr:colOff>91440</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>108858</xdr:rowOff>
+          <xdr:rowOff>106680</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>576945</xdr:colOff>
+          <xdr:colOff>579120</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>391885</xdr:rowOff>
+          <xdr:rowOff>388620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5920,7 +6146,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5949,15 +6175,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>523606</xdr:colOff>
+          <xdr:colOff>525780</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>119744</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>965566</xdr:colOff>
+          <xdr:colOff>967740</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>377735</xdr:rowOff>
+          <xdr:rowOff>381000</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6003,7 +6229,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6032,15 +6258,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>954679</xdr:colOff>
+          <xdr:colOff>952500</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>94707</xdr:rowOff>
+          <xdr:rowOff>91440</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>1447800</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>402772</xdr:rowOff>
+          <xdr:rowOff>403860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6086,7 +6312,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6115,15 +6341,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>90352</xdr:colOff>
+          <xdr:colOff>91440</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>108858</xdr:rowOff>
+          <xdr:rowOff>106680</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>576945</xdr:colOff>
+          <xdr:colOff>579120</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>391885</xdr:rowOff>
+          <xdr:rowOff>388620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6169,7 +6395,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6198,15 +6424,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>523606</xdr:colOff>
+          <xdr:colOff>525780</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>119744</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>965566</xdr:colOff>
+          <xdr:colOff>967740</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>377735</xdr:rowOff>
+          <xdr:rowOff>381000</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6252,7 +6478,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6281,15 +6507,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>954679</xdr:colOff>
+          <xdr:colOff>952500</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>94707</xdr:rowOff>
+          <xdr:rowOff>91440</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>1447800</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>402772</xdr:rowOff>
+          <xdr:rowOff>403860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6335,7 +6561,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6720,7 +6946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -6736,41 +6962,41 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18" thickBot="1"/>
     <row r="2" spans="2:6">
-      <c r="B2" s="82"/>
-      <c r="C2" s="84" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="85"/>
+      <c r="D2" s="104"/>
     </row>
     <row r="3" spans="2:6" ht="18" thickBot="1">
-      <c r="B3" s="83"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="106"/>
     </row>
     <row r="4" spans="2:6" ht="18" thickBot="1"/>
     <row r="5" spans="2:6">
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="88" t="s">
+      <c r="F5" s="107" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="18" thickBot="1">
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="62" t="s">
@@ -6965,11 +7191,11 @@
       <c r="X2" s="24"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="B3" s="124"/>
-      <c r="C3" s="120" t="s">
+      <c r="B3" s="113"/>
+      <c r="C3" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="121"/>
+      <c r="D3" s="110"/>
       <c r="E3" s="72"/>
       <c r="F3" s="73" t="s">
         <v>28</v>
@@ -6994,9 +7220,9 @@
       <c r="X3" s="24"/>
     </row>
     <row r="4" spans="1:24" ht="18" thickBot="1">
-      <c r="B4" s="125"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="123"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="112"/>
       <c r="E4" s="72"/>
       <c r="F4" s="74" t="s">
         <v>46</v>
@@ -7046,76 +7272,76 @@
       <c r="X5" s="24"/>
     </row>
     <row r="6" spans="1:24" ht="18" thickBot="1">
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="99" t="s">
+      <c r="C6" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="99" t="s">
+      <c r="D6" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="100" t="s">
+      <c r="E6" s="146" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="90"/>
-      <c r="G6" s="99" t="s">
+      <c r="F6" s="140"/>
+      <c r="G6" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="105" t="s">
+      <c r="H6" s="149" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="105"/>
-      <c r="N6" s="105"/>
-      <c r="O6" s="105"/>
-      <c r="P6" s="105"/>
-      <c r="Q6" s="105"/>
-      <c r="R6" s="105"/>
-      <c r="S6" s="105"/>
-      <c r="T6" s="105"/>
-      <c r="U6" s="105"/>
-      <c r="V6" s="90"/>
-      <c r="W6" s="90" t="s">
+      <c r="I6" s="149"/>
+      <c r="J6" s="149"/>
+      <c r="K6" s="149"/>
+      <c r="L6" s="149"/>
+      <c r="M6" s="149"/>
+      <c r="N6" s="149"/>
+      <c r="O6" s="149"/>
+      <c r="P6" s="149"/>
+      <c r="Q6" s="149"/>
+      <c r="R6" s="149"/>
+      <c r="S6" s="149"/>
+      <c r="T6" s="149"/>
+      <c r="U6" s="149"/>
+      <c r="V6" s="140"/>
+      <c r="W6" s="140" t="s">
         <v>47</v>
       </c>
       <c r="X6" s="24"/>
     </row>
     <row r="7" spans="1:24" ht="18" thickBot="1">
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
-      <c r="M7" s="106"/>
-      <c r="N7" s="106"/>
-      <c r="O7" s="106"/>
-      <c r="P7" s="106"/>
-      <c r="Q7" s="106"/>
-      <c r="R7" s="106"/>
-      <c r="S7" s="106"/>
-      <c r="T7" s="106"/>
-      <c r="U7" s="106"/>
-      <c r="V7" s="92"/>
-      <c r="W7" s="91"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="150"/>
+      <c r="L7" s="150"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="150"/>
+      <c r="Q7" s="150"/>
+      <c r="R7" s="150"/>
+      <c r="S7" s="150"/>
+      <c r="T7" s="150"/>
+      <c r="U7" s="150"/>
+      <c r="V7" s="142"/>
+      <c r="W7" s="141"/>
       <c r="X7" s="24"/>
     </row>
     <row r="8" spans="1:24" ht="18" thickBot="1">
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="99"/>
+      <c r="B8" s="145"/>
+      <c r="C8" s="145"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="145"/>
       <c r="H8" s="33">
         <v>17</v>
       </c>
@@ -7161,25 +7387,25 @@
       <c r="V8" s="32">
         <v>30</v>
       </c>
-      <c r="W8" s="92"/>
+      <c r="W8" s="142"/>
       <c r="X8" s="24"/>
     </row>
     <row r="9" spans="1:24" ht="18" thickBot="1">
-      <c r="A9" s="93"/>
-      <c r="B9" s="94" t="s">
+      <c r="A9" s="130"/>
+      <c r="B9" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="97" t="s">
+      <c r="D9" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="108" t="s">
+      <c r="E9" s="123" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="103"/>
-      <c r="G9" s="130" t="s">
+      <c r="F9" s="124"/>
+      <c r="G9" s="119" t="s">
         <v>4</v>
       </c>
       <c r="H9" s="34"/>
@@ -7197,17 +7423,17 @@
       <c r="T9" s="27"/>
       <c r="U9" s="27"/>
       <c r="V9" s="28"/>
-      <c r="W9" s="103"/>
+      <c r="W9" s="124"/>
       <c r="X9" s="24"/>
     </row>
     <row r="10" spans="1:24" ht="18" thickBot="1">
-      <c r="A10" s="93"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="131"/>
+      <c r="A10" s="130"/>
+      <c r="B10" s="143"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="120"/>
       <c r="H10" s="76"/>
       <c r="I10" s="77"/>
       <c r="J10" s="77"/>
@@ -7223,25 +7449,25 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="19"/>
-      <c r="W10" s="104"/>
+      <c r="W10" s="126"/>
       <c r="X10" s="24"/>
     </row>
     <row r="11" spans="1:24" ht="17.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A11" s="93"/>
-      <c r="B11" s="107" t="s">
+      <c r="A11" s="130"/>
+      <c r="B11" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="95" t="s">
+      <c r="C11" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="98" t="s">
+      <c r="D11" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="108" t="s">
+      <c r="E11" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="103"/>
-      <c r="G11" s="95" t="s">
+      <c r="F11" s="124"/>
+      <c r="G11" s="121" t="s">
         <v>4</v>
       </c>
       <c r="H11" s="20"/>
@@ -7259,17 +7485,17 @@
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
       <c r="V11" s="19"/>
-      <c r="W11" s="103"/>
+      <c r="W11" s="124"/>
       <c r="X11" s="24"/>
     </row>
     <row r="12" spans="1:24" ht="17.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A12" s="93"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="96"/>
+      <c r="A12" s="130"/>
+      <c r="B12" s="138"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="122"/>
       <c r="H12" s="39"/>
       <c r="I12" s="40"/>
       <c r="J12" s="40"/>
@@ -7285,23 +7511,23 @@
       <c r="T12" s="40"/>
       <c r="U12" s="40"/>
       <c r="V12" s="41"/>
-      <c r="W12" s="104"/>
+      <c r="W12" s="126"/>
       <c r="X12" s="24"/>
     </row>
     <row r="13" spans="1:24" ht="18" thickBot="1">
-      <c r="A13" s="93"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="107" t="s">
+      <c r="A13" s="130"/>
+      <c r="B13" s="138"/>
+      <c r="C13" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="98" t="s">
+      <c r="D13" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="108" t="s">
+      <c r="E13" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="103"/>
-      <c r="G13" s="95" t="s">
+      <c r="F13" s="124"/>
+      <c r="G13" s="121" t="s">
         <v>4</v>
       </c>
       <c r="H13" s="50"/>
@@ -7319,17 +7545,17 @@
       <c r="T13" s="46"/>
       <c r="U13" s="46"/>
       <c r="V13" s="47"/>
-      <c r="W13" s="103"/>
+      <c r="W13" s="124"/>
       <c r="X13" s="24"/>
     </row>
     <row r="14" spans="1:24" ht="18" thickBot="1">
-      <c r="A14" s="93"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="96"/>
+      <c r="A14" s="130"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="122"/>
       <c r="H14" s="78"/>
       <c r="I14" s="79"/>
       <c r="J14" s="79"/>
@@ -7345,25 +7571,25 @@
       <c r="T14" s="35"/>
       <c r="U14" s="35"/>
       <c r="V14" s="36"/>
-      <c r="W14" s="104"/>
+      <c r="W14" s="126"/>
       <c r="X14" s="24"/>
     </row>
     <row r="15" spans="1:24" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A15" s="93"/>
-      <c r="B15" s="95" t="s">
+      <c r="A15" s="130"/>
+      <c r="B15" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="95" t="s">
+      <c r="C15" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="98" t="s">
+      <c r="D15" s="136" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="112" t="s">
+      <c r="E15" s="139" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="103"/>
-      <c r="G15" s="130" t="s">
+      <c r="F15" s="124"/>
+      <c r="G15" s="119" t="s">
         <v>4</v>
       </c>
       <c r="H15" s="37"/>
@@ -7381,19 +7607,19 @@
       <c r="T15" s="52"/>
       <c r="U15" s="52"/>
       <c r="V15" s="43"/>
-      <c r="W15" s="103" t="s">
+      <c r="W15" s="124" t="s">
         <v>48</v>
       </c>
       <c r="X15" s="24"/>
     </row>
     <row r="16" spans="1:24" ht="18" thickBot="1">
-      <c r="A16" s="93"/>
-      <c r="B16" s="111"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="131"/>
+      <c r="A16" s="130"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="120"/>
       <c r="H16" s="48"/>
       <c r="I16" s="49"/>
       <c r="J16" s="49"/>
@@ -7409,25 +7635,25 @@
       <c r="T16" s="80"/>
       <c r="U16" s="80"/>
       <c r="V16" s="41"/>
-      <c r="W16" s="110"/>
+      <c r="W16" s="137"/>
       <c r="X16" s="24"/>
     </row>
     <row r="17" spans="1:26" ht="18" thickBot="1">
-      <c r="A17" s="93"/>
-      <c r="B17" s="95" t="s">
+      <c r="A17" s="130"/>
+      <c r="B17" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="95" t="s">
+      <c r="C17" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="116" t="s">
+      <c r="D17" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="118" t="s">
+      <c r="E17" s="133" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="119"/>
-      <c r="G17" s="95" t="s">
+      <c r="F17" s="134"/>
+      <c r="G17" s="121" t="s">
         <v>4</v>
       </c>
       <c r="H17" s="44"/>
@@ -7445,17 +7671,17 @@
       <c r="T17" s="46"/>
       <c r="U17" s="51"/>
       <c r="V17" s="53"/>
-      <c r="W17" s="103"/>
+      <c r="W17" s="124"/>
       <c r="X17" s="24"/>
     </row>
     <row r="18" spans="1:26" ht="18" thickBot="1">
-      <c r="A18" s="93"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="96"/>
+      <c r="A18" s="130"/>
+      <c r="B18" s="122"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="122"/>
       <c r="H18" s="4"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
@@ -7471,7 +7697,7 @@
       <c r="T18" s="35"/>
       <c r="U18" s="79"/>
       <c r="V18" s="81"/>
-      <c r="W18" s="104"/>
+      <c r="W18" s="126"/>
       <c r="X18" s="24"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" customHeight="1">
@@ -7556,12 +7782,12 @@
     </row>
     <row r="436" spans="1:24">
       <c r="H436" s="21"/>
-      <c r="I436" s="126"/>
-      <c r="J436" s="127"/>
-      <c r="M436" s="128" t="s">
+      <c r="I436" s="115"/>
+      <c r="J436" s="116"/>
+      <c r="M436" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="N436" s="129"/>
+      <c r="N436" s="118"/>
       <c r="O436" s="21"/>
       <c r="P436" s="21"/>
       <c r="Q436" s="21"/>
@@ -7573,12 +7799,12 @@
     </row>
     <row r="437" spans="1:24" ht="18" thickBot="1">
       <c r="H437" s="14"/>
-      <c r="I437" s="113"/>
-      <c r="J437" s="114"/>
-      <c r="M437" s="109" t="s">
+      <c r="I437" s="127"/>
+      <c r="J437" s="128"/>
+      <c r="M437" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="N437" s="115"/>
+      <c r="N437" s="129"/>
       <c r="O437" s="14"/>
       <c r="P437" s="14"/>
       <c r="Q437" s="14"/>
@@ -7601,24 +7827,18 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="I436:J436"/>
-    <mergeCell ref="M436:N436"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="E11:F12"/>
-    <mergeCell ref="I437:J437"/>
-    <mergeCell ref="M437:N437"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="W6:W8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="H6:V7"/>
     <mergeCell ref="W11:W12"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="C13:C14"/>
@@ -7635,18 +7855,24 @@
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
-    <mergeCell ref="W6:W8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="H6:V7"/>
+    <mergeCell ref="I437:J437"/>
+    <mergeCell ref="M437:N437"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="I436:J436"/>
+    <mergeCell ref="M436:N436"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="E11:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D9:D10 D13:D18">
@@ -7745,36 +7971,36 @@
   <sheetData>
     <row r="1" spans="1:23" ht="18" thickBot="1"/>
     <row r="2" spans="1:23" ht="16.5" customHeight="1">
-      <c r="B2" s="108"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="141" t="s">
+      <c r="B2" s="123"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="180" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="142"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="181"/>
       <c r="M2" s="1"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="B3" s="139"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="144"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
+      <c r="L3" s="183"/>
       <c r="M3" s="1"/>
       <c r="N3" s="17"/>
       <c r="O3" s="17"/>
@@ -7787,17 +8013,17 @@
       <c r="V3" s="10"/>
     </row>
     <row r="4" spans="1:23" ht="18" thickBot="1">
-      <c r="B4" s="109"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="145"/>
-      <c r="L4" s="146"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="184"/>
+      <c r="H4" s="184"/>
+      <c r="I4" s="184"/>
+      <c r="J4" s="184"/>
+      <c r="K4" s="184"/>
+      <c r="L4" s="185"/>
       <c r="M4" s="1"/>
       <c r="N4" s="17"/>
       <c r="O4" s="17"/>
@@ -7811,65 +8037,65 @@
     </row>
     <row r="5" spans="1:23" ht="18" customHeight="1" thickBot="1">
       <c r="N5" s="5"/>
-      <c r="O5" s="149"/>
-      <c r="P5" s="149"/>
-      <c r="Q5" s="149"/>
-      <c r="R5" s="149"/>
-      <c r="S5" s="149"/>
-      <c r="T5" s="149"/>
-      <c r="U5" s="149"/>
+      <c r="O5" s="165"/>
+      <c r="P5" s="165"/>
+      <c r="Q5" s="165"/>
+      <c r="R5" s="165"/>
+      <c r="S5" s="165"/>
+      <c r="T5" s="165"/>
+      <c r="U5" s="165"/>
       <c r="V5" s="6"/>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="2"/>
-      <c r="B6" s="147" t="s">
+      <c r="B6" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="153" t="s">
+      <c r="C6" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="155" t="s">
+      <c r="D6" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="155"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="151" t="s">
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="166" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="153" t="s">
+      <c r="I6" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="153"/>
-      <c r="K6" s="153"/>
-      <c r="L6" s="153" t="s">
+      <c r="J6" s="164"/>
+      <c r="K6" s="164"/>
+      <c r="L6" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="153" t="s">
+      <c r="M6" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="153"/>
-      <c r="O6" s="153"/>
-      <c r="P6" s="153"/>
-      <c r="Q6" s="153"/>
-      <c r="R6" s="153"/>
-      <c r="S6" s="153"/>
-      <c r="T6" s="153"/>
-      <c r="U6" s="153"/>
-      <c r="V6" s="153"/>
-      <c r="W6" s="157" t="s">
+      <c r="N6" s="164"/>
+      <c r="O6" s="164"/>
+      <c r="P6" s="164"/>
+      <c r="Q6" s="164"/>
+      <c r="R6" s="164"/>
+      <c r="S6" s="164"/>
+      <c r="T6" s="164"/>
+      <c r="U6" s="164"/>
+      <c r="V6" s="164"/>
+      <c r="W6" s="151" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="18" thickBot="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="148"/>
-      <c r="C7" s="154"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="156"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="152"/>
+      <c r="B7" s="187"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="167"/>
       <c r="I7" s="56" t="s">
         <v>0</v>
       </c>
@@ -7879,39 +8105,39 @@
       <c r="K7" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="154"/>
+      <c r="L7" s="168"/>
       <c r="M7" s="57">
         <v>0</v>
       </c>
-      <c r="N7" s="150"/>
-      <c r="O7" s="150"/>
-      <c r="P7" s="150"/>
-      <c r="Q7" s="168">
+      <c r="N7" s="163"/>
+      <c r="O7" s="163"/>
+      <c r="P7" s="163"/>
+      <c r="Q7" s="162">
         <v>0.5</v>
       </c>
-      <c r="R7" s="150"/>
-      <c r="S7" s="150"/>
-      <c r="T7" s="150"/>
-      <c r="U7" s="150"/>
+      <c r="R7" s="163"/>
+      <c r="S7" s="163"/>
+      <c r="T7" s="163"/>
+      <c r="U7" s="163"/>
       <c r="V7" s="57">
         <v>1</v>
       </c>
-      <c r="W7" s="158"/>
+      <c r="W7" s="152"/>
     </row>
     <row r="8" spans="1:23" ht="45" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="82">
+      <c r="B8" s="101">
         <v>1</v>
       </c>
-      <c r="C8" s="133" t="s">
+      <c r="C8" s="172" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="136" t="s">
+      <c r="D8" s="175" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137"/>
+      <c r="E8" s="176"/>
+      <c r="F8" s="176"/>
+      <c r="G8" s="176"/>
       <c r="H8" s="46" t="s">
         <v>16</v>
       </c>
@@ -7927,30 +8153,30 @@
       <c r="L8" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="162">
+      <c r="M8" s="156">
         <v>100</v>
       </c>
-      <c r="N8" s="162"/>
-      <c r="O8" s="162"/>
-      <c r="P8" s="162"/>
-      <c r="Q8" s="162"/>
-      <c r="R8" s="162"/>
-      <c r="S8" s="162"/>
-      <c r="T8" s="162"/>
-      <c r="U8" s="162"/>
-      <c r="V8" s="162"/>
+      <c r="N8" s="156"/>
+      <c r="O8" s="156"/>
+      <c r="P8" s="156"/>
+      <c r="Q8" s="156"/>
+      <c r="R8" s="156"/>
+      <c r="S8" s="156"/>
+      <c r="T8" s="156"/>
+      <c r="U8" s="156"/>
+      <c r="V8" s="156"/>
       <c r="W8" s="59"/>
     </row>
     <row r="9" spans="1:23" ht="45" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="132"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="163" t="s">
+      <c r="B9" s="171"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="157" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="164"/>
-      <c r="F9" s="164"/>
-      <c r="G9" s="165"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="159"/>
       <c r="H9" s="11" t="s">
         <v>17</v>
       </c>
@@ -7966,30 +8192,30 @@
       <c r="L9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="166">
+      <c r="M9" s="160">
         <v>100</v>
       </c>
-      <c r="N9" s="166"/>
-      <c r="O9" s="166"/>
-      <c r="P9" s="166"/>
-      <c r="Q9" s="166"/>
-      <c r="R9" s="166"/>
-      <c r="S9" s="166"/>
-      <c r="T9" s="166"/>
-      <c r="U9" s="166"/>
-      <c r="V9" s="166"/>
+      <c r="N9" s="160"/>
+      <c r="O9" s="160"/>
+      <c r="P9" s="160"/>
+      <c r="Q9" s="160"/>
+      <c r="R9" s="160"/>
+      <c r="S9" s="160"/>
+      <c r="T9" s="160"/>
+      <c r="U9" s="160"/>
+      <c r="V9" s="160"/>
       <c r="W9" s="13"/>
     </row>
     <row r="10" spans="1:23" ht="45" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="132"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="163" t="s">
+      <c r="B10" s="171"/>
+      <c r="C10" s="173"/>
+      <c r="D10" s="157" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164"/>
-      <c r="G10" s="165"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="159"/>
       <c r="H10" s="11" t="s">
         <v>18</v>
       </c>
@@ -8005,30 +8231,30 @@
       <c r="L10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="166">
+      <c r="M10" s="160">
         <v>100</v>
       </c>
-      <c r="N10" s="166"/>
-      <c r="O10" s="166"/>
-      <c r="P10" s="166"/>
-      <c r="Q10" s="166"/>
-      <c r="R10" s="166"/>
-      <c r="S10" s="166"/>
-      <c r="T10" s="166"/>
-      <c r="U10" s="166"/>
-      <c r="V10" s="166"/>
+      <c r="N10" s="160"/>
+      <c r="O10" s="160"/>
+      <c r="P10" s="160"/>
+      <c r="Q10" s="160"/>
+      <c r="R10" s="160"/>
+      <c r="S10" s="160"/>
+      <c r="T10" s="160"/>
+      <c r="U10" s="160"/>
+      <c r="V10" s="160"/>
       <c r="W10" s="13"/>
     </row>
     <row r="11" spans="1:23" ht="45" customHeight="1" thickBot="1">
       <c r="A11" s="3"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="135"/>
-      <c r="D11" s="159" t="s">
+      <c r="B11" s="102"/>
+      <c r="C11" s="174"/>
+      <c r="D11" s="153" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="160"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="161"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="155"/>
       <c r="H11" s="60" t="s">
         <v>19</v>
       </c>
@@ -8044,18 +8270,18 @@
       <c r="L11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M11" s="167">
+      <c r="M11" s="161">
         <v>100</v>
       </c>
-      <c r="N11" s="167"/>
-      <c r="O11" s="167"/>
-      <c r="P11" s="167"/>
-      <c r="Q11" s="167"/>
-      <c r="R11" s="167"/>
-      <c r="S11" s="167"/>
-      <c r="T11" s="167"/>
-      <c r="U11" s="167"/>
-      <c r="V11" s="167"/>
+      <c r="N11" s="161"/>
+      <c r="O11" s="161"/>
+      <c r="P11" s="161"/>
+      <c r="Q11" s="161"/>
+      <c r="R11" s="161"/>
+      <c r="S11" s="161"/>
+      <c r="T11" s="161"/>
+      <c r="U11" s="161"/>
+      <c r="V11" s="161"/>
       <c r="W11" s="61"/>
     </row>
     <row r="136" spans="3:3">
@@ -8063,6 +8289,20 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:L4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="O5:U5"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="D6:G7"/>
     <mergeCell ref="W6:W7"/>
     <mergeCell ref="D11:G11"/>
     <mergeCell ref="M8:V8"/>
@@ -8073,20 +8313,6 @@
     <mergeCell ref="M11:V11"/>
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="M6:V6"/>
-    <mergeCell ref="O5:U5"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="D6:G7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:L4"/>
-    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D8:D11">
@@ -8241,7 +8467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:I3"/>
     </sheetView>
   </sheetViews>
@@ -8253,407 +8479,407 @@
   <sheetData>
     <row r="1" spans="2:9" ht="18" thickBot="1"/>
     <row r="2" spans="2:9">
-      <c r="B2" s="95"/>
-      <c r="C2" s="179" t="s">
+      <c r="B2" s="121"/>
+      <c r="C2" s="198" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="198"/>
+      <c r="G2" s="198"/>
+      <c r="H2" s="198"/>
+      <c r="I2" s="198"/>
     </row>
     <row r="3" spans="2:9" ht="18" thickBot="1">
-      <c r="B3" s="96"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="180"/>
-      <c r="I3" s="180"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
     </row>
     <row r="4" spans="2:9" ht="18" thickBot="1"/>
     <row r="5" spans="2:9">
       <c r="B5" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="185" t="s">
+      <c r="C5" s="204" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="186"/>
-      <c r="E5" s="186"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="186"/>
-      <c r="I5" s="187"/>
+      <c r="D5" s="205"/>
+      <c r="E5" s="205"/>
+      <c r="F5" s="205"/>
+      <c r="G5" s="205"/>
+      <c r="H5" s="205"/>
+      <c r="I5" s="206"/>
     </row>
     <row r="6" spans="2:9" ht="17.399999999999999" customHeight="1">
-      <c r="B6" s="176" t="s">
+      <c r="B6" s="195" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="169"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="171"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="189"/>
+      <c r="E6" s="189"/>
+      <c r="F6" s="189"/>
+      <c r="G6" s="189"/>
+      <c r="H6" s="189"/>
+      <c r="I6" s="190"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="177"/>
-      <c r="C7" s="172"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="173"/>
+      <c r="B7" s="196"/>
+      <c r="C7" s="191"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="173"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="173"/>
+      <c r="H7" s="173"/>
+      <c r="I7" s="192"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="177"/>
-      <c r="C8" s="172"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="134"/>
-      <c r="I8" s="173"/>
+      <c r="B8" s="196"/>
+      <c r="C8" s="191"/>
+      <c r="D8" s="173"/>
+      <c r="E8" s="173"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="173"/>
+      <c r="H8" s="173"/>
+      <c r="I8" s="192"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="177"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="173"/>
+      <c r="B9" s="196"/>
+      <c r="C9" s="191"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="173"/>
+      <c r="G9" s="173"/>
+      <c r="H9" s="173"/>
+      <c r="I9" s="192"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="177"/>
-      <c r="C10" s="172"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="173"/>
+      <c r="B10" s="196"/>
+      <c r="C10" s="191"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="173"/>
+      <c r="G10" s="173"/>
+      <c r="H10" s="173"/>
+      <c r="I10" s="192"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="177"/>
-      <c r="C11" s="172"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="173"/>
+      <c r="B11" s="196"/>
+      <c r="C11" s="191"/>
+      <c r="D11" s="173"/>
+      <c r="E11" s="173"/>
+      <c r="F11" s="173"/>
+      <c r="G11" s="173"/>
+      <c r="H11" s="173"/>
+      <c r="I11" s="192"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="177"/>
-      <c r="C12" s="172"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="173"/>
+      <c r="B12" s="196"/>
+      <c r="C12" s="191"/>
+      <c r="D12" s="173"/>
+      <c r="E12" s="173"/>
+      <c r="F12" s="173"/>
+      <c r="G12" s="173"/>
+      <c r="H12" s="173"/>
+      <c r="I12" s="192"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="177"/>
-      <c r="C13" s="172"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="134"/>
-      <c r="I13" s="173"/>
+      <c r="B13" s="196"/>
+      <c r="C13" s="191"/>
+      <c r="D13" s="173"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="173"/>
+      <c r="G13" s="173"/>
+      <c r="H13" s="173"/>
+      <c r="I13" s="192"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="177"/>
-      <c r="C14" s="172"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="134"/>
-      <c r="I14" s="173"/>
+      <c r="B14" s="196"/>
+      <c r="C14" s="191"/>
+      <c r="D14" s="173"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="173"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="173"/>
+      <c r="I14" s="192"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="177"/>
-      <c r="C15" s="172"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="173"/>
+      <c r="B15" s="196"/>
+      <c r="C15" s="191"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="173"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="173"/>
+      <c r="I15" s="192"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="181"/>
-      <c r="C16" s="182"/>
-      <c r="D16" s="183"/>
-      <c r="E16" s="183"/>
-      <c r="F16" s="183"/>
-      <c r="G16" s="183"/>
-      <c r="H16" s="183"/>
-      <c r="I16" s="184"/>
+      <c r="B16" s="200"/>
+      <c r="C16" s="201"/>
+      <c r="D16" s="202"/>
+      <c r="E16" s="202"/>
+      <c r="F16" s="202"/>
+      <c r="G16" s="202"/>
+      <c r="H16" s="202"/>
+      <c r="I16" s="203"/>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="176" t="s">
+      <c r="B17" s="195" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="169"/>
-      <c r="D17" s="170"/>
-      <c r="E17" s="170"/>
-      <c r="F17" s="170"/>
-      <c r="G17" s="170"/>
-      <c r="H17" s="170"/>
-      <c r="I17" s="171"/>
+      <c r="C17" s="188"/>
+      <c r="D17" s="189"/>
+      <c r="E17" s="189"/>
+      <c r="F17" s="189"/>
+      <c r="G17" s="189"/>
+      <c r="H17" s="189"/>
+      <c r="I17" s="190"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="177"/>
-      <c r="C18" s="172"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="134"/>
-      <c r="I18" s="173"/>
+      <c r="B18" s="196"/>
+      <c r="C18" s="191"/>
+      <c r="D18" s="173"/>
+      <c r="E18" s="173"/>
+      <c r="F18" s="173"/>
+      <c r="G18" s="173"/>
+      <c r="H18" s="173"/>
+      <c r="I18" s="192"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="177"/>
-      <c r="C19" s="172"/>
-      <c r="D19" s="134"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="134"/>
-      <c r="G19" s="134"/>
-      <c r="H19" s="134"/>
-      <c r="I19" s="173"/>
+      <c r="B19" s="196"/>
+      <c r="C19" s="191"/>
+      <c r="D19" s="173"/>
+      <c r="E19" s="173"/>
+      <c r="F19" s="173"/>
+      <c r="G19" s="173"/>
+      <c r="H19" s="173"/>
+      <c r="I19" s="192"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="177"/>
-      <c r="C20" s="172"/>
-      <c r="D20" s="134"/>
-      <c r="E20" s="134"/>
-      <c r="F20" s="134"/>
-      <c r="G20" s="134"/>
-      <c r="H20" s="134"/>
-      <c r="I20" s="173"/>
+      <c r="B20" s="196"/>
+      <c r="C20" s="191"/>
+      <c r="D20" s="173"/>
+      <c r="E20" s="173"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="173"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="192"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="177"/>
-      <c r="C21" s="172"/>
-      <c r="D21" s="134"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="134"/>
-      <c r="G21" s="134"/>
-      <c r="H21" s="134"/>
-      <c r="I21" s="173"/>
+      <c r="B21" s="196"/>
+      <c r="C21" s="191"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="173"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="173"/>
+      <c r="H21" s="173"/>
+      <c r="I21" s="192"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="177"/>
-      <c r="C22" s="172"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="173"/>
+      <c r="B22" s="196"/>
+      <c r="C22" s="191"/>
+      <c r="D22" s="173"/>
+      <c r="E22" s="173"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="173"/>
+      <c r="H22" s="173"/>
+      <c r="I22" s="192"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="177"/>
-      <c r="C23" s="172"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="134"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="134"/>
-      <c r="I23" s="173"/>
+      <c r="B23" s="196"/>
+      <c r="C23" s="191"/>
+      <c r="D23" s="173"/>
+      <c r="E23" s="173"/>
+      <c r="F23" s="173"/>
+      <c r="G23" s="173"/>
+      <c r="H23" s="173"/>
+      <c r="I23" s="192"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="177"/>
-      <c r="C24" s="172"/>
-      <c r="D24" s="134"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="134"/>
-      <c r="G24" s="134"/>
-      <c r="H24" s="134"/>
-      <c r="I24" s="173"/>
+      <c r="B24" s="196"/>
+      <c r="C24" s="191"/>
+      <c r="D24" s="173"/>
+      <c r="E24" s="173"/>
+      <c r="F24" s="173"/>
+      <c r="G24" s="173"/>
+      <c r="H24" s="173"/>
+      <c r="I24" s="192"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="177"/>
-      <c r="C25" s="172"/>
-      <c r="D25" s="134"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="134"/>
-      <c r="H25" s="134"/>
-      <c r="I25" s="173"/>
+      <c r="B25" s="196"/>
+      <c r="C25" s="191"/>
+      <c r="D25" s="173"/>
+      <c r="E25" s="173"/>
+      <c r="F25" s="173"/>
+      <c r="G25" s="173"/>
+      <c r="H25" s="173"/>
+      <c r="I25" s="192"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="177"/>
-      <c r="C26" s="172"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="134"/>
-      <c r="G26" s="134"/>
-      <c r="H26" s="134"/>
-      <c r="I26" s="173"/>
+      <c r="B26" s="196"/>
+      <c r="C26" s="191"/>
+      <c r="D26" s="173"/>
+      <c r="E26" s="173"/>
+      <c r="F26" s="173"/>
+      <c r="G26" s="173"/>
+      <c r="H26" s="173"/>
+      <c r="I26" s="192"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="177"/>
-      <c r="C27" s="172"/>
-      <c r="D27" s="134"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="134"/>
-      <c r="H27" s="134"/>
-      <c r="I27" s="173"/>
+      <c r="B27" s="196"/>
+      <c r="C27" s="191"/>
+      <c r="D27" s="173"/>
+      <c r="E27" s="173"/>
+      <c r="F27" s="173"/>
+      <c r="G27" s="173"/>
+      <c r="H27" s="173"/>
+      <c r="I27" s="192"/>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="181"/>
-      <c r="C28" s="182"/>
-      <c r="D28" s="183"/>
-      <c r="E28" s="183"/>
-      <c r="F28" s="183"/>
-      <c r="G28" s="183"/>
-      <c r="H28" s="183"/>
-      <c r="I28" s="184"/>
+      <c r="B28" s="200"/>
+      <c r="C28" s="201"/>
+      <c r="D28" s="202"/>
+      <c r="E28" s="202"/>
+      <c r="F28" s="202"/>
+      <c r="G28" s="202"/>
+      <c r="H28" s="202"/>
+      <c r="I28" s="203"/>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="176" t="s">
+      <c r="B29" s="195" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="169"/>
-      <c r="D29" s="170"/>
-      <c r="E29" s="170"/>
-      <c r="F29" s="170"/>
-      <c r="G29" s="170"/>
-      <c r="H29" s="170"/>
-      <c r="I29" s="171"/>
+      <c r="C29" s="188"/>
+      <c r="D29" s="189"/>
+      <c r="E29" s="189"/>
+      <c r="F29" s="189"/>
+      <c r="G29" s="189"/>
+      <c r="H29" s="189"/>
+      <c r="I29" s="190"/>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="177"/>
-      <c r="C30" s="172"/>
-      <c r="D30" s="134"/>
-      <c r="E30" s="134"/>
-      <c r="F30" s="134"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="134"/>
-      <c r="I30" s="173"/>
+      <c r="B30" s="196"/>
+      <c r="C30" s="191"/>
+      <c r="D30" s="173"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="173"/>
+      <c r="G30" s="173"/>
+      <c r="H30" s="173"/>
+      <c r="I30" s="192"/>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="177"/>
-      <c r="C31" s="172"/>
-      <c r="D31" s="134"/>
-      <c r="E31" s="134"/>
-      <c r="F31" s="134"/>
-      <c r="G31" s="134"/>
-      <c r="H31" s="134"/>
-      <c r="I31" s="173"/>
+      <c r="B31" s="196"/>
+      <c r="C31" s="191"/>
+      <c r="D31" s="173"/>
+      <c r="E31" s="173"/>
+      <c r="F31" s="173"/>
+      <c r="G31" s="173"/>
+      <c r="H31" s="173"/>
+      <c r="I31" s="192"/>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="177"/>
-      <c r="C32" s="172"/>
-      <c r="D32" s="134"/>
-      <c r="E32" s="134"/>
-      <c r="F32" s="134"/>
-      <c r="G32" s="134"/>
-      <c r="H32" s="134"/>
-      <c r="I32" s="173"/>
+      <c r="B32" s="196"/>
+      <c r="C32" s="191"/>
+      <c r="D32" s="173"/>
+      <c r="E32" s="173"/>
+      <c r="F32" s="173"/>
+      <c r="G32" s="173"/>
+      <c r="H32" s="173"/>
+      <c r="I32" s="192"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="177"/>
-      <c r="C33" s="172"/>
-      <c r="D33" s="134"/>
-      <c r="E33" s="134"/>
-      <c r="F33" s="134"/>
-      <c r="G33" s="134"/>
-      <c r="H33" s="134"/>
-      <c r="I33" s="173"/>
+      <c r="B33" s="196"/>
+      <c r="C33" s="191"/>
+      <c r="D33" s="173"/>
+      <c r="E33" s="173"/>
+      <c r="F33" s="173"/>
+      <c r="G33" s="173"/>
+      <c r="H33" s="173"/>
+      <c r="I33" s="192"/>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="177"/>
-      <c r="C34" s="172"/>
-      <c r="D34" s="134"/>
-      <c r="E34" s="134"/>
-      <c r="F34" s="134"/>
-      <c r="G34" s="134"/>
-      <c r="H34" s="134"/>
-      <c r="I34" s="173"/>
+      <c r="B34" s="196"/>
+      <c r="C34" s="191"/>
+      <c r="D34" s="173"/>
+      <c r="E34" s="173"/>
+      <c r="F34" s="173"/>
+      <c r="G34" s="173"/>
+      <c r="H34" s="173"/>
+      <c r="I34" s="192"/>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="177"/>
-      <c r="C35" s="172"/>
-      <c r="D35" s="134"/>
-      <c r="E35" s="134"/>
-      <c r="F35" s="134"/>
-      <c r="G35" s="134"/>
-      <c r="H35" s="134"/>
-      <c r="I35" s="173"/>
+      <c r="B35" s="196"/>
+      <c r="C35" s="191"/>
+      <c r="D35" s="173"/>
+      <c r="E35" s="173"/>
+      <c r="F35" s="173"/>
+      <c r="G35" s="173"/>
+      <c r="H35" s="173"/>
+      <c r="I35" s="192"/>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="177"/>
-      <c r="C36" s="172"/>
-      <c r="D36" s="134"/>
-      <c r="E36" s="134"/>
-      <c r="F36" s="134"/>
-      <c r="G36" s="134"/>
-      <c r="H36" s="134"/>
-      <c r="I36" s="173"/>
+      <c r="B36" s="196"/>
+      <c r="C36" s="191"/>
+      <c r="D36" s="173"/>
+      <c r="E36" s="173"/>
+      <c r="F36" s="173"/>
+      <c r="G36" s="173"/>
+      <c r="H36" s="173"/>
+      <c r="I36" s="192"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="177"/>
-      <c r="C37" s="172"/>
-      <c r="D37" s="134"/>
-      <c r="E37" s="134"/>
-      <c r="F37" s="134"/>
-      <c r="G37" s="134"/>
-      <c r="H37" s="134"/>
-      <c r="I37" s="173"/>
+      <c r="B37" s="196"/>
+      <c r="C37" s="191"/>
+      <c r="D37" s="173"/>
+      <c r="E37" s="173"/>
+      <c r="F37" s="173"/>
+      <c r="G37" s="173"/>
+      <c r="H37" s="173"/>
+      <c r="I37" s="192"/>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="177"/>
-      <c r="C38" s="172"/>
-      <c r="D38" s="134"/>
-      <c r="E38" s="134"/>
-      <c r="F38" s="134"/>
-      <c r="G38" s="134"/>
-      <c r="H38" s="134"/>
-      <c r="I38" s="173"/>
+      <c r="B38" s="196"/>
+      <c r="C38" s="191"/>
+      <c r="D38" s="173"/>
+      <c r="E38" s="173"/>
+      <c r="F38" s="173"/>
+      <c r="G38" s="173"/>
+      <c r="H38" s="173"/>
+      <c r="I38" s="192"/>
     </row>
     <row r="39" spans="2:9">
-      <c r="B39" s="177"/>
-      <c r="C39" s="172"/>
-      <c r="D39" s="134"/>
-      <c r="E39" s="134"/>
-      <c r="F39" s="134"/>
-      <c r="G39" s="134"/>
-      <c r="H39" s="134"/>
-      <c r="I39" s="173"/>
+      <c r="B39" s="196"/>
+      <c r="C39" s="191"/>
+      <c r="D39" s="173"/>
+      <c r="E39" s="173"/>
+      <c r="F39" s="173"/>
+      <c r="G39" s="173"/>
+      <c r="H39" s="173"/>
+      <c r="I39" s="192"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="177"/>
-      <c r="C40" s="172"/>
-      <c r="D40" s="134"/>
-      <c r="E40" s="134"/>
-      <c r="F40" s="134"/>
-      <c r="G40" s="134"/>
-      <c r="H40" s="134"/>
-      <c r="I40" s="173"/>
+      <c r="B40" s="196"/>
+      <c r="C40" s="191"/>
+      <c r="D40" s="173"/>
+      <c r="E40" s="173"/>
+      <c r="F40" s="173"/>
+      <c r="G40" s="173"/>
+      <c r="H40" s="173"/>
+      <c r="I40" s="192"/>
     </row>
     <row r="41" spans="2:9" ht="18" thickBot="1">
-      <c r="B41" s="178"/>
-      <c r="C41" s="174"/>
-      <c r="D41" s="135"/>
-      <c r="E41" s="135"/>
-      <c r="F41" s="135"/>
-      <c r="G41" s="135"/>
-      <c r="H41" s="135"/>
-      <c r="I41" s="175"/>
+      <c r="B41" s="197"/>
+      <c r="C41" s="193"/>
+      <c r="D41" s="174"/>
+      <c r="E41" s="174"/>
+      <c r="F41" s="174"/>
+      <c r="G41" s="174"/>
+      <c r="H41" s="174"/>
+      <c r="I41" s="194"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -8676,10 +8902,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I50"/>
+  <dimension ref="B1:I61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -8691,500 +8917,610 @@
   <sheetData>
     <row r="1" spans="2:9" ht="18" thickBot="1"/>
     <row r="2" spans="2:9">
-      <c r="B2" s="95"/>
-      <c r="C2" s="179" t="s">
+      <c r="B2" s="121"/>
+      <c r="C2" s="198" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="198"/>
+      <c r="G2" s="198"/>
+      <c r="H2" s="198"/>
+      <c r="I2" s="198"/>
     </row>
     <row r="3" spans="2:9" ht="18" thickBot="1">
-      <c r="B3" s="96"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="180"/>
-      <c r="I3" s="180"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
     </row>
     <row r="4" spans="2:9" ht="18" thickBot="1"/>
     <row r="5" spans="2:9">
-      <c r="B5" s="188" t="s">
+      <c r="B5" s="207" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="177"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
+      <c r="B6" s="196"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="177"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
+      <c r="B7" s="196"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="177"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
+      <c r="B8" s="196"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="138"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="177"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
+      <c r="B9" s="196"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="138"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="177"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
+      <c r="B10" s="196"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="177"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
+      <c r="B11" s="196"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="138"/>
+      <c r="I11" s="138"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="177"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
+      <c r="B12" s="196"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="138"/>
+      <c r="H12" s="138"/>
+      <c r="I12" s="138"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="177"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
+      <c r="B13" s="196"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="138"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="177"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
+      <c r="B14" s="196"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="138"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="177"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
+      <c r="B15" s="196"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="138"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="177"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
+      <c r="B16" s="196"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="138"/>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="177"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
+      <c r="B17" s="196"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="177"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
+      <c r="B18" s="196"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="138"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="177"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="111"/>
-      <c r="H19" s="111"/>
-      <c r="I19" s="111"/>
+      <c r="B19" s="196"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="138"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="177"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="111"/>
-      <c r="I20" s="111"/>
+      <c r="B20" s="196"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="138"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="177"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="111"/>
-      <c r="H21" s="111"/>
-      <c r="I21" s="111"/>
+      <c r="B21" s="196"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="138"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="177"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="111"/>
-      <c r="I22" s="111"/>
+      <c r="B22" s="196"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="177"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="111"/>
+      <c r="B23" s="196"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="177"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="111"/>
+      <c r="B24" s="196"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="138"/>
     </row>
     <row r="25" spans="2:9" ht="18" thickBot="1">
-      <c r="B25" s="178"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="96"/>
+      <c r="B25" s="197"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="122"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="188" t="s">
+      <c r="B26" s="207" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="95"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="95"/>
-      <c r="I26" s="95"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="121"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="177"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="111"/>
-      <c r="I27" s="111"/>
+      <c r="B27" s="196"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="138"/>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="177"/>
-      <c r="C28" s="111"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="111"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="111"/>
+      <c r="B28" s="196"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="138"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="138"/>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="177"/>
-      <c r="C29" s="111"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="111"/>
-      <c r="I29" s="111"/>
+      <c r="B29" s="196"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="138"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="138"/>
+      <c r="I29" s="138"/>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="177"/>
-      <c r="C30" s="111"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="111"/>
-      <c r="I30" s="111"/>
+      <c r="B30" s="196"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="138"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="138"/>
+      <c r="I30" s="138"/>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="177"/>
-      <c r="C31" s="111"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="111"/>
-      <c r="I31" s="111"/>
+      <c r="B31" s="196"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="138"/>
+      <c r="I31" s="138"/>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="177"/>
-      <c r="C32" s="111"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="111"/>
-      <c r="I32" s="111"/>
+      <c r="B32" s="196"/>
+      <c r="C32" s="138"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="138"/>
+      <c r="F32" s="138"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="138"/>
+      <c r="I32" s="138"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="177"/>
-      <c r="C33" s="111"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="111"/>
-      <c r="I33" s="111"/>
+      <c r="B33" s="196"/>
+      <c r="C33" s="138"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="138"/>
+      <c r="F33" s="138"/>
+      <c r="G33" s="138"/>
+      <c r="H33" s="138"/>
+      <c r="I33" s="138"/>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="177"/>
-      <c r="C34" s="111"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="111"/>
-      <c r="G34" s="111"/>
-      <c r="H34" s="111"/>
-      <c r="I34" s="111"/>
+      <c r="B34" s="196"/>
+      <c r="C34" s="138"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="138"/>
+      <c r="F34" s="138"/>
+      <c r="G34" s="138"/>
+      <c r="H34" s="138"/>
+      <c r="I34" s="138"/>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="177"/>
-      <c r="C35" s="111"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="111"/>
-      <c r="F35" s="111"/>
-      <c r="G35" s="111"/>
-      <c r="H35" s="111"/>
-      <c r="I35" s="111"/>
+      <c r="B35" s="196"/>
+      <c r="C35" s="138"/>
+      <c r="D35" s="138"/>
+      <c r="E35" s="138"/>
+      <c r="F35" s="138"/>
+      <c r="G35" s="138"/>
+      <c r="H35" s="138"/>
+      <c r="I35" s="138"/>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="177"/>
-      <c r="C36" s="111"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="111"/>
-      <c r="F36" s="111"/>
-      <c r="G36" s="111"/>
-      <c r="H36" s="111"/>
-      <c r="I36" s="111"/>
+      <c r="B36" s="196"/>
+      <c r="C36" s="138"/>
+      <c r="D36" s="138"/>
+      <c r="E36" s="138"/>
+      <c r="F36" s="138"/>
+      <c r="G36" s="138"/>
+      <c r="H36" s="138"/>
+      <c r="I36" s="138"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="177"/>
-      <c r="C37" s="111"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="111"/>
-      <c r="F37" s="111"/>
-      <c r="G37" s="111"/>
-      <c r="H37" s="111"/>
-      <c r="I37" s="111"/>
+      <c r="B37" s="196"/>
+      <c r="C37" s="138"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="138"/>
+      <c r="F37" s="138"/>
+      <c r="G37" s="138"/>
+      <c r="H37" s="138"/>
+      <c r="I37" s="138"/>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="177"/>
-      <c r="C38" s="111"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="111"/>
-      <c r="G38" s="111"/>
-      <c r="H38" s="111"/>
-      <c r="I38" s="111"/>
+      <c r="B38" s="196"/>
+      <c r="C38" s="138"/>
+      <c r="D38" s="138"/>
+      <c r="E38" s="138"/>
+      <c r="F38" s="138"/>
+      <c r="G38" s="138"/>
+      <c r="H38" s="138"/>
+      <c r="I38" s="138"/>
     </row>
     <row r="39" spans="2:9">
-      <c r="B39" s="177"/>
-      <c r="C39" s="111"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="111"/>
-      <c r="F39" s="111"/>
-      <c r="G39" s="111"/>
-      <c r="H39" s="111"/>
-      <c r="I39" s="111"/>
+      <c r="B39" s="196"/>
+      <c r="C39" s="138"/>
+      <c r="D39" s="138"/>
+      <c r="E39" s="138"/>
+      <c r="F39" s="138"/>
+      <c r="G39" s="138"/>
+      <c r="H39" s="138"/>
+      <c r="I39" s="138"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="177"/>
-      <c r="C40" s="111"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="111"/>
-      <c r="F40" s="111"/>
-      <c r="G40" s="111"/>
-      <c r="H40" s="111"/>
-      <c r="I40" s="111"/>
+      <c r="B40" s="196"/>
+      <c r="C40" s="138"/>
+      <c r="D40" s="138"/>
+      <c r="E40" s="138"/>
+      <c r="F40" s="138"/>
+      <c r="G40" s="138"/>
+      <c r="H40" s="138"/>
+      <c r="I40" s="138"/>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="177"/>
-      <c r="C41" s="111"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="111"/>
-      <c r="F41" s="111"/>
-      <c r="G41" s="111"/>
-      <c r="H41" s="111"/>
-      <c r="I41" s="111"/>
+      <c r="B41" s="196"/>
+      <c r="C41" s="138"/>
+      <c r="D41" s="138"/>
+      <c r="E41" s="138"/>
+      <c r="F41" s="138"/>
+      <c r="G41" s="138"/>
+      <c r="H41" s="138"/>
+      <c r="I41" s="138"/>
     </row>
     <row r="42" spans="2:9">
-      <c r="B42" s="177"/>
-      <c r="C42" s="111"/>
-      <c r="D42" s="111"/>
-      <c r="E42" s="111"/>
-      <c r="F42" s="111"/>
-      <c r="G42" s="111"/>
-      <c r="H42" s="111"/>
-      <c r="I42" s="111"/>
+      <c r="B42" s="196"/>
+      <c r="C42" s="138"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="138"/>
+      <c r="F42" s="138"/>
+      <c r="G42" s="138"/>
+      <c r="H42" s="138"/>
+      <c r="I42" s="138"/>
     </row>
     <row r="43" spans="2:9">
-      <c r="B43" s="177"/>
-      <c r="C43" s="111"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="111"/>
-      <c r="F43" s="111"/>
-      <c r="G43" s="111"/>
-      <c r="H43" s="111"/>
-      <c r="I43" s="111"/>
+      <c r="B43" s="196"/>
+      <c r="C43" s="138"/>
+      <c r="D43" s="138"/>
+      <c r="E43" s="138"/>
+      <c r="F43" s="138"/>
+      <c r="G43" s="138"/>
+      <c r="H43" s="138"/>
+      <c r="I43" s="138"/>
     </row>
     <row r="44" spans="2:9">
-      <c r="B44" s="177"/>
-      <c r="C44" s="111"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="111"/>
-      <c r="F44" s="111"/>
-      <c r="G44" s="111"/>
-      <c r="H44" s="111"/>
-      <c r="I44" s="111"/>
+      <c r="B44" s="196"/>
+      <c r="C44" s="138"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="138"/>
+      <c r="F44" s="138"/>
+      <c r="G44" s="138"/>
+      <c r="H44" s="138"/>
+      <c r="I44" s="138"/>
     </row>
     <row r="45" spans="2:9">
-      <c r="B45" s="177"/>
-      <c r="C45" s="111"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="111"/>
-      <c r="F45" s="111"/>
-      <c r="G45" s="111"/>
-      <c r="H45" s="111"/>
-      <c r="I45" s="111"/>
+      <c r="B45" s="196"/>
+      <c r="C45" s="138"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="138"/>
+      <c r="F45" s="138"/>
+      <c r="G45" s="138"/>
+      <c r="H45" s="138"/>
+      <c r="I45" s="138"/>
     </row>
     <row r="46" spans="2:9">
-      <c r="B46" s="177"/>
-      <c r="C46" s="111"/>
-      <c r="D46" s="111"/>
-      <c r="E46" s="111"/>
-      <c r="F46" s="111"/>
-      <c r="G46" s="111"/>
-      <c r="H46" s="111"/>
-      <c r="I46" s="111"/>
+      <c r="B46" s="196"/>
+      <c r="C46" s="138"/>
+      <c r="D46" s="138"/>
+      <c r="E46" s="138"/>
+      <c r="F46" s="138"/>
+      <c r="G46" s="138"/>
+      <c r="H46" s="138"/>
+      <c r="I46" s="138"/>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="177"/>
-      <c r="C47" s="111"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="111"/>
-      <c r="F47" s="111"/>
-      <c r="G47" s="111"/>
-      <c r="H47" s="111"/>
-      <c r="I47" s="111"/>
+      <c r="B47" s="196"/>
+      <c r="C47" s="138"/>
+      <c r="D47" s="138"/>
+      <c r="E47" s="138"/>
+      <c r="F47" s="138"/>
+      <c r="G47" s="138"/>
+      <c r="H47" s="138"/>
+      <c r="I47" s="138"/>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="177"/>
-      <c r="C48" s="111"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="111"/>
-      <c r="F48" s="111"/>
-      <c r="G48" s="111"/>
-      <c r="H48" s="111"/>
-      <c r="I48" s="111"/>
+      <c r="B48" s="196"/>
+      <c r="C48" s="138"/>
+      <c r="D48" s="138"/>
+      <c r="E48" s="138"/>
+      <c r="F48" s="138"/>
+      <c r="G48" s="138"/>
+      <c r="H48" s="138"/>
+      <c r="I48" s="138"/>
     </row>
     <row r="49" spans="2:9">
-      <c r="B49" s="177"/>
-      <c r="C49" s="111"/>
-      <c r="D49" s="111"/>
-      <c r="E49" s="111"/>
-      <c r="F49" s="111"/>
-      <c r="G49" s="111"/>
-      <c r="H49" s="111"/>
-      <c r="I49" s="111"/>
-    </row>
-    <row r="50" spans="2:9" ht="18" thickBot="1">
-      <c r="B50" s="178"/>
-      <c r="C50" s="96"/>
-      <c r="D50" s="96"/>
-      <c r="E50" s="96"/>
-      <c r="F50" s="96"/>
-      <c r="G50" s="96"/>
-      <c r="H50" s="96"/>
-      <c r="I50" s="96"/>
+      <c r="B49" s="196"/>
+      <c r="C49" s="138"/>
+      <c r="D49" s="138"/>
+      <c r="E49" s="138"/>
+      <c r="F49" s="138"/>
+      <c r="G49" s="138"/>
+      <c r="H49" s="138"/>
+      <c r="I49" s="138"/>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" s="196"/>
+      <c r="C50" s="138"/>
+      <c r="D50" s="138"/>
+      <c r="E50" s="138"/>
+      <c r="F50" s="138"/>
+      <c r="G50" s="138"/>
+      <c r="H50" s="138"/>
+      <c r="I50" s="138"/>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" s="196"/>
+      <c r="C51" s="138"/>
+      <c r="D51" s="138"/>
+      <c r="E51" s="138"/>
+      <c r="F51" s="138"/>
+      <c r="G51" s="138"/>
+      <c r="H51" s="138"/>
+      <c r="I51" s="138"/>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" s="196"/>
+      <c r="C52" s="138"/>
+      <c r="D52" s="138"/>
+      <c r="E52" s="138"/>
+      <c r="F52" s="138"/>
+      <c r="G52" s="138"/>
+      <c r="H52" s="138"/>
+      <c r="I52" s="138"/>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="196"/>
+      <c r="C53" s="138"/>
+      <c r="D53" s="138"/>
+      <c r="E53" s="138"/>
+      <c r="F53" s="138"/>
+      <c r="G53" s="138"/>
+      <c r="H53" s="138"/>
+      <c r="I53" s="138"/>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="196"/>
+      <c r="C54" s="138"/>
+      <c r="D54" s="138"/>
+      <c r="E54" s="138"/>
+      <c r="F54" s="138"/>
+      <c r="G54" s="138"/>
+      <c r="H54" s="138"/>
+      <c r="I54" s="138"/>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="196"/>
+      <c r="C55" s="138"/>
+      <c r="D55" s="138"/>
+      <c r="E55" s="138"/>
+      <c r="F55" s="138"/>
+      <c r="G55" s="138"/>
+      <c r="H55" s="138"/>
+      <c r="I55" s="138"/>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="196"/>
+      <c r="C56" s="138"/>
+      <c r="D56" s="138"/>
+      <c r="E56" s="138"/>
+      <c r="F56" s="138"/>
+      <c r="G56" s="138"/>
+      <c r="H56" s="138"/>
+      <c r="I56" s="138"/>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="196"/>
+      <c r="C57" s="138"/>
+      <c r="D57" s="138"/>
+      <c r="E57" s="138"/>
+      <c r="F57" s="138"/>
+      <c r="G57" s="138"/>
+      <c r="H57" s="138"/>
+      <c r="I57" s="138"/>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="196"/>
+      <c r="C58" s="138"/>
+      <c r="D58" s="138"/>
+      <c r="E58" s="138"/>
+      <c r="F58" s="138"/>
+      <c r="G58" s="138"/>
+      <c r="H58" s="138"/>
+      <c r="I58" s="138"/>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" s="196"/>
+      <c r="C59" s="138"/>
+      <c r="D59" s="138"/>
+      <c r="E59" s="138"/>
+      <c r="F59" s="138"/>
+      <c r="G59" s="138"/>
+      <c r="H59" s="138"/>
+      <c r="I59" s="138"/>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" s="196"/>
+      <c r="C60" s="138"/>
+      <c r="D60" s="138"/>
+      <c r="E60" s="138"/>
+      <c r="F60" s="138"/>
+      <c r="G60" s="138"/>
+      <c r="H60" s="138"/>
+      <c r="I60" s="138"/>
+    </row>
+    <row r="61" spans="2:9" ht="18" thickBot="1">
+      <c r="B61" s="197"/>
+      <c r="C61" s="122"/>
+      <c r="D61" s="122"/>
+      <c r="E61" s="122"/>
+      <c r="F61" s="122"/>
+      <c r="G61" s="122"/>
+      <c r="H61" s="122"/>
+      <c r="I61" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C26:I61"/>
+    <mergeCell ref="B26:B61"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:I3"/>
     <mergeCell ref="B5:B25"/>
     <mergeCell ref="C5:I25"/>
-    <mergeCell ref="C26:I50"/>
-    <mergeCell ref="B26:B50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9206,326 +9542,336 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="19.2"/>
   <cols>
-    <col min="1" max="1" width="3.8984375" style="189" customWidth="1"/>
-    <col min="2" max="2" width="4.8984375" style="202" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.8984375" style="203" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.19921875" style="189" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.8984375" style="189" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="189" customWidth="1"/>
-    <col min="7" max="7" width="17.69921875" style="189" customWidth="1"/>
-    <col min="8" max="8" width="6.19921875" style="189" customWidth="1"/>
-    <col min="9" max="9" width="17.69921875" style="189" customWidth="1"/>
-    <col min="10" max="10" width="19.69921875" style="189" customWidth="1"/>
-    <col min="11" max="11" width="19.3984375" style="189" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.09765625" style="204" customWidth="1"/>
-    <col min="13" max="13" width="21.09765625" style="189" customWidth="1"/>
-    <col min="14" max="14" width="4.69921875" style="189" customWidth="1"/>
-    <col min="15" max="15" width="1.8984375" style="189" customWidth="1"/>
-    <col min="16" max="16384" width="8" style="189"/>
+    <col min="1" max="1" width="3.8984375" style="82" customWidth="1"/>
+    <col min="2" max="2" width="4.8984375" style="91" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.8984375" style="92" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.19921875" style="82" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.8984375" style="82" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="82" customWidth="1"/>
+    <col min="7" max="7" width="17.69921875" style="82" customWidth="1"/>
+    <col min="8" max="8" width="6.19921875" style="82" customWidth="1"/>
+    <col min="9" max="9" width="17.69921875" style="82" customWidth="1"/>
+    <col min="10" max="10" width="19.69921875" style="82" customWidth="1"/>
+    <col min="11" max="11" width="19.3984375" style="82" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.09765625" style="93" customWidth="1"/>
+    <col min="13" max="13" width="21.09765625" style="82" customWidth="1"/>
+    <col min="14" max="14" width="4.69921875" style="82" customWidth="1"/>
+    <col min="15" max="15" width="1.8984375" style="82" customWidth="1"/>
+    <col min="16" max="16384" width="8" style="82"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="B1" s="189"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="190"/>
-      <c r="K1" s="190"/>
-      <c r="L1" s="190"/>
-      <c r="M1" s="191"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="84"/>
     </row>
     <row r="2" spans="2:14" ht="17.399999999999999" customHeight="1">
-      <c r="B2" s="217"/>
-      <c r="C2" s="218"/>
-      <c r="D2" s="220" t="s">
+      <c r="B2" s="208"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="212" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
-      <c r="G2" s="220"/>
-      <c r="H2" s="220"/>
-      <c r="I2" s="220"/>
-      <c r="J2" s="220"/>
-      <c r="K2" s="222"/>
-      <c r="L2" s="224" t="s">
+      <c r="E2" s="212"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="212"/>
+      <c r="I2" s="212"/>
+      <c r="J2" s="212"/>
+      <c r="K2" s="213"/>
+      <c r="L2" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="M2" s="225" t="s">
+      <c r="M2" s="98" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="B3" s="219"/>
-      <c r="C3" s="214"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="221"/>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
-      <c r="I3" s="221"/>
-      <c r="J3" s="221"/>
-      <c r="K3" s="223"/>
-      <c r="L3" s="226" t="s">
+      <c r="B3" s="210"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="214"/>
+      <c r="F3" s="214"/>
+      <c r="G3" s="214"/>
+      <c r="H3" s="214"/>
+      <c r="I3" s="214"/>
+      <c r="J3" s="214"/>
+      <c r="K3" s="215"/>
+      <c r="L3" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="M3" s="227" t="s">
+      <c r="M3" s="100" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="B4" s="200"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="190"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="190"/>
-      <c r="H4" s="190"/>
-      <c r="I4" s="190"/>
-      <c r="J4" s="190"/>
-      <c r="K4" s="190"/>
-      <c r="L4" s="190"/>
-      <c r="M4" s="191"/>
-    </row>
-    <row r="5" spans="2:14" s="192" customFormat="1" ht="23.4" customHeight="1">
-      <c r="B5" s="207" t="s">
+      <c r="B4" s="89"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="84"/>
+    </row>
+    <row r="5" spans="2:14" s="85" customFormat="1" ht="23.4" customHeight="1">
+      <c r="B5" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="205" t="s">
+      <c r="C5" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="205" t="s">
+      <c r="D5" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="206" t="s">
+      <c r="E5" s="221" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="206"/>
-      <c r="G5" s="206"/>
-      <c r="H5" s="206"/>
-      <c r="I5" s="206"/>
-      <c r="J5" s="206"/>
-      <c r="K5" s="205" t="s">
+      <c r="F5" s="221"/>
+      <c r="G5" s="221"/>
+      <c r="H5" s="221"/>
+      <c r="I5" s="221"/>
+      <c r="J5" s="221"/>
+      <c r="K5" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="L5" s="206" t="s">
+      <c r="L5" s="221" t="s">
         <v>84</v>
       </c>
-      <c r="M5" s="208"/>
+      <c r="M5" s="222"/>
     </row>
     <row r="6" spans="2:14" ht="37.950000000000003" customHeight="1">
-      <c r="B6" s="209">
+      <c r="B6" s="223">
         <v>1</v>
       </c>
-      <c r="C6" s="193" t="s">
+      <c r="C6" s="225" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="194" t="s">
+      <c r="D6" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="195" t="s">
+      <c r="E6" s="218" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="195"/>
-      <c r="G6" s="195"/>
-      <c r="H6" s="195"/>
-      <c r="I6" s="195"/>
-      <c r="J6" s="195"/>
-      <c r="K6" s="194"/>
-      <c r="L6" s="196"/>
-      <c r="M6" s="210"/>
-      <c r="N6" s="197"/>
+      <c r="F6" s="218"/>
+      <c r="G6" s="218"/>
+      <c r="H6" s="218"/>
+      <c r="I6" s="218"/>
+      <c r="J6" s="218"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="219"/>
+      <c r="M6" s="220"/>
+      <c r="N6" s="87"/>
     </row>
     <row r="7" spans="2:14" ht="37.950000000000003" customHeight="1">
-      <c r="B7" s="209"/>
-      <c r="C7" s="198"/>
-      <c r="D7" s="194" t="s">
+      <c r="B7" s="223"/>
+      <c r="C7" s="226"/>
+      <c r="D7" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="195" t="s">
+      <c r="E7" s="218" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="195"/>
-      <c r="G7" s="195"/>
-      <c r="H7" s="195"/>
-      <c r="I7" s="195"/>
-      <c r="J7" s="195"/>
-      <c r="K7" s="194"/>
-      <c r="L7" s="196"/>
-      <c r="M7" s="210"/>
-      <c r="N7" s="197"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="218"/>
+      <c r="H7" s="218"/>
+      <c r="I7" s="218"/>
+      <c r="J7" s="218"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="219"/>
+      <c r="M7" s="220"/>
+      <c r="N7" s="87"/>
     </row>
     <row r="8" spans="2:14" ht="37.950000000000003" customHeight="1">
-      <c r="B8" s="209"/>
-      <c r="C8" s="198"/>
-      <c r="D8" s="194" t="s">
+      <c r="B8" s="223"/>
+      <c r="C8" s="226"/>
+      <c r="D8" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="195" t="s">
+      <c r="E8" s="218" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="195"/>
-      <c r="G8" s="195"/>
-      <c r="H8" s="195"/>
-      <c r="I8" s="195"/>
-      <c r="J8" s="195"/>
-      <c r="K8" s="194"/>
-      <c r="L8" s="196"/>
-      <c r="M8" s="210"/>
-      <c r="N8" s="197"/>
+      <c r="F8" s="218"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="218"/>
+      <c r="I8" s="218"/>
+      <c r="J8" s="218"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="219"/>
+      <c r="M8" s="220"/>
+      <c r="N8" s="87"/>
     </row>
     <row r="9" spans="2:14" ht="37.950000000000003" customHeight="1">
-      <c r="B9" s="209"/>
-      <c r="C9" s="198"/>
-      <c r="D9" s="194" t="s">
+      <c r="B9" s="223"/>
+      <c r="C9" s="226"/>
+      <c r="D9" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="195" t="s">
+      <c r="E9" s="218" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="195"/>
-      <c r="G9" s="195"/>
-      <c r="H9" s="195"/>
-      <c r="I9" s="195"/>
-      <c r="J9" s="195"/>
-      <c r="K9" s="194"/>
-      <c r="L9" s="196"/>
-      <c r="M9" s="210"/>
-      <c r="N9" s="197"/>
+      <c r="F9" s="218"/>
+      <c r="G9" s="218"/>
+      <c r="H9" s="218"/>
+      <c r="I9" s="218"/>
+      <c r="J9" s="218"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="219"/>
+      <c r="M9" s="220"/>
+      <c r="N9" s="87"/>
     </row>
     <row r="10" spans="2:14" ht="37.950000000000003" customHeight="1">
-      <c r="B10" s="209"/>
-      <c r="C10" s="198"/>
-      <c r="D10" s="194" t="s">
+      <c r="B10" s="223"/>
+      <c r="C10" s="226"/>
+      <c r="D10" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="195" t="s">
+      <c r="E10" s="218" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="195"/>
-      <c r="G10" s="195"/>
-      <c r="H10" s="195"/>
-      <c r="I10" s="195"/>
-      <c r="J10" s="195"/>
-      <c r="K10" s="194"/>
-      <c r="L10" s="196"/>
-      <c r="M10" s="210"/>
-      <c r="N10" s="197"/>
+      <c r="F10" s="218"/>
+      <c r="G10" s="218"/>
+      <c r="H10" s="218"/>
+      <c r="I10" s="218"/>
+      <c r="J10" s="218"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="219"/>
+      <c r="M10" s="220"/>
+      <c r="N10" s="87"/>
     </row>
     <row r="11" spans="2:14" ht="37.950000000000003" customHeight="1">
-      <c r="B11" s="209"/>
-      <c r="C11" s="198"/>
-      <c r="D11" s="194" t="s">
+      <c r="B11" s="223"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="195" t="s">
+      <c r="E11" s="218" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="195"/>
-      <c r="G11" s="195"/>
-      <c r="H11" s="195"/>
-      <c r="I11" s="195"/>
-      <c r="J11" s="195"/>
-      <c r="K11" s="194"/>
-      <c r="L11" s="196"/>
-      <c r="M11" s="210"/>
-      <c r="N11" s="197"/>
+      <c r="F11" s="218"/>
+      <c r="G11" s="218"/>
+      <c r="H11" s="218"/>
+      <c r="I11" s="218"/>
+      <c r="J11" s="218"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="219"/>
+      <c r="M11" s="220"/>
+      <c r="N11" s="87"/>
     </row>
     <row r="12" spans="2:14" ht="37.950000000000003" customHeight="1">
-      <c r="B12" s="209"/>
-      <c r="C12" s="198"/>
-      <c r="D12" s="194" t="s">
+      <c r="B12" s="223"/>
+      <c r="C12" s="226"/>
+      <c r="D12" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="195" t="s">
+      <c r="E12" s="218" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="195"/>
-      <c r="G12" s="195"/>
-      <c r="H12" s="195"/>
-      <c r="I12" s="195"/>
-      <c r="J12" s="195"/>
-      <c r="K12" s="194"/>
-      <c r="L12" s="196"/>
-      <c r="M12" s="210"/>
-      <c r="N12" s="197"/>
+      <c r="F12" s="218"/>
+      <c r="G12" s="218"/>
+      <c r="H12" s="218"/>
+      <c r="I12" s="218"/>
+      <c r="J12" s="218"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="219"/>
+      <c r="M12" s="220"/>
+      <c r="N12" s="87"/>
     </row>
     <row r="13" spans="2:14" ht="37.950000000000003" customHeight="1">
-      <c r="B13" s="209"/>
-      <c r="C13" s="198"/>
-      <c r="D13" s="194" t="s">
+      <c r="B13" s="223"/>
+      <c r="C13" s="226"/>
+      <c r="D13" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="195" t="s">
+      <c r="E13" s="218" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="195"/>
-      <c r="G13" s="195"/>
-      <c r="H13" s="195"/>
-      <c r="I13" s="195"/>
-      <c r="J13" s="195"/>
-      <c r="K13" s="194"/>
-      <c r="L13" s="196"/>
-      <c r="M13" s="210"/>
-      <c r="N13" s="197"/>
+      <c r="F13" s="218"/>
+      <c r="G13" s="218"/>
+      <c r="H13" s="218"/>
+      <c r="I13" s="218"/>
+      <c r="J13" s="218"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="219"/>
+      <c r="M13" s="220"/>
+      <c r="N13" s="87"/>
     </row>
     <row r="14" spans="2:14" ht="37.950000000000003" customHeight="1">
-      <c r="B14" s="209"/>
-      <c r="C14" s="198"/>
-      <c r="D14" s="194" t="s">
+      <c r="B14" s="223"/>
+      <c r="C14" s="226"/>
+      <c r="D14" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="195" t="s">
+      <c r="E14" s="218" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="195"/>
-      <c r="G14" s="195"/>
-      <c r="H14" s="195"/>
-      <c r="I14" s="195"/>
-      <c r="J14" s="195"/>
-      <c r="K14" s="194"/>
-      <c r="L14" s="196"/>
-      <c r="M14" s="210"/>
-      <c r="N14" s="197"/>
+      <c r="F14" s="218"/>
+      <c r="G14" s="218"/>
+      <c r="H14" s="218"/>
+      <c r="I14" s="218"/>
+      <c r="J14" s="218"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="219"/>
+      <c r="M14" s="220"/>
+      <c r="N14" s="87"/>
     </row>
     <row r="15" spans="2:14" ht="37.950000000000003" customHeight="1" thickBot="1">
-      <c r="B15" s="211"/>
-      <c r="C15" s="216"/>
-      <c r="D15" s="212" t="s">
+      <c r="B15" s="224"/>
+      <c r="C15" s="227"/>
+      <c r="D15" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="213" t="s">
+      <c r="E15" s="216" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="213"/>
-      <c r="G15" s="213"/>
-      <c r="H15" s="213"/>
-      <c r="I15" s="213"/>
-      <c r="J15" s="213"/>
-      <c r="K15" s="212"/>
-      <c r="L15" s="214"/>
-      <c r="M15" s="215"/>
-      <c r="N15" s="197"/>
+      <c r="F15" s="216"/>
+      <c r="G15" s="216"/>
+      <c r="H15" s="216"/>
+      <c r="I15" s="216"/>
+      <c r="J15" s="216"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="211"/>
+      <c r="M15" s="217"/>
+      <c r="N15" s="87"/>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="201"/>
-      <c r="C16" s="199"/>
-      <c r="D16" s="190"/>
-      <c r="E16" s="190"/>
-      <c r="F16" s="190"/>
-      <c r="G16" s="190"/>
-      <c r="H16" s="190"/>
-      <c r="I16" s="190"/>
-      <c r="J16" s="190"/>
-      <c r="K16" s="190"/>
-      <c r="L16" s="200"/>
-      <c r="M16" s="190"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="C6:C15"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="E8:J8"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="D2:K3"/>
     <mergeCell ref="E15:J15"/>
@@ -9542,16 +9888,6 @@
     <mergeCell ref="E10:J10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="E11:J11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="B6:B15"/>
-    <mergeCell ref="C6:C15"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="E8:J8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">

--- a/공학용계산기 Development Report_메가톤.xlsx
+++ b/공학용계산기 Development Report_메가톤.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12396" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12396"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Action Plan'!$B$6:$D$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Item list'!$A$1:$W$11</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Test Chck Sheet'!$B$1:$M$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Test Chck Sheet'!$B$1:$M$16</definedName>
     <definedName name="평가결과">'[1]ESH 평가 Sheet'!$F$875:$F$879</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="104">
   <si>
     <t>Start</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -501,6 +501,88 @@
     <t>검수자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2020.06.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최대공약수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알고리즘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김상현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알고리즘(최대공약수) 기능에 이상이 없는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -728,7 +810,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -1496,6 +1578,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1507,7 +1602,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1813,6 +1908,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1837,40 +1935,19 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1879,46 +1956,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1930,38 +2004,137 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1999,81 +2172,6 @@
     <xf numFmtId="9" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2133,39 +2231,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2195,6 +2260,45 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2410,6 +2514,18 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
@@ -2787,19 +2903,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>188259</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>116541</xdr:rowOff>
+      <xdr:rowOff>89649</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>513882</xdr:colOff>
+      <xdr:colOff>493058</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>119545</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPr id="8" name="그림 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2819,8 +2935,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2088776" y="3729317"/>
-          <a:ext cx="4395600" cy="2468299"/>
+          <a:off x="2124635" y="3702425"/>
+          <a:ext cx="4338917" cy="2528046"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6342,13 +6458,13 @@
         <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>91440</xdr:colOff>
-          <xdr:row>14</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>106680</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>579120</xdr:colOff>
-          <xdr:row>14</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>388620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -6425,13 +6541,13 @@
         <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>525780</xdr:colOff>
-          <xdr:row>14</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>967740</xdr:colOff>
-          <xdr:row>14</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>381000</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -6508,13 +6624,13 @@
         <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>952500</xdr:colOff>
-          <xdr:row>14</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>91440</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>1447800</xdr:colOff>
-          <xdr:row>14</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>403860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -6523,6 +6639,255 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6174"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Malgun Gothic"/>
+                  <a:ea typeface="Malgun Gothic"/>
+                </a:rPr>
+                <a:t>N/A</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>91440</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>117567</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>579120</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>399507</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6175" name="Check Box 31" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6175"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Malgun Gothic"/>
+                  <a:ea typeface="Malgun Gothic"/>
+                </a:rPr>
+                <a:t>OK </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>525780</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>132807</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>967740</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>391887</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6176" name="Check Box 32" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6176"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Malgun Gothic"/>
+                  <a:ea typeface="Malgun Gothic"/>
+                </a:rPr>
+                <a:t>NG</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>952500</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>102327</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>1447800</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>414747</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6177" name="Check Box 33" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6177"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6946,8 +7311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -6962,41 +7327,41 @@
   <sheetData>
     <row r="1" spans="2:6" ht="18" thickBot="1"/>
     <row r="2" spans="2:6">
-      <c r="B2" s="101"/>
-      <c r="C2" s="103" t="s">
+      <c r="B2" s="102"/>
+      <c r="C2" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="104"/>
+      <c r="D2" s="105"/>
     </row>
     <row r="3" spans="2:6" ht="18" thickBot="1">
-      <c r="B3" s="102"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="106"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
     </row>
     <row r="4" spans="2:6" ht="18" thickBot="1"/>
     <row r="5" spans="2:6">
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="107" t="s">
+      <c r="D5" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="107" t="s">
+      <c r="E5" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="107" t="s">
+      <c r="F5" s="108" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="18" thickBot="1">
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="62" t="s">
@@ -7029,11 +7394,19 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="68"/>
+      <c r="B9" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="67">
+        <v>1.2</v>
+      </c>
+      <c r="D9" s="68" t="s">
+        <v>101</v>
+      </c>
       <c r="E9" s="67"/>
-      <c r="F9" s="69"/>
+      <c r="F9" s="69" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="67"/>
@@ -7191,11 +7564,11 @@
       <c r="X2" s="24"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="B3" s="113"/>
-      <c r="C3" s="109" t="s">
+      <c r="B3" s="144"/>
+      <c r="C3" s="140" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="110"/>
+      <c r="D3" s="141"/>
       <c r="E3" s="72"/>
       <c r="F3" s="73" t="s">
         <v>28</v>
@@ -7220,9 +7593,9 @@
       <c r="X3" s="24"/>
     </row>
     <row r="4" spans="1:24" ht="18" thickBot="1">
-      <c r="B4" s="114"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="112"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="143"/>
       <c r="E4" s="72"/>
       <c r="F4" s="74" t="s">
         <v>46</v>
@@ -7272,76 +7645,76 @@
       <c r="X5" s="24"/>
     </row>
     <row r="6" spans="1:24" ht="18" thickBot="1">
-      <c r="B6" s="145" t="s">
+      <c r="B6" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="145" t="s">
+      <c r="D6" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="146" t="s">
+      <c r="E6" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="140"/>
-      <c r="G6" s="145" t="s">
+      <c r="F6" s="110"/>
+      <c r="G6" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="149" t="s">
+      <c r="H6" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="149"/>
-      <c r="J6" s="149"/>
-      <c r="K6" s="149"/>
-      <c r="L6" s="149"/>
-      <c r="M6" s="149"/>
-      <c r="N6" s="149"/>
-      <c r="O6" s="149"/>
-      <c r="P6" s="149"/>
-      <c r="Q6" s="149"/>
-      <c r="R6" s="149"/>
-      <c r="S6" s="149"/>
-      <c r="T6" s="149"/>
-      <c r="U6" s="149"/>
-      <c r="V6" s="140"/>
-      <c r="W6" s="140" t="s">
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="125"/>
+      <c r="P6" s="125"/>
+      <c r="Q6" s="125"/>
+      <c r="R6" s="125"/>
+      <c r="S6" s="125"/>
+      <c r="T6" s="125"/>
+      <c r="U6" s="125"/>
+      <c r="V6" s="110"/>
+      <c r="W6" s="110" t="s">
         <v>47</v>
       </c>
       <c r="X6" s="24"/>
     </row>
     <row r="7" spans="1:24" ht="18" thickBot="1">
-      <c r="B7" s="145"/>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="150"/>
-      <c r="K7" s="150"/>
-      <c r="L7" s="150"/>
-      <c r="M7" s="150"/>
-      <c r="N7" s="150"/>
-      <c r="O7" s="150"/>
-      <c r="P7" s="150"/>
-      <c r="Q7" s="150"/>
-      <c r="R7" s="150"/>
-      <c r="S7" s="150"/>
-      <c r="T7" s="150"/>
-      <c r="U7" s="150"/>
-      <c r="V7" s="142"/>
-      <c r="W7" s="141"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="126"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
+      <c r="P7" s="126"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="126"/>
+      <c r="T7" s="126"/>
+      <c r="U7" s="126"/>
+      <c r="V7" s="112"/>
+      <c r="W7" s="111"/>
       <c r="X7" s="24"/>
     </row>
     <row r="8" spans="1:24" ht="18" thickBot="1">
-      <c r="B8" s="145"/>
-      <c r="C8" s="145"/>
-      <c r="D8" s="145"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="142"/>
-      <c r="G8" s="145"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="119"/>
       <c r="H8" s="33">
         <v>17</v>
       </c>
@@ -7387,25 +7760,25 @@
       <c r="V8" s="32">
         <v>30</v>
       </c>
-      <c r="W8" s="142"/>
+      <c r="W8" s="112"/>
       <c r="X8" s="24"/>
     </row>
     <row r="9" spans="1:24" ht="18" thickBot="1">
-      <c r="A9" s="130"/>
-      <c r="B9" s="143" t="s">
+      <c r="A9" s="113"/>
+      <c r="B9" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="144" t="s">
+      <c r="D9" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="123" t="s">
+      <c r="E9" s="128" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="124"/>
-      <c r="G9" s="119" t="s">
+      <c r="F9" s="123"/>
+      <c r="G9" s="150" t="s">
         <v>4</v>
       </c>
       <c r="H9" s="34"/>
@@ -7423,17 +7796,17 @@
       <c r="T9" s="27"/>
       <c r="U9" s="27"/>
       <c r="V9" s="28"/>
-      <c r="W9" s="124"/>
+      <c r="W9" s="123"/>
       <c r="X9" s="24"/>
     </row>
     <row r="10" spans="1:24" ht="18" thickBot="1">
-      <c r="A10" s="130"/>
-      <c r="B10" s="143"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="136"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="120"/>
+      <c r="A10" s="113"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="151"/>
       <c r="H10" s="76"/>
       <c r="I10" s="77"/>
       <c r="J10" s="77"/>
@@ -7449,25 +7822,25 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="19"/>
-      <c r="W10" s="126"/>
+      <c r="W10" s="124"/>
       <c r="X10" s="24"/>
     </row>
     <row r="11" spans="1:24" ht="17.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A11" s="130"/>
-      <c r="B11" s="135" t="s">
+      <c r="A11" s="113"/>
+      <c r="B11" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="121" t="s">
+      <c r="C11" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="136" t="s">
+      <c r="D11" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="123" t="s">
+      <c r="E11" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="124"/>
-      <c r="G11" s="121" t="s">
+      <c r="F11" s="123"/>
+      <c r="G11" s="115" t="s">
         <v>4</v>
       </c>
       <c r="H11" s="20"/>
@@ -7485,17 +7858,17 @@
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
       <c r="V11" s="19"/>
-      <c r="W11" s="124"/>
+      <c r="W11" s="123"/>
       <c r="X11" s="24"/>
     </row>
     <row r="12" spans="1:24" ht="17.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A12" s="130"/>
-      <c r="B12" s="138"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="122"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="116"/>
       <c r="H12" s="39"/>
       <c r="I12" s="40"/>
       <c r="J12" s="40"/>
@@ -7511,23 +7884,23 @@
       <c r="T12" s="40"/>
       <c r="U12" s="40"/>
       <c r="V12" s="41"/>
-      <c r="W12" s="126"/>
+      <c r="W12" s="124"/>
       <c r="X12" s="24"/>
     </row>
     <row r="13" spans="1:24" ht="18" thickBot="1">
-      <c r="A13" s="130"/>
-      <c r="B13" s="138"/>
-      <c r="C13" s="135" t="s">
+      <c r="A13" s="113"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="136" t="s">
+      <c r="D13" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="123" t="s">
+      <c r="E13" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="124"/>
-      <c r="G13" s="121" t="s">
+      <c r="F13" s="123"/>
+      <c r="G13" s="115" t="s">
         <v>4</v>
       </c>
       <c r="H13" s="50"/>
@@ -7545,17 +7918,17 @@
       <c r="T13" s="46"/>
       <c r="U13" s="46"/>
       <c r="V13" s="47"/>
-      <c r="W13" s="124"/>
+      <c r="W13" s="123"/>
       <c r="X13" s="24"/>
     </row>
     <row r="14" spans="1:24" ht="18" thickBot="1">
-      <c r="A14" s="130"/>
-      <c r="B14" s="138"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="122"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="116"/>
       <c r="H14" s="78"/>
       <c r="I14" s="79"/>
       <c r="J14" s="79"/>
@@ -7571,25 +7944,25 @@
       <c r="T14" s="35"/>
       <c r="U14" s="35"/>
       <c r="V14" s="36"/>
-      <c r="W14" s="126"/>
+      <c r="W14" s="124"/>
       <c r="X14" s="24"/>
     </row>
     <row r="15" spans="1:24" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A15" s="130"/>
-      <c r="B15" s="121" t="s">
+      <c r="A15" s="113"/>
+      <c r="B15" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="121" t="s">
+      <c r="C15" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="136" t="s">
+      <c r="D15" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="139" t="s">
+      <c r="E15" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="124"/>
-      <c r="G15" s="119" t="s">
+      <c r="F15" s="123"/>
+      <c r="G15" s="150" t="s">
         <v>4</v>
       </c>
       <c r="H15" s="37"/>
@@ -7607,19 +7980,19 @@
       <c r="T15" s="52"/>
       <c r="U15" s="52"/>
       <c r="V15" s="43"/>
-      <c r="W15" s="124" t="s">
+      <c r="W15" s="123" t="s">
         <v>48</v>
       </c>
       <c r="X15" s="24"/>
     </row>
     <row r="16" spans="1:24" ht="18" thickBot="1">
-      <c r="A16" s="130"/>
-      <c r="B16" s="138"/>
-      <c r="C16" s="138"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="120"/>
+      <c r="A16" s="113"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="151"/>
       <c r="H16" s="48"/>
       <c r="I16" s="49"/>
       <c r="J16" s="49"/>
@@ -7635,25 +8008,25 @@
       <c r="T16" s="80"/>
       <c r="U16" s="80"/>
       <c r="V16" s="41"/>
-      <c r="W16" s="137"/>
+      <c r="W16" s="130"/>
       <c r="X16" s="24"/>
     </row>
     <row r="17" spans="1:26" ht="18" thickBot="1">
-      <c r="A17" s="130"/>
-      <c r="B17" s="121" t="s">
+      <c r="A17" s="113"/>
+      <c r="B17" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="121" t="s">
+      <c r="C17" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="131" t="s">
+      <c r="D17" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="133" t="s">
+      <c r="E17" s="138" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="134"/>
-      <c r="G17" s="121" t="s">
+      <c r="F17" s="139"/>
+      <c r="G17" s="115" t="s">
         <v>4</v>
       </c>
       <c r="H17" s="44"/>
@@ -7671,17 +8044,17 @@
       <c r="T17" s="46"/>
       <c r="U17" s="51"/>
       <c r="V17" s="53"/>
-      <c r="W17" s="124"/>
+      <c r="W17" s="123"/>
       <c r="X17" s="24"/>
     </row>
     <row r="18" spans="1:26" ht="18" thickBot="1">
-      <c r="A18" s="130"/>
-      <c r="B18" s="122"/>
-      <c r="C18" s="122"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="122"/>
+      <c r="A18" s="113"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="124"/>
+      <c r="G18" s="116"/>
       <c r="H18" s="4"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
@@ -7697,7 +8070,7 @@
       <c r="T18" s="35"/>
       <c r="U18" s="79"/>
       <c r="V18" s="81"/>
-      <c r="W18" s="126"/>
+      <c r="W18" s="124"/>
       <c r="X18" s="24"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" customHeight="1">
@@ -7782,12 +8155,12 @@
     </row>
     <row r="436" spans="1:24">
       <c r="H436" s="21"/>
-      <c r="I436" s="115"/>
-      <c r="J436" s="116"/>
-      <c r="M436" s="117" t="s">
+      <c r="I436" s="146"/>
+      <c r="J436" s="147"/>
+      <c r="M436" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="N436" s="118"/>
+      <c r="N436" s="149"/>
       <c r="O436" s="21"/>
       <c r="P436" s="21"/>
       <c r="Q436" s="21"/>
@@ -7799,12 +8172,12 @@
     </row>
     <row r="437" spans="1:24" ht="18" thickBot="1">
       <c r="H437" s="14"/>
-      <c r="I437" s="127"/>
-      <c r="J437" s="128"/>
-      <c r="M437" s="125" t="s">
+      <c r="I437" s="133"/>
+      <c r="J437" s="134"/>
+      <c r="M437" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="N437" s="129"/>
+      <c r="N437" s="135"/>
       <c r="O437" s="14"/>
       <c r="P437" s="14"/>
       <c r="Q437" s="14"/>
@@ -7827,18 +8200,24 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="W6:W8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="H6:V7"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="I436:J436"/>
+    <mergeCell ref="M436:N436"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="E11:F12"/>
+    <mergeCell ref="I437:J437"/>
+    <mergeCell ref="M437:N437"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:F18"/>
     <mergeCell ref="W11:W12"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="C13:C14"/>
@@ -7855,24 +8234,18 @@
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
-    <mergeCell ref="I437:J437"/>
-    <mergeCell ref="M437:N437"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="I436:J436"/>
-    <mergeCell ref="M436:N436"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="E11:F12"/>
+    <mergeCell ref="W6:W8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="H6:V7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D9:D10 D13:D18">
@@ -7971,36 +8344,36 @@
   <sheetData>
     <row r="1" spans="1:23" ht="18" thickBot="1"/>
     <row r="2" spans="1:23" ht="16.5" customHeight="1">
-      <c r="B2" s="123"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="180" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="161" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
-      <c r="J2" s="180"/>
-      <c r="K2" s="180"/>
-      <c r="L2" s="181"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="162"/>
       <c r="M2" s="1"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="B3" s="178"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
-      <c r="L3" s="183"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="164"/>
       <c r="M3" s="1"/>
       <c r="N3" s="17"/>
       <c r="O3" s="17"/>
@@ -8013,17 +8386,17 @@
       <c r="V3" s="10"/>
     </row>
     <row r="4" spans="1:23" ht="18" thickBot="1">
-      <c r="B4" s="125"/>
-      <c r="C4" s="129"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="184"/>
-      <c r="I4" s="184"/>
-      <c r="J4" s="184"/>
-      <c r="K4" s="184"/>
-      <c r="L4" s="185"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="165"/>
+      <c r="K4" s="165"/>
+      <c r="L4" s="166"/>
       <c r="M4" s="1"/>
       <c r="N4" s="17"/>
       <c r="O4" s="17"/>
@@ -8037,65 +8410,65 @@
     </row>
     <row r="5" spans="1:23" ht="18" customHeight="1" thickBot="1">
       <c r="N5" s="5"/>
-      <c r="O5" s="165"/>
-      <c r="P5" s="165"/>
-      <c r="Q5" s="165"/>
-      <c r="R5" s="165"/>
-      <c r="S5" s="165"/>
-      <c r="T5" s="165"/>
-      <c r="U5" s="165"/>
+      <c r="O5" s="169"/>
+      <c r="P5" s="169"/>
+      <c r="Q5" s="169"/>
+      <c r="R5" s="169"/>
+      <c r="S5" s="169"/>
+      <c r="T5" s="169"/>
+      <c r="U5" s="169"/>
       <c r="V5" s="6"/>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="2"/>
-      <c r="B6" s="186" t="s">
+      <c r="B6" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="164" t="s">
+      <c r="C6" s="173" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="169" t="s">
+      <c r="D6" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="166" t="s">
+      <c r="E6" s="175"/>
+      <c r="F6" s="175"/>
+      <c r="G6" s="175"/>
+      <c r="H6" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="164" t="s">
+      <c r="I6" s="173" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="164"/>
-      <c r="K6" s="164"/>
-      <c r="L6" s="164" t="s">
+      <c r="J6" s="173"/>
+      <c r="K6" s="173"/>
+      <c r="L6" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="164" t="s">
+      <c r="M6" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="164"/>
-      <c r="O6" s="164"/>
-      <c r="P6" s="164"/>
-      <c r="Q6" s="164"/>
-      <c r="R6" s="164"/>
-      <c r="S6" s="164"/>
-      <c r="T6" s="164"/>
-      <c r="U6" s="164"/>
-      <c r="V6" s="164"/>
-      <c r="W6" s="151" t="s">
+      <c r="N6" s="173"/>
+      <c r="O6" s="173"/>
+      <c r="P6" s="173"/>
+      <c r="Q6" s="173"/>
+      <c r="R6" s="173"/>
+      <c r="S6" s="173"/>
+      <c r="T6" s="173"/>
+      <c r="U6" s="173"/>
+      <c r="V6" s="173"/>
+      <c r="W6" s="177" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="18" thickBot="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="187"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="167"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="176"/>
+      <c r="H7" s="172"/>
       <c r="I7" s="56" t="s">
         <v>0</v>
       </c>
@@ -8105,39 +8478,39 @@
       <c r="K7" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="168"/>
+      <c r="L7" s="174"/>
       <c r="M7" s="57">
         <v>0</v>
       </c>
-      <c r="N7" s="163"/>
-      <c r="O7" s="163"/>
-      <c r="P7" s="163"/>
-      <c r="Q7" s="162">
+      <c r="N7" s="170"/>
+      <c r="O7" s="170"/>
+      <c r="P7" s="170"/>
+      <c r="Q7" s="188">
         <v>0.5</v>
       </c>
-      <c r="R7" s="163"/>
-      <c r="S7" s="163"/>
-      <c r="T7" s="163"/>
-      <c r="U7" s="163"/>
+      <c r="R7" s="170"/>
+      <c r="S7" s="170"/>
+      <c r="T7" s="170"/>
+      <c r="U7" s="170"/>
       <c r="V7" s="57">
         <v>1</v>
       </c>
-      <c r="W7" s="152"/>
+      <c r="W7" s="178"/>
     </row>
     <row r="8" spans="1:23" ht="45" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="101">
+      <c r="B8" s="102">
         <v>1</v>
       </c>
-      <c r="C8" s="172" t="s">
+      <c r="C8" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="175" t="s">
+      <c r="D8" s="156" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="176"/>
-      <c r="F8" s="176"/>
-      <c r="G8" s="176"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="157"/>
+      <c r="G8" s="157"/>
       <c r="H8" s="46" t="s">
         <v>16</v>
       </c>
@@ -8153,30 +8526,30 @@
       <c r="L8" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="156">
+      <c r="M8" s="182">
         <v>100</v>
       </c>
-      <c r="N8" s="156"/>
-      <c r="O8" s="156"/>
-      <c r="P8" s="156"/>
-      <c r="Q8" s="156"/>
-      <c r="R8" s="156"/>
-      <c r="S8" s="156"/>
-      <c r="T8" s="156"/>
-      <c r="U8" s="156"/>
-      <c r="V8" s="156"/>
+      <c r="N8" s="182"/>
+      <c r="O8" s="182"/>
+      <c r="P8" s="182"/>
+      <c r="Q8" s="182"/>
+      <c r="R8" s="182"/>
+      <c r="S8" s="182"/>
+      <c r="T8" s="182"/>
+      <c r="U8" s="182"/>
+      <c r="V8" s="182"/>
       <c r="W8" s="59"/>
     </row>
     <row r="9" spans="1:23" ht="45" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="171"/>
-      <c r="C9" s="173"/>
-      <c r="D9" s="157" t="s">
+      <c r="B9" s="152"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="183" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="158"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="159"/>
+      <c r="E9" s="184"/>
+      <c r="F9" s="184"/>
+      <c r="G9" s="185"/>
       <c r="H9" s="11" t="s">
         <v>17</v>
       </c>
@@ -8192,30 +8565,30 @@
       <c r="L9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="160">
+      <c r="M9" s="186">
         <v>100</v>
       </c>
-      <c r="N9" s="160"/>
-      <c r="O9" s="160"/>
-      <c r="P9" s="160"/>
-      <c r="Q9" s="160"/>
-      <c r="R9" s="160"/>
-      <c r="S9" s="160"/>
-      <c r="T9" s="160"/>
-      <c r="U9" s="160"/>
-      <c r="V9" s="160"/>
+      <c r="N9" s="186"/>
+      <c r="O9" s="186"/>
+      <c r="P9" s="186"/>
+      <c r="Q9" s="186"/>
+      <c r="R9" s="186"/>
+      <c r="S9" s="186"/>
+      <c r="T9" s="186"/>
+      <c r="U9" s="186"/>
+      <c r="V9" s="186"/>
       <c r="W9" s="13"/>
     </row>
     <row r="10" spans="1:23" ht="45" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="171"/>
-      <c r="C10" s="173"/>
-      <c r="D10" s="157" t="s">
+      <c r="B10" s="152"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="183" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="159"/>
+      <c r="E10" s="184"/>
+      <c r="F10" s="184"/>
+      <c r="G10" s="185"/>
       <c r="H10" s="11" t="s">
         <v>18</v>
       </c>
@@ -8231,30 +8604,30 @@
       <c r="L10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="160">
+      <c r="M10" s="186">
         <v>100</v>
       </c>
-      <c r="N10" s="160"/>
-      <c r="O10" s="160"/>
-      <c r="P10" s="160"/>
-      <c r="Q10" s="160"/>
-      <c r="R10" s="160"/>
-      <c r="S10" s="160"/>
-      <c r="T10" s="160"/>
-      <c r="U10" s="160"/>
-      <c r="V10" s="160"/>
+      <c r="N10" s="186"/>
+      <c r="O10" s="186"/>
+      <c r="P10" s="186"/>
+      <c r="Q10" s="186"/>
+      <c r="R10" s="186"/>
+      <c r="S10" s="186"/>
+      <c r="T10" s="186"/>
+      <c r="U10" s="186"/>
+      <c r="V10" s="186"/>
       <c r="W10" s="13"/>
     </row>
     <row r="11" spans="1:23" ht="45" customHeight="1" thickBot="1">
       <c r="A11" s="3"/>
-      <c r="B11" s="102"/>
-      <c r="C11" s="174"/>
-      <c r="D11" s="153" t="s">
+      <c r="B11" s="103"/>
+      <c r="C11" s="155"/>
+      <c r="D11" s="179" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="154"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="155"/>
+      <c r="E11" s="180"/>
+      <c r="F11" s="180"/>
+      <c r="G11" s="181"/>
       <c r="H11" s="60" t="s">
         <v>19</v>
       </c>
@@ -8270,18 +8643,18 @@
       <c r="L11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M11" s="161">
+      <c r="M11" s="187">
         <v>100</v>
       </c>
-      <c r="N11" s="161"/>
-      <c r="O11" s="161"/>
-      <c r="P11" s="161"/>
-      <c r="Q11" s="161"/>
-      <c r="R11" s="161"/>
-      <c r="S11" s="161"/>
-      <c r="T11" s="161"/>
-      <c r="U11" s="161"/>
-      <c r="V11" s="161"/>
+      <c r="N11" s="187"/>
+      <c r="O11" s="187"/>
+      <c r="P11" s="187"/>
+      <c r="Q11" s="187"/>
+      <c r="R11" s="187"/>
+      <c r="S11" s="187"/>
+      <c r="T11" s="187"/>
+      <c r="U11" s="187"/>
+      <c r="V11" s="187"/>
       <c r="W11" s="61"/>
     </row>
     <row r="136" spans="3:3">
@@ -8289,20 +8662,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:L4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="O5:U5"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="D6:G7"/>
     <mergeCell ref="W6:W7"/>
     <mergeCell ref="D11:G11"/>
     <mergeCell ref="M8:V8"/>
@@ -8313,6 +8672,20 @@
     <mergeCell ref="M11:V11"/>
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="M6:V6"/>
+    <mergeCell ref="O5:U5"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="D6:G7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:L4"/>
+    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D8:D11">
@@ -8467,8 +8840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -8479,407 +8852,407 @@
   <sheetData>
     <row r="1" spans="2:9" ht="18" thickBot="1"/>
     <row r="2" spans="2:9">
-      <c r="B2" s="121"/>
-      <c r="C2" s="198" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="199" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="198"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="198"/>
-      <c r="G2" s="198"/>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
     </row>
     <row r="3" spans="2:9" ht="18" thickBot="1">
-      <c r="B3" s="122"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
     </row>
     <row r="4" spans="2:9" ht="18" thickBot="1"/>
     <row r="5" spans="2:9">
       <c r="B5" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="204" t="s">
+      <c r="C5" s="205" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="205"/>
-      <c r="E5" s="205"/>
-      <c r="F5" s="205"/>
-      <c r="G5" s="205"/>
-      <c r="H5" s="205"/>
-      <c r="I5" s="206"/>
+      <c r="D5" s="206"/>
+      <c r="E5" s="206"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="206"/>
+      <c r="I5" s="207"/>
     </row>
     <row r="6" spans="2:9" ht="17.399999999999999" customHeight="1">
-      <c r="B6" s="195" t="s">
+      <c r="B6" s="196" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="188"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="189"/>
-      <c r="G6" s="189"/>
-      <c r="H6" s="189"/>
-      <c r="I6" s="190"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="190"/>
+      <c r="G6" s="190"/>
+      <c r="H6" s="190"/>
+      <c r="I6" s="191"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="196"/>
-      <c r="C7" s="191"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="192"/>
+      <c r="B7" s="197"/>
+      <c r="C7" s="192"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="193"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="196"/>
-      <c r="C8" s="191"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="173"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="173"/>
-      <c r="H8" s="173"/>
-      <c r="I8" s="192"/>
+      <c r="B8" s="197"/>
+      <c r="C8" s="192"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="193"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="196"/>
-      <c r="C9" s="191"/>
-      <c r="D9" s="173"/>
-      <c r="E9" s="173"/>
-      <c r="F9" s="173"/>
-      <c r="G9" s="173"/>
-      <c r="H9" s="173"/>
-      <c r="I9" s="192"/>
+      <c r="B9" s="197"/>
+      <c r="C9" s="192"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="154"/>
+      <c r="I9" s="193"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="196"/>
-      <c r="C10" s="191"/>
-      <c r="D10" s="173"/>
-      <c r="E10" s="173"/>
-      <c r="F10" s="173"/>
-      <c r="G10" s="173"/>
-      <c r="H10" s="173"/>
-      <c r="I10" s="192"/>
+      <c r="B10" s="197"/>
+      <c r="C10" s="192"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="154"/>
+      <c r="F10" s="154"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="193"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="196"/>
-      <c r="C11" s="191"/>
-      <c r="D11" s="173"/>
-      <c r="E11" s="173"/>
-      <c r="F11" s="173"/>
-      <c r="G11" s="173"/>
-      <c r="H11" s="173"/>
-      <c r="I11" s="192"/>
+      <c r="B11" s="197"/>
+      <c r="C11" s="192"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="193"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="196"/>
-      <c r="C12" s="191"/>
-      <c r="D12" s="173"/>
-      <c r="E12" s="173"/>
-      <c r="F12" s="173"/>
-      <c r="G12" s="173"/>
-      <c r="H12" s="173"/>
-      <c r="I12" s="192"/>
+      <c r="B12" s="197"/>
+      <c r="C12" s="192"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="193"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="196"/>
-      <c r="C13" s="191"/>
-      <c r="D13" s="173"/>
-      <c r="E13" s="173"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="192"/>
+      <c r="B13" s="197"/>
+      <c r="C13" s="192"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="193"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="196"/>
-      <c r="C14" s="191"/>
-      <c r="D14" s="173"/>
-      <c r="E14" s="173"/>
-      <c r="F14" s="173"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="173"/>
-      <c r="I14" s="192"/>
+      <c r="B14" s="197"/>
+      <c r="C14" s="192"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="193"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="196"/>
-      <c r="C15" s="191"/>
-      <c r="D15" s="173"/>
-      <c r="E15" s="173"/>
-      <c r="F15" s="173"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="192"/>
+      <c r="B15" s="197"/>
+      <c r="C15" s="192"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="154"/>
+      <c r="F15" s="154"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="193"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="200"/>
-      <c r="C16" s="201"/>
-      <c r="D16" s="202"/>
-      <c r="E16" s="202"/>
-      <c r="F16" s="202"/>
-      <c r="G16" s="202"/>
-      <c r="H16" s="202"/>
-      <c r="I16" s="203"/>
+      <c r="B16" s="201"/>
+      <c r="C16" s="202"/>
+      <c r="D16" s="203"/>
+      <c r="E16" s="203"/>
+      <c r="F16" s="203"/>
+      <c r="G16" s="203"/>
+      <c r="H16" s="203"/>
+      <c r="I16" s="204"/>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="195" t="s">
+      <c r="B17" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="188"/>
-      <c r="D17" s="189"/>
-      <c r="E17" s="189"/>
-      <c r="F17" s="189"/>
-      <c r="G17" s="189"/>
-      <c r="H17" s="189"/>
-      <c r="I17" s="190"/>
+      <c r="C17" s="189"/>
+      <c r="D17" s="190"/>
+      <c r="E17" s="190"/>
+      <c r="F17" s="190"/>
+      <c r="G17" s="190"/>
+      <c r="H17" s="190"/>
+      <c r="I17" s="191"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="196"/>
-      <c r="C18" s="191"/>
-      <c r="D18" s="173"/>
-      <c r="E18" s="173"/>
-      <c r="F18" s="173"/>
-      <c r="G18" s="173"/>
-      <c r="H18" s="173"/>
-      <c r="I18" s="192"/>
+      <c r="B18" s="197"/>
+      <c r="C18" s="192"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="193"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="196"/>
-      <c r="C19" s="191"/>
-      <c r="D19" s="173"/>
-      <c r="E19" s="173"/>
-      <c r="F19" s="173"/>
-      <c r="G19" s="173"/>
-      <c r="H19" s="173"/>
-      <c r="I19" s="192"/>
+      <c r="B19" s="197"/>
+      <c r="C19" s="192"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="193"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="196"/>
-      <c r="C20" s="191"/>
-      <c r="D20" s="173"/>
-      <c r="E20" s="173"/>
-      <c r="F20" s="173"/>
-      <c r="G20" s="173"/>
-      <c r="H20" s="173"/>
-      <c r="I20" s="192"/>
+      <c r="B20" s="197"/>
+      <c r="C20" s="192"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="193"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="196"/>
-      <c r="C21" s="191"/>
-      <c r="D21" s="173"/>
-      <c r="E21" s="173"/>
-      <c r="F21" s="173"/>
-      <c r="G21" s="173"/>
-      <c r="H21" s="173"/>
-      <c r="I21" s="192"/>
+      <c r="B21" s="197"/>
+      <c r="C21" s="192"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="154"/>
+      <c r="I21" s="193"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="196"/>
-      <c r="C22" s="191"/>
-      <c r="D22" s="173"/>
-      <c r="E22" s="173"/>
-      <c r="F22" s="173"/>
-      <c r="G22" s="173"/>
-      <c r="H22" s="173"/>
-      <c r="I22" s="192"/>
+      <c r="B22" s="197"/>
+      <c r="C22" s="192"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="154"/>
+      <c r="I22" s="193"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="196"/>
-      <c r="C23" s="191"/>
-      <c r="D23" s="173"/>
-      <c r="E23" s="173"/>
-      <c r="F23" s="173"/>
-      <c r="G23" s="173"/>
-      <c r="H23" s="173"/>
-      <c r="I23" s="192"/>
+      <c r="B23" s="197"/>
+      <c r="C23" s="192"/>
+      <c r="D23" s="154"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="193"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="196"/>
-      <c r="C24" s="191"/>
-      <c r="D24" s="173"/>
-      <c r="E24" s="173"/>
-      <c r="F24" s="173"/>
-      <c r="G24" s="173"/>
-      <c r="H24" s="173"/>
-      <c r="I24" s="192"/>
+      <c r="B24" s="197"/>
+      <c r="C24" s="192"/>
+      <c r="D24" s="154"/>
+      <c r="E24" s="154"/>
+      <c r="F24" s="154"/>
+      <c r="G24" s="154"/>
+      <c r="H24" s="154"/>
+      <c r="I24" s="193"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="196"/>
-      <c r="C25" s="191"/>
-      <c r="D25" s="173"/>
-      <c r="E25" s="173"/>
-      <c r="F25" s="173"/>
-      <c r="G25" s="173"/>
-      <c r="H25" s="173"/>
-      <c r="I25" s="192"/>
+      <c r="B25" s="197"/>
+      <c r="C25" s="192"/>
+      <c r="D25" s="154"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="154"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="154"/>
+      <c r="I25" s="193"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="196"/>
-      <c r="C26" s="191"/>
-      <c r="D26" s="173"/>
-      <c r="E26" s="173"/>
-      <c r="F26" s="173"/>
-      <c r="G26" s="173"/>
-      <c r="H26" s="173"/>
-      <c r="I26" s="192"/>
+      <c r="B26" s="197"/>
+      <c r="C26" s="192"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="154"/>
+      <c r="I26" s="193"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="196"/>
-      <c r="C27" s="191"/>
-      <c r="D27" s="173"/>
-      <c r="E27" s="173"/>
-      <c r="F27" s="173"/>
-      <c r="G27" s="173"/>
-      <c r="H27" s="173"/>
-      <c r="I27" s="192"/>
+      <c r="B27" s="197"/>
+      <c r="C27" s="192"/>
+      <c r="D27" s="154"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="154"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="154"/>
+      <c r="I27" s="193"/>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="200"/>
-      <c r="C28" s="201"/>
-      <c r="D28" s="202"/>
-      <c r="E28" s="202"/>
-      <c r="F28" s="202"/>
-      <c r="G28" s="202"/>
-      <c r="H28" s="202"/>
-      <c r="I28" s="203"/>
+      <c r="B28" s="201"/>
+      <c r="C28" s="202"/>
+      <c r="D28" s="203"/>
+      <c r="E28" s="203"/>
+      <c r="F28" s="203"/>
+      <c r="G28" s="203"/>
+      <c r="H28" s="203"/>
+      <c r="I28" s="204"/>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="195" t="s">
+      <c r="B29" s="196" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="188"/>
-      <c r="D29" s="189"/>
-      <c r="E29" s="189"/>
-      <c r="F29" s="189"/>
-      <c r="G29" s="189"/>
-      <c r="H29" s="189"/>
-      <c r="I29" s="190"/>
+      <c r="C29" s="189"/>
+      <c r="D29" s="190"/>
+      <c r="E29" s="190"/>
+      <c r="F29" s="190"/>
+      <c r="G29" s="190"/>
+      <c r="H29" s="190"/>
+      <c r="I29" s="191"/>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="196"/>
-      <c r="C30" s="191"/>
-      <c r="D30" s="173"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="173"/>
-      <c r="G30" s="173"/>
-      <c r="H30" s="173"/>
-      <c r="I30" s="192"/>
+      <c r="B30" s="197"/>
+      <c r="C30" s="192"/>
+      <c r="D30" s="154"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="154"/>
+      <c r="I30" s="193"/>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="196"/>
-      <c r="C31" s="191"/>
-      <c r="D31" s="173"/>
-      <c r="E31" s="173"/>
-      <c r="F31" s="173"/>
-      <c r="G31" s="173"/>
-      <c r="H31" s="173"/>
-      <c r="I31" s="192"/>
+      <c r="B31" s="197"/>
+      <c r="C31" s="192"/>
+      <c r="D31" s="154"/>
+      <c r="E31" s="154"/>
+      <c r="F31" s="154"/>
+      <c r="G31" s="154"/>
+      <c r="H31" s="154"/>
+      <c r="I31" s="193"/>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="196"/>
-      <c r="C32" s="191"/>
-      <c r="D32" s="173"/>
-      <c r="E32" s="173"/>
-      <c r="F32" s="173"/>
-      <c r="G32" s="173"/>
-      <c r="H32" s="173"/>
-      <c r="I32" s="192"/>
+      <c r="B32" s="197"/>
+      <c r="C32" s="192"/>
+      <c r="D32" s="154"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="154"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="154"/>
+      <c r="I32" s="193"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="196"/>
-      <c r="C33" s="191"/>
-      <c r="D33" s="173"/>
-      <c r="E33" s="173"/>
-      <c r="F33" s="173"/>
-      <c r="G33" s="173"/>
-      <c r="H33" s="173"/>
-      <c r="I33" s="192"/>
+      <c r="B33" s="197"/>
+      <c r="C33" s="192"/>
+      <c r="D33" s="154"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="154"/>
+      <c r="I33" s="193"/>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="196"/>
-      <c r="C34" s="191"/>
-      <c r="D34" s="173"/>
-      <c r="E34" s="173"/>
-      <c r="F34" s="173"/>
-      <c r="G34" s="173"/>
-      <c r="H34" s="173"/>
-      <c r="I34" s="192"/>
+      <c r="B34" s="197"/>
+      <c r="C34" s="192"/>
+      <c r="D34" s="154"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="154"/>
+      <c r="H34" s="154"/>
+      <c r="I34" s="193"/>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="196"/>
-      <c r="C35" s="191"/>
-      <c r="D35" s="173"/>
-      <c r="E35" s="173"/>
-      <c r="F35" s="173"/>
-      <c r="G35" s="173"/>
-      <c r="H35" s="173"/>
-      <c r="I35" s="192"/>
+      <c r="B35" s="197"/>
+      <c r="C35" s="192"/>
+      <c r="D35" s="154"/>
+      <c r="E35" s="154"/>
+      <c r="F35" s="154"/>
+      <c r="G35" s="154"/>
+      <c r="H35" s="154"/>
+      <c r="I35" s="193"/>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="196"/>
-      <c r="C36" s="191"/>
-      <c r="D36" s="173"/>
-      <c r="E36" s="173"/>
-      <c r="F36" s="173"/>
-      <c r="G36" s="173"/>
-      <c r="H36" s="173"/>
-      <c r="I36" s="192"/>
+      <c r="B36" s="197"/>
+      <c r="C36" s="192"/>
+      <c r="D36" s="154"/>
+      <c r="E36" s="154"/>
+      <c r="F36" s="154"/>
+      <c r="G36" s="154"/>
+      <c r="H36" s="154"/>
+      <c r="I36" s="193"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="196"/>
-      <c r="C37" s="191"/>
-      <c r="D37" s="173"/>
-      <c r="E37" s="173"/>
-      <c r="F37" s="173"/>
-      <c r="G37" s="173"/>
-      <c r="H37" s="173"/>
-      <c r="I37" s="192"/>
+      <c r="B37" s="197"/>
+      <c r="C37" s="192"/>
+      <c r="D37" s="154"/>
+      <c r="E37" s="154"/>
+      <c r="F37" s="154"/>
+      <c r="G37" s="154"/>
+      <c r="H37" s="154"/>
+      <c r="I37" s="193"/>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="196"/>
-      <c r="C38" s="191"/>
-      <c r="D38" s="173"/>
-      <c r="E38" s="173"/>
-      <c r="F38" s="173"/>
-      <c r="G38" s="173"/>
-      <c r="H38" s="173"/>
-      <c r="I38" s="192"/>
+      <c r="B38" s="197"/>
+      <c r="C38" s="192"/>
+      <c r="D38" s="154"/>
+      <c r="E38" s="154"/>
+      <c r="F38" s="154"/>
+      <c r="G38" s="154"/>
+      <c r="H38" s="154"/>
+      <c r="I38" s="193"/>
     </row>
     <row r="39" spans="2:9">
-      <c r="B39" s="196"/>
-      <c r="C39" s="191"/>
-      <c r="D39" s="173"/>
-      <c r="E39" s="173"/>
-      <c r="F39" s="173"/>
-      <c r="G39" s="173"/>
-      <c r="H39" s="173"/>
-      <c r="I39" s="192"/>
+      <c r="B39" s="197"/>
+      <c r="C39" s="192"/>
+      <c r="D39" s="154"/>
+      <c r="E39" s="154"/>
+      <c r="F39" s="154"/>
+      <c r="G39" s="154"/>
+      <c r="H39" s="154"/>
+      <c r="I39" s="193"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="196"/>
-      <c r="C40" s="191"/>
-      <c r="D40" s="173"/>
-      <c r="E40" s="173"/>
-      <c r="F40" s="173"/>
-      <c r="G40" s="173"/>
-      <c r="H40" s="173"/>
-      <c r="I40" s="192"/>
+      <c r="B40" s="197"/>
+      <c r="C40" s="192"/>
+      <c r="D40" s="154"/>
+      <c r="E40" s="154"/>
+      <c r="F40" s="154"/>
+      <c r="G40" s="154"/>
+      <c r="H40" s="154"/>
+      <c r="I40" s="193"/>
     </row>
     <row r="41" spans="2:9" ht="18" thickBot="1">
-      <c r="B41" s="197"/>
-      <c r="C41" s="193"/>
-      <c r="D41" s="174"/>
-      <c r="E41" s="174"/>
-      <c r="F41" s="174"/>
-      <c r="G41" s="174"/>
-      <c r="H41" s="174"/>
-      <c r="I41" s="194"/>
+      <c r="B41" s="198"/>
+      <c r="C41" s="194"/>
+      <c r="D41" s="155"/>
+      <c r="E41" s="155"/>
+      <c r="F41" s="155"/>
+      <c r="G41" s="155"/>
+      <c r="H41" s="155"/>
+      <c r="I41" s="195"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -8904,7 +9277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
@@ -8917,601 +9290,601 @@
   <sheetData>
     <row r="1" spans="2:9" ht="18" thickBot="1"/>
     <row r="2" spans="2:9">
-      <c r="B2" s="121"/>
-      <c r="C2" s="198" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="199" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="198"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="198"/>
-      <c r="G2" s="198"/>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
     </row>
     <row r="3" spans="2:9" ht="18" thickBot="1">
-      <c r="B3" s="122"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
     </row>
     <row r="4" spans="2:9" ht="18" thickBot="1"/>
     <row r="5" spans="2:9">
-      <c r="B5" s="207" t="s">
+      <c r="B5" s="208" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="196"/>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
+      <c r="B6" s="197"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="196"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
+      <c r="B7" s="197"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="131"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="196"/>
-      <c r="C8" s="138"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="138"/>
-      <c r="I8" s="138"/>
+      <c r="B8" s="197"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="131"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="196"/>
-      <c r="C9" s="138"/>
-      <c r="D9" s="138"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="138"/>
-      <c r="I9" s="138"/>
+      <c r="B9" s="197"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="196"/>
-      <c r="C10" s="138"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
+      <c r="B10" s="197"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="131"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="196"/>
-      <c r="C11" s="138"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="138"/>
+      <c r="B11" s="197"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="196"/>
-      <c r="C12" s="138"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="138"/>
-      <c r="I12" s="138"/>
+      <c r="B12" s="197"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="131"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="196"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="138"/>
+      <c r="B13" s="197"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="131"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="196"/>
-      <c r="C14" s="138"/>
-      <c r="D14" s="138"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="138"/>
-      <c r="H14" s="138"/>
-      <c r="I14" s="138"/>
+      <c r="B14" s="197"/>
+      <c r="C14" s="131"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="131"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="196"/>
-      <c r="C15" s="138"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="138"/>
-      <c r="H15" s="138"/>
-      <c r="I15" s="138"/>
+      <c r="B15" s="197"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="131"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="196"/>
-      <c r="C16" s="138"/>
-      <c r="D16" s="138"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="138"/>
-      <c r="G16" s="138"/>
-      <c r="H16" s="138"/>
-      <c r="I16" s="138"/>
+      <c r="B16" s="197"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="131"/>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="196"/>
-      <c r="C17" s="138"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="138"/>
-      <c r="G17" s="138"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="138"/>
+      <c r="B17" s="197"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="131"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="196"/>
-      <c r="C18" s="138"/>
-      <c r="D18" s="138"/>
-      <c r="E18" s="138"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="138"/>
-      <c r="H18" s="138"/>
-      <c r="I18" s="138"/>
+      <c r="B18" s="197"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="131"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="196"/>
-      <c r="C19" s="138"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="138"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="138"/>
-      <c r="I19" s="138"/>
+      <c r="B19" s="197"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="196"/>
-      <c r="C20" s="138"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="138"/>
-      <c r="F20" s="138"/>
-      <c r="G20" s="138"/>
-      <c r="H20" s="138"/>
-      <c r="I20" s="138"/>
+      <c r="B20" s="197"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="131"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="196"/>
-      <c r="C21" s="138"/>
-      <c r="D21" s="138"/>
-      <c r="E21" s="138"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="138"/>
-      <c r="I21" s="138"/>
+      <c r="B21" s="197"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="131"/>
+      <c r="F21" s="131"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="131"/>
+      <c r="I21" s="131"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="196"/>
-      <c r="C22" s="138"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="138"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="138"/>
+      <c r="B22" s="197"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="131"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="196"/>
-      <c r="C23" s="138"/>
-      <c r="D23" s="138"/>
-      <c r="E23" s="138"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="138"/>
-      <c r="H23" s="138"/>
-      <c r="I23" s="138"/>
+      <c r="B23" s="197"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="131"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="196"/>
-      <c r="C24" s="138"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="138"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="138"/>
-      <c r="H24" s="138"/>
-      <c r="I24" s="138"/>
+      <c r="B24" s="197"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
     </row>
     <row r="25" spans="2:9" ht="18" thickBot="1">
-      <c r="B25" s="197"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="122"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="122"/>
-      <c r="I25" s="122"/>
+      <c r="B25" s="198"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="116"/>
+      <c r="I25" s="116"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="207" t="s">
+      <c r="B26" s="208" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="121"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="121"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="115"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="196"/>
-      <c r="C27" s="138"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="138"/>
-      <c r="F27" s="138"/>
-      <c r="G27" s="138"/>
-      <c r="H27" s="138"/>
-      <c r="I27" s="138"/>
+      <c r="B27" s="197"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="131"/>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="196"/>
-      <c r="C28" s="138"/>
-      <c r="D28" s="138"/>
-      <c r="E28" s="138"/>
-      <c r="F28" s="138"/>
-      <c r="G28" s="138"/>
-      <c r="H28" s="138"/>
-      <c r="I28" s="138"/>
+      <c r="B28" s="197"/>
+      <c r="C28" s="131"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="131"/>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="196"/>
-      <c r="C29" s="138"/>
-      <c r="D29" s="138"/>
-      <c r="E29" s="138"/>
-      <c r="F29" s="138"/>
-      <c r="G29" s="138"/>
-      <c r="H29" s="138"/>
-      <c r="I29" s="138"/>
+      <c r="B29" s="197"/>
+      <c r="C29" s="131"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="131"/>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="196"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="138"/>
-      <c r="E30" s="138"/>
-      <c r="F30" s="138"/>
-      <c r="G30" s="138"/>
-      <c r="H30" s="138"/>
-      <c r="I30" s="138"/>
+      <c r="B30" s="197"/>
+      <c r="C30" s="131"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="131"/>
+      <c r="F30" s="131"/>
+      <c r="G30" s="131"/>
+      <c r="H30" s="131"/>
+      <c r="I30" s="131"/>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="196"/>
-      <c r="C31" s="138"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="138"/>
-      <c r="F31" s="138"/>
-      <c r="G31" s="138"/>
-      <c r="H31" s="138"/>
-      <c r="I31" s="138"/>
+      <c r="B31" s="197"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="131"/>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="196"/>
-      <c r="C32" s="138"/>
-      <c r="D32" s="138"/>
-      <c r="E32" s="138"/>
-      <c r="F32" s="138"/>
-      <c r="G32" s="138"/>
-      <c r="H32" s="138"/>
-      <c r="I32" s="138"/>
+      <c r="B32" s="197"/>
+      <c r="C32" s="131"/>
+      <c r="D32" s="131"/>
+      <c r="E32" s="131"/>
+      <c r="F32" s="131"/>
+      <c r="G32" s="131"/>
+      <c r="H32" s="131"/>
+      <c r="I32" s="131"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="196"/>
-      <c r="C33" s="138"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="138"/>
-      <c r="F33" s="138"/>
-      <c r="G33" s="138"/>
-      <c r="H33" s="138"/>
-      <c r="I33" s="138"/>
+      <c r="B33" s="197"/>
+      <c r="C33" s="131"/>
+      <c r="D33" s="131"/>
+      <c r="E33" s="131"/>
+      <c r="F33" s="131"/>
+      <c r="G33" s="131"/>
+      <c r="H33" s="131"/>
+      <c r="I33" s="131"/>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="196"/>
-      <c r="C34" s="138"/>
-      <c r="D34" s="138"/>
-      <c r="E34" s="138"/>
-      <c r="F34" s="138"/>
-      <c r="G34" s="138"/>
-      <c r="H34" s="138"/>
-      <c r="I34" s="138"/>
+      <c r="B34" s="197"/>
+      <c r="C34" s="131"/>
+      <c r="D34" s="131"/>
+      <c r="E34" s="131"/>
+      <c r="F34" s="131"/>
+      <c r="G34" s="131"/>
+      <c r="H34" s="131"/>
+      <c r="I34" s="131"/>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="196"/>
-      <c r="C35" s="138"/>
-      <c r="D35" s="138"/>
-      <c r="E35" s="138"/>
-      <c r="F35" s="138"/>
-      <c r="G35" s="138"/>
-      <c r="H35" s="138"/>
-      <c r="I35" s="138"/>
+      <c r="B35" s="197"/>
+      <c r="C35" s="131"/>
+      <c r="D35" s="131"/>
+      <c r="E35" s="131"/>
+      <c r="F35" s="131"/>
+      <c r="G35" s="131"/>
+      <c r="H35" s="131"/>
+      <c r="I35" s="131"/>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="196"/>
-      <c r="C36" s="138"/>
-      <c r="D36" s="138"/>
-      <c r="E36" s="138"/>
-      <c r="F36" s="138"/>
-      <c r="G36" s="138"/>
-      <c r="H36" s="138"/>
-      <c r="I36" s="138"/>
+      <c r="B36" s="197"/>
+      <c r="C36" s="131"/>
+      <c r="D36" s="131"/>
+      <c r="E36" s="131"/>
+      <c r="F36" s="131"/>
+      <c r="G36" s="131"/>
+      <c r="H36" s="131"/>
+      <c r="I36" s="131"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="196"/>
-      <c r="C37" s="138"/>
-      <c r="D37" s="138"/>
-      <c r="E37" s="138"/>
-      <c r="F37" s="138"/>
-      <c r="G37" s="138"/>
-      <c r="H37" s="138"/>
-      <c r="I37" s="138"/>
+      <c r="B37" s="197"/>
+      <c r="C37" s="131"/>
+      <c r="D37" s="131"/>
+      <c r="E37" s="131"/>
+      <c r="F37" s="131"/>
+      <c r="G37" s="131"/>
+      <c r="H37" s="131"/>
+      <c r="I37" s="131"/>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="196"/>
-      <c r="C38" s="138"/>
-      <c r="D38" s="138"/>
-      <c r="E38" s="138"/>
-      <c r="F38" s="138"/>
-      <c r="G38" s="138"/>
-      <c r="H38" s="138"/>
-      <c r="I38" s="138"/>
+      <c r="B38" s="197"/>
+      <c r="C38" s="131"/>
+      <c r="D38" s="131"/>
+      <c r="E38" s="131"/>
+      <c r="F38" s="131"/>
+      <c r="G38" s="131"/>
+      <c r="H38" s="131"/>
+      <c r="I38" s="131"/>
     </row>
     <row r="39" spans="2:9">
-      <c r="B39" s="196"/>
-      <c r="C39" s="138"/>
-      <c r="D39" s="138"/>
-      <c r="E39" s="138"/>
-      <c r="F39" s="138"/>
-      <c r="G39" s="138"/>
-      <c r="H39" s="138"/>
-      <c r="I39" s="138"/>
+      <c r="B39" s="197"/>
+      <c r="C39" s="131"/>
+      <c r="D39" s="131"/>
+      <c r="E39" s="131"/>
+      <c r="F39" s="131"/>
+      <c r="G39" s="131"/>
+      <c r="H39" s="131"/>
+      <c r="I39" s="131"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="196"/>
-      <c r="C40" s="138"/>
-      <c r="D40" s="138"/>
-      <c r="E40" s="138"/>
-      <c r="F40" s="138"/>
-      <c r="G40" s="138"/>
-      <c r="H40" s="138"/>
-      <c r="I40" s="138"/>
+      <c r="B40" s="197"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="131"/>
+      <c r="E40" s="131"/>
+      <c r="F40" s="131"/>
+      <c r="G40" s="131"/>
+      <c r="H40" s="131"/>
+      <c r="I40" s="131"/>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="196"/>
-      <c r="C41" s="138"/>
-      <c r="D41" s="138"/>
-      <c r="E41" s="138"/>
-      <c r="F41" s="138"/>
-      <c r="G41" s="138"/>
-      <c r="H41" s="138"/>
-      <c r="I41" s="138"/>
+      <c r="B41" s="197"/>
+      <c r="C41" s="131"/>
+      <c r="D41" s="131"/>
+      <c r="E41" s="131"/>
+      <c r="F41" s="131"/>
+      <c r="G41" s="131"/>
+      <c r="H41" s="131"/>
+      <c r="I41" s="131"/>
     </row>
     <row r="42" spans="2:9">
-      <c r="B42" s="196"/>
-      <c r="C42" s="138"/>
-      <c r="D42" s="138"/>
-      <c r="E42" s="138"/>
-      <c r="F42" s="138"/>
-      <c r="G42" s="138"/>
-      <c r="H42" s="138"/>
-      <c r="I42" s="138"/>
+      <c r="B42" s="197"/>
+      <c r="C42" s="131"/>
+      <c r="D42" s="131"/>
+      <c r="E42" s="131"/>
+      <c r="F42" s="131"/>
+      <c r="G42" s="131"/>
+      <c r="H42" s="131"/>
+      <c r="I42" s="131"/>
     </row>
     <row r="43" spans="2:9">
-      <c r="B43" s="196"/>
-      <c r="C43" s="138"/>
-      <c r="D43" s="138"/>
-      <c r="E43" s="138"/>
-      <c r="F43" s="138"/>
-      <c r="G43" s="138"/>
-      <c r="H43" s="138"/>
-      <c r="I43" s="138"/>
+      <c r="B43" s="197"/>
+      <c r="C43" s="131"/>
+      <c r="D43" s="131"/>
+      <c r="E43" s="131"/>
+      <c r="F43" s="131"/>
+      <c r="G43" s="131"/>
+      <c r="H43" s="131"/>
+      <c r="I43" s="131"/>
     </row>
     <row r="44" spans="2:9">
-      <c r="B44" s="196"/>
-      <c r="C44" s="138"/>
-      <c r="D44" s="138"/>
-      <c r="E44" s="138"/>
-      <c r="F44" s="138"/>
-      <c r="G44" s="138"/>
-      <c r="H44" s="138"/>
-      <c r="I44" s="138"/>
+      <c r="B44" s="197"/>
+      <c r="C44" s="131"/>
+      <c r="D44" s="131"/>
+      <c r="E44" s="131"/>
+      <c r="F44" s="131"/>
+      <c r="G44" s="131"/>
+      <c r="H44" s="131"/>
+      <c r="I44" s="131"/>
     </row>
     <row r="45" spans="2:9">
-      <c r="B45" s="196"/>
-      <c r="C45" s="138"/>
-      <c r="D45" s="138"/>
-      <c r="E45" s="138"/>
-      <c r="F45" s="138"/>
-      <c r="G45" s="138"/>
-      <c r="H45" s="138"/>
-      <c r="I45" s="138"/>
+      <c r="B45" s="197"/>
+      <c r="C45" s="131"/>
+      <c r="D45" s="131"/>
+      <c r="E45" s="131"/>
+      <c r="F45" s="131"/>
+      <c r="G45" s="131"/>
+      <c r="H45" s="131"/>
+      <c r="I45" s="131"/>
     </row>
     <row r="46" spans="2:9">
-      <c r="B46" s="196"/>
-      <c r="C46" s="138"/>
-      <c r="D46" s="138"/>
-      <c r="E46" s="138"/>
-      <c r="F46" s="138"/>
-      <c r="G46" s="138"/>
-      <c r="H46" s="138"/>
-      <c r="I46" s="138"/>
+      <c r="B46" s="197"/>
+      <c r="C46" s="131"/>
+      <c r="D46" s="131"/>
+      <c r="E46" s="131"/>
+      <c r="F46" s="131"/>
+      <c r="G46" s="131"/>
+      <c r="H46" s="131"/>
+      <c r="I46" s="131"/>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="196"/>
-      <c r="C47" s="138"/>
-      <c r="D47" s="138"/>
-      <c r="E47" s="138"/>
-      <c r="F47" s="138"/>
-      <c r="G47" s="138"/>
-      <c r="H47" s="138"/>
-      <c r="I47" s="138"/>
+      <c r="B47" s="197"/>
+      <c r="C47" s="131"/>
+      <c r="D47" s="131"/>
+      <c r="E47" s="131"/>
+      <c r="F47" s="131"/>
+      <c r="G47" s="131"/>
+      <c r="H47" s="131"/>
+      <c r="I47" s="131"/>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="196"/>
-      <c r="C48" s="138"/>
-      <c r="D48" s="138"/>
-      <c r="E48" s="138"/>
-      <c r="F48" s="138"/>
-      <c r="G48" s="138"/>
-      <c r="H48" s="138"/>
-      <c r="I48" s="138"/>
+      <c r="B48" s="197"/>
+      <c r="C48" s="131"/>
+      <c r="D48" s="131"/>
+      <c r="E48" s="131"/>
+      <c r="F48" s="131"/>
+      <c r="G48" s="131"/>
+      <c r="H48" s="131"/>
+      <c r="I48" s="131"/>
     </row>
     <row r="49" spans="2:9">
-      <c r="B49" s="196"/>
-      <c r="C49" s="138"/>
-      <c r="D49" s="138"/>
-      <c r="E49" s="138"/>
-      <c r="F49" s="138"/>
-      <c r="G49" s="138"/>
-      <c r="H49" s="138"/>
-      <c r="I49" s="138"/>
+      <c r="B49" s="197"/>
+      <c r="C49" s="131"/>
+      <c r="D49" s="131"/>
+      <c r="E49" s="131"/>
+      <c r="F49" s="131"/>
+      <c r="G49" s="131"/>
+      <c r="H49" s="131"/>
+      <c r="I49" s="131"/>
     </row>
     <row r="50" spans="2:9">
-      <c r="B50" s="196"/>
-      <c r="C50" s="138"/>
-      <c r="D50" s="138"/>
-      <c r="E50" s="138"/>
-      <c r="F50" s="138"/>
-      <c r="G50" s="138"/>
-      <c r="H50" s="138"/>
-      <c r="I50" s="138"/>
+      <c r="B50" s="197"/>
+      <c r="C50" s="131"/>
+      <c r="D50" s="131"/>
+      <c r="E50" s="131"/>
+      <c r="F50" s="131"/>
+      <c r="G50" s="131"/>
+      <c r="H50" s="131"/>
+      <c r="I50" s="131"/>
     </row>
     <row r="51" spans="2:9">
-      <c r="B51" s="196"/>
-      <c r="C51" s="138"/>
-      <c r="D51" s="138"/>
-      <c r="E51" s="138"/>
-      <c r="F51" s="138"/>
-      <c r="G51" s="138"/>
-      <c r="H51" s="138"/>
-      <c r="I51" s="138"/>
+      <c r="B51" s="197"/>
+      <c r="C51" s="131"/>
+      <c r="D51" s="131"/>
+      <c r="E51" s="131"/>
+      <c r="F51" s="131"/>
+      <c r="G51" s="131"/>
+      <c r="H51" s="131"/>
+      <c r="I51" s="131"/>
     </row>
     <row r="52" spans="2:9">
-      <c r="B52" s="196"/>
-      <c r="C52" s="138"/>
-      <c r="D52" s="138"/>
-      <c r="E52" s="138"/>
-      <c r="F52" s="138"/>
-      <c r="G52" s="138"/>
-      <c r="H52" s="138"/>
-      <c r="I52" s="138"/>
+      <c r="B52" s="197"/>
+      <c r="C52" s="131"/>
+      <c r="D52" s="131"/>
+      <c r="E52" s="131"/>
+      <c r="F52" s="131"/>
+      <c r="G52" s="131"/>
+      <c r="H52" s="131"/>
+      <c r="I52" s="131"/>
     </row>
     <row r="53" spans="2:9">
-      <c r="B53" s="196"/>
-      <c r="C53" s="138"/>
-      <c r="D53" s="138"/>
-      <c r="E53" s="138"/>
-      <c r="F53" s="138"/>
-      <c r="G53" s="138"/>
-      <c r="H53" s="138"/>
-      <c r="I53" s="138"/>
+      <c r="B53" s="197"/>
+      <c r="C53" s="131"/>
+      <c r="D53" s="131"/>
+      <c r="E53" s="131"/>
+      <c r="F53" s="131"/>
+      <c r="G53" s="131"/>
+      <c r="H53" s="131"/>
+      <c r="I53" s="131"/>
     </row>
     <row r="54" spans="2:9">
-      <c r="B54" s="196"/>
-      <c r="C54" s="138"/>
-      <c r="D54" s="138"/>
-      <c r="E54" s="138"/>
-      <c r="F54" s="138"/>
-      <c r="G54" s="138"/>
-      <c r="H54" s="138"/>
-      <c r="I54" s="138"/>
+      <c r="B54" s="197"/>
+      <c r="C54" s="131"/>
+      <c r="D54" s="131"/>
+      <c r="E54" s="131"/>
+      <c r="F54" s="131"/>
+      <c r="G54" s="131"/>
+      <c r="H54" s="131"/>
+      <c r="I54" s="131"/>
     </row>
     <row r="55" spans="2:9">
-      <c r="B55" s="196"/>
-      <c r="C55" s="138"/>
-      <c r="D55" s="138"/>
-      <c r="E55" s="138"/>
-      <c r="F55" s="138"/>
-      <c r="G55" s="138"/>
-      <c r="H55" s="138"/>
-      <c r="I55" s="138"/>
+      <c r="B55" s="197"/>
+      <c r="C55" s="131"/>
+      <c r="D55" s="131"/>
+      <c r="E55" s="131"/>
+      <c r="F55" s="131"/>
+      <c r="G55" s="131"/>
+      <c r="H55" s="131"/>
+      <c r="I55" s="131"/>
     </row>
     <row r="56" spans="2:9">
-      <c r="B56" s="196"/>
-      <c r="C56" s="138"/>
-      <c r="D56" s="138"/>
-      <c r="E56" s="138"/>
-      <c r="F56" s="138"/>
-      <c r="G56" s="138"/>
-      <c r="H56" s="138"/>
-      <c r="I56" s="138"/>
+      <c r="B56" s="197"/>
+      <c r="C56" s="131"/>
+      <c r="D56" s="131"/>
+      <c r="E56" s="131"/>
+      <c r="F56" s="131"/>
+      <c r="G56" s="131"/>
+      <c r="H56" s="131"/>
+      <c r="I56" s="131"/>
     </row>
     <row r="57" spans="2:9">
-      <c r="B57" s="196"/>
-      <c r="C57" s="138"/>
-      <c r="D57" s="138"/>
-      <c r="E57" s="138"/>
-      <c r="F57" s="138"/>
-      <c r="G57" s="138"/>
-      <c r="H57" s="138"/>
-      <c r="I57" s="138"/>
+      <c r="B57" s="197"/>
+      <c r="C57" s="131"/>
+      <c r="D57" s="131"/>
+      <c r="E57" s="131"/>
+      <c r="F57" s="131"/>
+      <c r="G57" s="131"/>
+      <c r="H57" s="131"/>
+      <c r="I57" s="131"/>
     </row>
     <row r="58" spans="2:9">
-      <c r="B58" s="196"/>
-      <c r="C58" s="138"/>
-      <c r="D58" s="138"/>
-      <c r="E58" s="138"/>
-      <c r="F58" s="138"/>
-      <c r="G58" s="138"/>
-      <c r="H58" s="138"/>
-      <c r="I58" s="138"/>
+      <c r="B58" s="197"/>
+      <c r="C58" s="131"/>
+      <c r="D58" s="131"/>
+      <c r="E58" s="131"/>
+      <c r="F58" s="131"/>
+      <c r="G58" s="131"/>
+      <c r="H58" s="131"/>
+      <c r="I58" s="131"/>
     </row>
     <row r="59" spans="2:9">
-      <c r="B59" s="196"/>
-      <c r="C59" s="138"/>
-      <c r="D59" s="138"/>
-      <c r="E59" s="138"/>
-      <c r="F59" s="138"/>
-      <c r="G59" s="138"/>
-      <c r="H59" s="138"/>
-      <c r="I59" s="138"/>
+      <c r="B59" s="197"/>
+      <c r="C59" s="131"/>
+      <c r="D59" s="131"/>
+      <c r="E59" s="131"/>
+      <c r="F59" s="131"/>
+      <c r="G59" s="131"/>
+      <c r="H59" s="131"/>
+      <c r="I59" s="131"/>
     </row>
     <row r="60" spans="2:9">
-      <c r="B60" s="196"/>
-      <c r="C60" s="138"/>
-      <c r="D60" s="138"/>
-      <c r="E60" s="138"/>
-      <c r="F60" s="138"/>
-      <c r="G60" s="138"/>
-      <c r="H60" s="138"/>
-      <c r="I60" s="138"/>
+      <c r="B60" s="197"/>
+      <c r="C60" s="131"/>
+      <c r="D60" s="131"/>
+      <c r="E60" s="131"/>
+      <c r="F60" s="131"/>
+      <c r="G60" s="131"/>
+      <c r="H60" s="131"/>
+      <c r="I60" s="131"/>
     </row>
     <row r="61" spans="2:9" ht="18" thickBot="1">
-      <c r="B61" s="197"/>
-      <c r="C61" s="122"/>
-      <c r="D61" s="122"/>
-      <c r="E61" s="122"/>
-      <c r="F61" s="122"/>
-      <c r="G61" s="122"/>
-      <c r="H61" s="122"/>
-      <c r="I61" s="122"/>
+      <c r="B61" s="198"/>
+      <c r="C61" s="116"/>
+      <c r="D61" s="116"/>
+      <c r="E61" s="116"/>
+      <c r="F61" s="116"/>
+      <c r="G61" s="116"/>
+      <c r="H61" s="116"/>
+      <c r="I61" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -9534,10 +9907,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N16"/>
+  <dimension ref="B1:N17"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="72" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="19.2"/>
@@ -9575,18 +9948,18 @@
       <c r="M1" s="84"/>
     </row>
     <row r="2" spans="2:14" ht="17.399999999999999" customHeight="1">
-      <c r="B2" s="208"/>
-      <c r="C2" s="209"/>
-      <c r="D2" s="212" t="s">
+      <c r="B2" s="219"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="223" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="212"/>
-      <c r="F2" s="212"/>
-      <c r="G2" s="212"/>
-      <c r="H2" s="212"/>
-      <c r="I2" s="212"/>
-      <c r="J2" s="212"/>
-      <c r="K2" s="213"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="223"/>
+      <c r="I2" s="223"/>
+      <c r="J2" s="223"/>
+      <c r="K2" s="224"/>
       <c r="L2" s="97" t="s">
         <v>98</v>
       </c>
@@ -9595,16 +9968,16 @@
       </c>
     </row>
     <row r="3" spans="2:14" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="B3" s="210"/>
-      <c r="C3" s="211"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="214"/>
-      <c r="F3" s="214"/>
-      <c r="G3" s="214"/>
-      <c r="H3" s="214"/>
-      <c r="I3" s="214"/>
-      <c r="J3" s="214"/>
-      <c r="K3" s="215"/>
+      <c r="B3" s="221"/>
+      <c r="C3" s="222"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="225"/>
+      <c r="F3" s="225"/>
+      <c r="G3" s="225"/>
+      <c r="H3" s="225"/>
+      <c r="I3" s="225"/>
+      <c r="J3" s="225"/>
+      <c r="K3" s="226"/>
       <c r="L3" s="99" t="s">
         <v>99</v>
       </c>
@@ -9636,27 +10009,27 @@
       <c r="D5" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="221" t="s">
+      <c r="E5" s="211" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="221"/>
-      <c r="G5" s="221"/>
-      <c r="H5" s="221"/>
-      <c r="I5" s="221"/>
-      <c r="J5" s="221"/>
+      <c r="F5" s="211"/>
+      <c r="G5" s="211"/>
+      <c r="H5" s="211"/>
+      <c r="I5" s="211"/>
+      <c r="J5" s="211"/>
       <c r="K5" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="L5" s="221" t="s">
+      <c r="L5" s="211" t="s">
         <v>84</v>
       </c>
-      <c r="M5" s="222"/>
+      <c r="M5" s="212"/>
     </row>
     <row r="6" spans="2:14" ht="37.950000000000003" customHeight="1">
-      <c r="B6" s="223">
+      <c r="B6" s="213">
         <v>1</v>
       </c>
-      <c r="C6" s="225" t="s">
+      <c r="C6" s="215" t="s">
         <v>97</v>
       </c>
       <c r="D6" s="86" t="s">
@@ -9671,13 +10044,13 @@
       <c r="I6" s="218"/>
       <c r="J6" s="218"/>
       <c r="K6" s="86"/>
-      <c r="L6" s="219"/>
-      <c r="M6" s="220"/>
+      <c r="L6" s="209"/>
+      <c r="M6" s="210"/>
       <c r="N6" s="87"/>
     </row>
     <row r="7" spans="2:14" ht="37.950000000000003" customHeight="1">
-      <c r="B7" s="223"/>
-      <c r="C7" s="226"/>
+      <c r="B7" s="213"/>
+      <c r="C7" s="216"/>
       <c r="D7" s="86" t="s">
         <v>86</v>
       </c>
@@ -9690,13 +10063,13 @@
       <c r="I7" s="218"/>
       <c r="J7" s="218"/>
       <c r="K7" s="86"/>
-      <c r="L7" s="219"/>
-      <c r="M7" s="220"/>
+      <c r="L7" s="209"/>
+      <c r="M7" s="210"/>
       <c r="N7" s="87"/>
     </row>
     <row r="8" spans="2:14" ht="37.950000000000003" customHeight="1">
-      <c r="B8" s="223"/>
-      <c r="C8" s="226"/>
+      <c r="B8" s="213"/>
+      <c r="C8" s="216"/>
       <c r="D8" s="86" t="s">
         <v>86</v>
       </c>
@@ -9709,13 +10082,13 @@
       <c r="I8" s="218"/>
       <c r="J8" s="218"/>
       <c r="K8" s="86"/>
-      <c r="L8" s="219"/>
-      <c r="M8" s="220"/>
+      <c r="L8" s="209"/>
+      <c r="M8" s="210"/>
       <c r="N8" s="87"/>
     </row>
     <row r="9" spans="2:14" ht="37.950000000000003" customHeight="1">
-      <c r="B9" s="223"/>
-      <c r="C9" s="226"/>
+      <c r="B9" s="213"/>
+      <c r="C9" s="216"/>
       <c r="D9" s="86" t="s">
         <v>86</v>
       </c>
@@ -9728,13 +10101,13 @@
       <c r="I9" s="218"/>
       <c r="J9" s="218"/>
       <c r="K9" s="86"/>
-      <c r="L9" s="219"/>
-      <c r="M9" s="220"/>
+      <c r="L9" s="209"/>
+      <c r="M9" s="210"/>
       <c r="N9" s="87"/>
     </row>
     <row r="10" spans="2:14" ht="37.950000000000003" customHeight="1">
-      <c r="B10" s="223"/>
-      <c r="C10" s="226"/>
+      <c r="B10" s="213"/>
+      <c r="C10" s="216"/>
       <c r="D10" s="86" t="s">
         <v>86</v>
       </c>
@@ -9747,13 +10120,13 @@
       <c r="I10" s="218"/>
       <c r="J10" s="218"/>
       <c r="K10" s="86"/>
-      <c r="L10" s="219"/>
-      <c r="M10" s="220"/>
+      <c r="L10" s="209"/>
+      <c r="M10" s="210"/>
       <c r="N10" s="87"/>
     </row>
     <row r="11" spans="2:14" ht="37.950000000000003" customHeight="1">
-      <c r="B11" s="223"/>
-      <c r="C11" s="226"/>
+      <c r="B11" s="213"/>
+      <c r="C11" s="216"/>
       <c r="D11" s="86" t="s">
         <v>86</v>
       </c>
@@ -9766,13 +10139,13 @@
       <c r="I11" s="218"/>
       <c r="J11" s="218"/>
       <c r="K11" s="86"/>
-      <c r="L11" s="219"/>
-      <c r="M11" s="220"/>
+      <c r="L11" s="209"/>
+      <c r="M11" s="210"/>
       <c r="N11" s="87"/>
     </row>
     <row r="12" spans="2:14" ht="37.950000000000003" customHeight="1">
-      <c r="B12" s="223"/>
-      <c r="C12" s="226"/>
+      <c r="B12" s="213"/>
+      <c r="C12" s="216"/>
       <c r="D12" s="86" t="s">
         <v>85</v>
       </c>
@@ -9785,13 +10158,13 @@
       <c r="I12" s="218"/>
       <c r="J12" s="218"/>
       <c r="K12" s="86"/>
-      <c r="L12" s="219"/>
-      <c r="M12" s="220"/>
+      <c r="L12" s="209"/>
+      <c r="M12" s="210"/>
       <c r="N12" s="87"/>
     </row>
     <row r="13" spans="2:14" ht="37.950000000000003" customHeight="1">
-      <c r="B13" s="223"/>
-      <c r="C13" s="226"/>
+      <c r="B13" s="213"/>
+      <c r="C13" s="216"/>
       <c r="D13" s="86" t="s">
         <v>86</v>
       </c>
@@ -9804,13 +10177,13 @@
       <c r="I13" s="218"/>
       <c r="J13" s="218"/>
       <c r="K13" s="86"/>
-      <c r="L13" s="219"/>
-      <c r="M13" s="220"/>
+      <c r="L13" s="209"/>
+      <c r="M13" s="210"/>
       <c r="N13" s="87"/>
     </row>
     <row r="14" spans="2:14" ht="37.950000000000003" customHeight="1">
-      <c r="B14" s="223"/>
-      <c r="C14" s="226"/>
+      <c r="B14" s="213"/>
+      <c r="C14" s="216"/>
       <c r="D14" s="86" t="s">
         <v>86</v>
       </c>
@@ -9823,59 +10196,68 @@
       <c r="I14" s="218"/>
       <c r="J14" s="218"/>
       <c r="K14" s="86"/>
-      <c r="L14" s="219"/>
-      <c r="M14" s="220"/>
+      <c r="L14" s="209"/>
+      <c r="M14" s="210"/>
       <c r="N14" s="87"/>
     </row>
-    <row r="15" spans="2:14" ht="37.950000000000003" customHeight="1" thickBot="1">
-      <c r="B15" s="224"/>
-      <c r="C15" s="227"/>
-      <c r="D15" s="96" t="s">
+    <row r="15" spans="2:14" ht="37.950000000000003" customHeight="1">
+      <c r="B15" s="229"/>
+      <c r="C15" s="216"/>
+      <c r="D15" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="230" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="230"/>
+      <c r="G15" s="230"/>
+      <c r="H15" s="230"/>
+      <c r="I15" s="230"/>
+      <c r="J15" s="230"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="209"/>
+      <c r="M15" s="210"/>
+      <c r="N15" s="87"/>
+    </row>
+    <row r="16" spans="2:14" ht="37.950000000000003" customHeight="1" thickBot="1">
+      <c r="B16" s="214"/>
+      <c r="C16" s="217"/>
+      <c r="D16" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="216" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" s="216"/>
-      <c r="G15" s="216"/>
-      <c r="H15" s="216"/>
-      <c r="I15" s="216"/>
-      <c r="J15" s="216"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="211"/>
-      <c r="M15" s="217"/>
-      <c r="N15" s="87"/>
-    </row>
-    <row r="16" spans="2:14">
-      <c r="B16" s="90"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="83"/>
+      <c r="E16" s="227" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="227"/>
+      <c r="G16" s="227"/>
+      <c r="H16" s="227"/>
+      <c r="I16" s="227"/>
+      <c r="J16" s="227"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="222"/>
+      <c r="M16" s="228"/>
+      <c r="N16" s="87"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="90"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="83"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="B6:B15"/>
-    <mergeCell ref="C6:C15"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="E8:J8"/>
+  <mergeCells count="28">
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="D2:K3"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="L16:M16"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="E13:J13"/>
@@ -9888,6 +10270,18 @@
     <mergeCell ref="E10:J10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="E11:J11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B6:B16"/>
+    <mergeCell ref="C6:C16"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="L15:M15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -10508,13 +10902,13 @@
                   <from>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>91440</xdr:colOff>
-                    <xdr:row>14</xdr:row>
+                    <xdr:row>15</xdr:row>
                     <xdr:rowOff>106680</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>579120</xdr:colOff>
-                    <xdr:row>14</xdr:row>
+                    <xdr:row>15</xdr:row>
                     <xdr:rowOff>388620</xdr:rowOff>
                   </to>
                 </anchor>
@@ -10530,13 +10924,13 @@
                   <from>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>525780</xdr:colOff>
-                    <xdr:row>14</xdr:row>
+                    <xdr:row>15</xdr:row>
                     <xdr:rowOff>121920</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>967740</xdr:colOff>
-                    <xdr:row>14</xdr:row>
+                    <xdr:row>15</xdr:row>
                     <xdr:rowOff>381000</xdr:rowOff>
                   </to>
                 </anchor>
@@ -10552,14 +10946,80 @@
                   <from>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>952500</xdr:colOff>
-                    <xdr:row>14</xdr:row>
+                    <xdr:row>15</xdr:row>
                     <xdr:rowOff>91440</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>1447800</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>403860</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6175" r:id="rId34" name="Check Box 31">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>91440</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>403860</xdr:rowOff>
+                    <xdr:rowOff>114300</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>579120</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>396240</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6176" r:id="rId35" name="Check Box 32">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>525780</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>129540</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>967740</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>388620</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="6177" r:id="rId36" name="Check Box 33">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>952500</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>99060</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>1447800</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>411480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/공학용계산기 Development Report_메가톤.xlsx
+++ b/공학용계산기 Development Report_메가톤.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\Calculator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESKTOP\git\Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844CD309-117D-44F5-82C9-1887FD6BD676}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12396"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="7" r:id="rId1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="105">
   <si>
     <t>Start</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -506,12 +507,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>알고리즘(최대공약수) 기능에 이상이 없는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>최대공약수</t>
@@ -529,8 +534,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>구하는</t>
@@ -548,8 +553,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>알고리즘</t>
@@ -567,8 +572,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
       <t>추가</t>
@@ -576,23 +581,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>김상현</t>
+    <r>
+      <t>History 조회</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 알고리즘 추가</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>알고리즘(최대공약수) 기능에 이상이 없는가?</t>
+    <t>2020.06.28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="General&quot;%&quot;"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -754,6 +771,27 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1602,7 +1640,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="231">
+  <cellXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1935,6 +1973,99 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1944,24 +2075,12 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1974,92 +2093,71 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2112,66 +2210,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2231,6 +2269,39 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2249,6 +2320,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2259,51 +2333,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Normal_PSO V5 Supplement Check Sheet V4" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal_PSO V5 Supplement Check Sheet V4" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="셀 확인" xfId="3" builtinId="23"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2570,7 +2614,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2630,7 +2680,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2690,7 +2746,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2750,7 +2812,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2805,7 +2873,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2860,7 +2934,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2915,7 +2995,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="그림 7"/>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2975,7 +3061,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3030,7 +3122,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3085,7 +3183,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3140,7 +3244,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3178,7 +3288,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="직사각형 5"/>
+        <xdr:cNvPr id="6" name="직사각형 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3226,6 +3342,878 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943100" y="8100060"/>
+          <a:ext cx="4663440" cy="899160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t> - </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>기본 창</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>의 구성은 키패드와 디스플레이로 이루어져 있다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>피연산자 및 연산자를 입력하여 계산된 결과를 디스플레이 화면을 통해서  확인할 수 있다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>13841</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="꺾인 연결선 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="3" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4585841" y="6469380"/>
+          <a:ext cx="222379" cy="3200400"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -726435"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="직사각형 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2049780" y="5806440"/>
+          <a:ext cx="3284220" cy="426720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="직사각형 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2049780" y="6233160"/>
+          <a:ext cx="3284220" cy="1882140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="TextBox 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5608320" y="5859780"/>
+          <a:ext cx="967740" cy="297180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>디스플레이</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="TextBox 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5608320" y="6995160"/>
+          <a:ext cx="967740" cy="297180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>키패드</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="직선 화살표 연결선 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="3"/>
+          <a:endCxn id="25" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5334000" y="6008370"/>
+          <a:ext cx="274320" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="직선 화살표 연결선 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5334000" y="7158990"/>
+          <a:ext cx="274320" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>297181</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7621</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="그림 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2186941" y="11018520"/>
+          <a:ext cx="2392680" cy="1866900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="직사각형 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2453640" y="9517380"/>
+          <a:ext cx="716280" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>186690</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1992630" y="12226290"/>
+          <a:ext cx="4564380" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t> - </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>기록 조회를 통해서 계산한 결과들을</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t> 최대 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>20</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>개까지 조회할 수 있으며</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>기록 삭제도 가능하다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>297182</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>563881</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="꺾인 연결선 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="1"/>
+          <a:endCxn id="18" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="2186942" y="9662160"/>
+          <a:ext cx="266699" cy="2289810"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 185715"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
@@ -3238,7 +4226,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvPr id="13" name="TextBox 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3351,806 +4345,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="TextBox 14"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1943100" y="8100060"/>
-          <a:ext cx="4663440" cy="899160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t> - </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
-              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>기본 창</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
-              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>의 구성은 키패드와 디스플레이로 이루어져 있다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
-              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
-              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>피연산자 및 연산자를 입력하여 계산된 결과를 디스플레이 화면을 통해서  확인할 수 있다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
-              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-            <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>13841</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="꺾인 연결선 16"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="3"/>
-          <a:endCxn id="3" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4585841" y="6469380"/>
-          <a:ext cx="222379" cy="3200400"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -726435"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="직사각형 22"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2049780" y="5806440"/>
-          <a:ext cx="3284220" cy="426720"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="00B0F0"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="직사각형 23"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2049780" y="6233160"/>
-          <a:ext cx="3284220" cy="1882140"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="00B0F0"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="TextBox 24"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5608320" y="5859780"/>
-          <a:ext cx="967740" cy="297180"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
-              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>디스플레이</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="TextBox 25"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5608320" y="6995160"/>
-          <a:ext cx="967740" cy="297180"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
-              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>키패드</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="직선 화살표 연결선 27"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="23" idx="3"/>
-          <a:endCxn id="25" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5334000" y="6008370"/>
-          <a:ext cx="274320" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="00B0F0"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="직선 화살표 연결선 29"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5334000" y="7158990"/>
-          <a:ext cx="274320" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="00B0F0"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>297181</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>7621</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="그림 17"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2186941" y="11018520"/>
-          <a:ext cx="2392680" cy="1866900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="직사각형 20"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2453640" y="9517380"/>
-          <a:ext cx="716280" cy="289560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="TextBox 21"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1996440" y="12900660"/>
-          <a:ext cx="4472940" cy="594360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t> - </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
-              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>기록 조회를 통해서 계산한 결과들을</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
-              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t> 최대 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
-              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>20</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
-              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>개까지 조회할 수 있으며</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
-              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
-              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>기록 삭제도 가능하다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
-              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-            <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>297182</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>563881</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="꺾인 연결선 26"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="21" idx="1"/>
-          <a:endCxn id="18" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="2186942" y="9662160"/>
-          <a:ext cx="266699" cy="2289810"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 185715"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4171,7 +4365,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4216,15 +4416,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>91440</xdr:colOff>
+          <xdr:colOff>95250</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>106680</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>579120</xdr:colOff>
+          <xdr:colOff>581025</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>388620</xdr:rowOff>
+          <xdr:rowOff>390525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4232,6 +4432,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6145"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4270,7 +4473,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4299,13 +4502,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>525780</xdr:colOff>
+          <xdr:colOff>523875</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>967740</xdr:colOff>
+          <xdr:colOff>971550</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>381000</xdr:rowOff>
         </xdr:to>
@@ -4315,6 +4518,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6146"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4353,7 +4559,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4384,13 +4590,13 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>952500</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>91440</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>1447800</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>403860</xdr:rowOff>
+          <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4398,6 +4604,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6147"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4436,7 +4645,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4465,15 +4674,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>91440</xdr:colOff>
+          <xdr:colOff>95250</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>106680</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>579120</xdr:colOff>
+          <xdr:colOff>581025</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>388620</xdr:rowOff>
+          <xdr:rowOff>390525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4481,6 +4690,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6148"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4519,7 +4731,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4548,13 +4760,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>525780</xdr:colOff>
+          <xdr:colOff>523875</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>967740</xdr:colOff>
+          <xdr:colOff>971550</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>381000</xdr:rowOff>
         </xdr:to>
@@ -4564,6 +4776,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6149"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4602,7 +4817,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4633,13 +4848,13 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>952500</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>91440</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>1447800</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>403860</xdr:rowOff>
+          <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4647,6 +4862,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6150"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4685,7 +4903,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4714,15 +4932,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>91440</xdr:colOff>
+          <xdr:colOff>95250</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>106680</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>579120</xdr:colOff>
+          <xdr:colOff>581025</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>388620</xdr:rowOff>
+          <xdr:rowOff>390525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4730,6 +4948,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6151"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4768,7 +4989,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4797,13 +5018,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>525780</xdr:colOff>
+          <xdr:colOff>523875</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>967740</xdr:colOff>
+          <xdr:colOff>971550</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>381000</xdr:rowOff>
         </xdr:to>
@@ -4813,6 +5034,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6152"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4851,7 +5075,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4882,13 +5106,13 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>952500</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>91440</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>1447800</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>403860</xdr:rowOff>
+          <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4896,6 +5120,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6153"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4934,7 +5161,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4963,15 +5190,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>91440</xdr:colOff>
+          <xdr:colOff>95250</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>579120</xdr:colOff>
+          <xdr:colOff>581025</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>403860</xdr:rowOff>
+          <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4979,6 +5206,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6154"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5017,7 +5247,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5046,15 +5276,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>525780</xdr:colOff>
+          <xdr:colOff>523875</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>129540</xdr:rowOff>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>967740</xdr:colOff>
+          <xdr:colOff>971550</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>388620</xdr:rowOff>
+          <xdr:rowOff>390525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5062,6 +5292,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6155"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5100,7 +5333,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5131,13 +5364,13 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>952500</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>106680</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>1447800</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>411480</xdr:rowOff>
+          <xdr:rowOff>409575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5145,6 +5378,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6156"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5183,7 +5419,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5212,15 +5448,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>91440</xdr:colOff>
+          <xdr:colOff>95250</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>106680</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>579120</xdr:colOff>
+          <xdr:colOff>581025</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>388620</xdr:rowOff>
+          <xdr:rowOff>390525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5228,6 +5464,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6157"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5266,7 +5505,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5295,13 +5534,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>525780</xdr:colOff>
+          <xdr:colOff>523875</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>967740</xdr:colOff>
+          <xdr:colOff>971550</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>381000</xdr:rowOff>
         </xdr:to>
@@ -5311,6 +5550,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6158"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5349,7 +5591,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5380,13 +5622,13 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>952500</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>91440</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>1447800</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>403860</xdr:rowOff>
+          <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5394,6 +5636,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6159"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5432,7 +5677,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5461,15 +5706,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>91440</xdr:colOff>
+          <xdr:colOff>95250</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>83820</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>579120</xdr:colOff>
+          <xdr:colOff>581025</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>373380</xdr:rowOff>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5477,6 +5722,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6160"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5515,7 +5763,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5544,15 +5792,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>525780</xdr:colOff>
+          <xdr:colOff>523875</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>99060</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>967740</xdr:colOff>
+          <xdr:colOff>971550</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>358140</xdr:rowOff>
+          <xdr:rowOff>361950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5560,6 +5808,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6161"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5598,7 +5849,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5644,88 +5895,8 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6162"/>
                 </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Malgun Gothic"/>
-                  <a:ea typeface="Malgun Gothic"/>
-                </a:rPr>
-                <a:t>N/A</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>91440</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>99060</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>579120</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>381000</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="6163" name="Check Box 19" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6163"/>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5764,7 +5935,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5778,7 +5949,7 @@
                   <a:latin typeface="Malgun Gothic"/>
                   <a:ea typeface="Malgun Gothic"/>
                 </a:rPr>
-                <a:t>OK </a:t>
+                <a:t>N/A</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5793,22 +5964,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>525780</xdr:colOff>
+          <xdr:colOff>95250</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>106680</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>967740</xdr:colOff>
+          <xdr:colOff>581025</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>365760</xdr:rowOff>
+          <xdr:rowOff>381000</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6164" name="Check Box 20" hidden="1">
+            <xdr:cNvPr id="6163" name="Check Box 19" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6164"/>
+                  <a14:compatExt spid="_x0000_s6163"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5847,7 +6021,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5861,7 +6035,7 @@
                   <a:latin typeface="Malgun Gothic"/>
                   <a:ea typeface="Malgun Gothic"/>
                 </a:rPr>
-                <a:t>NG</a:t>
+                <a:t>OK </a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5876,22 +6050,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>952500</xdr:colOff>
+          <xdr:colOff>523875</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>83820</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>1447800</xdr:colOff>
+          <xdr:colOff>971550</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>388620</xdr:rowOff>
+          <xdr:rowOff>361950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6165" name="Check Box 21" hidden="1">
+            <xdr:cNvPr id="6164" name="Check Box 20" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6165"/>
+                  <a14:compatExt spid="_x0000_s6164"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5930,7 +6107,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5944,7 +6121,7 @@
                   <a:latin typeface="Malgun Gothic"/>
                   <a:ea typeface="Malgun Gothic"/>
                 </a:rPr>
-                <a:t>N/A</a:t>
+                <a:t>NG</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5959,22 +6136,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>91440</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>99060</xdr:rowOff>
+          <xdr:colOff>952500</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>579120</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>381000</xdr:rowOff>
+          <xdr:colOff>1447800</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>390525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6166" name="Check Box 22" hidden="1">
+            <xdr:cNvPr id="6165" name="Check Box 21" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6166"/>
+                  <a14:compatExt spid="_x0000_s6165"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6013,7 +6193,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6027,7 +6207,7 @@
                   <a:latin typeface="Malgun Gothic"/>
                   <a:ea typeface="Malgun Gothic"/>
                 </a:rPr>
-                <a:t>OK </a:t>
+                <a:t>N/A</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -6042,22 +6222,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>525780</xdr:colOff>
+          <xdr:colOff>95250</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>106680</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>967740</xdr:colOff>
+          <xdr:colOff>581025</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>365760</xdr:rowOff>
+          <xdr:rowOff>381000</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6167" name="Check Box 23" hidden="1">
+            <xdr:cNvPr id="6166" name="Check Box 22" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6167"/>
+                  <a14:compatExt spid="_x0000_s6166"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000016180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6096,7 +6279,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6110,7 +6293,7 @@
                   <a:latin typeface="Malgun Gothic"/>
                   <a:ea typeface="Malgun Gothic"/>
                 </a:rPr>
-                <a:t>NG</a:t>
+                <a:t>OK </a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -6125,22 +6308,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>952500</xdr:colOff>
+          <xdr:colOff>523875</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>83820</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>1447800</xdr:colOff>
+          <xdr:colOff>971550</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>388620</xdr:rowOff>
+          <xdr:rowOff>361950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6168" name="Check Box 24" hidden="1">
+            <xdr:cNvPr id="6167" name="Check Box 23" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6168"/>
+                  <a14:compatExt spid="_x0000_s6167"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000017180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6179,7 +6365,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6193,7 +6379,7 @@
                   <a:latin typeface="Malgun Gothic"/>
                   <a:ea typeface="Malgun Gothic"/>
                 </a:rPr>
-                <a:t>N/A</a:t>
+                <a:t>NG</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -6208,22 +6394,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>91440</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>106680</xdr:rowOff>
+          <xdr:colOff>952500</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>579120</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>388620</xdr:rowOff>
+          <xdr:colOff>1447800</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>390525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6169" name="Check Box 25" hidden="1">
+            <xdr:cNvPr id="6168" name="Check Box 24" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6169"/>
+                  <a14:compatExt spid="_x0000_s6168"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000018180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6262,7 +6451,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6276,7 +6465,7 @@
                   <a:latin typeface="Malgun Gothic"/>
                   <a:ea typeface="Malgun Gothic"/>
                 </a:rPr>
-                <a:t>OK </a:t>
+                <a:t>N/A</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -6291,22 +6480,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>525780</xdr:colOff>
+          <xdr:colOff>95250</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>967740</xdr:colOff>
+          <xdr:colOff>581025</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>381000</xdr:rowOff>
+          <xdr:rowOff>390525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6170" name="Check Box 26" hidden="1">
+            <xdr:cNvPr id="6169" name="Check Box 25" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6170"/>
+                  <a14:compatExt spid="_x0000_s6169"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000019180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6345,7 +6537,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6359,7 +6551,7 @@
                   <a:latin typeface="Malgun Gothic"/>
                   <a:ea typeface="Malgun Gothic"/>
                 </a:rPr>
-                <a:t>NG</a:t>
+                <a:t>OK </a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -6374,22 +6566,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>952500</xdr:colOff>
+          <xdr:colOff>523875</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>91440</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>1447800</xdr:colOff>
+          <xdr:colOff>971550</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>403860</xdr:rowOff>
+          <xdr:rowOff>381000</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6171" name="Check Box 27" hidden="1">
+            <xdr:cNvPr id="6170" name="Check Box 26" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6171"/>
+                  <a14:compatExt spid="_x0000_s6170"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001A180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6428,7 +6623,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6442,7 +6637,7 @@
                   <a:latin typeface="Malgun Gothic"/>
                   <a:ea typeface="Malgun Gothic"/>
                 </a:rPr>
-                <a:t>N/A</a:t>
+                <a:t>NG</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -6457,22 +6652,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>91440</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>106680</xdr:rowOff>
+          <xdr:colOff>952500</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>579120</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>388620</xdr:rowOff>
+          <xdr:colOff>1447800</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6172" name="Check Box 28" hidden="1">
+            <xdr:cNvPr id="6171" name="Check Box 27" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6172"/>
+                  <a14:compatExt spid="_x0000_s6171"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001B180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6511,7 +6709,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6525,7 +6723,7 @@
                   <a:latin typeface="Malgun Gothic"/>
                   <a:ea typeface="Malgun Gothic"/>
                 </a:rPr>
-                <a:t>OK </a:t>
+                <a:t>N/A</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -6540,22 +6738,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>525780</xdr:colOff>
+          <xdr:colOff>95250</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>967740</xdr:colOff>
+          <xdr:colOff>581025</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>381000</xdr:rowOff>
+          <xdr:rowOff>390525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6173" name="Check Box 29" hidden="1">
+            <xdr:cNvPr id="6172" name="Check Box 28" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6173"/>
+                  <a14:compatExt spid="_x0000_s6172"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001C180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6594,7 +6795,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6608,7 +6809,7 @@
                   <a:latin typeface="Malgun Gothic"/>
                   <a:ea typeface="Malgun Gothic"/>
                 </a:rPr>
-                <a:t>NG</a:t>
+                <a:t>OK </a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -6623,22 +6824,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>952500</xdr:colOff>
+          <xdr:colOff>523875</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>91440</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>1447800</xdr:colOff>
+          <xdr:colOff>971550</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>403860</xdr:rowOff>
+          <xdr:rowOff>381000</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6174" name="Check Box 30" hidden="1">
+            <xdr:cNvPr id="6173" name="Check Box 29" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6174"/>
+                  <a14:compatExt spid="_x0000_s6173"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001D180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6677,7 +6881,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6691,7 +6895,7 @@
                   <a:latin typeface="Malgun Gothic"/>
                   <a:ea typeface="Malgun Gothic"/>
                 </a:rPr>
-                <a:t>N/A</a:t>
+                <a:t>NG</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -6706,22 +6910,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>91440</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>117567</xdr:rowOff>
+          <xdr:colOff>952500</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>579120</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>399507</xdr:rowOff>
+          <xdr:colOff>1447800</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6175" name="Check Box 31" hidden="1">
+            <xdr:cNvPr id="6174" name="Check Box 30" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6175"/>
+                  <a14:compatExt spid="_x0000_s6174"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001E180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6760,7 +6967,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6774,7 +6981,7 @@
                   <a:latin typeface="Malgun Gothic"/>
                   <a:ea typeface="Malgun Gothic"/>
                 </a:rPr>
-                <a:t>OK </a:t>
+                <a:t>N/A</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -6789,22 +6996,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>525780</xdr:colOff>
+          <xdr:colOff>95250</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>132807</xdr:rowOff>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>967740</xdr:colOff>
+          <xdr:colOff>581025</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>391887</xdr:rowOff>
+          <xdr:rowOff>400050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6176" name="Check Box 32" hidden="1">
+            <xdr:cNvPr id="6175" name="Check Box 31" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6176"/>
+                  <a14:compatExt spid="_x0000_s6175"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001F180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6843,7 +7053,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6857,7 +7067,7 @@
                   <a:latin typeface="Malgun Gothic"/>
                   <a:ea typeface="Malgun Gothic"/>
                 </a:rPr>
-                <a:t>NG</a:t>
+                <a:t>OK </a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -6872,22 +7082,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>952500</xdr:colOff>
+          <xdr:colOff>523875</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>102327</xdr:rowOff>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>1447800</xdr:colOff>
+          <xdr:colOff>971550</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>414747</xdr:rowOff>
+          <xdr:rowOff>390525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6177" name="Check Box 33" hidden="1">
+            <xdr:cNvPr id="6176" name="Check Box 32" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6177"/>
+                  <a14:compatExt spid="_x0000_s6176"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000020180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6926,7 +7139,93 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Malgun Gothic"/>
+                  <a:ea typeface="Malgun Gothic"/>
+                </a:rPr>
+                <a:t>NG</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>952500</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>1447800</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>409575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6177" name="Check Box 33" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6177"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000021180000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7308,24 +7607,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="3.09765625" customWidth="1"/>
-    <col min="2" max="2" width="20.796875" customWidth="1"/>
+    <col min="1" max="1" width="3.125" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="58.09765625" customWidth="1"/>
-    <col min="5" max="5" width="34.69921875" customWidth="1"/>
-    <col min="6" max="6" width="21.296875" customWidth="1"/>
+    <col min="4" max="4" width="58.125" customWidth="1"/>
+    <col min="5" max="5" width="34.75" customWidth="1"/>
+    <col min="6" max="6" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="18" thickBot="1"/>
+    <row r="1" spans="2:6" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:6">
       <c r="B2" s="102"/>
       <c r="C2" s="104" t="s">
@@ -7333,12 +7632,12 @@
       </c>
       <c r="D2" s="105"/>
     </row>
-    <row r="3" spans="2:6" ht="18" thickBot="1">
+    <row r="3" spans="2:6" ht="17.25" thickBot="1">
       <c r="B3" s="103"/>
       <c r="C3" s="106"/>
       <c r="D3" s="107"/>
     </row>
-    <row r="4" spans="2:6" ht="18" thickBot="1"/>
+    <row r="4" spans="2:6" ht="17.25" thickBot="1"/>
     <row r="5" spans="2:6">
       <c r="B5" s="108" t="s">
         <v>49</v>
@@ -7356,7 +7655,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="18" thickBot="1">
+    <row r="6" spans="2:6" ht="17.25" thickBot="1">
       <c r="B6" s="109"/>
       <c r="C6" s="109"/>
       <c r="D6" s="109"/>
@@ -7395,25 +7694,33 @@
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="67" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C9" s="67">
         <v>1.2</v>
       </c>
-      <c r="D9" s="68" t="s">
-        <v>101</v>
+      <c r="D9" s="231" t="s">
+        <v>103</v>
       </c>
       <c r="E9" s="67"/>
       <c r="F9" s="69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="67">
+        <v>1.3</v>
+      </c>
+      <c r="D10" s="232" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="68"/>
       <c r="E10" s="67"/>
-      <c r="F10" s="69"/>
+      <c r="F10" s="69" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="67"/>
@@ -7464,7 +7771,7 @@
       <c r="E17" s="67"/>
       <c r="F17" s="69"/>
     </row>
-    <row r="18" spans="2:6" ht="18" thickBot="1">
+    <row r="18" spans="2:6" ht="17.25" thickBot="1">
       <c r="B18" s="70"/>
       <c r="C18" s="70"/>
       <c r="D18" s="70"/>
@@ -7489,7 +7796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z509"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -7497,18 +7804,18 @@
       <selection pane="topRight" activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="1.3984375" style="24" customWidth="1"/>
-    <col min="2" max="2" width="13.69921875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.09765625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.69921875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="1.375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.75" style="9" customWidth="1"/>
     <col min="5" max="5" width="13" style="9" customWidth="1"/>
-    <col min="6" max="6" width="21.19921875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="7.09765625" style="9" customWidth="1"/>
-    <col min="8" max="9" width="3.09765625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="3.09765625" style="9" hidden="1" customWidth="1"/>
-    <col min="11" max="22" width="3.09765625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="21.25" style="9" customWidth="1"/>
+    <col min="7" max="7" width="7.125" style="9" customWidth="1"/>
+    <col min="8" max="9" width="3.125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="3.125" style="9" hidden="1" customWidth="1"/>
+    <col min="11" max="22" width="3.125" style="9" customWidth="1"/>
     <col min="23" max="23" width="23" style="9" customWidth="1"/>
     <col min="24" max="16384" width="9" style="9"/>
   </cols>
@@ -7538,7 +7845,7 @@
       <c r="V1" s="24"/>
       <c r="W1" s="24"/>
     </row>
-    <row r="2" spans="1:24" ht="18" thickBot="1">
+    <row r="2" spans="1:24" ht="17.25" thickBot="1">
       <c r="B2" s="72"/>
       <c r="C2" s="72"/>
       <c r="D2" s="72"/>
@@ -7564,11 +7871,11 @@
       <c r="X2" s="24"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="B3" s="144"/>
-      <c r="C3" s="140" t="s">
+      <c r="B3" s="114"/>
+      <c r="C3" s="110" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="141"/>
+      <c r="D3" s="111"/>
       <c r="E3" s="72"/>
       <c r="F3" s="73" t="s">
         <v>28</v>
@@ -7592,10 +7899,10 @@
       <c r="W3" s="24"/>
       <c r="X3" s="24"/>
     </row>
-    <row r="4" spans="1:24" ht="18" thickBot="1">
-      <c r="B4" s="145"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="143"/>
+    <row r="4" spans="1:24" ht="17.25" thickBot="1">
+      <c r="B4" s="115"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="113"/>
       <c r="E4" s="72"/>
       <c r="F4" s="74" t="s">
         <v>46</v>
@@ -7619,7 +7926,7 @@
       <c r="W4" s="24"/>
       <c r="X4" s="24"/>
     </row>
-    <row r="5" spans="1:24" ht="18" thickBot="1">
+    <row r="5" spans="1:24" ht="17.25" thickBot="1">
       <c r="B5" s="72"/>
       <c r="C5" s="72"/>
       <c r="D5" s="72"/>
@@ -7644,77 +7951,77 @@
       <c r="W5" s="24"/>
       <c r="X5" s="24"/>
     </row>
-    <row r="6" spans="1:24" ht="18" thickBot="1">
-      <c r="B6" s="119" t="s">
+    <row r="6" spans="1:24" ht="17.25" thickBot="1">
+      <c r="B6" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="119" t="s">
+      <c r="C6" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="120" t="s">
+      <c r="E6" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="110"/>
-      <c r="G6" s="119" t="s">
+      <c r="F6" s="141"/>
+      <c r="G6" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="125" t="s">
+      <c r="H6" s="150" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="125"/>
-      <c r="P6" s="125"/>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="125"/>
-      <c r="S6" s="125"/>
-      <c r="T6" s="125"/>
-      <c r="U6" s="125"/>
-      <c r="V6" s="110"/>
-      <c r="W6" s="110" t="s">
+      <c r="I6" s="150"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="150"/>
+      <c r="L6" s="150"/>
+      <c r="M6" s="150"/>
+      <c r="N6" s="150"/>
+      <c r="O6" s="150"/>
+      <c r="P6" s="150"/>
+      <c r="Q6" s="150"/>
+      <c r="R6" s="150"/>
+      <c r="S6" s="150"/>
+      <c r="T6" s="150"/>
+      <c r="U6" s="150"/>
+      <c r="V6" s="141"/>
+      <c r="W6" s="141" t="s">
         <v>47</v>
       </c>
       <c r="X6" s="24"/>
     </row>
-    <row r="7" spans="1:24" ht="18" thickBot="1">
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="126"/>
-      <c r="P7" s="126"/>
-      <c r="Q7" s="126"/>
-      <c r="R7" s="126"/>
-      <c r="S7" s="126"/>
-      <c r="T7" s="126"/>
-      <c r="U7" s="126"/>
-      <c r="V7" s="112"/>
-      <c r="W7" s="111"/>
+    <row r="7" spans="1:24" ht="17.25" thickBot="1">
+      <c r="B7" s="146"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="151"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="151"/>
+      <c r="L7" s="151"/>
+      <c r="M7" s="151"/>
+      <c r="N7" s="151"/>
+      <c r="O7" s="151"/>
+      <c r="P7" s="151"/>
+      <c r="Q7" s="151"/>
+      <c r="R7" s="151"/>
+      <c r="S7" s="151"/>
+      <c r="T7" s="151"/>
+      <c r="U7" s="151"/>
+      <c r="V7" s="143"/>
+      <c r="W7" s="142"/>
       <c r="X7" s="24"/>
     </row>
-    <row r="8" spans="1:24" ht="18" thickBot="1">
-      <c r="B8" s="119"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="119"/>
+    <row r="8" spans="1:24" ht="17.25" thickBot="1">
+      <c r="B8" s="146"/>
+      <c r="C8" s="146"/>
+      <c r="D8" s="146"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="143"/>
+      <c r="G8" s="146"/>
       <c r="H8" s="33">
         <v>17</v>
       </c>
@@ -7760,25 +8067,25 @@
       <c r="V8" s="32">
         <v>30</v>
       </c>
-      <c r="W8" s="112"/>
+      <c r="W8" s="143"/>
       <c r="X8" s="24"/>
     </row>
-    <row r="9" spans="1:24" ht="18" thickBot="1">
-      <c r="A9" s="113"/>
-      <c r="B9" s="114" t="s">
+    <row r="9" spans="1:24" ht="17.25" thickBot="1">
+      <c r="A9" s="131"/>
+      <c r="B9" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="117" t="s">
+      <c r="D9" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="128" t="s">
+      <c r="E9" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="123"/>
-      <c r="G9" s="150" t="s">
+      <c r="F9" s="125"/>
+      <c r="G9" s="120" t="s">
         <v>4</v>
       </c>
       <c r="H9" s="34"/>
@@ -7796,17 +8103,17 @@
       <c r="T9" s="27"/>
       <c r="U9" s="27"/>
       <c r="V9" s="28"/>
-      <c r="W9" s="123"/>
+      <c r="W9" s="125"/>
       <c r="X9" s="24"/>
     </row>
-    <row r="10" spans="1:24" ht="18" thickBot="1">
-      <c r="A10" s="113"/>
-      <c r="B10" s="114"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="118"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="151"/>
+    <row r="10" spans="1:24" ht="17.25" thickBot="1">
+      <c r="A10" s="131"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="121"/>
       <c r="H10" s="76"/>
       <c r="I10" s="77"/>
       <c r="J10" s="77"/>
@@ -7822,25 +8129,25 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="19"/>
-      <c r="W10" s="124"/>
+      <c r="W10" s="127"/>
       <c r="X10" s="24"/>
     </row>
     <row r="11" spans="1:24" ht="17.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A11" s="113"/>
-      <c r="B11" s="127" t="s">
+      <c r="A11" s="131"/>
+      <c r="B11" s="136" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="115" t="s">
+      <c r="C11" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="118" t="s">
+      <c r="D11" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="128" t="s">
+      <c r="E11" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="123"/>
-      <c r="G11" s="115" t="s">
+      <c r="F11" s="125"/>
+      <c r="G11" s="122" t="s">
         <v>4</v>
       </c>
       <c r="H11" s="20"/>
@@ -7858,17 +8165,17 @@
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
       <c r="V11" s="19"/>
-      <c r="W11" s="123"/>
+      <c r="W11" s="125"/>
       <c r="X11" s="24"/>
     </row>
     <row r="12" spans="1:24" ht="17.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A12" s="113"/>
-      <c r="B12" s="131"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="116"/>
+      <c r="A12" s="131"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="123"/>
       <c r="H12" s="39"/>
       <c r="I12" s="40"/>
       <c r="J12" s="40"/>
@@ -7884,23 +8191,23 @@
       <c r="T12" s="40"/>
       <c r="U12" s="40"/>
       <c r="V12" s="41"/>
-      <c r="W12" s="124"/>
+      <c r="W12" s="127"/>
       <c r="X12" s="24"/>
     </row>
-    <row r="13" spans="1:24" ht="18" thickBot="1">
-      <c r="A13" s="113"/>
-      <c r="B13" s="131"/>
-      <c r="C13" s="127" t="s">
+    <row r="13" spans="1:24" ht="17.25" thickBot="1">
+      <c r="A13" s="131"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="136" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="118" t="s">
+      <c r="D13" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="128" t="s">
+      <c r="E13" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="123"/>
-      <c r="G13" s="115" t="s">
+      <c r="F13" s="125"/>
+      <c r="G13" s="122" t="s">
         <v>4</v>
       </c>
       <c r="H13" s="50"/>
@@ -7918,17 +8225,17 @@
       <c r="T13" s="46"/>
       <c r="U13" s="46"/>
       <c r="V13" s="47"/>
-      <c r="W13" s="123"/>
+      <c r="W13" s="125"/>
       <c r="X13" s="24"/>
     </row>
-    <row r="14" spans="1:24" ht="18" thickBot="1">
-      <c r="A14" s="113"/>
-      <c r="B14" s="131"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="116"/>
+    <row r="14" spans="1:24" ht="17.25" thickBot="1">
+      <c r="A14" s="131"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="123"/>
       <c r="H14" s="78"/>
       <c r="I14" s="79"/>
       <c r="J14" s="79"/>
@@ -7944,25 +8251,25 @@
       <c r="T14" s="35"/>
       <c r="U14" s="35"/>
       <c r="V14" s="36"/>
-      <c r="W14" s="124"/>
+      <c r="W14" s="127"/>
       <c r="X14" s="24"/>
     </row>
     <row r="15" spans="1:24" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A15" s="113"/>
-      <c r="B15" s="115" t="s">
+      <c r="A15" s="131"/>
+      <c r="B15" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="115" t="s">
+      <c r="C15" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="118" t="s">
+      <c r="D15" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="132" t="s">
+      <c r="E15" s="140" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="123"/>
-      <c r="G15" s="150" t="s">
+      <c r="F15" s="125"/>
+      <c r="G15" s="120" t="s">
         <v>4</v>
       </c>
       <c r="H15" s="37"/>
@@ -7980,19 +8287,19 @@
       <c r="T15" s="52"/>
       <c r="U15" s="52"/>
       <c r="V15" s="43"/>
-      <c r="W15" s="123" t="s">
+      <c r="W15" s="125" t="s">
         <v>48</v>
       </c>
       <c r="X15" s="24"/>
     </row>
-    <row r="16" spans="1:24" ht="18" thickBot="1">
-      <c r="A16" s="113"/>
-      <c r="B16" s="131"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="151"/>
+    <row r="16" spans="1:24" ht="17.25" thickBot="1">
+      <c r="A16" s="131"/>
+      <c r="B16" s="139"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="121"/>
       <c r="H16" s="48"/>
       <c r="I16" s="49"/>
       <c r="J16" s="49"/>
@@ -8008,25 +8315,25 @@
       <c r="T16" s="80"/>
       <c r="U16" s="80"/>
       <c r="V16" s="41"/>
-      <c r="W16" s="130"/>
+      <c r="W16" s="138"/>
       <c r="X16" s="24"/>
     </row>
-    <row r="17" spans="1:26" ht="18" thickBot="1">
-      <c r="A17" s="113"/>
-      <c r="B17" s="115" t="s">
+    <row r="17" spans="1:26" ht="17.25" thickBot="1">
+      <c r="A17" s="131"/>
+      <c r="B17" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="115" t="s">
+      <c r="C17" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="136" t="s">
+      <c r="D17" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="138" t="s">
+      <c r="E17" s="134" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="139"/>
-      <c r="G17" s="115" t="s">
+      <c r="F17" s="135"/>
+      <c r="G17" s="122" t="s">
         <v>4</v>
       </c>
       <c r="H17" s="44"/>
@@ -8044,17 +8351,17 @@
       <c r="T17" s="46"/>
       <c r="U17" s="51"/>
       <c r="V17" s="53"/>
-      <c r="W17" s="123"/>
+      <c r="W17" s="125"/>
       <c r="X17" s="24"/>
     </row>
-    <row r="18" spans="1:26" ht="18" thickBot="1">
-      <c r="A18" s="113"/>
-      <c r="B18" s="116"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="124"/>
-      <c r="G18" s="116"/>
+    <row r="18" spans="1:26" ht="17.25" thickBot="1">
+      <c r="A18" s="131"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="123"/>
       <c r="H18" s="4"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
@@ -8070,7 +8377,7 @@
       <c r="T18" s="35"/>
       <c r="U18" s="79"/>
       <c r="V18" s="81"/>
-      <c r="W18" s="124"/>
+      <c r="W18" s="127"/>
       <c r="X18" s="24"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" customHeight="1">
@@ -8127,7 +8434,7 @@
       <c r="Y20" s="24"/>
       <c r="Z20" s="24"/>
     </row>
-    <row r="435" spans="1:24" s="18" customFormat="1" ht="18" thickBot="1">
+    <row r="435" spans="1:24" s="18" customFormat="1" ht="17.25" thickBot="1">
       <c r="A435" s="24"/>
       <c r="B435" s="9"/>
       <c r="C435" s="9"/>
@@ -8155,12 +8462,12 @@
     </row>
     <row r="436" spans="1:24">
       <c r="H436" s="21"/>
-      <c r="I436" s="146"/>
-      <c r="J436" s="147"/>
-      <c r="M436" s="148" t="s">
+      <c r="I436" s="116"/>
+      <c r="J436" s="117"/>
+      <c r="M436" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="N436" s="149"/>
+      <c r="N436" s="119"/>
       <c r="O436" s="21"/>
       <c r="P436" s="21"/>
       <c r="Q436" s="21"/>
@@ -8170,14 +8477,14 @@
       <c r="U436" s="21"/>
       <c r="V436" s="25"/>
     </row>
-    <row r="437" spans="1:24" ht="18" thickBot="1">
+    <row r="437" spans="1:24" ht="17.25" thickBot="1">
       <c r="H437" s="14"/>
-      <c r="I437" s="133"/>
-      <c r="J437" s="134"/>
-      <c r="M437" s="129" t="s">
+      <c r="I437" s="128"/>
+      <c r="J437" s="129"/>
+      <c r="M437" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="N437" s="135"/>
+      <c r="N437" s="130"/>
       <c r="O437" s="14"/>
       <c r="P437" s="14"/>
       <c r="Q437" s="14"/>
@@ -8200,24 +8507,18 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="I436:J436"/>
-    <mergeCell ref="M436:N436"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="E11:F12"/>
-    <mergeCell ref="I437:J437"/>
-    <mergeCell ref="M437:N437"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="W6:W8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="H6:V7"/>
     <mergeCell ref="W11:W12"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="C13:C14"/>
@@ -8234,18 +8535,24 @@
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
-    <mergeCell ref="W6:W8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="H6:V7"/>
+    <mergeCell ref="I437:J437"/>
+    <mergeCell ref="M437:N437"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="I436:J436"/>
+    <mergeCell ref="M436:N436"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="E11:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D9:D10 D13:D18">
@@ -8284,7 +8591,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G18" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$B$508:$B$509</formula1>
     </dataValidation>
   </dataValidations>
@@ -8315,7 +8622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8323,57 +8630,57 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="4.69921875" customWidth="1"/>
+    <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="15.59765625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="15.59765625" customWidth="1"/>
-    <col min="7" max="7" width="16.8984375" customWidth="1"/>
-    <col min="8" max="8" width="15.8984375" style="9" customWidth="1"/>
-    <col min="9" max="9" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="21" width="5.59765625" customWidth="1"/>
-    <col min="22" max="22" width="6.69921875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="56.296875" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="16.875" customWidth="1"/>
+    <col min="8" max="8" width="15.875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="21" width="5.625" customWidth="1"/>
+    <col min="22" max="22" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="56.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18" thickBot="1"/>
+    <row r="1" spans="1:23" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:23" ht="16.5" customHeight="1">
-      <c r="B2" s="128"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="161" t="s">
+      <c r="B2" s="124"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="181" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="162"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="182"/>
       <c r="M2" s="1"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="B3" s="159"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="164"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="183"/>
+      <c r="L3" s="184"/>
       <c r="M3" s="1"/>
       <c r="N3" s="17"/>
       <c r="O3" s="17"/>
@@ -8385,18 +8692,18 @@
       <c r="U3" s="10"/>
       <c r="V3" s="10"/>
     </row>
-    <row r="4" spans="1:23" ht="18" thickBot="1">
-      <c r="B4" s="129"/>
-      <c r="C4" s="135"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="165"/>
-      <c r="G4" s="165"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="165"/>
-      <c r="J4" s="165"/>
-      <c r="K4" s="165"/>
-      <c r="L4" s="166"/>
+    <row r="4" spans="1:23" ht="17.25" thickBot="1">
+      <c r="B4" s="126"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="185"/>
+      <c r="I4" s="185"/>
+      <c r="J4" s="185"/>
+      <c r="K4" s="185"/>
+      <c r="L4" s="186"/>
       <c r="M4" s="1"/>
       <c r="N4" s="17"/>
       <c r="O4" s="17"/>
@@ -8410,65 +8717,65 @@
     </row>
     <row r="5" spans="1:23" ht="18" customHeight="1" thickBot="1">
       <c r="N5" s="5"/>
-      <c r="O5" s="169"/>
-      <c r="P5" s="169"/>
-      <c r="Q5" s="169"/>
-      <c r="R5" s="169"/>
-      <c r="S5" s="169"/>
-      <c r="T5" s="169"/>
-      <c r="U5" s="169"/>
+      <c r="O5" s="166"/>
+      <c r="P5" s="166"/>
+      <c r="Q5" s="166"/>
+      <c r="R5" s="166"/>
+      <c r="S5" s="166"/>
+      <c r="T5" s="166"/>
+      <c r="U5" s="166"/>
       <c r="V5" s="6"/>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="2"/>
-      <c r="B6" s="167" t="s">
+      <c r="B6" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="173" t="s">
+      <c r="C6" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="175" t="s">
+      <c r="D6" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="175"/>
-      <c r="F6" s="175"/>
-      <c r="G6" s="175"/>
-      <c r="H6" s="171" t="s">
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="167" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="173" t="s">
+      <c r="I6" s="165" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="173"/>
-      <c r="K6" s="173"/>
-      <c r="L6" s="173" t="s">
+      <c r="J6" s="165"/>
+      <c r="K6" s="165"/>
+      <c r="L6" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="173" t="s">
+      <c r="M6" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="173"/>
-      <c r="O6" s="173"/>
-      <c r="P6" s="173"/>
-      <c r="Q6" s="173"/>
-      <c r="R6" s="173"/>
-      <c r="S6" s="173"/>
-      <c r="T6" s="173"/>
-      <c r="U6" s="173"/>
-      <c r="V6" s="173"/>
-      <c r="W6" s="177" t="s">
+      <c r="N6" s="165"/>
+      <c r="O6" s="165"/>
+      <c r="P6" s="165"/>
+      <c r="Q6" s="165"/>
+      <c r="R6" s="165"/>
+      <c r="S6" s="165"/>
+      <c r="T6" s="165"/>
+      <c r="U6" s="165"/>
+      <c r="V6" s="165"/>
+      <c r="W6" s="152" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="18" thickBot="1">
+    <row r="7" spans="1:23" ht="17.25" thickBot="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="168"/>
-      <c r="C7" s="174"/>
-      <c r="D7" s="176"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="176"/>
-      <c r="H7" s="172"/>
+      <c r="B7" s="188"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="168"/>
       <c r="I7" s="56" t="s">
         <v>0</v>
       </c>
@@ -8478,39 +8785,39 @@
       <c r="K7" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="174"/>
+      <c r="L7" s="169"/>
       <c r="M7" s="57">
         <v>0</v>
       </c>
-      <c r="N7" s="170"/>
-      <c r="O7" s="170"/>
-      <c r="P7" s="170"/>
-      <c r="Q7" s="188">
+      <c r="N7" s="164"/>
+      <c r="O7" s="164"/>
+      <c r="P7" s="164"/>
+      <c r="Q7" s="163">
         <v>0.5</v>
       </c>
-      <c r="R7" s="170"/>
-      <c r="S7" s="170"/>
-      <c r="T7" s="170"/>
-      <c r="U7" s="170"/>
+      <c r="R7" s="164"/>
+      <c r="S7" s="164"/>
+      <c r="T7" s="164"/>
+      <c r="U7" s="164"/>
       <c r="V7" s="57">
         <v>1</v>
       </c>
-      <c r="W7" s="178"/>
+      <c r="W7" s="153"/>
     </row>
     <row r="8" spans="1:23" ht="45" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="102">
         <v>1</v>
       </c>
-      <c r="C8" s="153" t="s">
+      <c r="C8" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="156" t="s">
+      <c r="D8" s="176" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="157"/>
-      <c r="F8" s="157"/>
-      <c r="G8" s="157"/>
+      <c r="E8" s="177"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="177"/>
       <c r="H8" s="46" t="s">
         <v>16</v>
       </c>
@@ -8526,30 +8833,30 @@
       <c r="L8" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="182">
+      <c r="M8" s="157">
         <v>100</v>
       </c>
-      <c r="N8" s="182"/>
-      <c r="O8" s="182"/>
-      <c r="P8" s="182"/>
-      <c r="Q8" s="182"/>
-      <c r="R8" s="182"/>
-      <c r="S8" s="182"/>
-      <c r="T8" s="182"/>
-      <c r="U8" s="182"/>
-      <c r="V8" s="182"/>
+      <c r="N8" s="157"/>
+      <c r="O8" s="157"/>
+      <c r="P8" s="157"/>
+      <c r="Q8" s="157"/>
+      <c r="R8" s="157"/>
+      <c r="S8" s="157"/>
+      <c r="T8" s="157"/>
+      <c r="U8" s="157"/>
+      <c r="V8" s="157"/>
       <c r="W8" s="59"/>
     </row>
     <row r="9" spans="1:23" ht="45" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="152"/>
-      <c r="C9" s="154"/>
-      <c r="D9" s="183" t="s">
+      <c r="B9" s="172"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="158" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="184"/>
-      <c r="F9" s="184"/>
-      <c r="G9" s="185"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="160"/>
       <c r="H9" s="11" t="s">
         <v>17</v>
       </c>
@@ -8565,30 +8872,30 @@
       <c r="L9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="186">
+      <c r="M9" s="161">
         <v>100</v>
       </c>
-      <c r="N9" s="186"/>
-      <c r="O9" s="186"/>
-      <c r="P9" s="186"/>
-      <c r="Q9" s="186"/>
-      <c r="R9" s="186"/>
-      <c r="S9" s="186"/>
-      <c r="T9" s="186"/>
-      <c r="U9" s="186"/>
-      <c r="V9" s="186"/>
+      <c r="N9" s="161"/>
+      <c r="O9" s="161"/>
+      <c r="P9" s="161"/>
+      <c r="Q9" s="161"/>
+      <c r="R9" s="161"/>
+      <c r="S9" s="161"/>
+      <c r="T9" s="161"/>
+      <c r="U9" s="161"/>
+      <c r="V9" s="161"/>
       <c r="W9" s="13"/>
     </row>
     <row r="10" spans="1:23" ht="45" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="152"/>
-      <c r="C10" s="154"/>
-      <c r="D10" s="183" t="s">
+      <c r="B10" s="172"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="158" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="184"/>
-      <c r="F10" s="184"/>
-      <c r="G10" s="185"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="160"/>
       <c r="H10" s="11" t="s">
         <v>18</v>
       </c>
@@ -8604,30 +8911,30 @@
       <c r="L10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="186">
+      <c r="M10" s="161">
         <v>100</v>
       </c>
-      <c r="N10" s="186"/>
-      <c r="O10" s="186"/>
-      <c r="P10" s="186"/>
-      <c r="Q10" s="186"/>
-      <c r="R10" s="186"/>
-      <c r="S10" s="186"/>
-      <c r="T10" s="186"/>
-      <c r="U10" s="186"/>
-      <c r="V10" s="186"/>
+      <c r="N10" s="161"/>
+      <c r="O10" s="161"/>
+      <c r="P10" s="161"/>
+      <c r="Q10" s="161"/>
+      <c r="R10" s="161"/>
+      <c r="S10" s="161"/>
+      <c r="T10" s="161"/>
+      <c r="U10" s="161"/>
+      <c r="V10" s="161"/>
       <c r="W10" s="13"/>
     </row>
     <row r="11" spans="1:23" ht="45" customHeight="1" thickBot="1">
       <c r="A11" s="3"/>
       <c r="B11" s="103"/>
-      <c r="C11" s="155"/>
-      <c r="D11" s="179" t="s">
+      <c r="C11" s="175"/>
+      <c r="D11" s="154" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="180"/>
-      <c r="F11" s="180"/>
-      <c r="G11" s="181"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="156"/>
       <c r="H11" s="60" t="s">
         <v>19</v>
       </c>
@@ -8643,18 +8950,18 @@
       <c r="L11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M11" s="187">
+      <c r="M11" s="162">
         <v>100</v>
       </c>
-      <c r="N11" s="187"/>
-      <c r="O11" s="187"/>
-      <c r="P11" s="187"/>
-      <c r="Q11" s="187"/>
-      <c r="R11" s="187"/>
-      <c r="S11" s="187"/>
-      <c r="T11" s="187"/>
-      <c r="U11" s="187"/>
-      <c r="V11" s="187"/>
+      <c r="N11" s="162"/>
+      <c r="O11" s="162"/>
+      <c r="P11" s="162"/>
+      <c r="Q11" s="162"/>
+      <c r="R11" s="162"/>
+      <c r="S11" s="162"/>
+      <c r="T11" s="162"/>
+      <c r="U11" s="162"/>
+      <c r="V11" s="162"/>
       <c r="W11" s="61"/>
     </row>
     <row r="136" spans="3:3">
@@ -8662,6 +8969,20 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:L4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="O5:U5"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="D6:G7"/>
     <mergeCell ref="W6:W7"/>
     <mergeCell ref="D11:G11"/>
     <mergeCell ref="M8:V8"/>
@@ -8672,20 +8993,6 @@
     <mergeCell ref="M11:V11"/>
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="M6:V6"/>
-    <mergeCell ref="O5:U5"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="D6:G7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:L4"/>
-    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D8:D11">
@@ -8751,7 +9058,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8:L11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8:L11" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -8837,22 +9144,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:I41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="3.8984375" customWidth="1"/>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="18" thickBot="1"/>
+    <row r="1" spans="2:9" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:9">
-      <c r="B2" s="115"/>
+      <c r="B2" s="122"/>
       <c r="C2" s="199" t="s">
         <v>64</v>
       </c>
@@ -8863,8 +9170,8 @@
       <c r="H2" s="199"/>
       <c r="I2" s="199"/>
     </row>
-    <row r="3" spans="2:9" ht="18" thickBot="1">
-      <c r="B3" s="116"/>
+    <row r="3" spans="2:9" ht="17.25" thickBot="1">
+      <c r="B3" s="123"/>
       <c r="C3" s="200"/>
       <c r="D3" s="200"/>
       <c r="E3" s="200"/>
@@ -8873,7 +9180,7 @@
       <c r="H3" s="200"/>
       <c r="I3" s="200"/>
     </row>
-    <row r="4" spans="2:9" ht="18" thickBot="1"/>
+    <row r="4" spans="2:9" ht="17.25" thickBot="1"/>
     <row r="5" spans="2:9">
       <c r="B5" s="75" t="s">
         <v>66</v>
@@ -8888,7 +9195,7 @@
       <c r="H5" s="206"/>
       <c r="I5" s="207"/>
     </row>
-    <row r="6" spans="2:9" ht="17.399999999999999" customHeight="1">
+    <row r="6" spans="2:9" ht="17.45" customHeight="1">
       <c r="B6" s="196" t="s">
         <v>59</v>
       </c>
@@ -8903,91 +9210,91 @@
     <row r="7" spans="2:9">
       <c r="B7" s="197"/>
       <c r="C7" s="192"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="154"/>
+      <c r="D7" s="174"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="174"/>
+      <c r="H7" s="174"/>
       <c r="I7" s="193"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="197"/>
       <c r="C8" s="192"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="154"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="154"/>
+      <c r="D8" s="174"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="174"/>
+      <c r="G8" s="174"/>
+      <c r="H8" s="174"/>
       <c r="I8" s="193"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="197"/>
       <c r="C9" s="192"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="154"/>
-      <c r="H9" s="154"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="174"/>
+      <c r="G9" s="174"/>
+      <c r="H9" s="174"/>
       <c r="I9" s="193"/>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="197"/>
       <c r="C10" s="192"/>
-      <c r="D10" s="154"/>
-      <c r="E10" s="154"/>
-      <c r="F10" s="154"/>
-      <c r="G10" s="154"/>
-      <c r="H10" s="154"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="174"/>
       <c r="I10" s="193"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="197"/>
       <c r="C11" s="192"/>
-      <c r="D11" s="154"/>
-      <c r="E11" s="154"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="154"/>
+      <c r="D11" s="174"/>
+      <c r="E11" s="174"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="174"/>
       <c r="I11" s="193"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="197"/>
       <c r="C12" s="192"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="154"/>
+      <c r="D12" s="174"/>
+      <c r="E12" s="174"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="174"/>
       <c r="I12" s="193"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="197"/>
       <c r="C13" s="192"/>
-      <c r="D13" s="154"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="154"/>
+      <c r="D13" s="174"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="174"/>
+      <c r="H13" s="174"/>
       <c r="I13" s="193"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="197"/>
       <c r="C14" s="192"/>
-      <c r="D14" s="154"/>
-      <c r="E14" s="154"/>
-      <c r="F14" s="154"/>
-      <c r="G14" s="154"/>
-      <c r="H14" s="154"/>
+      <c r="D14" s="174"/>
+      <c r="E14" s="174"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="174"/>
+      <c r="H14" s="174"/>
       <c r="I14" s="193"/>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="197"/>
       <c r="C15" s="192"/>
-      <c r="D15" s="154"/>
-      <c r="E15" s="154"/>
-      <c r="F15" s="154"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="154"/>
+      <c r="D15" s="174"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="174"/>
       <c r="I15" s="193"/>
     </row>
     <row r="16" spans="2:9">
@@ -9015,101 +9322,101 @@
     <row r="18" spans="2:9">
       <c r="B18" s="197"/>
       <c r="C18" s="192"/>
-      <c r="D18" s="154"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="154"/>
+      <c r="D18" s="174"/>
+      <c r="E18" s="174"/>
+      <c r="F18" s="174"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="174"/>
       <c r="I18" s="193"/>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="197"/>
       <c r="C19" s="192"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="154"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="174"/>
       <c r="I19" s="193"/>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="197"/>
       <c r="C20" s="192"/>
-      <c r="D20" s="154"/>
-      <c r="E20" s="154"/>
-      <c r="F20" s="154"/>
-      <c r="G20" s="154"/>
-      <c r="H20" s="154"/>
+      <c r="D20" s="174"/>
+      <c r="E20" s="174"/>
+      <c r="F20" s="174"/>
+      <c r="G20" s="174"/>
+      <c r="H20" s="174"/>
       <c r="I20" s="193"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="197"/>
       <c r="C21" s="192"/>
-      <c r="D21" s="154"/>
-      <c r="E21" s="154"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="154"/>
+      <c r="D21" s="174"/>
+      <c r="E21" s="174"/>
+      <c r="F21" s="174"/>
+      <c r="G21" s="174"/>
+      <c r="H21" s="174"/>
       <c r="I21" s="193"/>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="197"/>
       <c r="C22" s="192"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="154"/>
-      <c r="F22" s="154"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="154"/>
+      <c r="D22" s="174"/>
+      <c r="E22" s="174"/>
+      <c r="F22" s="174"/>
+      <c r="G22" s="174"/>
+      <c r="H22" s="174"/>
       <c r="I22" s="193"/>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="197"/>
       <c r="C23" s="192"/>
-      <c r="D23" s="154"/>
-      <c r="E23" s="154"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="154"/>
+      <c r="D23" s="174"/>
+      <c r="E23" s="174"/>
+      <c r="F23" s="174"/>
+      <c r="G23" s="174"/>
+      <c r="H23" s="174"/>
       <c r="I23" s="193"/>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="197"/>
       <c r="C24" s="192"/>
-      <c r="D24" s="154"/>
-      <c r="E24" s="154"/>
-      <c r="F24" s="154"/>
-      <c r="G24" s="154"/>
-      <c r="H24" s="154"/>
+      <c r="D24" s="174"/>
+      <c r="E24" s="174"/>
+      <c r="F24" s="174"/>
+      <c r="G24" s="174"/>
+      <c r="H24" s="174"/>
       <c r="I24" s="193"/>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="197"/>
       <c r="C25" s="192"/>
-      <c r="D25" s="154"/>
-      <c r="E25" s="154"/>
-      <c r="F25" s="154"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="154"/>
+      <c r="D25" s="174"/>
+      <c r="E25" s="174"/>
+      <c r="F25" s="174"/>
+      <c r="G25" s="174"/>
+      <c r="H25" s="174"/>
       <c r="I25" s="193"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="197"/>
       <c r="C26" s="192"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="154"/>
+      <c r="D26" s="174"/>
+      <c r="E26" s="174"/>
+      <c r="F26" s="174"/>
+      <c r="G26" s="174"/>
+      <c r="H26" s="174"/>
       <c r="I26" s="193"/>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="197"/>
       <c r="C27" s="192"/>
-      <c r="D27" s="154"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="154"/>
-      <c r="G27" s="154"/>
-      <c r="H27" s="154"/>
+      <c r="D27" s="174"/>
+      <c r="E27" s="174"/>
+      <c r="F27" s="174"/>
+      <c r="G27" s="174"/>
+      <c r="H27" s="174"/>
       <c r="I27" s="193"/>
     </row>
     <row r="28" spans="2:9">
@@ -9137,121 +9444,121 @@
     <row r="30" spans="2:9">
       <c r="B30" s="197"/>
       <c r="C30" s="192"/>
-      <c r="D30" s="154"/>
-      <c r="E30" s="154"/>
-      <c r="F30" s="154"/>
-      <c r="G30" s="154"/>
-      <c r="H30" s="154"/>
+      <c r="D30" s="174"/>
+      <c r="E30" s="174"/>
+      <c r="F30" s="174"/>
+      <c r="G30" s="174"/>
+      <c r="H30" s="174"/>
       <c r="I30" s="193"/>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="197"/>
       <c r="C31" s="192"/>
-      <c r="D31" s="154"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="154"/>
-      <c r="H31" s="154"/>
+      <c r="D31" s="174"/>
+      <c r="E31" s="174"/>
+      <c r="F31" s="174"/>
+      <c r="G31" s="174"/>
+      <c r="H31" s="174"/>
       <c r="I31" s="193"/>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="197"/>
       <c r="C32" s="192"/>
-      <c r="D32" s="154"/>
-      <c r="E32" s="154"/>
-      <c r="F32" s="154"/>
-      <c r="G32" s="154"/>
-      <c r="H32" s="154"/>
+      <c r="D32" s="174"/>
+      <c r="E32" s="174"/>
+      <c r="F32" s="174"/>
+      <c r="G32" s="174"/>
+      <c r="H32" s="174"/>
       <c r="I32" s="193"/>
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="197"/>
       <c r="C33" s="192"/>
-      <c r="D33" s="154"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="154"/>
-      <c r="H33" s="154"/>
+      <c r="D33" s="174"/>
+      <c r="E33" s="174"/>
+      <c r="F33" s="174"/>
+      <c r="G33" s="174"/>
+      <c r="H33" s="174"/>
       <c r="I33" s="193"/>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="197"/>
       <c r="C34" s="192"/>
-      <c r="D34" s="154"/>
-      <c r="E34" s="154"/>
-      <c r="F34" s="154"/>
-      <c r="G34" s="154"/>
-      <c r="H34" s="154"/>
+      <c r="D34" s="174"/>
+      <c r="E34" s="174"/>
+      <c r="F34" s="174"/>
+      <c r="G34" s="174"/>
+      <c r="H34" s="174"/>
       <c r="I34" s="193"/>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="197"/>
       <c r="C35" s="192"/>
-      <c r="D35" s="154"/>
-      <c r="E35" s="154"/>
-      <c r="F35" s="154"/>
-      <c r="G35" s="154"/>
-      <c r="H35" s="154"/>
+      <c r="D35" s="174"/>
+      <c r="E35" s="174"/>
+      <c r="F35" s="174"/>
+      <c r="G35" s="174"/>
+      <c r="H35" s="174"/>
       <c r="I35" s="193"/>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="197"/>
       <c r="C36" s="192"/>
-      <c r="D36" s="154"/>
-      <c r="E36" s="154"/>
-      <c r="F36" s="154"/>
-      <c r="G36" s="154"/>
-      <c r="H36" s="154"/>
+      <c r="D36" s="174"/>
+      <c r="E36" s="174"/>
+      <c r="F36" s="174"/>
+      <c r="G36" s="174"/>
+      <c r="H36" s="174"/>
       <c r="I36" s="193"/>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="197"/>
       <c r="C37" s="192"/>
-      <c r="D37" s="154"/>
-      <c r="E37" s="154"/>
-      <c r="F37" s="154"/>
-      <c r="G37" s="154"/>
-      <c r="H37" s="154"/>
+      <c r="D37" s="174"/>
+      <c r="E37" s="174"/>
+      <c r="F37" s="174"/>
+      <c r="G37" s="174"/>
+      <c r="H37" s="174"/>
       <c r="I37" s="193"/>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="197"/>
       <c r="C38" s="192"/>
-      <c r="D38" s="154"/>
-      <c r="E38" s="154"/>
-      <c r="F38" s="154"/>
-      <c r="G38" s="154"/>
-      <c r="H38" s="154"/>
+      <c r="D38" s="174"/>
+      <c r="E38" s="174"/>
+      <c r="F38" s="174"/>
+      <c r="G38" s="174"/>
+      <c r="H38" s="174"/>
       <c r="I38" s="193"/>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="197"/>
       <c r="C39" s="192"/>
-      <c r="D39" s="154"/>
-      <c r="E39" s="154"/>
-      <c r="F39" s="154"/>
-      <c r="G39" s="154"/>
-      <c r="H39" s="154"/>
+      <c r="D39" s="174"/>
+      <c r="E39" s="174"/>
+      <c r="F39" s="174"/>
+      <c r="G39" s="174"/>
+      <c r="H39" s="174"/>
       <c r="I39" s="193"/>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="197"/>
       <c r="C40" s="192"/>
-      <c r="D40" s="154"/>
-      <c r="E40" s="154"/>
-      <c r="F40" s="154"/>
-      <c r="G40" s="154"/>
-      <c r="H40" s="154"/>
+      <c r="D40" s="174"/>
+      <c r="E40" s="174"/>
+      <c r="F40" s="174"/>
+      <c r="G40" s="174"/>
+      <c r="H40" s="174"/>
       <c r="I40" s="193"/>
     </row>
-    <row r="41" spans="2:9" ht="18" thickBot="1">
+    <row r="41" spans="2:9" ht="17.25" thickBot="1">
       <c r="B41" s="198"/>
       <c r="C41" s="194"/>
-      <c r="D41" s="155"/>
-      <c r="E41" s="155"/>
-      <c r="F41" s="155"/>
-      <c r="G41" s="155"/>
-      <c r="H41" s="155"/>
+      <c r="D41" s="175"/>
+      <c r="E41" s="175"/>
+      <c r="F41" s="175"/>
+      <c r="G41" s="175"/>
+      <c r="H41" s="175"/>
       <c r="I41" s="195"/>
     </row>
   </sheetData>
@@ -9274,23 +9581,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:I61"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="3.296875" customWidth="1"/>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="9" max="9" width="8.796875" customWidth="1"/>
+    <col min="9" max="9" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="18" thickBot="1"/>
+    <row r="1" spans="2:9" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:9">
-      <c r="B2" s="115"/>
+      <c r="B2" s="122"/>
       <c r="C2" s="199" t="s">
         <v>71</v>
       </c>
@@ -9301,8 +9608,8 @@
       <c r="H2" s="199"/>
       <c r="I2" s="199"/>
     </row>
-    <row r="3" spans="2:9" ht="18" thickBot="1">
-      <c r="B3" s="116"/>
+    <row r="3" spans="2:9" ht="17.25" thickBot="1">
+      <c r="B3" s="123"/>
       <c r="C3" s="200"/>
       <c r="D3" s="200"/>
       <c r="E3" s="200"/>
@@ -9311,580 +9618,580 @@
       <c r="H3" s="200"/>
       <c r="I3" s="200"/>
     </row>
-    <row r="4" spans="2:9" ht="18" thickBot="1"/>
+    <row r="4" spans="2:9" ht="17.25" thickBot="1"/>
     <row r="5" spans="2:9">
       <c r="B5" s="208" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="197"/>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="131"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="197"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="131"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="197"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="131"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="139"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="197"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="139"/>
+      <c r="H9" s="139"/>
+      <c r="I9" s="139"/>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="197"/>
-      <c r="C10" s="131"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="139"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="197"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="131"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="139"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="139"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="197"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="131"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="139"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="197"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="131"/>
-      <c r="I13" s="131"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="139"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="197"/>
-      <c r="C14" s="131"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="131"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="139"/>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="197"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="131"/>
-      <c r="H15" s="131"/>
-      <c r="I15" s="131"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="197"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="131"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="139"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="197"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="131"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="139"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="197"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="131"/>
-      <c r="G18" s="131"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="131"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="139"/>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="197"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="139"/>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="197"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="131"/>
-      <c r="G20" s="131"/>
-      <c r="H20" s="131"/>
-      <c r="I20" s="131"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="139"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="197"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="131"/>
-      <c r="H21" s="131"/>
-      <c r="I21" s="131"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="139"/>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="197"/>
-      <c r="C22" s="131"/>
-      <c r="D22" s="131"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="131"/>
-      <c r="G22" s="131"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="131"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="139"/>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="197"/>
-      <c r="C23" s="131"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="131"/>
-      <c r="H23" s="131"/>
-      <c r="I23" s="131"/>
+      <c r="C23" s="139"/>
+      <c r="D23" s="139"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="139"/>
+      <c r="I23" s="139"/>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="197"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="131"/>
-      <c r="H24" s="131"/>
-      <c r="I24" s="131"/>
-    </row>
-    <row r="25" spans="2:9" ht="18" thickBot="1">
+      <c r="C24" s="139"/>
+      <c r="D24" s="139"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="139"/>
+      <c r="H24" s="139"/>
+      <c r="I24" s="139"/>
+    </row>
+    <row r="25" spans="2:9" ht="17.25" thickBot="1">
       <c r="B25" s="198"/>
-      <c r="C25" s="116"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="116"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="123"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="208" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="115"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="122"/>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="197"/>
-      <c r="C27" s="131"/>
-      <c r="D27" s="131"/>
-      <c r="E27" s="131"/>
-      <c r="F27" s="131"/>
-      <c r="G27" s="131"/>
-      <c r="H27" s="131"/>
-      <c r="I27" s="131"/>
+      <c r="C27" s="139"/>
+      <c r="D27" s="139"/>
+      <c r="E27" s="139"/>
+      <c r="F27" s="139"/>
+      <c r="G27" s="139"/>
+      <c r="H27" s="139"/>
+      <c r="I27" s="139"/>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="197"/>
-      <c r="C28" s="131"/>
-      <c r="D28" s="131"/>
-      <c r="E28" s="131"/>
-      <c r="F28" s="131"/>
-      <c r="G28" s="131"/>
-      <c r="H28" s="131"/>
-      <c r="I28" s="131"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="139"/>
+      <c r="I28" s="139"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="197"/>
-      <c r="C29" s="131"/>
-      <c r="D29" s="131"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="131"/>
-      <c r="G29" s="131"/>
-      <c r="H29" s="131"/>
-      <c r="I29" s="131"/>
+      <c r="C29" s="139"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="139"/>
+      <c r="H29" s="139"/>
+      <c r="I29" s="139"/>
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="197"/>
-      <c r="C30" s="131"/>
-      <c r="D30" s="131"/>
-      <c r="E30" s="131"/>
-      <c r="F30" s="131"/>
-      <c r="G30" s="131"/>
-      <c r="H30" s="131"/>
-      <c r="I30" s="131"/>
+      <c r="C30" s="139"/>
+      <c r="D30" s="139"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="139"/>
+      <c r="I30" s="139"/>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="197"/>
-      <c r="C31" s="131"/>
-      <c r="D31" s="131"/>
-      <c r="E31" s="131"/>
-      <c r="F31" s="131"/>
-      <c r="G31" s="131"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="131"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="139"/>
+      <c r="I31" s="139"/>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="197"/>
-      <c r="C32" s="131"/>
-      <c r="D32" s="131"/>
-      <c r="E32" s="131"/>
-      <c r="F32" s="131"/>
-      <c r="G32" s="131"/>
-      <c r="H32" s="131"/>
-      <c r="I32" s="131"/>
+      <c r="C32" s="139"/>
+      <c r="D32" s="139"/>
+      <c r="E32" s="139"/>
+      <c r="F32" s="139"/>
+      <c r="G32" s="139"/>
+      <c r="H32" s="139"/>
+      <c r="I32" s="139"/>
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="197"/>
-      <c r="C33" s="131"/>
-      <c r="D33" s="131"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="131"/>
-      <c r="G33" s="131"/>
-      <c r="H33" s="131"/>
-      <c r="I33" s="131"/>
+      <c r="C33" s="139"/>
+      <c r="D33" s="139"/>
+      <c r="E33" s="139"/>
+      <c r="F33" s="139"/>
+      <c r="G33" s="139"/>
+      <c r="H33" s="139"/>
+      <c r="I33" s="139"/>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="197"/>
-      <c r="C34" s="131"/>
-      <c r="D34" s="131"/>
-      <c r="E34" s="131"/>
-      <c r="F34" s="131"/>
-      <c r="G34" s="131"/>
-      <c r="H34" s="131"/>
-      <c r="I34" s="131"/>
+      <c r="C34" s="139"/>
+      <c r="D34" s="139"/>
+      <c r="E34" s="139"/>
+      <c r="F34" s="139"/>
+      <c r="G34" s="139"/>
+      <c r="H34" s="139"/>
+      <c r="I34" s="139"/>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="197"/>
-      <c r="C35" s="131"/>
-      <c r="D35" s="131"/>
-      <c r="E35" s="131"/>
-      <c r="F35" s="131"/>
-      <c r="G35" s="131"/>
-      <c r="H35" s="131"/>
-      <c r="I35" s="131"/>
+      <c r="C35" s="139"/>
+      <c r="D35" s="139"/>
+      <c r="E35" s="139"/>
+      <c r="F35" s="139"/>
+      <c r="G35" s="139"/>
+      <c r="H35" s="139"/>
+      <c r="I35" s="139"/>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="197"/>
-      <c r="C36" s="131"/>
-      <c r="D36" s="131"/>
-      <c r="E36" s="131"/>
-      <c r="F36" s="131"/>
-      <c r="G36" s="131"/>
-      <c r="H36" s="131"/>
-      <c r="I36" s="131"/>
+      <c r="C36" s="139"/>
+      <c r="D36" s="139"/>
+      <c r="E36" s="139"/>
+      <c r="F36" s="139"/>
+      <c r="G36" s="139"/>
+      <c r="H36" s="139"/>
+      <c r="I36" s="139"/>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="197"/>
-      <c r="C37" s="131"/>
-      <c r="D37" s="131"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="131"/>
-      <c r="G37" s="131"/>
-      <c r="H37" s="131"/>
-      <c r="I37" s="131"/>
+      <c r="C37" s="139"/>
+      <c r="D37" s="139"/>
+      <c r="E37" s="139"/>
+      <c r="F37" s="139"/>
+      <c r="G37" s="139"/>
+      <c r="H37" s="139"/>
+      <c r="I37" s="139"/>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="197"/>
-      <c r="C38" s="131"/>
-      <c r="D38" s="131"/>
-      <c r="E38" s="131"/>
-      <c r="F38" s="131"/>
-      <c r="G38" s="131"/>
-      <c r="H38" s="131"/>
-      <c r="I38" s="131"/>
+      <c r="C38" s="139"/>
+      <c r="D38" s="139"/>
+      <c r="E38" s="139"/>
+      <c r="F38" s="139"/>
+      <c r="G38" s="139"/>
+      <c r="H38" s="139"/>
+      <c r="I38" s="139"/>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="197"/>
-      <c r="C39" s="131"/>
-      <c r="D39" s="131"/>
-      <c r="E39" s="131"/>
-      <c r="F39" s="131"/>
-      <c r="G39" s="131"/>
-      <c r="H39" s="131"/>
-      <c r="I39" s="131"/>
+      <c r="C39" s="139"/>
+      <c r="D39" s="139"/>
+      <c r="E39" s="139"/>
+      <c r="F39" s="139"/>
+      <c r="G39" s="139"/>
+      <c r="H39" s="139"/>
+      <c r="I39" s="139"/>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="197"/>
-      <c r="C40" s="131"/>
-      <c r="D40" s="131"/>
-      <c r="E40" s="131"/>
-      <c r="F40" s="131"/>
-      <c r="G40" s="131"/>
-      <c r="H40" s="131"/>
-      <c r="I40" s="131"/>
+      <c r="C40" s="139"/>
+      <c r="D40" s="139"/>
+      <c r="E40" s="139"/>
+      <c r="F40" s="139"/>
+      <c r="G40" s="139"/>
+      <c r="H40" s="139"/>
+      <c r="I40" s="139"/>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="197"/>
-      <c r="C41" s="131"/>
-      <c r="D41" s="131"/>
-      <c r="E41" s="131"/>
-      <c r="F41" s="131"/>
-      <c r="G41" s="131"/>
-      <c r="H41" s="131"/>
-      <c r="I41" s="131"/>
+      <c r="C41" s="139"/>
+      <c r="D41" s="139"/>
+      <c r="E41" s="139"/>
+      <c r="F41" s="139"/>
+      <c r="G41" s="139"/>
+      <c r="H41" s="139"/>
+      <c r="I41" s="139"/>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="197"/>
-      <c r="C42" s="131"/>
-      <c r="D42" s="131"/>
-      <c r="E42" s="131"/>
-      <c r="F42" s="131"/>
-      <c r="G42" s="131"/>
-      <c r="H42" s="131"/>
-      <c r="I42" s="131"/>
+      <c r="C42" s="139"/>
+      <c r="D42" s="139"/>
+      <c r="E42" s="139"/>
+      <c r="F42" s="139"/>
+      <c r="G42" s="139"/>
+      <c r="H42" s="139"/>
+      <c r="I42" s="139"/>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="197"/>
-      <c r="C43" s="131"/>
-      <c r="D43" s="131"/>
-      <c r="E43" s="131"/>
-      <c r="F43" s="131"/>
-      <c r="G43" s="131"/>
-      <c r="H43" s="131"/>
-      <c r="I43" s="131"/>
+      <c r="C43" s="139"/>
+      <c r="D43" s="139"/>
+      <c r="E43" s="139"/>
+      <c r="F43" s="139"/>
+      <c r="G43" s="139"/>
+      <c r="H43" s="139"/>
+      <c r="I43" s="139"/>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="197"/>
-      <c r="C44" s="131"/>
-      <c r="D44" s="131"/>
-      <c r="E44" s="131"/>
-      <c r="F44" s="131"/>
-      <c r="G44" s="131"/>
-      <c r="H44" s="131"/>
-      <c r="I44" s="131"/>
+      <c r="C44" s="139"/>
+      <c r="D44" s="139"/>
+      <c r="E44" s="139"/>
+      <c r="F44" s="139"/>
+      <c r="G44" s="139"/>
+      <c r="H44" s="139"/>
+      <c r="I44" s="139"/>
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="197"/>
-      <c r="C45" s="131"/>
-      <c r="D45" s="131"/>
-      <c r="E45" s="131"/>
-      <c r="F45" s="131"/>
-      <c r="G45" s="131"/>
-      <c r="H45" s="131"/>
-      <c r="I45" s="131"/>
+      <c r="C45" s="139"/>
+      <c r="D45" s="139"/>
+      <c r="E45" s="139"/>
+      <c r="F45" s="139"/>
+      <c r="G45" s="139"/>
+      <c r="H45" s="139"/>
+      <c r="I45" s="139"/>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="197"/>
-      <c r="C46" s="131"/>
-      <c r="D46" s="131"/>
-      <c r="E46" s="131"/>
-      <c r="F46" s="131"/>
-      <c r="G46" s="131"/>
-      <c r="H46" s="131"/>
-      <c r="I46" s="131"/>
+      <c r="C46" s="139"/>
+      <c r="D46" s="139"/>
+      <c r="E46" s="139"/>
+      <c r="F46" s="139"/>
+      <c r="G46" s="139"/>
+      <c r="H46" s="139"/>
+      <c r="I46" s="139"/>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" s="197"/>
-      <c r="C47" s="131"/>
-      <c r="D47" s="131"/>
-      <c r="E47" s="131"/>
-      <c r="F47" s="131"/>
-      <c r="G47" s="131"/>
-      <c r="H47" s="131"/>
-      <c r="I47" s="131"/>
+      <c r="C47" s="139"/>
+      <c r="D47" s="139"/>
+      <c r="E47" s="139"/>
+      <c r="F47" s="139"/>
+      <c r="G47" s="139"/>
+      <c r="H47" s="139"/>
+      <c r="I47" s="139"/>
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="197"/>
-      <c r="C48" s="131"/>
-      <c r="D48" s="131"/>
-      <c r="E48" s="131"/>
-      <c r="F48" s="131"/>
-      <c r="G48" s="131"/>
-      <c r="H48" s="131"/>
-      <c r="I48" s="131"/>
+      <c r="C48" s="139"/>
+      <c r="D48" s="139"/>
+      <c r="E48" s="139"/>
+      <c r="F48" s="139"/>
+      <c r="G48" s="139"/>
+      <c r="H48" s="139"/>
+      <c r="I48" s="139"/>
     </row>
     <row r="49" spans="2:9">
       <c r="B49" s="197"/>
-      <c r="C49" s="131"/>
-      <c r="D49" s="131"/>
-      <c r="E49" s="131"/>
-      <c r="F49" s="131"/>
-      <c r="G49" s="131"/>
-      <c r="H49" s="131"/>
-      <c r="I49" s="131"/>
+      <c r="C49" s="139"/>
+      <c r="D49" s="139"/>
+      <c r="E49" s="139"/>
+      <c r="F49" s="139"/>
+      <c r="G49" s="139"/>
+      <c r="H49" s="139"/>
+      <c r="I49" s="139"/>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" s="197"/>
-      <c r="C50" s="131"/>
-      <c r="D50" s="131"/>
-      <c r="E50" s="131"/>
-      <c r="F50" s="131"/>
-      <c r="G50" s="131"/>
-      <c r="H50" s="131"/>
-      <c r="I50" s="131"/>
+      <c r="C50" s="139"/>
+      <c r="D50" s="139"/>
+      <c r="E50" s="139"/>
+      <c r="F50" s="139"/>
+      <c r="G50" s="139"/>
+      <c r="H50" s="139"/>
+      <c r="I50" s="139"/>
     </row>
     <row r="51" spans="2:9">
       <c r="B51" s="197"/>
-      <c r="C51" s="131"/>
-      <c r="D51" s="131"/>
-      <c r="E51" s="131"/>
-      <c r="F51" s="131"/>
-      <c r="G51" s="131"/>
-      <c r="H51" s="131"/>
-      <c r="I51" s="131"/>
+      <c r="C51" s="139"/>
+      <c r="D51" s="139"/>
+      <c r="E51" s="139"/>
+      <c r="F51" s="139"/>
+      <c r="G51" s="139"/>
+      <c r="H51" s="139"/>
+      <c r="I51" s="139"/>
     </row>
     <row r="52" spans="2:9">
       <c r="B52" s="197"/>
-      <c r="C52" s="131"/>
-      <c r="D52" s="131"/>
-      <c r="E52" s="131"/>
-      <c r="F52" s="131"/>
-      <c r="G52" s="131"/>
-      <c r="H52" s="131"/>
-      <c r="I52" s="131"/>
+      <c r="C52" s="139"/>
+      <c r="D52" s="139"/>
+      <c r="E52" s="139"/>
+      <c r="F52" s="139"/>
+      <c r="G52" s="139"/>
+      <c r="H52" s="139"/>
+      <c r="I52" s="139"/>
     </row>
     <row r="53" spans="2:9">
       <c r="B53" s="197"/>
-      <c r="C53" s="131"/>
-      <c r="D53" s="131"/>
-      <c r="E53" s="131"/>
-      <c r="F53" s="131"/>
-      <c r="G53" s="131"/>
-      <c r="H53" s="131"/>
-      <c r="I53" s="131"/>
+      <c r="C53" s="139"/>
+      <c r="D53" s="139"/>
+      <c r="E53" s="139"/>
+      <c r="F53" s="139"/>
+      <c r="G53" s="139"/>
+      <c r="H53" s="139"/>
+      <c r="I53" s="139"/>
     </row>
     <row r="54" spans="2:9">
       <c r="B54" s="197"/>
-      <c r="C54" s="131"/>
-      <c r="D54" s="131"/>
-      <c r="E54" s="131"/>
-      <c r="F54" s="131"/>
-      <c r="G54" s="131"/>
-      <c r="H54" s="131"/>
-      <c r="I54" s="131"/>
+      <c r="C54" s="139"/>
+      <c r="D54" s="139"/>
+      <c r="E54" s="139"/>
+      <c r="F54" s="139"/>
+      <c r="G54" s="139"/>
+      <c r="H54" s="139"/>
+      <c r="I54" s="139"/>
     </row>
     <row r="55" spans="2:9">
       <c r="B55" s="197"/>
-      <c r="C55" s="131"/>
-      <c r="D55" s="131"/>
-      <c r="E55" s="131"/>
-      <c r="F55" s="131"/>
-      <c r="G55" s="131"/>
-      <c r="H55" s="131"/>
-      <c r="I55" s="131"/>
+      <c r="C55" s="139"/>
+      <c r="D55" s="139"/>
+      <c r="E55" s="139"/>
+      <c r="F55" s="139"/>
+      <c r="G55" s="139"/>
+      <c r="H55" s="139"/>
+      <c r="I55" s="139"/>
     </row>
     <row r="56" spans="2:9">
       <c r="B56" s="197"/>
-      <c r="C56" s="131"/>
-      <c r="D56" s="131"/>
-      <c r="E56" s="131"/>
-      <c r="F56" s="131"/>
-      <c r="G56" s="131"/>
-      <c r="H56" s="131"/>
-      <c r="I56" s="131"/>
+      <c r="C56" s="139"/>
+      <c r="D56" s="139"/>
+      <c r="E56" s="139"/>
+      <c r="F56" s="139"/>
+      <c r="G56" s="139"/>
+      <c r="H56" s="139"/>
+      <c r="I56" s="139"/>
     </row>
     <row r="57" spans="2:9">
       <c r="B57" s="197"/>
-      <c r="C57" s="131"/>
-      <c r="D57" s="131"/>
-      <c r="E57" s="131"/>
-      <c r="F57" s="131"/>
-      <c r="G57" s="131"/>
-      <c r="H57" s="131"/>
-      <c r="I57" s="131"/>
+      <c r="C57" s="139"/>
+      <c r="D57" s="139"/>
+      <c r="E57" s="139"/>
+      <c r="F57" s="139"/>
+      <c r="G57" s="139"/>
+      <c r="H57" s="139"/>
+      <c r="I57" s="139"/>
     </row>
     <row r="58" spans="2:9">
       <c r="B58" s="197"/>
-      <c r="C58" s="131"/>
-      <c r="D58" s="131"/>
-      <c r="E58" s="131"/>
-      <c r="F58" s="131"/>
-      <c r="G58" s="131"/>
-      <c r="H58" s="131"/>
-      <c r="I58" s="131"/>
+      <c r="C58" s="139"/>
+      <c r="D58" s="139"/>
+      <c r="E58" s="139"/>
+      <c r="F58" s="139"/>
+      <c r="G58" s="139"/>
+      <c r="H58" s="139"/>
+      <c r="I58" s="139"/>
     </row>
     <row r="59" spans="2:9">
       <c r="B59" s="197"/>
-      <c r="C59" s="131"/>
-      <c r="D59" s="131"/>
-      <c r="E59" s="131"/>
-      <c r="F59" s="131"/>
-      <c r="G59" s="131"/>
-      <c r="H59" s="131"/>
-      <c r="I59" s="131"/>
+      <c r="C59" s="139"/>
+      <c r="D59" s="139"/>
+      <c r="E59" s="139"/>
+      <c r="F59" s="139"/>
+      <c r="G59" s="139"/>
+      <c r="H59" s="139"/>
+      <c r="I59" s="139"/>
     </row>
     <row r="60" spans="2:9">
       <c r="B60" s="197"/>
-      <c r="C60" s="131"/>
-      <c r="D60" s="131"/>
-      <c r="E60" s="131"/>
-      <c r="F60" s="131"/>
-      <c r="G60" s="131"/>
-      <c r="H60" s="131"/>
-      <c r="I60" s="131"/>
-    </row>
-    <row r="61" spans="2:9" ht="18" thickBot="1">
+      <c r="C60" s="139"/>
+      <c r="D60" s="139"/>
+      <c r="E60" s="139"/>
+      <c r="F60" s="139"/>
+      <c r="G60" s="139"/>
+      <c r="H60" s="139"/>
+      <c r="I60" s="139"/>
+    </row>
+    <row r="61" spans="2:9" ht="17.25" thickBot="1">
       <c r="B61" s="198"/>
-      <c r="C61" s="116"/>
-      <c r="D61" s="116"/>
-      <c r="E61" s="116"/>
-      <c r="F61" s="116"/>
-      <c r="G61" s="116"/>
-      <c r="H61" s="116"/>
-      <c r="I61" s="116"/>
+      <c r="C61" s="123"/>
+      <c r="D61" s="123"/>
+      <c r="E61" s="123"/>
+      <c r="F61" s="123"/>
+      <c r="G61" s="123"/>
+      <c r="H61" s="123"/>
+      <c r="I61" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -9903,37 +10210,37 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:N17"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="72" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="19.2"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="3.8984375" style="82" customWidth="1"/>
-    <col min="2" max="2" width="4.8984375" style="91" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.8984375" style="92" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.19921875" style="82" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.8984375" style="82" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.875" style="82" customWidth="1"/>
+    <col min="2" max="2" width="4.875" style="91" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.875" style="92" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="82" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="82" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="82" customWidth="1"/>
-    <col min="7" max="7" width="17.69921875" style="82" customWidth="1"/>
-    <col min="8" max="8" width="6.19921875" style="82" customWidth="1"/>
-    <col min="9" max="9" width="17.69921875" style="82" customWidth="1"/>
-    <col min="10" max="10" width="19.69921875" style="82" customWidth="1"/>
-    <col min="11" max="11" width="19.3984375" style="82" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.09765625" style="93" customWidth="1"/>
-    <col min="13" max="13" width="21.09765625" style="82" customWidth="1"/>
-    <col min="14" max="14" width="4.69921875" style="82" customWidth="1"/>
-    <col min="15" max="15" width="1.8984375" style="82" customWidth="1"/>
+    <col min="7" max="7" width="17.75" style="82" customWidth="1"/>
+    <col min="8" max="8" width="6.25" style="82" customWidth="1"/>
+    <col min="9" max="9" width="17.75" style="82" customWidth="1"/>
+    <col min="10" max="10" width="19.75" style="82" customWidth="1"/>
+    <col min="11" max="11" width="19.375" style="82" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.125" style="93" customWidth="1"/>
+    <col min="13" max="13" width="21.125" style="82" customWidth="1"/>
+    <col min="14" max="14" width="4.75" style="82" customWidth="1"/>
+    <col min="15" max="15" width="1.875" style="82" customWidth="1"/>
     <col min="16" max="16384" width="8" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="17.399999999999999" customHeight="1" thickBot="1">
+    <row r="1" spans="2:14" ht="17.45" customHeight="1" thickBot="1">
       <c r="B1" s="82"/>
       <c r="C1" s="83"/>
       <c r="D1" s="83"/>
@@ -9947,19 +10254,19 @@
       <c r="L1" s="83"/>
       <c r="M1" s="84"/>
     </row>
-    <row r="2" spans="2:14" ht="17.399999999999999" customHeight="1">
-      <c r="B2" s="219"/>
-      <c r="C2" s="220"/>
-      <c r="D2" s="223" t="s">
+    <row r="2" spans="2:14" ht="17.45" customHeight="1">
+      <c r="B2" s="209"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="213" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="223"/>
-      <c r="F2" s="223"/>
-      <c r="G2" s="223"/>
-      <c r="H2" s="223"/>
-      <c r="I2" s="223"/>
-      <c r="J2" s="223"/>
-      <c r="K2" s="224"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="213"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="213"/>
+      <c r="K2" s="214"/>
       <c r="L2" s="97" t="s">
         <v>98</v>
       </c>
@@ -9967,17 +10274,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="B3" s="221"/>
-      <c r="C3" s="222"/>
-      <c r="D3" s="225"/>
-      <c r="E3" s="225"/>
-      <c r="F3" s="225"/>
-      <c r="G3" s="225"/>
-      <c r="H3" s="225"/>
-      <c r="I3" s="225"/>
-      <c r="J3" s="225"/>
-      <c r="K3" s="226"/>
+    <row r="3" spans="2:14" ht="17.45" customHeight="1" thickBot="1">
+      <c r="B3" s="211"/>
+      <c r="C3" s="212"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="215"/>
+      <c r="G3" s="215"/>
+      <c r="H3" s="215"/>
+      <c r="I3" s="215"/>
+      <c r="J3" s="215"/>
+      <c r="K3" s="216"/>
       <c r="L3" s="99" t="s">
         <v>99</v>
       </c>
@@ -9985,7 +10292,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="17.399999999999999" customHeight="1" thickBot="1">
+    <row r="4" spans="2:14" ht="17.45" customHeight="1" thickBot="1">
       <c r="B4" s="89"/>
       <c r="C4" s="83"/>
       <c r="D4" s="83"/>
@@ -9999,7 +10306,7 @@
       <c r="L4" s="83"/>
       <c r="M4" s="84"/>
     </row>
-    <row r="5" spans="2:14" s="85" customFormat="1" ht="23.4" customHeight="1">
+    <row r="5" spans="2:14" s="85" customFormat="1" ht="23.45" customHeight="1">
       <c r="B5" s="95" t="s">
         <v>79</v>
       </c>
@@ -10009,200 +10316,200 @@
       <c r="D5" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="211" t="s">
+      <c r="E5" s="222" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="211"/>
-      <c r="G5" s="211"/>
-      <c r="H5" s="211"/>
-      <c r="I5" s="211"/>
-      <c r="J5" s="211"/>
+      <c r="F5" s="222"/>
+      <c r="G5" s="222"/>
+      <c r="H5" s="222"/>
+      <c r="I5" s="222"/>
+      <c r="J5" s="222"/>
       <c r="K5" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="L5" s="211" t="s">
+      <c r="L5" s="222" t="s">
         <v>84</v>
       </c>
-      <c r="M5" s="212"/>
-    </row>
-    <row r="6" spans="2:14" ht="37.950000000000003" customHeight="1">
-      <c r="B6" s="213">
+      <c r="M5" s="223"/>
+    </row>
+    <row r="6" spans="2:14" ht="37.9" customHeight="1">
+      <c r="B6" s="224">
         <v>1</v>
       </c>
-      <c r="C6" s="215" t="s">
+      <c r="C6" s="227" t="s">
         <v>97</v>
       </c>
       <c r="D6" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="218" t="s">
+      <c r="E6" s="219" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="218"/>
-      <c r="G6" s="218"/>
-      <c r="H6" s="218"/>
-      <c r="I6" s="218"/>
-      <c r="J6" s="218"/>
+      <c r="F6" s="219"/>
+      <c r="G6" s="219"/>
+      <c r="H6" s="219"/>
+      <c r="I6" s="219"/>
+      <c r="J6" s="219"/>
       <c r="K6" s="86"/>
-      <c r="L6" s="209"/>
-      <c r="M6" s="210"/>
+      <c r="L6" s="220"/>
+      <c r="M6" s="221"/>
       <c r="N6" s="87"/>
     </row>
-    <row r="7" spans="2:14" ht="37.950000000000003" customHeight="1">
-      <c r="B7" s="213"/>
-      <c r="C7" s="216"/>
+    <row r="7" spans="2:14" ht="37.9" customHeight="1">
+      <c r="B7" s="224"/>
+      <c r="C7" s="228"/>
       <c r="D7" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="218" t="s">
+      <c r="E7" s="219" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="218"/>
-      <c r="G7" s="218"/>
-      <c r="H7" s="218"/>
-      <c r="I7" s="218"/>
-      <c r="J7" s="218"/>
+      <c r="F7" s="219"/>
+      <c r="G7" s="219"/>
+      <c r="H7" s="219"/>
+      <c r="I7" s="219"/>
+      <c r="J7" s="219"/>
       <c r="K7" s="86"/>
-      <c r="L7" s="209"/>
-      <c r="M7" s="210"/>
+      <c r="L7" s="220"/>
+      <c r="M7" s="221"/>
       <c r="N7" s="87"/>
     </row>
-    <row r="8" spans="2:14" ht="37.950000000000003" customHeight="1">
-      <c r="B8" s="213"/>
-      <c r="C8" s="216"/>
+    <row r="8" spans="2:14" ht="37.9" customHeight="1">
+      <c r="B8" s="224"/>
+      <c r="C8" s="228"/>
       <c r="D8" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="218" t="s">
+      <c r="E8" s="219" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="218"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="218"/>
-      <c r="I8" s="218"/>
-      <c r="J8" s="218"/>
+      <c r="F8" s="219"/>
+      <c r="G8" s="219"/>
+      <c r="H8" s="219"/>
+      <c r="I8" s="219"/>
+      <c r="J8" s="219"/>
       <c r="K8" s="86"/>
-      <c r="L8" s="209"/>
-      <c r="M8" s="210"/>
+      <c r="L8" s="220"/>
+      <c r="M8" s="221"/>
       <c r="N8" s="87"/>
     </row>
-    <row r="9" spans="2:14" ht="37.950000000000003" customHeight="1">
-      <c r="B9" s="213"/>
-      <c r="C9" s="216"/>
+    <row r="9" spans="2:14" ht="37.9" customHeight="1">
+      <c r="B9" s="224"/>
+      <c r="C9" s="228"/>
       <c r="D9" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="218" t="s">
+      <c r="E9" s="219" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="218"/>
-      <c r="G9" s="218"/>
-      <c r="H9" s="218"/>
-      <c r="I9" s="218"/>
-      <c r="J9" s="218"/>
+      <c r="F9" s="219"/>
+      <c r="G9" s="219"/>
+      <c r="H9" s="219"/>
+      <c r="I9" s="219"/>
+      <c r="J9" s="219"/>
       <c r="K9" s="86"/>
-      <c r="L9" s="209"/>
-      <c r="M9" s="210"/>
+      <c r="L9" s="220"/>
+      <c r="M9" s="221"/>
       <c r="N9" s="87"/>
     </row>
-    <row r="10" spans="2:14" ht="37.950000000000003" customHeight="1">
-      <c r="B10" s="213"/>
-      <c r="C10" s="216"/>
+    <row r="10" spans="2:14" ht="37.9" customHeight="1">
+      <c r="B10" s="224"/>
+      <c r="C10" s="228"/>
       <c r="D10" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="218" t="s">
+      <c r="E10" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="218"/>
-      <c r="G10" s="218"/>
-      <c r="H10" s="218"/>
-      <c r="I10" s="218"/>
-      <c r="J10" s="218"/>
+      <c r="F10" s="219"/>
+      <c r="G10" s="219"/>
+      <c r="H10" s="219"/>
+      <c r="I10" s="219"/>
+      <c r="J10" s="219"/>
       <c r="K10" s="86"/>
-      <c r="L10" s="209"/>
-      <c r="M10" s="210"/>
+      <c r="L10" s="220"/>
+      <c r="M10" s="221"/>
       <c r="N10" s="87"/>
     </row>
-    <row r="11" spans="2:14" ht="37.950000000000003" customHeight="1">
-      <c r="B11" s="213"/>
-      <c r="C11" s="216"/>
+    <row r="11" spans="2:14" ht="37.9" customHeight="1">
+      <c r="B11" s="224"/>
+      <c r="C11" s="228"/>
       <c r="D11" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="218" t="s">
+      <c r="E11" s="219" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="218"/>
-      <c r="G11" s="218"/>
-      <c r="H11" s="218"/>
-      <c r="I11" s="218"/>
-      <c r="J11" s="218"/>
+      <c r="F11" s="219"/>
+      <c r="G11" s="219"/>
+      <c r="H11" s="219"/>
+      <c r="I11" s="219"/>
+      <c r="J11" s="219"/>
       <c r="K11" s="86"/>
-      <c r="L11" s="209"/>
-      <c r="M11" s="210"/>
+      <c r="L11" s="220"/>
+      <c r="M11" s="221"/>
       <c r="N11" s="87"/>
     </row>
-    <row r="12" spans="2:14" ht="37.950000000000003" customHeight="1">
-      <c r="B12" s="213"/>
-      <c r="C12" s="216"/>
+    <row r="12" spans="2:14" ht="37.9" customHeight="1">
+      <c r="B12" s="224"/>
+      <c r="C12" s="228"/>
       <c r="D12" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="218" t="s">
+      <c r="E12" s="219" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="218"/>
-      <c r="G12" s="218"/>
-      <c r="H12" s="218"/>
-      <c r="I12" s="218"/>
-      <c r="J12" s="218"/>
+      <c r="F12" s="219"/>
+      <c r="G12" s="219"/>
+      <c r="H12" s="219"/>
+      <c r="I12" s="219"/>
+      <c r="J12" s="219"/>
       <c r="K12" s="86"/>
-      <c r="L12" s="209"/>
-      <c r="M12" s="210"/>
+      <c r="L12" s="220"/>
+      <c r="M12" s="221"/>
       <c r="N12" s="87"/>
     </row>
-    <row r="13" spans="2:14" ht="37.950000000000003" customHeight="1">
-      <c r="B13" s="213"/>
-      <c r="C13" s="216"/>
+    <row r="13" spans="2:14" ht="37.9" customHeight="1">
+      <c r="B13" s="224"/>
+      <c r="C13" s="228"/>
       <c r="D13" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="218" t="s">
+      <c r="E13" s="219" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="218"/>
-      <c r="G13" s="218"/>
-      <c r="H13" s="218"/>
-      <c r="I13" s="218"/>
-      <c r="J13" s="218"/>
+      <c r="F13" s="219"/>
+      <c r="G13" s="219"/>
+      <c r="H13" s="219"/>
+      <c r="I13" s="219"/>
+      <c r="J13" s="219"/>
       <c r="K13" s="86"/>
-      <c r="L13" s="209"/>
-      <c r="M13" s="210"/>
+      <c r="L13" s="220"/>
+      <c r="M13" s="221"/>
       <c r="N13" s="87"/>
     </row>
-    <row r="14" spans="2:14" ht="37.950000000000003" customHeight="1">
-      <c r="B14" s="213"/>
-      <c r="C14" s="216"/>
+    <row r="14" spans="2:14" ht="37.9" customHeight="1">
+      <c r="B14" s="224"/>
+      <c r="C14" s="228"/>
       <c r="D14" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="218" t="s">
+      <c r="E14" s="219" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="218"/>
-      <c r="G14" s="218"/>
-      <c r="H14" s="218"/>
-      <c r="I14" s="218"/>
-      <c r="J14" s="218"/>
+      <c r="F14" s="219"/>
+      <c r="G14" s="219"/>
+      <c r="H14" s="219"/>
+      <c r="I14" s="219"/>
+      <c r="J14" s="219"/>
       <c r="K14" s="86"/>
-      <c r="L14" s="209"/>
-      <c r="M14" s="210"/>
+      <c r="L14" s="220"/>
+      <c r="M14" s="221"/>
       <c r="N14" s="87"/>
     </row>
-    <row r="15" spans="2:14" ht="37.950000000000003" customHeight="1">
-      <c r="B15" s="229"/>
-      <c r="C15" s="216"/>
+    <row r="15" spans="2:14" ht="37.9" customHeight="1">
+      <c r="B15" s="225"/>
+      <c r="C15" s="228"/>
       <c r="D15" s="86" t="s">
         <v>85</v>
       </c>
@@ -10215,27 +10522,27 @@
       <c r="I15" s="230"/>
       <c r="J15" s="230"/>
       <c r="K15" s="101"/>
-      <c r="L15" s="209"/>
-      <c r="M15" s="210"/>
+      <c r="L15" s="220"/>
+      <c r="M15" s="221"/>
       <c r="N15" s="87"/>
     </row>
-    <row r="16" spans="2:14" ht="37.950000000000003" customHeight="1" thickBot="1">
-      <c r="B16" s="214"/>
-      <c r="C16" s="217"/>
+    <row r="16" spans="2:14" ht="37.9" customHeight="1" thickBot="1">
+      <c r="B16" s="226"/>
+      <c r="C16" s="229"/>
       <c r="D16" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="227" t="s">
-        <v>103</v>
-      </c>
-      <c r="F16" s="227"/>
-      <c r="G16" s="227"/>
-      <c r="H16" s="227"/>
-      <c r="I16" s="227"/>
-      <c r="J16" s="227"/>
+      <c r="E16" s="217" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="217"/>
+      <c r="G16" s="217"/>
+      <c r="H16" s="217"/>
+      <c r="I16" s="217"/>
+      <c r="J16" s="217"/>
       <c r="K16" s="96"/>
-      <c r="L16" s="222"/>
-      <c r="M16" s="228"/>
+      <c r="L16" s="212"/>
+      <c r="M16" s="218"/>
       <c r="N16" s="87"/>
     </row>
     <row r="17" spans="2:13">
@@ -10254,6 +10561,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B6:B16"/>
+    <mergeCell ref="C6:C16"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="L15:M15"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="D2:K3"/>
     <mergeCell ref="E16:J16"/>
@@ -10270,22 +10589,10 @@
     <mergeCell ref="E10:J10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="E11:J11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="B6:B16"/>
-    <mergeCell ref="C6:C16"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="L15:M15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K4" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>평가결과</formula1>
     </dataValidation>
   </dataValidations>
@@ -10307,15 +10614,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>91440</xdr:colOff>
+                    <xdr:colOff>95250</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>106680</xdr:rowOff>
+                    <xdr:rowOff>104775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>579120</xdr:colOff>
+                    <xdr:colOff>581025</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>388620</xdr:rowOff>
+                    <xdr:rowOff>390525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10329,13 +10636,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>525780</xdr:colOff>
+                    <xdr:colOff>523875</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>121920</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>967740</xdr:colOff>
+                    <xdr:colOff>971550</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>381000</xdr:rowOff>
                   </to>
@@ -10353,13 +10660,13 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>952500</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>91440</xdr:rowOff>
+                    <xdr:rowOff>95250</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>1447800</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>403860</xdr:rowOff>
+                    <xdr:rowOff>400050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10373,15 +10680,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>91440</xdr:colOff>
+                    <xdr:colOff>95250</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>106680</xdr:rowOff>
+                    <xdr:rowOff>104775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>579120</xdr:colOff>
+                    <xdr:colOff>581025</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>388620</xdr:rowOff>
+                    <xdr:rowOff>390525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10395,13 +10702,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>525780</xdr:colOff>
+                    <xdr:colOff>523875</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>121920</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>967740</xdr:colOff>
+                    <xdr:colOff>971550</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>381000</xdr:rowOff>
                   </to>
@@ -10419,13 +10726,13 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>952500</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>91440</xdr:rowOff>
+                    <xdr:rowOff>95250</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>1447800</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>403860</xdr:rowOff>
+                    <xdr:rowOff>400050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10439,15 +10746,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>91440</xdr:colOff>
+                    <xdr:colOff>95250</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>106680</xdr:rowOff>
+                    <xdr:rowOff>104775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>579120</xdr:colOff>
+                    <xdr:colOff>581025</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>388620</xdr:rowOff>
+                    <xdr:rowOff>390525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10461,13 +10768,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>525780</xdr:colOff>
+                    <xdr:colOff>523875</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>121920</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>967740</xdr:colOff>
+                    <xdr:colOff>971550</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>381000</xdr:rowOff>
                   </to>
@@ -10485,13 +10792,13 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>952500</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>91440</xdr:rowOff>
+                    <xdr:rowOff>95250</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>1447800</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>403860</xdr:rowOff>
+                    <xdr:rowOff>400050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10505,15 +10812,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>91440</xdr:colOff>
+                    <xdr:colOff>95250</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>121920</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>579120</xdr:colOff>
+                    <xdr:colOff>581025</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>403860</xdr:rowOff>
+                    <xdr:rowOff>400050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10527,15 +10834,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>525780</xdr:colOff>
+                    <xdr:colOff>523875</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>129540</xdr:rowOff>
+                    <xdr:rowOff>133350</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>967740</xdr:colOff>
+                    <xdr:colOff>971550</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>388620</xdr:rowOff>
+                    <xdr:rowOff>390525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10551,13 +10858,13 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>952500</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>106680</xdr:rowOff>
+                    <xdr:rowOff>104775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>1447800</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>411480</xdr:rowOff>
+                    <xdr:rowOff>409575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10571,15 +10878,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>91440</xdr:colOff>
+                    <xdr:colOff>95250</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>106680</xdr:rowOff>
+                    <xdr:rowOff>104775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>579120</xdr:colOff>
+                    <xdr:colOff>581025</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>388620</xdr:rowOff>
+                    <xdr:rowOff>390525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10593,13 +10900,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>525780</xdr:colOff>
+                    <xdr:colOff>523875</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>121920</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>967740</xdr:colOff>
+                    <xdr:colOff>971550</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>381000</xdr:rowOff>
                   </to>
@@ -10617,13 +10924,13 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>952500</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>91440</xdr:rowOff>
+                    <xdr:rowOff>95250</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>1447800</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>403860</xdr:rowOff>
+                    <xdr:rowOff>400050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10637,15 +10944,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>91440</xdr:colOff>
+                    <xdr:colOff>95250</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>83820</xdr:rowOff>
+                    <xdr:rowOff>85725</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>579120</xdr:colOff>
+                    <xdr:colOff>581025</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>373380</xdr:rowOff>
+                    <xdr:rowOff>371475</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10659,15 +10966,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>525780</xdr:colOff>
+                    <xdr:colOff>523875</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>99060</xdr:rowOff>
+                    <xdr:rowOff>95250</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>967740</xdr:colOff>
+                    <xdr:colOff>971550</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>358140</xdr:rowOff>
+                    <xdr:rowOff>361950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10703,13 +11010,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>91440</xdr:colOff>
+                    <xdr:colOff>95250</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>99060</xdr:rowOff>
+                    <xdr:rowOff>95250</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>579120</xdr:colOff>
+                    <xdr:colOff>581025</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>381000</xdr:rowOff>
                   </to>
@@ -10725,15 +11032,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>525780</xdr:colOff>
+                    <xdr:colOff>523875</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>106680</xdr:rowOff>
+                    <xdr:rowOff>104775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>967740</xdr:colOff>
+                    <xdr:colOff>971550</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>365760</xdr:rowOff>
+                    <xdr:rowOff>361950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10749,13 +11056,13 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>952500</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>83820</xdr:rowOff>
+                    <xdr:rowOff>85725</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>1447800</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>388620</xdr:rowOff>
+                    <xdr:rowOff>390525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10769,13 +11076,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>91440</xdr:colOff>
+                    <xdr:colOff>95250</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>99060</xdr:rowOff>
+                    <xdr:rowOff>95250</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>579120</xdr:colOff>
+                    <xdr:colOff>581025</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>381000</xdr:rowOff>
                   </to>
@@ -10791,15 +11098,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>525780</xdr:colOff>
+                    <xdr:colOff>523875</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>106680</xdr:rowOff>
+                    <xdr:rowOff>104775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>967740</xdr:colOff>
+                    <xdr:colOff>971550</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>365760</xdr:rowOff>
+                    <xdr:rowOff>361950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10815,13 +11122,13 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>952500</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>83820</xdr:rowOff>
+                    <xdr:rowOff>85725</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>1447800</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>388620</xdr:rowOff>
+                    <xdr:rowOff>390525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10835,15 +11142,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>91440</xdr:colOff>
+                    <xdr:colOff>95250</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>106680</xdr:rowOff>
+                    <xdr:rowOff>104775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>579120</xdr:colOff>
+                    <xdr:colOff>581025</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>388620</xdr:rowOff>
+                    <xdr:rowOff>390525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10857,13 +11164,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>525780</xdr:colOff>
+                    <xdr:colOff>523875</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>121920</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>967740</xdr:colOff>
+                    <xdr:colOff>971550</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>381000</xdr:rowOff>
                   </to>
@@ -10881,13 +11188,13 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>952500</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>91440</xdr:rowOff>
+                    <xdr:rowOff>95250</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>1447800</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>403860</xdr:rowOff>
+                    <xdr:rowOff>400050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10901,15 +11208,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>91440</xdr:colOff>
+                    <xdr:colOff>95250</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>106680</xdr:rowOff>
+                    <xdr:rowOff>104775</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>579120</xdr:colOff>
+                    <xdr:colOff>581025</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>388620</xdr:rowOff>
+                    <xdr:rowOff>390525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10923,13 +11230,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>525780</xdr:colOff>
+                    <xdr:colOff>523875</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>121920</xdr:rowOff>
+                    <xdr:rowOff>123825</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>967740</xdr:colOff>
+                    <xdr:colOff>971550</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>381000</xdr:rowOff>
                   </to>
@@ -10947,13 +11254,13 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>952500</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>91440</xdr:rowOff>
+                    <xdr:rowOff>95250</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>1447800</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>403860</xdr:rowOff>
+                    <xdr:rowOff>400050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10967,15 +11274,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>91440</xdr:colOff>
+                    <xdr:colOff>95250</xdr:colOff>
                     <xdr:row>14</xdr:row>
                     <xdr:rowOff>114300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>579120</xdr:colOff>
+                    <xdr:colOff>581025</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>396240</xdr:rowOff>
+                    <xdr:rowOff>400050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10989,15 +11296,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>525780</xdr:colOff>
+                    <xdr:colOff>523875</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>129540</xdr:rowOff>
+                    <xdr:rowOff>133350</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>967740</xdr:colOff>
+                    <xdr:colOff>971550</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>388620</xdr:rowOff>
+                    <xdr:rowOff>390525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11013,13 +11320,13 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>952500</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>99060</xdr:rowOff>
+                    <xdr:rowOff>95250</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>1447800</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>411480</xdr:rowOff>
+                    <xdr:rowOff>409575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/공학용계산기 Development Report_메가톤.xlsx
+++ b/공학용계산기 Development Report_메가톤.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESKTOP\git\Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844CD309-117D-44F5-82C9-1887FD6BD676}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BC3AB3-AD47-494B-8CD7-F70CBD907E5E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="7" r:id="rId1"/>
@@ -1949,6 +1949,12 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1973,40 +1979,19 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2015,46 +2000,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2066,38 +2048,137 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2135,81 +2216,6 @@
     <xf numFmtId="9" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2269,39 +2275,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2335,14 +2308,41 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4035,13 +4035,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:rowOff>34289</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>186690</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4056,8 +4056,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1992630" y="12226290"/>
-          <a:ext cx="4564380" cy="571500"/>
+          <a:off x="1992630" y="12226289"/>
+          <a:ext cx="4564380" cy="699135"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4221,8 +4221,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4237,8 +4237,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2019300" y="10431780"/>
-          <a:ext cx="4472940" cy="594360"/>
+          <a:off x="2015490" y="9902190"/>
+          <a:ext cx="4564380" cy="670560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7610,7 +7610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -7626,41 +7626,41 @@
   <sheetData>
     <row r="1" spans="2:6" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:6">
-      <c r="B2" s="102"/>
-      <c r="C2" s="104" t="s">
+      <c r="B2" s="104"/>
+      <c r="C2" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="105"/>
+      <c r="D2" s="107"/>
     </row>
     <row r="3" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B3" s="103"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="107"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109"/>
     </row>
     <row r="4" spans="2:6" ht="17.25" thickBot="1"/>
     <row r="5" spans="2:6">
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="108" t="s">
+      <c r="D5" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="108" t="s">
+      <c r="E5" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="108" t="s">
+      <c r="F5" s="110" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="62" t="s">
@@ -7699,7 +7699,7 @@
       <c r="C9" s="67">
         <v>1.2</v>
       </c>
-      <c r="D9" s="231" t="s">
+      <c r="D9" s="102" t="s">
         <v>103</v>
       </c>
       <c r="E9" s="67"/>
@@ -7714,7 +7714,7 @@
       <c r="C10" s="67">
         <v>1.3</v>
       </c>
-      <c r="D10" s="232" t="s">
+      <c r="D10" s="103" t="s">
         <v>102</v>
       </c>
       <c r="E10" s="67"/>
@@ -7871,11 +7871,11 @@
       <c r="X2" s="24"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="B3" s="114"/>
-      <c r="C3" s="110" t="s">
+      <c r="B3" s="146"/>
+      <c r="C3" s="142" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="111"/>
+      <c r="D3" s="143"/>
       <c r="E3" s="72"/>
       <c r="F3" s="73" t="s">
         <v>28</v>
@@ -7900,9 +7900,9 @@
       <c r="X3" s="24"/>
     </row>
     <row r="4" spans="1:24" ht="17.25" thickBot="1">
-      <c r="B4" s="115"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="113"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="145"/>
       <c r="E4" s="72"/>
       <c r="F4" s="74" t="s">
         <v>46</v>
@@ -7952,76 +7952,76 @@
       <c r="X5" s="24"/>
     </row>
     <row r="6" spans="1:24" ht="17.25" thickBot="1">
-      <c r="B6" s="146" t="s">
+      <c r="B6" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="146" t="s">
+      <c r="D6" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="147" t="s">
+      <c r="E6" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="141"/>
-      <c r="G6" s="146" t="s">
+      <c r="F6" s="112"/>
+      <c r="G6" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="150" t="s">
+      <c r="H6" s="127" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="150"/>
-      <c r="J6" s="150"/>
-      <c r="K6" s="150"/>
-      <c r="L6" s="150"/>
-      <c r="M6" s="150"/>
-      <c r="N6" s="150"/>
-      <c r="O6" s="150"/>
-      <c r="P6" s="150"/>
-      <c r="Q6" s="150"/>
-      <c r="R6" s="150"/>
-      <c r="S6" s="150"/>
-      <c r="T6" s="150"/>
-      <c r="U6" s="150"/>
-      <c r="V6" s="141"/>
-      <c r="W6" s="141" t="s">
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="127"/>
+      <c r="Q6" s="127"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="127"/>
+      <c r="T6" s="127"/>
+      <c r="U6" s="127"/>
+      <c r="V6" s="112"/>
+      <c r="W6" s="112" t="s">
         <v>47</v>
       </c>
       <c r="X6" s="24"/>
     </row>
     <row r="7" spans="1:24" ht="17.25" thickBot="1">
-      <c r="B7" s="146"/>
-      <c r="C7" s="146"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="151"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="151"/>
-      <c r="K7" s="151"/>
-      <c r="L7" s="151"/>
-      <c r="M7" s="151"/>
-      <c r="N7" s="151"/>
-      <c r="O7" s="151"/>
-      <c r="P7" s="151"/>
-      <c r="Q7" s="151"/>
-      <c r="R7" s="151"/>
-      <c r="S7" s="151"/>
-      <c r="T7" s="151"/>
-      <c r="U7" s="151"/>
-      <c r="V7" s="143"/>
-      <c r="W7" s="142"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="128"/>
+      <c r="M7" s="128"/>
+      <c r="N7" s="128"/>
+      <c r="O7" s="128"/>
+      <c r="P7" s="128"/>
+      <c r="Q7" s="128"/>
+      <c r="R7" s="128"/>
+      <c r="S7" s="128"/>
+      <c r="T7" s="128"/>
+      <c r="U7" s="128"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="113"/>
       <c r="X7" s="24"/>
     </row>
     <row r="8" spans="1:24" ht="17.25" thickBot="1">
-      <c r="B8" s="146"/>
-      <c r="C8" s="146"/>
-      <c r="D8" s="146"/>
-      <c r="E8" s="149"/>
-      <c r="F8" s="143"/>
-      <c r="G8" s="146"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="121"/>
       <c r="H8" s="33">
         <v>17</v>
       </c>
@@ -8067,25 +8067,25 @@
       <c r="V8" s="32">
         <v>30</v>
       </c>
-      <c r="W8" s="143"/>
+      <c r="W8" s="114"/>
       <c r="X8" s="24"/>
     </row>
     <row r="9" spans="1:24" ht="17.25" thickBot="1">
-      <c r="A9" s="131"/>
-      <c r="B9" s="144" t="s">
+      <c r="A9" s="115"/>
+      <c r="B9" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="122" t="s">
+      <c r="C9" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="145" t="s">
+      <c r="D9" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="124" t="s">
+      <c r="E9" s="130" t="s">
         <v>69</v>
       </c>
       <c r="F9" s="125"/>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="152" t="s">
         <v>4</v>
       </c>
       <c r="H9" s="34"/>
@@ -8107,13 +8107,13 @@
       <c r="X9" s="24"/>
     </row>
     <row r="10" spans="1:24" ht="17.25" thickBot="1">
-      <c r="A10" s="131"/>
-      <c r="B10" s="144"/>
-      <c r="C10" s="123"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="121"/>
+      <c r="A10" s="115"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="153"/>
       <c r="H10" s="76"/>
       <c r="I10" s="77"/>
       <c r="J10" s="77"/>
@@ -8129,25 +8129,25 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="19"/>
-      <c r="W10" s="127"/>
+      <c r="W10" s="126"/>
       <c r="X10" s="24"/>
     </row>
     <row r="11" spans="1:24" ht="17.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A11" s="131"/>
-      <c r="B11" s="136" t="s">
+      <c r="A11" s="115"/>
+      <c r="B11" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="122" t="s">
+      <c r="C11" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="124" t="s">
+      <c r="E11" s="130" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="125"/>
-      <c r="G11" s="122" t="s">
+      <c r="G11" s="117" t="s">
         <v>4</v>
       </c>
       <c r="H11" s="20"/>
@@ -8169,13 +8169,13 @@
       <c r="X11" s="24"/>
     </row>
     <row r="12" spans="1:24" ht="17.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A12" s="131"/>
-      <c r="B12" s="139"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="137"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="123"/>
+      <c r="A12" s="115"/>
+      <c r="B12" s="133"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="118"/>
       <c r="H12" s="39"/>
       <c r="I12" s="40"/>
       <c r="J12" s="40"/>
@@ -8191,23 +8191,23 @@
       <c r="T12" s="40"/>
       <c r="U12" s="40"/>
       <c r="V12" s="41"/>
-      <c r="W12" s="127"/>
+      <c r="W12" s="126"/>
       <c r="X12" s="24"/>
     </row>
     <row r="13" spans="1:24" ht="17.25" thickBot="1">
-      <c r="A13" s="131"/>
-      <c r="B13" s="139"/>
-      <c r="C13" s="136" t="s">
+      <c r="A13" s="115"/>
+      <c r="B13" s="133"/>
+      <c r="C13" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="137" t="s">
+      <c r="D13" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="124" t="s">
+      <c r="E13" s="130" t="s">
         <v>36</v>
       </c>
       <c r="F13" s="125"/>
-      <c r="G13" s="122" t="s">
+      <c r="G13" s="117" t="s">
         <v>4</v>
       </c>
       <c r="H13" s="50"/>
@@ -8229,13 +8229,13 @@
       <c r="X13" s="24"/>
     </row>
     <row r="14" spans="1:24" ht="17.25" thickBot="1">
-      <c r="A14" s="131"/>
-      <c r="B14" s="139"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="137"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="123"/>
+      <c r="A14" s="115"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="118"/>
       <c r="H14" s="78"/>
       <c r="I14" s="79"/>
       <c r="J14" s="79"/>
@@ -8251,25 +8251,25 @@
       <c r="T14" s="35"/>
       <c r="U14" s="35"/>
       <c r="V14" s="36"/>
-      <c r="W14" s="127"/>
+      <c r="W14" s="126"/>
       <c r="X14" s="24"/>
     </row>
     <row r="15" spans="1:24" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A15" s="131"/>
-      <c r="B15" s="122" t="s">
+      <c r="A15" s="115"/>
+      <c r="B15" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="122" t="s">
+      <c r="C15" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="137" t="s">
+      <c r="D15" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="140" t="s">
+      <c r="E15" s="134" t="s">
         <v>72</v>
       </c>
       <c r="F15" s="125"/>
-      <c r="G15" s="120" t="s">
+      <c r="G15" s="152" t="s">
         <v>4</v>
       </c>
       <c r="H15" s="37"/>
@@ -8293,13 +8293,13 @@
       <c r="X15" s="24"/>
     </row>
     <row r="16" spans="1:24" ht="17.25" thickBot="1">
-      <c r="A16" s="131"/>
-      <c r="B16" s="139"/>
-      <c r="C16" s="139"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="121"/>
+      <c r="A16" s="115"/>
+      <c r="B16" s="133"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="153"/>
       <c r="H16" s="48"/>
       <c r="I16" s="49"/>
       <c r="J16" s="49"/>
@@ -8315,25 +8315,25 @@
       <c r="T16" s="80"/>
       <c r="U16" s="80"/>
       <c r="V16" s="41"/>
-      <c r="W16" s="138"/>
+      <c r="W16" s="132"/>
       <c r="X16" s="24"/>
     </row>
     <row r="17" spans="1:26" ht="17.25" thickBot="1">
-      <c r="A17" s="131"/>
-      <c r="B17" s="122" t="s">
+      <c r="A17" s="115"/>
+      <c r="B17" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="122" t="s">
+      <c r="C17" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="132" t="s">
+      <c r="D17" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="134" t="s">
+      <c r="E17" s="140" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="135"/>
-      <c r="G17" s="122" t="s">
+      <c r="F17" s="141"/>
+      <c r="G17" s="117" t="s">
         <v>4</v>
       </c>
       <c r="H17" s="44"/>
@@ -8355,13 +8355,13 @@
       <c r="X17" s="24"/>
     </row>
     <row r="18" spans="1:26" ht="17.25" thickBot="1">
-      <c r="A18" s="131"/>
-      <c r="B18" s="123"/>
-      <c r="C18" s="123"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="123"/>
+      <c r="A18" s="115"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="118"/>
       <c r="H18" s="4"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
@@ -8377,7 +8377,7 @@
       <c r="T18" s="35"/>
       <c r="U18" s="79"/>
       <c r="V18" s="81"/>
-      <c r="W18" s="127"/>
+      <c r="W18" s="126"/>
       <c r="X18" s="24"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" customHeight="1">
@@ -8462,12 +8462,12 @@
     </row>
     <row r="436" spans="1:24">
       <c r="H436" s="21"/>
-      <c r="I436" s="116"/>
-      <c r="J436" s="117"/>
-      <c r="M436" s="118" t="s">
+      <c r="I436" s="148"/>
+      <c r="J436" s="149"/>
+      <c r="M436" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="N436" s="119"/>
+      <c r="N436" s="151"/>
       <c r="O436" s="21"/>
       <c r="P436" s="21"/>
       <c r="Q436" s="21"/>
@@ -8479,12 +8479,12 @@
     </row>
     <row r="437" spans="1:24" ht="17.25" thickBot="1">
       <c r="H437" s="14"/>
-      <c r="I437" s="128"/>
-      <c r="J437" s="129"/>
-      <c r="M437" s="126" t="s">
+      <c r="I437" s="135"/>
+      <c r="J437" s="136"/>
+      <c r="M437" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="N437" s="130"/>
+      <c r="N437" s="137"/>
       <c r="O437" s="14"/>
       <c r="P437" s="14"/>
       <c r="Q437" s="14"/>
@@ -8507,18 +8507,24 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="W6:W8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="H6:V7"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="I436:J436"/>
+    <mergeCell ref="M436:N436"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="E11:F12"/>
+    <mergeCell ref="I437:J437"/>
+    <mergeCell ref="M437:N437"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:F18"/>
     <mergeCell ref="W11:W12"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="C13:C14"/>
@@ -8535,24 +8541,18 @@
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
-    <mergeCell ref="I437:J437"/>
-    <mergeCell ref="M437:N437"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="I436:J436"/>
-    <mergeCell ref="M436:N436"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="E11:F12"/>
+    <mergeCell ref="W6:W8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="H6:V7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D9:D10 D13:D18">
@@ -8651,36 +8651,36 @@
   <sheetData>
     <row r="1" spans="1:23" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:23" ht="16.5" customHeight="1">
-      <c r="B2" s="124"/>
-      <c r="C2" s="178"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="160"/>
       <c r="D2" s="125"/>
-      <c r="E2" s="181" t="s">
+      <c r="E2" s="163" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="182"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="164"/>
       <c r="M2" s="1"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="B3" s="179"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="183"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="183"/>
-      <c r="I3" s="183"/>
-      <c r="J3" s="183"/>
-      <c r="K3" s="183"/>
-      <c r="L3" s="184"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="166"/>
       <c r="M3" s="1"/>
       <c r="N3" s="17"/>
       <c r="O3" s="17"/>
@@ -8693,17 +8693,17 @@
       <c r="V3" s="10"/>
     </row>
     <row r="4" spans="1:23" ht="17.25" thickBot="1">
-      <c r="B4" s="126"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="185"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="185"/>
-      <c r="H4" s="185"/>
-      <c r="I4" s="185"/>
-      <c r="J4" s="185"/>
-      <c r="K4" s="185"/>
-      <c r="L4" s="186"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="168"/>
       <c r="M4" s="1"/>
       <c r="N4" s="17"/>
       <c r="O4" s="17"/>
@@ -8717,65 +8717,65 @@
     </row>
     <row r="5" spans="1:23" ht="18" customHeight="1" thickBot="1">
       <c r="N5" s="5"/>
-      <c r="O5" s="166"/>
-      <c r="P5" s="166"/>
-      <c r="Q5" s="166"/>
-      <c r="R5" s="166"/>
-      <c r="S5" s="166"/>
-      <c r="T5" s="166"/>
-      <c r="U5" s="166"/>
+      <c r="O5" s="171"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="171"/>
+      <c r="R5" s="171"/>
+      <c r="S5" s="171"/>
+      <c r="T5" s="171"/>
+      <c r="U5" s="171"/>
       <c r="V5" s="6"/>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="2"/>
-      <c r="B6" s="187" t="s">
+      <c r="B6" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="165" t="s">
+      <c r="C6" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="170" t="s">
+      <c r="D6" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="167" t="s">
+      <c r="E6" s="177"/>
+      <c r="F6" s="177"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="173" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="165" t="s">
+      <c r="I6" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="165"/>
-      <c r="K6" s="165"/>
-      <c r="L6" s="165" t="s">
+      <c r="J6" s="175"/>
+      <c r="K6" s="175"/>
+      <c r="L6" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="165" t="s">
+      <c r="M6" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="165"/>
-      <c r="O6" s="165"/>
-      <c r="P6" s="165"/>
-      <c r="Q6" s="165"/>
-      <c r="R6" s="165"/>
-      <c r="S6" s="165"/>
-      <c r="T6" s="165"/>
-      <c r="U6" s="165"/>
-      <c r="V6" s="165"/>
-      <c r="W6" s="152" t="s">
+      <c r="N6" s="175"/>
+      <c r="O6" s="175"/>
+      <c r="P6" s="175"/>
+      <c r="Q6" s="175"/>
+      <c r="R6" s="175"/>
+      <c r="S6" s="175"/>
+      <c r="T6" s="175"/>
+      <c r="U6" s="175"/>
+      <c r="V6" s="175"/>
+      <c r="W6" s="179" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="17.25" thickBot="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="188"/>
-      <c r="C7" s="169"/>
-      <c r="D7" s="171"/>
-      <c r="E7" s="171"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="171"/>
-      <c r="H7" s="168"/>
+      <c r="B7" s="170"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="178"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="178"/>
+      <c r="H7" s="174"/>
       <c r="I7" s="56" t="s">
         <v>0</v>
       </c>
@@ -8785,39 +8785,39 @@
       <c r="K7" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="169"/>
+      <c r="L7" s="176"/>
       <c r="M7" s="57">
         <v>0</v>
       </c>
-      <c r="N7" s="164"/>
-      <c r="O7" s="164"/>
-      <c r="P7" s="164"/>
-      <c r="Q7" s="163">
+      <c r="N7" s="172"/>
+      <c r="O7" s="172"/>
+      <c r="P7" s="172"/>
+      <c r="Q7" s="190">
         <v>0.5</v>
       </c>
-      <c r="R7" s="164"/>
-      <c r="S7" s="164"/>
-      <c r="T7" s="164"/>
-      <c r="U7" s="164"/>
+      <c r="R7" s="172"/>
+      <c r="S7" s="172"/>
+      <c r="T7" s="172"/>
+      <c r="U7" s="172"/>
       <c r="V7" s="57">
         <v>1</v>
       </c>
-      <c r="W7" s="153"/>
+      <c r="W7" s="180"/>
     </row>
     <row r="8" spans="1:23" ht="45" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="102">
+      <c r="B8" s="104">
         <v>1</v>
       </c>
-      <c r="C8" s="173" t="s">
+      <c r="C8" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="176" t="s">
+      <c r="D8" s="158" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="177"/>
-      <c r="F8" s="177"/>
-      <c r="G8" s="177"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="159"/>
       <c r="H8" s="46" t="s">
         <v>16</v>
       </c>
@@ -8833,30 +8833,30 @@
       <c r="L8" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="157">
+      <c r="M8" s="184">
         <v>100</v>
       </c>
-      <c r="N8" s="157"/>
-      <c r="O8" s="157"/>
-      <c r="P8" s="157"/>
-      <c r="Q8" s="157"/>
-      <c r="R8" s="157"/>
-      <c r="S8" s="157"/>
-      <c r="T8" s="157"/>
-      <c r="U8" s="157"/>
-      <c r="V8" s="157"/>
+      <c r="N8" s="184"/>
+      <c r="O8" s="184"/>
+      <c r="P8" s="184"/>
+      <c r="Q8" s="184"/>
+      <c r="R8" s="184"/>
+      <c r="S8" s="184"/>
+      <c r="T8" s="184"/>
+      <c r="U8" s="184"/>
+      <c r="V8" s="184"/>
       <c r="W8" s="59"/>
     </row>
     <row r="9" spans="1:23" ht="45" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="172"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="158" t="s">
+      <c r="B9" s="154"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="185" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="159"/>
-      <c r="F9" s="159"/>
-      <c r="G9" s="160"/>
+      <c r="E9" s="186"/>
+      <c r="F9" s="186"/>
+      <c r="G9" s="187"/>
       <c r="H9" s="11" t="s">
         <v>17</v>
       </c>
@@ -8872,30 +8872,30 @@
       <c r="L9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="161">
+      <c r="M9" s="188">
         <v>100</v>
       </c>
-      <c r="N9" s="161"/>
-      <c r="O9" s="161"/>
-      <c r="P9" s="161"/>
-      <c r="Q9" s="161"/>
-      <c r="R9" s="161"/>
-      <c r="S9" s="161"/>
-      <c r="T9" s="161"/>
-      <c r="U9" s="161"/>
-      <c r="V9" s="161"/>
+      <c r="N9" s="188"/>
+      <c r="O9" s="188"/>
+      <c r="P9" s="188"/>
+      <c r="Q9" s="188"/>
+      <c r="R9" s="188"/>
+      <c r="S9" s="188"/>
+      <c r="T9" s="188"/>
+      <c r="U9" s="188"/>
+      <c r="V9" s="188"/>
       <c r="W9" s="13"/>
     </row>
     <row r="10" spans="1:23" ht="45" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="172"/>
-      <c r="C10" s="174"/>
-      <c r="D10" s="158" t="s">
+      <c r="B10" s="154"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="185" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="159"/>
-      <c r="F10" s="159"/>
-      <c r="G10" s="160"/>
+      <c r="E10" s="186"/>
+      <c r="F10" s="186"/>
+      <c r="G10" s="187"/>
       <c r="H10" s="11" t="s">
         <v>18</v>
       </c>
@@ -8911,30 +8911,30 @@
       <c r="L10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="161">
+      <c r="M10" s="188">
         <v>100</v>
       </c>
-      <c r="N10" s="161"/>
-      <c r="O10" s="161"/>
-      <c r="P10" s="161"/>
-      <c r="Q10" s="161"/>
-      <c r="R10" s="161"/>
-      <c r="S10" s="161"/>
-      <c r="T10" s="161"/>
-      <c r="U10" s="161"/>
-      <c r="V10" s="161"/>
+      <c r="N10" s="188"/>
+      <c r="O10" s="188"/>
+      <c r="P10" s="188"/>
+      <c r="Q10" s="188"/>
+      <c r="R10" s="188"/>
+      <c r="S10" s="188"/>
+      <c r="T10" s="188"/>
+      <c r="U10" s="188"/>
+      <c r="V10" s="188"/>
       <c r="W10" s="13"/>
     </row>
     <row r="11" spans="1:23" ht="45" customHeight="1" thickBot="1">
       <c r="A11" s="3"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="175"/>
-      <c r="D11" s="154" t="s">
+      <c r="B11" s="105"/>
+      <c r="C11" s="157"/>
+      <c r="D11" s="181" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="155"/>
-      <c r="F11" s="155"/>
-      <c r="G11" s="156"/>
+      <c r="E11" s="182"/>
+      <c r="F11" s="182"/>
+      <c r="G11" s="183"/>
       <c r="H11" s="60" t="s">
         <v>19</v>
       </c>
@@ -8950,18 +8950,18 @@
       <c r="L11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M11" s="162">
+      <c r="M11" s="189">
         <v>100</v>
       </c>
-      <c r="N11" s="162"/>
-      <c r="O11" s="162"/>
-      <c r="P11" s="162"/>
-      <c r="Q11" s="162"/>
-      <c r="R11" s="162"/>
-      <c r="S11" s="162"/>
-      <c r="T11" s="162"/>
-      <c r="U11" s="162"/>
-      <c r="V11" s="162"/>
+      <c r="N11" s="189"/>
+      <c r="O11" s="189"/>
+      <c r="P11" s="189"/>
+      <c r="Q11" s="189"/>
+      <c r="R11" s="189"/>
+      <c r="S11" s="189"/>
+      <c r="T11" s="189"/>
+      <c r="U11" s="189"/>
+      <c r="V11" s="189"/>
       <c r="W11" s="61"/>
     </row>
     <row r="136" spans="3:3">
@@ -8969,20 +8969,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:L4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="O5:U5"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="D6:G7"/>
     <mergeCell ref="W6:W7"/>
     <mergeCell ref="D11:G11"/>
     <mergeCell ref="M8:V8"/>
@@ -8993,6 +8979,20 @@
     <mergeCell ref="M11:V11"/>
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="M6:V6"/>
+    <mergeCell ref="O5:U5"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="D6:G7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:L4"/>
+    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D8:D11">
@@ -9159,407 +9159,407 @@
   <sheetData>
     <row r="1" spans="2:9" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:9">
-      <c r="B2" s="122"/>
-      <c r="C2" s="199" t="s">
+      <c r="B2" s="117"/>
+      <c r="C2" s="201" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
     </row>
     <row r="3" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B3" s="123"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="200"/>
-      <c r="G3" s="200"/>
-      <c r="H3" s="200"/>
-      <c r="I3" s="200"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
     </row>
     <row r="4" spans="2:9" ht="17.25" thickBot="1"/>
     <row r="5" spans="2:9">
       <c r="B5" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="205" t="s">
+      <c r="C5" s="207" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="206"/>
-      <c r="E5" s="206"/>
-      <c r="F5" s="206"/>
-      <c r="G5" s="206"/>
-      <c r="H5" s="206"/>
-      <c r="I5" s="207"/>
+      <c r="D5" s="208"/>
+      <c r="E5" s="208"/>
+      <c r="F5" s="208"/>
+      <c r="G5" s="208"/>
+      <c r="H5" s="208"/>
+      <c r="I5" s="209"/>
     </row>
     <row r="6" spans="2:9" ht="17.45" customHeight="1">
-      <c r="B6" s="196" t="s">
+      <c r="B6" s="198" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="189"/>
-      <c r="D6" s="190"/>
-      <c r="E6" s="190"/>
-      <c r="F6" s="190"/>
-      <c r="G6" s="190"/>
-      <c r="H6" s="190"/>
-      <c r="I6" s="191"/>
+      <c r="C6" s="191"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="192"/>
+      <c r="F6" s="192"/>
+      <c r="G6" s="192"/>
+      <c r="H6" s="192"/>
+      <c r="I6" s="193"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="197"/>
-      <c r="C7" s="192"/>
-      <c r="D7" s="174"/>
-      <c r="E7" s="174"/>
-      <c r="F7" s="174"/>
-      <c r="G7" s="174"/>
-      <c r="H7" s="174"/>
-      <c r="I7" s="193"/>
+      <c r="B7" s="199"/>
+      <c r="C7" s="194"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="156"/>
+      <c r="H7" s="156"/>
+      <c r="I7" s="195"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="197"/>
-      <c r="C8" s="192"/>
-      <c r="D8" s="174"/>
-      <c r="E8" s="174"/>
-      <c r="F8" s="174"/>
-      <c r="G8" s="174"/>
-      <c r="H8" s="174"/>
-      <c r="I8" s="193"/>
+      <c r="B8" s="199"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="156"/>
+      <c r="E8" s="156"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="156"/>
+      <c r="I8" s="195"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="197"/>
-      <c r="C9" s="192"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="174"/>
-      <c r="F9" s="174"/>
-      <c r="G9" s="174"/>
-      <c r="H9" s="174"/>
-      <c r="I9" s="193"/>
+      <c r="B9" s="199"/>
+      <c r="C9" s="194"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="156"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="195"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="197"/>
-      <c r="C10" s="192"/>
-      <c r="D10" s="174"/>
-      <c r="E10" s="174"/>
-      <c r="F10" s="174"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="174"/>
-      <c r="I10" s="193"/>
+      <c r="B10" s="199"/>
+      <c r="C10" s="194"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="156"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="195"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="197"/>
-      <c r="C11" s="192"/>
-      <c r="D11" s="174"/>
-      <c r="E11" s="174"/>
-      <c r="F11" s="174"/>
-      <c r="G11" s="174"/>
-      <c r="H11" s="174"/>
-      <c r="I11" s="193"/>
+      <c r="B11" s="199"/>
+      <c r="C11" s="194"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="195"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="197"/>
-      <c r="C12" s="192"/>
-      <c r="D12" s="174"/>
-      <c r="E12" s="174"/>
-      <c r="F12" s="174"/>
-      <c r="G12" s="174"/>
-      <c r="H12" s="174"/>
-      <c r="I12" s="193"/>
+      <c r="B12" s="199"/>
+      <c r="C12" s="194"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="195"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="197"/>
-      <c r="C13" s="192"/>
-      <c r="D13" s="174"/>
-      <c r="E13" s="174"/>
-      <c r="F13" s="174"/>
-      <c r="G13" s="174"/>
-      <c r="H13" s="174"/>
-      <c r="I13" s="193"/>
+      <c r="B13" s="199"/>
+      <c r="C13" s="194"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="195"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="197"/>
-      <c r="C14" s="192"/>
-      <c r="D14" s="174"/>
-      <c r="E14" s="174"/>
-      <c r="F14" s="174"/>
-      <c r="G14" s="174"/>
-      <c r="H14" s="174"/>
-      <c r="I14" s="193"/>
+      <c r="B14" s="199"/>
+      <c r="C14" s="194"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="195"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="197"/>
-      <c r="C15" s="192"/>
-      <c r="D15" s="174"/>
-      <c r="E15" s="174"/>
-      <c r="F15" s="174"/>
-      <c r="G15" s="174"/>
-      <c r="H15" s="174"/>
-      <c r="I15" s="193"/>
+      <c r="B15" s="199"/>
+      <c r="C15" s="194"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="156"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="195"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="201"/>
-      <c r="C16" s="202"/>
-      <c r="D16" s="203"/>
-      <c r="E16" s="203"/>
-      <c r="F16" s="203"/>
-      <c r="G16" s="203"/>
-      <c r="H16" s="203"/>
-      <c r="I16" s="204"/>
+      <c r="B16" s="203"/>
+      <c r="C16" s="204"/>
+      <c r="D16" s="205"/>
+      <c r="E16" s="205"/>
+      <c r="F16" s="205"/>
+      <c r="G16" s="205"/>
+      <c r="H16" s="205"/>
+      <c r="I16" s="206"/>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="196" t="s">
+      <c r="B17" s="198" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="189"/>
-      <c r="D17" s="190"/>
-      <c r="E17" s="190"/>
-      <c r="F17" s="190"/>
-      <c r="G17" s="190"/>
-      <c r="H17" s="190"/>
-      <c r="I17" s="191"/>
+      <c r="C17" s="191"/>
+      <c r="D17" s="192"/>
+      <c r="E17" s="192"/>
+      <c r="F17" s="192"/>
+      <c r="G17" s="192"/>
+      <c r="H17" s="192"/>
+      <c r="I17" s="193"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="197"/>
-      <c r="C18" s="192"/>
-      <c r="D18" s="174"/>
-      <c r="E18" s="174"/>
-      <c r="F18" s="174"/>
-      <c r="G18" s="174"/>
-      <c r="H18" s="174"/>
-      <c r="I18" s="193"/>
+      <c r="B18" s="199"/>
+      <c r="C18" s="194"/>
+      <c r="D18" s="156"/>
+      <c r="E18" s="156"/>
+      <c r="F18" s="156"/>
+      <c r="G18" s="156"/>
+      <c r="H18" s="156"/>
+      <c r="I18" s="195"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="197"/>
-      <c r="C19" s="192"/>
-      <c r="D19" s="174"/>
-      <c r="E19" s="174"/>
-      <c r="F19" s="174"/>
-      <c r="G19" s="174"/>
-      <c r="H19" s="174"/>
-      <c r="I19" s="193"/>
+      <c r="B19" s="199"/>
+      <c r="C19" s="194"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="156"/>
+      <c r="H19" s="156"/>
+      <c r="I19" s="195"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="197"/>
-      <c r="C20" s="192"/>
-      <c r="D20" s="174"/>
-      <c r="E20" s="174"/>
-      <c r="F20" s="174"/>
-      <c r="G20" s="174"/>
-      <c r="H20" s="174"/>
-      <c r="I20" s="193"/>
+      <c r="B20" s="199"/>
+      <c r="C20" s="194"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
+      <c r="H20" s="156"/>
+      <c r="I20" s="195"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="197"/>
-      <c r="C21" s="192"/>
-      <c r="D21" s="174"/>
-      <c r="E21" s="174"/>
-      <c r="F21" s="174"/>
-      <c r="G21" s="174"/>
-      <c r="H21" s="174"/>
-      <c r="I21" s="193"/>
+      <c r="B21" s="199"/>
+      <c r="C21" s="194"/>
+      <c r="D21" s="156"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="156"/>
+      <c r="G21" s="156"/>
+      <c r="H21" s="156"/>
+      <c r="I21" s="195"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="197"/>
-      <c r="C22" s="192"/>
-      <c r="D22" s="174"/>
-      <c r="E22" s="174"/>
-      <c r="F22" s="174"/>
-      <c r="G22" s="174"/>
-      <c r="H22" s="174"/>
-      <c r="I22" s="193"/>
+      <c r="B22" s="199"/>
+      <c r="C22" s="194"/>
+      <c r="D22" s="156"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="195"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="197"/>
-      <c r="C23" s="192"/>
-      <c r="D23" s="174"/>
-      <c r="E23" s="174"/>
-      <c r="F23" s="174"/>
-      <c r="G23" s="174"/>
-      <c r="H23" s="174"/>
-      <c r="I23" s="193"/>
+      <c r="B23" s="199"/>
+      <c r="C23" s="194"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
+      <c r="H23" s="156"/>
+      <c r="I23" s="195"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="197"/>
-      <c r="C24" s="192"/>
-      <c r="D24" s="174"/>
-      <c r="E24" s="174"/>
-      <c r="F24" s="174"/>
-      <c r="G24" s="174"/>
-      <c r="H24" s="174"/>
-      <c r="I24" s="193"/>
+      <c r="B24" s="199"/>
+      <c r="C24" s="194"/>
+      <c r="D24" s="156"/>
+      <c r="E24" s="156"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="156"/>
+      <c r="H24" s="156"/>
+      <c r="I24" s="195"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="197"/>
-      <c r="C25" s="192"/>
-      <c r="D25" s="174"/>
-      <c r="E25" s="174"/>
-      <c r="F25" s="174"/>
-      <c r="G25" s="174"/>
-      <c r="H25" s="174"/>
-      <c r="I25" s="193"/>
+      <c r="B25" s="199"/>
+      <c r="C25" s="194"/>
+      <c r="D25" s="156"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="156"/>
+      <c r="H25" s="156"/>
+      <c r="I25" s="195"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="197"/>
-      <c r="C26" s="192"/>
-      <c r="D26" s="174"/>
-      <c r="E26" s="174"/>
-      <c r="F26" s="174"/>
-      <c r="G26" s="174"/>
-      <c r="H26" s="174"/>
-      <c r="I26" s="193"/>
+      <c r="B26" s="199"/>
+      <c r="C26" s="194"/>
+      <c r="D26" s="156"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="156"/>
+      <c r="H26" s="156"/>
+      <c r="I26" s="195"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="197"/>
-      <c r="C27" s="192"/>
-      <c r="D27" s="174"/>
-      <c r="E27" s="174"/>
-      <c r="F27" s="174"/>
-      <c r="G27" s="174"/>
-      <c r="H27" s="174"/>
-      <c r="I27" s="193"/>
+      <c r="B27" s="199"/>
+      <c r="C27" s="194"/>
+      <c r="D27" s="156"/>
+      <c r="E27" s="156"/>
+      <c r="F27" s="156"/>
+      <c r="G27" s="156"/>
+      <c r="H27" s="156"/>
+      <c r="I27" s="195"/>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="201"/>
-      <c r="C28" s="202"/>
-      <c r="D28" s="203"/>
-      <c r="E28" s="203"/>
-      <c r="F28" s="203"/>
-      <c r="G28" s="203"/>
-      <c r="H28" s="203"/>
-      <c r="I28" s="204"/>
+      <c r="B28" s="203"/>
+      <c r="C28" s="204"/>
+      <c r="D28" s="205"/>
+      <c r="E28" s="205"/>
+      <c r="F28" s="205"/>
+      <c r="G28" s="205"/>
+      <c r="H28" s="205"/>
+      <c r="I28" s="206"/>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="196" t="s">
+      <c r="B29" s="198" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="189"/>
-      <c r="D29" s="190"/>
-      <c r="E29" s="190"/>
-      <c r="F29" s="190"/>
-      <c r="G29" s="190"/>
-      <c r="H29" s="190"/>
-      <c r="I29" s="191"/>
+      <c r="C29" s="191"/>
+      <c r="D29" s="192"/>
+      <c r="E29" s="192"/>
+      <c r="F29" s="192"/>
+      <c r="G29" s="192"/>
+      <c r="H29" s="192"/>
+      <c r="I29" s="193"/>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="197"/>
-      <c r="C30" s="192"/>
-      <c r="D30" s="174"/>
-      <c r="E30" s="174"/>
-      <c r="F30" s="174"/>
-      <c r="G30" s="174"/>
-      <c r="H30" s="174"/>
-      <c r="I30" s="193"/>
+      <c r="B30" s="199"/>
+      <c r="C30" s="194"/>
+      <c r="D30" s="156"/>
+      <c r="E30" s="156"/>
+      <c r="F30" s="156"/>
+      <c r="G30" s="156"/>
+      <c r="H30" s="156"/>
+      <c r="I30" s="195"/>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="197"/>
-      <c r="C31" s="192"/>
-      <c r="D31" s="174"/>
-      <c r="E31" s="174"/>
-      <c r="F31" s="174"/>
-      <c r="G31" s="174"/>
-      <c r="H31" s="174"/>
-      <c r="I31" s="193"/>
+      <c r="B31" s="199"/>
+      <c r="C31" s="194"/>
+      <c r="D31" s="156"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="156"/>
+      <c r="H31" s="156"/>
+      <c r="I31" s="195"/>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="197"/>
-      <c r="C32" s="192"/>
-      <c r="D32" s="174"/>
-      <c r="E32" s="174"/>
-      <c r="F32" s="174"/>
-      <c r="G32" s="174"/>
-      <c r="H32" s="174"/>
-      <c r="I32" s="193"/>
+      <c r="B32" s="199"/>
+      <c r="C32" s="194"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="156"/>
+      <c r="H32" s="156"/>
+      <c r="I32" s="195"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="197"/>
-      <c r="C33" s="192"/>
-      <c r="D33" s="174"/>
-      <c r="E33" s="174"/>
-      <c r="F33" s="174"/>
-      <c r="G33" s="174"/>
-      <c r="H33" s="174"/>
-      <c r="I33" s="193"/>
+      <c r="B33" s="199"/>
+      <c r="C33" s="194"/>
+      <c r="D33" s="156"/>
+      <c r="E33" s="156"/>
+      <c r="F33" s="156"/>
+      <c r="G33" s="156"/>
+      <c r="H33" s="156"/>
+      <c r="I33" s="195"/>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="197"/>
-      <c r="C34" s="192"/>
-      <c r="D34" s="174"/>
-      <c r="E34" s="174"/>
-      <c r="F34" s="174"/>
-      <c r="G34" s="174"/>
-      <c r="H34" s="174"/>
-      <c r="I34" s="193"/>
+      <c r="B34" s="199"/>
+      <c r="C34" s="194"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="156"/>
+      <c r="G34" s="156"/>
+      <c r="H34" s="156"/>
+      <c r="I34" s="195"/>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="197"/>
-      <c r="C35" s="192"/>
-      <c r="D35" s="174"/>
-      <c r="E35" s="174"/>
-      <c r="F35" s="174"/>
-      <c r="G35" s="174"/>
-      <c r="H35" s="174"/>
-      <c r="I35" s="193"/>
+      <c r="B35" s="199"/>
+      <c r="C35" s="194"/>
+      <c r="D35" s="156"/>
+      <c r="E35" s="156"/>
+      <c r="F35" s="156"/>
+      <c r="G35" s="156"/>
+      <c r="H35" s="156"/>
+      <c r="I35" s="195"/>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="197"/>
-      <c r="C36" s="192"/>
-      <c r="D36" s="174"/>
-      <c r="E36" s="174"/>
-      <c r="F36" s="174"/>
-      <c r="G36" s="174"/>
-      <c r="H36" s="174"/>
-      <c r="I36" s="193"/>
+      <c r="B36" s="199"/>
+      <c r="C36" s="194"/>
+      <c r="D36" s="156"/>
+      <c r="E36" s="156"/>
+      <c r="F36" s="156"/>
+      <c r="G36" s="156"/>
+      <c r="H36" s="156"/>
+      <c r="I36" s="195"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="197"/>
-      <c r="C37" s="192"/>
-      <c r="D37" s="174"/>
-      <c r="E37" s="174"/>
-      <c r="F37" s="174"/>
-      <c r="G37" s="174"/>
-      <c r="H37" s="174"/>
-      <c r="I37" s="193"/>
+      <c r="B37" s="199"/>
+      <c r="C37" s="194"/>
+      <c r="D37" s="156"/>
+      <c r="E37" s="156"/>
+      <c r="F37" s="156"/>
+      <c r="G37" s="156"/>
+      <c r="H37" s="156"/>
+      <c r="I37" s="195"/>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="197"/>
-      <c r="C38" s="192"/>
-      <c r="D38" s="174"/>
-      <c r="E38" s="174"/>
-      <c r="F38" s="174"/>
-      <c r="G38" s="174"/>
-      <c r="H38" s="174"/>
-      <c r="I38" s="193"/>
+      <c r="B38" s="199"/>
+      <c r="C38" s="194"/>
+      <c r="D38" s="156"/>
+      <c r="E38" s="156"/>
+      <c r="F38" s="156"/>
+      <c r="G38" s="156"/>
+      <c r="H38" s="156"/>
+      <c r="I38" s="195"/>
     </row>
     <row r="39" spans="2:9">
-      <c r="B39" s="197"/>
-      <c r="C39" s="192"/>
-      <c r="D39" s="174"/>
-      <c r="E39" s="174"/>
-      <c r="F39" s="174"/>
-      <c r="G39" s="174"/>
-      <c r="H39" s="174"/>
-      <c r="I39" s="193"/>
+      <c r="B39" s="199"/>
+      <c r="C39" s="194"/>
+      <c r="D39" s="156"/>
+      <c r="E39" s="156"/>
+      <c r="F39" s="156"/>
+      <c r="G39" s="156"/>
+      <c r="H39" s="156"/>
+      <c r="I39" s="195"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="197"/>
-      <c r="C40" s="192"/>
-      <c r="D40" s="174"/>
-      <c r="E40" s="174"/>
-      <c r="F40" s="174"/>
-      <c r="G40" s="174"/>
-      <c r="H40" s="174"/>
-      <c r="I40" s="193"/>
+      <c r="B40" s="199"/>
+      <c r="C40" s="194"/>
+      <c r="D40" s="156"/>
+      <c r="E40" s="156"/>
+      <c r="F40" s="156"/>
+      <c r="G40" s="156"/>
+      <c r="H40" s="156"/>
+      <c r="I40" s="195"/>
     </row>
     <row r="41" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B41" s="198"/>
-      <c r="C41" s="194"/>
-      <c r="D41" s="175"/>
-      <c r="E41" s="175"/>
-      <c r="F41" s="175"/>
-      <c r="G41" s="175"/>
-      <c r="H41" s="175"/>
-      <c r="I41" s="195"/>
+      <c r="B41" s="200"/>
+      <c r="C41" s="196"/>
+      <c r="D41" s="157"/>
+      <c r="E41" s="157"/>
+      <c r="F41" s="157"/>
+      <c r="G41" s="157"/>
+      <c r="H41" s="157"/>
+      <c r="I41" s="197"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -9584,8 +9584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:I61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K62" sqref="K62"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9597,601 +9597,601 @@
   <sheetData>
     <row r="1" spans="2:9" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:9">
-      <c r="B2" s="122"/>
-      <c r="C2" s="199" t="s">
+      <c r="B2" s="117"/>
+      <c r="C2" s="201" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
     </row>
     <row r="3" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B3" s="123"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="200"/>
-      <c r="G3" s="200"/>
-      <c r="H3" s="200"/>
-      <c r="I3" s="200"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
     </row>
     <row r="4" spans="2:9" ht="17.25" thickBot="1"/>
     <row r="5" spans="2:9">
-      <c r="B5" s="208" t="s">
+      <c r="B5" s="210" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="197"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
+      <c r="B6" s="199"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="197"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="139"/>
+      <c r="B7" s="199"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="197"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="139"/>
+      <c r="B8" s="199"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="133"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="197"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="139"/>
+      <c r="B9" s="199"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="197"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="139"/>
+      <c r="B10" s="199"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="197"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="139"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="139"/>
+      <c r="B11" s="199"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="197"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="139"/>
+      <c r="B12" s="199"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="197"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="139"/>
+      <c r="B13" s="199"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="197"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="139"/>
+      <c r="B14" s="199"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="197"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
+      <c r="B15" s="199"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="197"/>
-      <c r="C16" s="139"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="139"/>
+      <c r="B16" s="199"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="197"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="139"/>
+      <c r="B17" s="199"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="133"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="197"/>
-      <c r="C18" s="139"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="139"/>
+      <c r="B18" s="199"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="133"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="197"/>
-      <c r="C19" s="139"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="139"/>
+      <c r="B19" s="199"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="133"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="133"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="197"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="139"/>
+      <c r="B20" s="199"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="133"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="133"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="197"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="139"/>
+      <c r="B21" s="199"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="133"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="133"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="197"/>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="139"/>
+      <c r="B22" s="199"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="133"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="197"/>
-      <c r="C23" s="139"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="139"/>
-      <c r="I23" s="139"/>
+      <c r="B23" s="199"/>
+      <c r="C23" s="133"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="133"/>
+      <c r="F23" s="133"/>
+      <c r="G23" s="133"/>
+      <c r="H23" s="133"/>
+      <c r="I23" s="133"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="197"/>
-      <c r="C24" s="139"/>
-      <c r="D24" s="139"/>
-      <c r="E24" s="139"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="139"/>
+      <c r="B24" s="199"/>
+      <c r="C24" s="133"/>
+      <c r="D24" s="133"/>
+      <c r="E24" s="133"/>
+      <c r="F24" s="133"/>
+      <c r="G24" s="133"/>
+      <c r="H24" s="133"/>
+      <c r="I24" s="133"/>
     </row>
     <row r="25" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B25" s="198"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="123"/>
+      <c r="B25" s="200"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="118"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="208" t="s">
+      <c r="B26" s="210" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="122"/>
-      <c r="D26" s="122"/>
-      <c r="E26" s="122"/>
-      <c r="F26" s="122"/>
-      <c r="G26" s="122"/>
-      <c r="H26" s="122"/>
-      <c r="I26" s="122"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="117"/>
+      <c r="I26" s="117"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="197"/>
-      <c r="C27" s="139"/>
-      <c r="D27" s="139"/>
-      <c r="E27" s="139"/>
-      <c r="F27" s="139"/>
-      <c r="G27" s="139"/>
-      <c r="H27" s="139"/>
-      <c r="I27" s="139"/>
+      <c r="B27" s="199"/>
+      <c r="C27" s="133"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="133"/>
+      <c r="H27" s="133"/>
+      <c r="I27" s="133"/>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="197"/>
-      <c r="C28" s="139"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="139"/>
-      <c r="I28" s="139"/>
+      <c r="B28" s="199"/>
+      <c r="C28" s="133"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="133"/>
+      <c r="F28" s="133"/>
+      <c r="G28" s="133"/>
+      <c r="H28" s="133"/>
+      <c r="I28" s="133"/>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="197"/>
-      <c r="C29" s="139"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="139"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="139"/>
+      <c r="B29" s="199"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="133"/>
+      <c r="F29" s="133"/>
+      <c r="G29" s="133"/>
+      <c r="H29" s="133"/>
+      <c r="I29" s="133"/>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="197"/>
-      <c r="C30" s="139"/>
-      <c r="D30" s="139"/>
-      <c r="E30" s="139"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="139"/>
-      <c r="H30" s="139"/>
-      <c r="I30" s="139"/>
+      <c r="B30" s="199"/>
+      <c r="C30" s="133"/>
+      <c r="D30" s="133"/>
+      <c r="E30" s="133"/>
+      <c r="F30" s="133"/>
+      <c r="G30" s="133"/>
+      <c r="H30" s="133"/>
+      <c r="I30" s="133"/>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="197"/>
-      <c r="C31" s="139"/>
-      <c r="D31" s="139"/>
-      <c r="E31" s="139"/>
-      <c r="F31" s="139"/>
-      <c r="G31" s="139"/>
-      <c r="H31" s="139"/>
-      <c r="I31" s="139"/>
+      <c r="B31" s="199"/>
+      <c r="C31" s="133"/>
+      <c r="D31" s="133"/>
+      <c r="E31" s="133"/>
+      <c r="F31" s="133"/>
+      <c r="G31" s="133"/>
+      <c r="H31" s="133"/>
+      <c r="I31" s="133"/>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="197"/>
-      <c r="C32" s="139"/>
-      <c r="D32" s="139"/>
-      <c r="E32" s="139"/>
-      <c r="F32" s="139"/>
-      <c r="G32" s="139"/>
-      <c r="H32" s="139"/>
-      <c r="I32" s="139"/>
+      <c r="B32" s="199"/>
+      <c r="C32" s="133"/>
+      <c r="D32" s="133"/>
+      <c r="E32" s="133"/>
+      <c r="F32" s="133"/>
+      <c r="G32" s="133"/>
+      <c r="H32" s="133"/>
+      <c r="I32" s="133"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="197"/>
-      <c r="C33" s="139"/>
-      <c r="D33" s="139"/>
-      <c r="E33" s="139"/>
-      <c r="F33" s="139"/>
-      <c r="G33" s="139"/>
-      <c r="H33" s="139"/>
-      <c r="I33" s="139"/>
+      <c r="B33" s="199"/>
+      <c r="C33" s="133"/>
+      <c r="D33" s="133"/>
+      <c r="E33" s="133"/>
+      <c r="F33" s="133"/>
+      <c r="G33" s="133"/>
+      <c r="H33" s="133"/>
+      <c r="I33" s="133"/>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="197"/>
-      <c r="C34" s="139"/>
-      <c r="D34" s="139"/>
-      <c r="E34" s="139"/>
-      <c r="F34" s="139"/>
-      <c r="G34" s="139"/>
-      <c r="H34" s="139"/>
-      <c r="I34" s="139"/>
+      <c r="B34" s="199"/>
+      <c r="C34" s="133"/>
+      <c r="D34" s="133"/>
+      <c r="E34" s="133"/>
+      <c r="F34" s="133"/>
+      <c r="G34" s="133"/>
+      <c r="H34" s="133"/>
+      <c r="I34" s="133"/>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="197"/>
-      <c r="C35" s="139"/>
-      <c r="D35" s="139"/>
-      <c r="E35" s="139"/>
-      <c r="F35" s="139"/>
-      <c r="G35" s="139"/>
-      <c r="H35" s="139"/>
-      <c r="I35" s="139"/>
+      <c r="B35" s="199"/>
+      <c r="C35" s="133"/>
+      <c r="D35" s="133"/>
+      <c r="E35" s="133"/>
+      <c r="F35" s="133"/>
+      <c r="G35" s="133"/>
+      <c r="H35" s="133"/>
+      <c r="I35" s="133"/>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="197"/>
-      <c r="C36" s="139"/>
-      <c r="D36" s="139"/>
-      <c r="E36" s="139"/>
-      <c r="F36" s="139"/>
-      <c r="G36" s="139"/>
-      <c r="H36" s="139"/>
-      <c r="I36" s="139"/>
+      <c r="B36" s="199"/>
+      <c r="C36" s="133"/>
+      <c r="D36" s="133"/>
+      <c r="E36" s="133"/>
+      <c r="F36" s="133"/>
+      <c r="G36" s="133"/>
+      <c r="H36" s="133"/>
+      <c r="I36" s="133"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="197"/>
-      <c r="C37" s="139"/>
-      <c r="D37" s="139"/>
-      <c r="E37" s="139"/>
-      <c r="F37" s="139"/>
-      <c r="G37" s="139"/>
-      <c r="H37" s="139"/>
-      <c r="I37" s="139"/>
+      <c r="B37" s="199"/>
+      <c r="C37" s="133"/>
+      <c r="D37" s="133"/>
+      <c r="E37" s="133"/>
+      <c r="F37" s="133"/>
+      <c r="G37" s="133"/>
+      <c r="H37" s="133"/>
+      <c r="I37" s="133"/>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="197"/>
-      <c r="C38" s="139"/>
-      <c r="D38" s="139"/>
-      <c r="E38" s="139"/>
-      <c r="F38" s="139"/>
-      <c r="G38" s="139"/>
-      <c r="H38" s="139"/>
-      <c r="I38" s="139"/>
+      <c r="B38" s="199"/>
+      <c r="C38" s="133"/>
+      <c r="D38" s="133"/>
+      <c r="E38" s="133"/>
+      <c r="F38" s="133"/>
+      <c r="G38" s="133"/>
+      <c r="H38" s="133"/>
+      <c r="I38" s="133"/>
     </row>
     <row r="39" spans="2:9">
-      <c r="B39" s="197"/>
-      <c r="C39" s="139"/>
-      <c r="D39" s="139"/>
-      <c r="E39" s="139"/>
-      <c r="F39" s="139"/>
-      <c r="G39" s="139"/>
-      <c r="H39" s="139"/>
-      <c r="I39" s="139"/>
+      <c r="B39" s="199"/>
+      <c r="C39" s="133"/>
+      <c r="D39" s="133"/>
+      <c r="E39" s="133"/>
+      <c r="F39" s="133"/>
+      <c r="G39" s="133"/>
+      <c r="H39" s="133"/>
+      <c r="I39" s="133"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="197"/>
-      <c r="C40" s="139"/>
-      <c r="D40" s="139"/>
-      <c r="E40" s="139"/>
-      <c r="F40" s="139"/>
-      <c r="G40" s="139"/>
-      <c r="H40" s="139"/>
-      <c r="I40" s="139"/>
+      <c r="B40" s="199"/>
+      <c r="C40" s="133"/>
+      <c r="D40" s="133"/>
+      <c r="E40" s="133"/>
+      <c r="F40" s="133"/>
+      <c r="G40" s="133"/>
+      <c r="H40" s="133"/>
+      <c r="I40" s="133"/>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="197"/>
-      <c r="C41" s="139"/>
-      <c r="D41" s="139"/>
-      <c r="E41" s="139"/>
-      <c r="F41" s="139"/>
-      <c r="G41" s="139"/>
-      <c r="H41" s="139"/>
-      <c r="I41" s="139"/>
+      <c r="B41" s="199"/>
+      <c r="C41" s="133"/>
+      <c r="D41" s="133"/>
+      <c r="E41" s="133"/>
+      <c r="F41" s="133"/>
+      <c r="G41" s="133"/>
+      <c r="H41" s="133"/>
+      <c r="I41" s="133"/>
     </row>
     <row r="42" spans="2:9">
-      <c r="B42" s="197"/>
-      <c r="C42" s="139"/>
-      <c r="D42" s="139"/>
-      <c r="E42" s="139"/>
-      <c r="F42" s="139"/>
-      <c r="G42" s="139"/>
-      <c r="H42" s="139"/>
-      <c r="I42" s="139"/>
+      <c r="B42" s="199"/>
+      <c r="C42" s="133"/>
+      <c r="D42" s="133"/>
+      <c r="E42" s="133"/>
+      <c r="F42" s="133"/>
+      <c r="G42" s="133"/>
+      <c r="H42" s="133"/>
+      <c r="I42" s="133"/>
     </row>
     <row r="43" spans="2:9">
-      <c r="B43" s="197"/>
-      <c r="C43" s="139"/>
-      <c r="D43" s="139"/>
-      <c r="E43" s="139"/>
-      <c r="F43" s="139"/>
-      <c r="G43" s="139"/>
-      <c r="H43" s="139"/>
-      <c r="I43" s="139"/>
+      <c r="B43" s="199"/>
+      <c r="C43" s="133"/>
+      <c r="D43" s="133"/>
+      <c r="E43" s="133"/>
+      <c r="F43" s="133"/>
+      <c r="G43" s="133"/>
+      <c r="H43" s="133"/>
+      <c r="I43" s="133"/>
     </row>
     <row r="44" spans="2:9">
-      <c r="B44" s="197"/>
-      <c r="C44" s="139"/>
-      <c r="D44" s="139"/>
-      <c r="E44" s="139"/>
-      <c r="F44" s="139"/>
-      <c r="G44" s="139"/>
-      <c r="H44" s="139"/>
-      <c r="I44" s="139"/>
+      <c r="B44" s="199"/>
+      <c r="C44" s="133"/>
+      <c r="D44" s="133"/>
+      <c r="E44" s="133"/>
+      <c r="F44" s="133"/>
+      <c r="G44" s="133"/>
+      <c r="H44" s="133"/>
+      <c r="I44" s="133"/>
     </row>
     <row r="45" spans="2:9">
-      <c r="B45" s="197"/>
-      <c r="C45" s="139"/>
-      <c r="D45" s="139"/>
-      <c r="E45" s="139"/>
-      <c r="F45" s="139"/>
-      <c r="G45" s="139"/>
-      <c r="H45" s="139"/>
-      <c r="I45" s="139"/>
+      <c r="B45" s="199"/>
+      <c r="C45" s="133"/>
+      <c r="D45" s="133"/>
+      <c r="E45" s="133"/>
+      <c r="F45" s="133"/>
+      <c r="G45" s="133"/>
+      <c r="H45" s="133"/>
+      <c r="I45" s="133"/>
     </row>
     <row r="46" spans="2:9">
-      <c r="B46" s="197"/>
-      <c r="C46" s="139"/>
-      <c r="D46" s="139"/>
-      <c r="E46" s="139"/>
-      <c r="F46" s="139"/>
-      <c r="G46" s="139"/>
-      <c r="H46" s="139"/>
-      <c r="I46" s="139"/>
+      <c r="B46" s="199"/>
+      <c r="C46" s="133"/>
+      <c r="D46" s="133"/>
+      <c r="E46" s="133"/>
+      <c r="F46" s="133"/>
+      <c r="G46" s="133"/>
+      <c r="H46" s="133"/>
+      <c r="I46" s="133"/>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="197"/>
-      <c r="C47" s="139"/>
-      <c r="D47" s="139"/>
-      <c r="E47" s="139"/>
-      <c r="F47" s="139"/>
-      <c r="G47" s="139"/>
-      <c r="H47" s="139"/>
-      <c r="I47" s="139"/>
+      <c r="B47" s="199"/>
+      <c r="C47" s="133"/>
+      <c r="D47" s="133"/>
+      <c r="E47" s="133"/>
+      <c r="F47" s="133"/>
+      <c r="G47" s="133"/>
+      <c r="H47" s="133"/>
+      <c r="I47" s="133"/>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="197"/>
-      <c r="C48" s="139"/>
-      <c r="D48" s="139"/>
-      <c r="E48" s="139"/>
-      <c r="F48" s="139"/>
-      <c r="G48" s="139"/>
-      <c r="H48" s="139"/>
-      <c r="I48" s="139"/>
+      <c r="B48" s="199"/>
+      <c r="C48" s="133"/>
+      <c r="D48" s="133"/>
+      <c r="E48" s="133"/>
+      <c r="F48" s="133"/>
+      <c r="G48" s="133"/>
+      <c r="H48" s="133"/>
+      <c r="I48" s="133"/>
     </row>
     <row r="49" spans="2:9">
-      <c r="B49" s="197"/>
-      <c r="C49" s="139"/>
-      <c r="D49" s="139"/>
-      <c r="E49" s="139"/>
-      <c r="F49" s="139"/>
-      <c r="G49" s="139"/>
-      <c r="H49" s="139"/>
-      <c r="I49" s="139"/>
+      <c r="B49" s="199"/>
+      <c r="C49" s="133"/>
+      <c r="D49" s="133"/>
+      <c r="E49" s="133"/>
+      <c r="F49" s="133"/>
+      <c r="G49" s="133"/>
+      <c r="H49" s="133"/>
+      <c r="I49" s="133"/>
     </row>
     <row r="50" spans="2:9">
-      <c r="B50" s="197"/>
-      <c r="C50" s="139"/>
-      <c r="D50" s="139"/>
-      <c r="E50" s="139"/>
-      <c r="F50" s="139"/>
-      <c r="G50" s="139"/>
-      <c r="H50" s="139"/>
-      <c r="I50" s="139"/>
+      <c r="B50" s="199"/>
+      <c r="C50" s="133"/>
+      <c r="D50" s="133"/>
+      <c r="E50" s="133"/>
+      <c r="F50" s="133"/>
+      <c r="G50" s="133"/>
+      <c r="H50" s="133"/>
+      <c r="I50" s="133"/>
     </row>
     <row r="51" spans="2:9">
-      <c r="B51" s="197"/>
-      <c r="C51" s="139"/>
-      <c r="D51" s="139"/>
-      <c r="E51" s="139"/>
-      <c r="F51" s="139"/>
-      <c r="G51" s="139"/>
-      <c r="H51" s="139"/>
-      <c r="I51" s="139"/>
+      <c r="B51" s="199"/>
+      <c r="C51" s="133"/>
+      <c r="D51" s="133"/>
+      <c r="E51" s="133"/>
+      <c r="F51" s="133"/>
+      <c r="G51" s="133"/>
+      <c r="H51" s="133"/>
+      <c r="I51" s="133"/>
     </row>
     <row r="52" spans="2:9">
-      <c r="B52" s="197"/>
-      <c r="C52" s="139"/>
-      <c r="D52" s="139"/>
-      <c r="E52" s="139"/>
-      <c r="F52" s="139"/>
-      <c r="G52" s="139"/>
-      <c r="H52" s="139"/>
-      <c r="I52" s="139"/>
+      <c r="B52" s="199"/>
+      <c r="C52" s="133"/>
+      <c r="D52" s="133"/>
+      <c r="E52" s="133"/>
+      <c r="F52" s="133"/>
+      <c r="G52" s="133"/>
+      <c r="H52" s="133"/>
+      <c r="I52" s="133"/>
     </row>
     <row r="53" spans="2:9">
-      <c r="B53" s="197"/>
-      <c r="C53" s="139"/>
-      <c r="D53" s="139"/>
-      <c r="E53" s="139"/>
-      <c r="F53" s="139"/>
-      <c r="G53" s="139"/>
-      <c r="H53" s="139"/>
-      <c r="I53" s="139"/>
+      <c r="B53" s="199"/>
+      <c r="C53" s="133"/>
+      <c r="D53" s="133"/>
+      <c r="E53" s="133"/>
+      <c r="F53" s="133"/>
+      <c r="G53" s="133"/>
+      <c r="H53" s="133"/>
+      <c r="I53" s="133"/>
     </row>
     <row r="54" spans="2:9">
-      <c r="B54" s="197"/>
-      <c r="C54" s="139"/>
-      <c r="D54" s="139"/>
-      <c r="E54" s="139"/>
-      <c r="F54" s="139"/>
-      <c r="G54" s="139"/>
-      <c r="H54" s="139"/>
-      <c r="I54" s="139"/>
+      <c r="B54" s="199"/>
+      <c r="C54" s="133"/>
+      <c r="D54" s="133"/>
+      <c r="E54" s="133"/>
+      <c r="F54" s="133"/>
+      <c r="G54" s="133"/>
+      <c r="H54" s="133"/>
+      <c r="I54" s="133"/>
     </row>
     <row r="55" spans="2:9">
-      <c r="B55" s="197"/>
-      <c r="C55" s="139"/>
-      <c r="D55" s="139"/>
-      <c r="E55" s="139"/>
-      <c r="F55" s="139"/>
-      <c r="G55" s="139"/>
-      <c r="H55" s="139"/>
-      <c r="I55" s="139"/>
+      <c r="B55" s="199"/>
+      <c r="C55" s="133"/>
+      <c r="D55" s="133"/>
+      <c r="E55" s="133"/>
+      <c r="F55" s="133"/>
+      <c r="G55" s="133"/>
+      <c r="H55" s="133"/>
+      <c r="I55" s="133"/>
     </row>
     <row r="56" spans="2:9">
-      <c r="B56" s="197"/>
-      <c r="C56" s="139"/>
-      <c r="D56" s="139"/>
-      <c r="E56" s="139"/>
-      <c r="F56" s="139"/>
-      <c r="G56" s="139"/>
-      <c r="H56" s="139"/>
-      <c r="I56" s="139"/>
+      <c r="B56" s="199"/>
+      <c r="C56" s="133"/>
+      <c r="D56" s="133"/>
+      <c r="E56" s="133"/>
+      <c r="F56" s="133"/>
+      <c r="G56" s="133"/>
+      <c r="H56" s="133"/>
+      <c r="I56" s="133"/>
     </row>
     <row r="57" spans="2:9">
-      <c r="B57" s="197"/>
-      <c r="C57" s="139"/>
-      <c r="D57" s="139"/>
-      <c r="E57" s="139"/>
-      <c r="F57" s="139"/>
-      <c r="G57" s="139"/>
-      <c r="H57" s="139"/>
-      <c r="I57" s="139"/>
+      <c r="B57" s="199"/>
+      <c r="C57" s="133"/>
+      <c r="D57" s="133"/>
+      <c r="E57" s="133"/>
+      <c r="F57" s="133"/>
+      <c r="G57" s="133"/>
+      <c r="H57" s="133"/>
+      <c r="I57" s="133"/>
     </row>
     <row r="58" spans="2:9">
-      <c r="B58" s="197"/>
-      <c r="C58" s="139"/>
-      <c r="D58" s="139"/>
-      <c r="E58" s="139"/>
-      <c r="F58" s="139"/>
-      <c r="G58" s="139"/>
-      <c r="H58" s="139"/>
-      <c r="I58" s="139"/>
+      <c r="B58" s="199"/>
+      <c r="C58" s="133"/>
+      <c r="D58" s="133"/>
+      <c r="E58" s="133"/>
+      <c r="F58" s="133"/>
+      <c r="G58" s="133"/>
+      <c r="H58" s="133"/>
+      <c r="I58" s="133"/>
     </row>
     <row r="59" spans="2:9">
-      <c r="B59" s="197"/>
-      <c r="C59" s="139"/>
-      <c r="D59" s="139"/>
-      <c r="E59" s="139"/>
-      <c r="F59" s="139"/>
-      <c r="G59" s="139"/>
-      <c r="H59" s="139"/>
-      <c r="I59" s="139"/>
+      <c r="B59" s="199"/>
+      <c r="C59" s="133"/>
+      <c r="D59" s="133"/>
+      <c r="E59" s="133"/>
+      <c r="F59" s="133"/>
+      <c r="G59" s="133"/>
+      <c r="H59" s="133"/>
+      <c r="I59" s="133"/>
     </row>
     <row r="60" spans="2:9">
-      <c r="B60" s="197"/>
-      <c r="C60" s="139"/>
-      <c r="D60" s="139"/>
-      <c r="E60" s="139"/>
-      <c r="F60" s="139"/>
-      <c r="G60" s="139"/>
-      <c r="H60" s="139"/>
-      <c r="I60" s="139"/>
+      <c r="B60" s="199"/>
+      <c r="C60" s="133"/>
+      <c r="D60" s="133"/>
+      <c r="E60" s="133"/>
+      <c r="F60" s="133"/>
+      <c r="G60" s="133"/>
+      <c r="H60" s="133"/>
+      <c r="I60" s="133"/>
     </row>
     <row r="61" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B61" s="198"/>
-      <c r="C61" s="123"/>
-      <c r="D61" s="123"/>
-      <c r="E61" s="123"/>
-      <c r="F61" s="123"/>
-      <c r="G61" s="123"/>
-      <c r="H61" s="123"/>
-      <c r="I61" s="123"/>
+      <c r="B61" s="200"/>
+      <c r="C61" s="118"/>
+      <c r="D61" s="118"/>
+      <c r="E61" s="118"/>
+      <c r="F61" s="118"/>
+      <c r="G61" s="118"/>
+      <c r="H61" s="118"/>
+      <c r="I61" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10255,18 +10255,18 @@
       <c r="M1" s="84"/>
     </row>
     <row r="2" spans="2:14" ht="17.45" customHeight="1">
-      <c r="B2" s="209"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="213" t="s">
+      <c r="B2" s="223"/>
+      <c r="C2" s="224"/>
+      <c r="D2" s="227" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="213"/>
-      <c r="F2" s="213"/>
-      <c r="G2" s="213"/>
-      <c r="H2" s="213"/>
-      <c r="I2" s="213"/>
-      <c r="J2" s="213"/>
-      <c r="K2" s="214"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
+      <c r="H2" s="227"/>
+      <c r="I2" s="227"/>
+      <c r="J2" s="227"/>
+      <c r="K2" s="228"/>
       <c r="L2" s="97" t="s">
         <v>98</v>
       </c>
@@ -10275,16 +10275,16 @@
       </c>
     </row>
     <row r="3" spans="2:14" ht="17.45" customHeight="1" thickBot="1">
-      <c r="B3" s="211"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="215"/>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="215"/>
-      <c r="J3" s="215"/>
-      <c r="K3" s="216"/>
+      <c r="B3" s="225"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="229"/>
+      <c r="J3" s="229"/>
+      <c r="K3" s="230"/>
       <c r="L3" s="99" t="s">
         <v>99</v>
       </c>
@@ -10316,233 +10316,233 @@
       <c r="D5" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="222" t="s">
+      <c r="E5" s="213" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="222"/>
-      <c r="G5" s="222"/>
-      <c r="H5" s="222"/>
-      <c r="I5" s="222"/>
-      <c r="J5" s="222"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="213"/>
+      <c r="H5" s="213"/>
+      <c r="I5" s="213"/>
+      <c r="J5" s="213"/>
       <c r="K5" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="L5" s="222" t="s">
+      <c r="L5" s="213" t="s">
         <v>84</v>
       </c>
-      <c r="M5" s="223"/>
+      <c r="M5" s="214"/>
     </row>
     <row r="6" spans="2:14" ht="37.9" customHeight="1">
-      <c r="B6" s="224">
+      <c r="B6" s="215">
         <v>1</v>
       </c>
-      <c r="C6" s="227" t="s">
+      <c r="C6" s="218" t="s">
         <v>97</v>
       </c>
       <c r="D6" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="219" t="s">
+      <c r="E6" s="221" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="219"/>
-      <c r="G6" s="219"/>
-      <c r="H6" s="219"/>
-      <c r="I6" s="219"/>
-      <c r="J6" s="219"/>
+      <c r="F6" s="221"/>
+      <c r="G6" s="221"/>
+      <c r="H6" s="221"/>
+      <c r="I6" s="221"/>
+      <c r="J6" s="221"/>
       <c r="K6" s="86"/>
-      <c r="L6" s="220"/>
-      <c r="M6" s="221"/>
+      <c r="L6" s="211"/>
+      <c r="M6" s="212"/>
       <c r="N6" s="87"/>
     </row>
     <row r="7" spans="2:14" ht="37.9" customHeight="1">
-      <c r="B7" s="224"/>
-      <c r="C7" s="228"/>
+      <c r="B7" s="215"/>
+      <c r="C7" s="219"/>
       <c r="D7" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="219" t="s">
+      <c r="E7" s="221" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="219"/>
-      <c r="I7" s="219"/>
-      <c r="J7" s="219"/>
+      <c r="F7" s="221"/>
+      <c r="G7" s="221"/>
+      <c r="H7" s="221"/>
+      <c r="I7" s="221"/>
+      <c r="J7" s="221"/>
       <c r="K7" s="86"/>
-      <c r="L7" s="220"/>
-      <c r="M7" s="221"/>
+      <c r="L7" s="211"/>
+      <c r="M7" s="212"/>
       <c r="N7" s="87"/>
     </row>
     <row r="8" spans="2:14" ht="37.9" customHeight="1">
-      <c r="B8" s="224"/>
-      <c r="C8" s="228"/>
+      <c r="B8" s="215"/>
+      <c r="C8" s="219"/>
       <c r="D8" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="219" t="s">
+      <c r="E8" s="221" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="219"/>
-      <c r="G8" s="219"/>
-      <c r="H8" s="219"/>
-      <c r="I8" s="219"/>
-      <c r="J8" s="219"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="221"/>
+      <c r="I8" s="221"/>
+      <c r="J8" s="221"/>
       <c r="K8" s="86"/>
-      <c r="L8" s="220"/>
-      <c r="M8" s="221"/>
+      <c r="L8" s="211"/>
+      <c r="M8" s="212"/>
       <c r="N8" s="87"/>
     </row>
     <row r="9" spans="2:14" ht="37.9" customHeight="1">
-      <c r="B9" s="224"/>
-      <c r="C9" s="228"/>
+      <c r="B9" s="215"/>
+      <c r="C9" s="219"/>
       <c r="D9" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="219" t="s">
+      <c r="E9" s="221" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="219"/>
-      <c r="G9" s="219"/>
-      <c r="H9" s="219"/>
-      <c r="I9" s="219"/>
-      <c r="J9" s="219"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="221"/>
+      <c r="H9" s="221"/>
+      <c r="I9" s="221"/>
+      <c r="J9" s="221"/>
       <c r="K9" s="86"/>
-      <c r="L9" s="220"/>
-      <c r="M9" s="221"/>
+      <c r="L9" s="211"/>
+      <c r="M9" s="212"/>
       <c r="N9" s="87"/>
     </row>
     <row r="10" spans="2:14" ht="37.9" customHeight="1">
-      <c r="B10" s="224"/>
-      <c r="C10" s="228"/>
+      <c r="B10" s="215"/>
+      <c r="C10" s="219"/>
       <c r="D10" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="219" t="s">
+      <c r="E10" s="221" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="219"/>
-      <c r="G10" s="219"/>
-      <c r="H10" s="219"/>
-      <c r="I10" s="219"/>
-      <c r="J10" s="219"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="221"/>
+      <c r="I10" s="221"/>
+      <c r="J10" s="221"/>
       <c r="K10" s="86"/>
-      <c r="L10" s="220"/>
-      <c r="M10" s="221"/>
+      <c r="L10" s="211"/>
+      <c r="M10" s="212"/>
       <c r="N10" s="87"/>
     </row>
     <row r="11" spans="2:14" ht="37.9" customHeight="1">
-      <c r="B11" s="224"/>
-      <c r="C11" s="228"/>
+      <c r="B11" s="215"/>
+      <c r="C11" s="219"/>
       <c r="D11" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="219" t="s">
+      <c r="E11" s="221" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="219"/>
-      <c r="G11" s="219"/>
-      <c r="H11" s="219"/>
-      <c r="I11" s="219"/>
-      <c r="J11" s="219"/>
+      <c r="F11" s="221"/>
+      <c r="G11" s="221"/>
+      <c r="H11" s="221"/>
+      <c r="I11" s="221"/>
+      <c r="J11" s="221"/>
       <c r="K11" s="86"/>
-      <c r="L11" s="220"/>
-      <c r="M11" s="221"/>
+      <c r="L11" s="211"/>
+      <c r="M11" s="212"/>
       <c r="N11" s="87"/>
     </row>
     <row r="12" spans="2:14" ht="37.9" customHeight="1">
-      <c r="B12" s="224"/>
-      <c r="C12" s="228"/>
+      <c r="B12" s="215"/>
+      <c r="C12" s="219"/>
       <c r="D12" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="219" t="s">
+      <c r="E12" s="221" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="219"/>
-      <c r="G12" s="219"/>
-      <c r="H12" s="219"/>
-      <c r="I12" s="219"/>
-      <c r="J12" s="219"/>
+      <c r="F12" s="221"/>
+      <c r="G12" s="221"/>
+      <c r="H12" s="221"/>
+      <c r="I12" s="221"/>
+      <c r="J12" s="221"/>
       <c r="K12" s="86"/>
-      <c r="L12" s="220"/>
-      <c r="M12" s="221"/>
+      <c r="L12" s="211"/>
+      <c r="M12" s="212"/>
       <c r="N12" s="87"/>
     </row>
     <row r="13" spans="2:14" ht="37.9" customHeight="1">
-      <c r="B13" s="224"/>
-      <c r="C13" s="228"/>
+      <c r="B13" s="215"/>
+      <c r="C13" s="219"/>
       <c r="D13" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="219" t="s">
+      <c r="E13" s="221" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="219"/>
-      <c r="G13" s="219"/>
-      <c r="H13" s="219"/>
-      <c r="I13" s="219"/>
-      <c r="J13" s="219"/>
+      <c r="F13" s="221"/>
+      <c r="G13" s="221"/>
+      <c r="H13" s="221"/>
+      <c r="I13" s="221"/>
+      <c r="J13" s="221"/>
       <c r="K13" s="86"/>
-      <c r="L13" s="220"/>
-      <c r="M13" s="221"/>
+      <c r="L13" s="211"/>
+      <c r="M13" s="212"/>
       <c r="N13" s="87"/>
     </row>
     <row r="14" spans="2:14" ht="37.9" customHeight="1">
-      <c r="B14" s="224"/>
-      <c r="C14" s="228"/>
+      <c r="B14" s="215"/>
+      <c r="C14" s="219"/>
       <c r="D14" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="219" t="s">
+      <c r="E14" s="221" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="219"/>
-      <c r="G14" s="219"/>
-      <c r="H14" s="219"/>
-      <c r="I14" s="219"/>
-      <c r="J14" s="219"/>
+      <c r="F14" s="221"/>
+      <c r="G14" s="221"/>
+      <c r="H14" s="221"/>
+      <c r="I14" s="221"/>
+      <c r="J14" s="221"/>
       <c r="K14" s="86"/>
-      <c r="L14" s="220"/>
-      <c r="M14" s="221"/>
+      <c r="L14" s="211"/>
+      <c r="M14" s="212"/>
       <c r="N14" s="87"/>
     </row>
     <row r="15" spans="2:14" ht="37.9" customHeight="1">
-      <c r="B15" s="225"/>
-      <c r="C15" s="228"/>
+      <c r="B15" s="216"/>
+      <c r="C15" s="219"/>
       <c r="D15" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="230" t="s">
+      <c r="E15" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="230"/>
-      <c r="G15" s="230"/>
-      <c r="H15" s="230"/>
-      <c r="I15" s="230"/>
-      <c r="J15" s="230"/>
+      <c r="F15" s="222"/>
+      <c r="G15" s="222"/>
+      <c r="H15" s="222"/>
+      <c r="I15" s="222"/>
+      <c r="J15" s="222"/>
       <c r="K15" s="101"/>
-      <c r="L15" s="220"/>
-      <c r="M15" s="221"/>
+      <c r="L15" s="211"/>
+      <c r="M15" s="212"/>
       <c r="N15" s="87"/>
     </row>
     <row r="16" spans="2:14" ht="37.9" customHeight="1" thickBot="1">
-      <c r="B16" s="226"/>
-      <c r="C16" s="229"/>
+      <c r="B16" s="217"/>
+      <c r="C16" s="220"/>
       <c r="D16" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="217" t="s">
+      <c r="E16" s="231" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="217"/>
-      <c r="G16" s="217"/>
-      <c r="H16" s="217"/>
-      <c r="I16" s="217"/>
-      <c r="J16" s="217"/>
+      <c r="F16" s="231"/>
+      <c r="G16" s="231"/>
+      <c r="H16" s="231"/>
+      <c r="I16" s="231"/>
+      <c r="J16" s="231"/>
       <c r="K16" s="96"/>
-      <c r="L16" s="212"/>
-      <c r="M16" s="218"/>
+      <c r="L16" s="226"/>
+      <c r="M16" s="232"/>
       <c r="N16" s="87"/>
     </row>
     <row r="17" spans="2:13">
@@ -10561,18 +10561,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="B6:B16"/>
-    <mergeCell ref="C6:C16"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="L15:M15"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="D2:K3"/>
     <mergeCell ref="E16:J16"/>
@@ -10589,6 +10577,18 @@
     <mergeCell ref="E10:J10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="E11:J11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B6:B16"/>
+    <mergeCell ref="C6:C16"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="L15:M15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">

--- a/공학용계산기 Development Report_메가톤.xlsx
+++ b/공학용계산기 Development Report_메가톤.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESKTOP\git\Calculator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BC3AB3-AD47-494B-8CD7-F70CBD907E5E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12396"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="7" r:id="rId1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="107">
   <si>
     <t>Start</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -507,16 +506,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>알고리즘(최대공약수) 기능에 이상이 없는가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
         <charset val="129"/>
       </rPr>
       <t>최대공약수</t>
@@ -534,8 +529,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
         <charset val="129"/>
       </rPr>
       <t>구하는</t>
@@ -553,8 +548,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
         <charset val="129"/>
       </rPr>
       <t>알고리즘</t>
@@ -572,8 +567,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
         <charset val="129"/>
       </rPr>
       <t>추가</t>
@@ -581,8 +576,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>김상현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알고리즘(최대공약수) 기능에 이상이 없는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.06.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>History 조회</t>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로그램</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -592,24 +615,62 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 알고리즘 추가</t>
+      <t>설계서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020.06.28</t>
+    <t>장 진</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="General&quot;%&quot;"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -771,27 +832,6 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1640,7 +1680,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="233">
+  <cellXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1949,12 +1989,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1979,6 +2013,99 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1988,24 +2115,12 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2018,92 +2133,71 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2156,66 +2250,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2275,6 +2309,39 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2308,46 +2375,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal_PSO V5 Supplement Check Sheet V4" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal_PSO V5 Supplement Check Sheet V4" xfId="1"/>
     <cellStyle name="셀 확인" xfId="3" builtinId="23"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2614,13 +2648,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2680,13 +2708,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2746,13 +2768,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2812,13 +2828,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2873,13 +2883,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2934,13 +2938,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="그림 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2995,13 +2993,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="그림 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="그림 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3061,13 +3053,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3122,13 +3108,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3183,13 +3163,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3233,24 +3207,18 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>13841</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3263,7 +3231,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2194561" y="8907780"/>
+          <a:off x="2194561" y="14401800"/>
           <a:ext cx="2391280" cy="1524000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3271,72 +3239,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="직사각형 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4198620" y="6324600"/>
-          <a:ext cx="609600" cy="289560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -3349,24 +3251,18 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="TextBox 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="15" name="TextBox 14"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1943100" y="8100060"/>
-          <a:ext cx="4663440" cy="899160"/>
+          <a:ext cx="4663440" cy="6172200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3436,74 +3332,581 @@
             </a:rPr>
             <a:t>.</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
             <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
             <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
           </a:endParaRPr>
         </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>* </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>키패드 구성</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" b="1" baseline="0">
+            <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t> ① 숫자 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>계산하고자 하는 숫자를 입력하는데 사용</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t> ② *, /,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t> +, - : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>곱셉</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>나눗셈</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>덧셈</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>뺄셈</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>연산자</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t> ③ CLEAR : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>디스플레이에 표시된 모든 내용을 지움</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t> ④ Sin, Cos, Tan : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>삼각함수 계산</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>(Sin(X), X</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>의 단위는 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>[degree])</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t> ⑤ Log10, Log_e : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>상용로그</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>자연로그 계산</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t> ⑥ Pow : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>제곱 연산자</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t> ⑦ Sqrt : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>제곱근 연산자</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t> ⑧ Del : Backspace</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t> ⑨ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>알고리즘 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>최대공약수 계산 함수 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>( EEA(5,25) =5)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:rPr>
+            <a:t>⑩ History : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>기록조회</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>기록삭제를 할 수 있는 기록관리 창</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>이 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Pop-up.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>기록 조회를 통해서 계산한 결과들을</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 최대 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>20</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>개까지 조회할 수 있으며</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>기록 삭제도 가능</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>13841</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="꺾인 연결선 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="3"/>
-          <a:endCxn id="3" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4585841" y="6469380"/>
-          <a:ext cx="222379" cy="3200400"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -726435"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -3521,13 +3924,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="직사각형 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000017000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="23" name="직사각형 22"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3587,13 +3984,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="직사각형 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000018000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="24" name="직사각형 23"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3653,13 +4044,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="TextBox 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000019000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="25" name="TextBox 24"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3728,13 +4113,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="TextBox 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="26" name="TextBox 25"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3803,13 +4182,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="직선 화살표 연결선 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="28" name="직선 화살표 연결선 27"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="23" idx="3"/>
           <a:endCxn id="25" idx="1"/>
@@ -3862,13 +4235,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="직선 화살표 연결선 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="30" name="직선 화살표 연결선 29"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3907,24 +4274,18 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>297181</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7621</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="그림 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="18" name="그림 17"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3944,7 +4305,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2186941" y="11018520"/>
+          <a:off x="2186941" y="16093440"/>
           <a:ext cx="2392680" cy="1866900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3968,29 +4329,23 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="직사각형 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="21" name="직사각형 20"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2453640" y="9517380"/>
+          <a:off x="2453640" y="15011400"/>
           <a:ext cx="716280" cy="289560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4033,145 +4388,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>34289</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="TextBox 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000016000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1992630" y="12226289"/>
-          <a:ext cx="4564380" cy="699135"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t> - </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
-              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>기록 조회를 통해서 계산한 결과들을</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
-              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t> 최대 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
-              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>20</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
-              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>개까지 조회할 수 있으며</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
-              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
-              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>기록 삭제도 가능하다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
-              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-            <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
       <xdr:colOff>297182</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>563881</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>201930</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="꺾인 연결선 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="27" name="꺾인 연결선 26"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="21" idx="1"/>
           <a:endCxn id="18" idx="1"/>
@@ -4179,8 +4408,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="2186942" y="9662160"/>
-          <a:ext cx="266699" cy="2289810"/>
+          <a:off x="2186942" y="15156180"/>
+          <a:ext cx="266699" cy="1870710"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4211,138 +4440,42 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>350686</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>670436</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="TextBox 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2015490" y="9902190"/>
-          <a:ext cx="4564380" cy="670560"/>
+          <a:off x="2240446" y="11582400"/>
+          <a:ext cx="2331430" cy="1767840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t> - </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
-              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>기본 창에서 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>History Button </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
-              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>클릭 시 기록조회</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
-              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
-              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>기록삭제를 할 수 있는 기록관리 창</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
-              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>이 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
-              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>Pop-up </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
-              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>된다</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
-              <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-            <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4365,13 +4498,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="그림 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="그림 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4416,15 +4543,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:colOff>91440</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>106680</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
+          <xdr:colOff>579120</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>390525</xdr:rowOff>
+          <xdr:rowOff>388620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4432,9 +4559,6 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6145"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4473,7 +4597,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4502,13 +4626,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
+          <xdr:colOff>525780</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>971550</xdr:colOff>
+          <xdr:colOff>967740</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>381000</xdr:rowOff>
         </xdr:to>
@@ -4518,9 +4642,6 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6146"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4559,7 +4680,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4590,13 +4711,13 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>952500</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:rowOff>91440</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>1447800</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>400050</xdr:rowOff>
+          <xdr:rowOff>403860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4604,9 +4725,6 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6147"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4645,7 +4763,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4674,15 +4792,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:colOff>91440</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>106680</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
+          <xdr:colOff>579120</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>390525</xdr:rowOff>
+          <xdr:rowOff>388620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4690,9 +4808,6 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6148"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4731,7 +4846,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4760,13 +4875,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
+          <xdr:colOff>525780</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>971550</xdr:colOff>
+          <xdr:colOff>967740</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>381000</xdr:rowOff>
         </xdr:to>
@@ -4776,9 +4891,6 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6149"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4817,7 +4929,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4848,13 +4960,13 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>952500</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:rowOff>91440</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>1447800</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>400050</xdr:rowOff>
+          <xdr:rowOff>403860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4862,9 +4974,6 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6150"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4903,7 +5012,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4932,15 +5041,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:colOff>91440</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>106680</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
+          <xdr:colOff>579120</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>390525</xdr:rowOff>
+          <xdr:rowOff>388620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4948,9 +5057,6 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6151"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4989,7 +5095,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5018,13 +5124,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
+          <xdr:colOff>525780</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>971550</xdr:colOff>
+          <xdr:colOff>967740</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>381000</xdr:rowOff>
         </xdr:to>
@@ -5034,9 +5140,6 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6152"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5075,7 +5178,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5106,13 +5209,13 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>952500</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:rowOff>91440</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>1447800</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>400050</xdr:rowOff>
+          <xdr:rowOff>403860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5120,9 +5223,6 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6153"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5161,7 +5261,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5190,15 +5290,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:colOff>91440</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
+          <xdr:colOff>579120</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>400050</xdr:rowOff>
+          <xdr:rowOff>403860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5206,9 +5306,6 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6154"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5247,7 +5344,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5276,15 +5373,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
+          <xdr:colOff>525780</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>129540</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>971550</xdr:colOff>
+          <xdr:colOff>967740</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>390525</xdr:rowOff>
+          <xdr:rowOff>388620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5292,9 +5389,6 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6155"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5333,7 +5427,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5364,13 +5458,13 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>952500</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>106680</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>1447800</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>409575</xdr:rowOff>
+          <xdr:rowOff>411480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5378,9 +5472,6 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6156"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5419,7 +5510,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5448,15 +5539,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:colOff>91440</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>106680</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
+          <xdr:colOff>579120</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>390525</xdr:rowOff>
+          <xdr:rowOff>388620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5464,9 +5555,6 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6157"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5505,7 +5593,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5534,13 +5622,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
+          <xdr:colOff>525780</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>971550</xdr:colOff>
+          <xdr:colOff>967740</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>381000</xdr:rowOff>
         </xdr:to>
@@ -5550,9 +5638,6 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6158"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5591,7 +5676,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5622,13 +5707,13 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>952500</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:rowOff>91440</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
           <xdr:colOff>1447800</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>400050</xdr:rowOff>
+          <xdr:rowOff>403860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5636,9 +5721,6 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6159"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5677,7 +5759,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5706,15 +5788,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:colOff>91440</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>83820</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
+          <xdr:colOff>579120</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>371475</xdr:rowOff>
+          <xdr:rowOff>373380</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5722,9 +5804,6 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6160"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5763,7 +5842,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5792,15 +5871,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
+          <xdr:colOff>525780</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:rowOff>99060</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>971550</xdr:colOff>
+          <xdr:colOff>967740</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>361950</xdr:rowOff>
+          <xdr:rowOff>358140</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5808,9 +5887,6 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6161"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5849,7 +5925,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5895,8 +5971,88 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6162"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012180000}"/>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Malgun Gothic"/>
+                  <a:ea typeface="Malgun Gothic"/>
+                </a:rPr>
+                <a:t>N/A</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>91440</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>99060</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>579120</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>381000</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6163" name="Check Box 19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6163"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5935,7 +6091,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5949,7 +6105,7 @@
                   <a:latin typeface="Malgun Gothic"/>
                   <a:ea typeface="Malgun Gothic"/>
                 </a:rPr>
-                <a:t>N/A</a:t>
+                <a:t>OK </a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5964,25 +6120,22 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:colOff>525780</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:rowOff>106680</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
+          <xdr:colOff>967740</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>381000</xdr:rowOff>
+          <xdr:rowOff>365760</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6163" name="Check Box 19" hidden="1">
+            <xdr:cNvPr id="6164" name="Check Box 20" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6163"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013180000}"/>
+                  <a14:compatExt spid="_x0000_s6164"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6021,7 +6174,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6035,7 +6188,7 @@
                   <a:latin typeface="Malgun Gothic"/>
                   <a:ea typeface="Malgun Gothic"/>
                 </a:rPr>
-                <a:t>OK </a:t>
+                <a:t>NG</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -6050,25 +6203,22 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
+          <xdr:colOff>952500</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>83820</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>971550</xdr:colOff>
+          <xdr:colOff>1447800</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>361950</xdr:rowOff>
+          <xdr:rowOff>388620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6164" name="Check Box 20" hidden="1">
+            <xdr:cNvPr id="6165" name="Check Box 21" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6164"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014180000}"/>
+                  <a14:compatExt spid="_x0000_s6165"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6107,7 +6257,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6121,7 +6271,7 @@
                   <a:latin typeface="Malgun Gothic"/>
                   <a:ea typeface="Malgun Gothic"/>
                 </a:rPr>
-                <a:t>NG</a:t>
+                <a:t>N/A</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -6136,25 +6286,22 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>952500</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:colOff>91440</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>99060</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>1447800</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>390525</xdr:rowOff>
+          <xdr:colOff>579120</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>381000</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6165" name="Check Box 21" hidden="1">
+            <xdr:cNvPr id="6166" name="Check Box 22" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6165"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015180000}"/>
+                  <a14:compatExt spid="_x0000_s6166"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6193,7 +6340,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6207,7 +6354,7 @@
                   <a:latin typeface="Malgun Gothic"/>
                   <a:ea typeface="Malgun Gothic"/>
                 </a:rPr>
-                <a:t>N/A</a:t>
+                <a:t>OK </a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -6222,25 +6369,22 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:colOff>525780</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:rowOff>106680</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
+          <xdr:colOff>967740</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>381000</xdr:rowOff>
+          <xdr:rowOff>365760</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6166" name="Check Box 22" hidden="1">
+            <xdr:cNvPr id="6167" name="Check Box 23" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6166"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000016180000}"/>
+                  <a14:compatExt spid="_x0000_s6167"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6279,7 +6423,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6293,7 +6437,7 @@
                   <a:latin typeface="Malgun Gothic"/>
                   <a:ea typeface="Malgun Gothic"/>
                 </a:rPr>
-                <a:t>OK </a:t>
+                <a:t>NG</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -6308,25 +6452,22 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
+          <xdr:colOff>952500</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>83820</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>971550</xdr:colOff>
+          <xdr:colOff>1447800</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>361950</xdr:rowOff>
+          <xdr:rowOff>388620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6167" name="Check Box 23" hidden="1">
+            <xdr:cNvPr id="6168" name="Check Box 24" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6167"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000017180000}"/>
+                  <a14:compatExt spid="_x0000_s6168"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6365,7 +6506,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6379,7 +6520,7 @@
                   <a:latin typeface="Malgun Gothic"/>
                   <a:ea typeface="Malgun Gothic"/>
                 </a:rPr>
-                <a:t>NG</a:t>
+                <a:t>N/A</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -6394,25 +6535,22 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>952500</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:colOff>91440</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>106680</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>1447800</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>390525</xdr:rowOff>
+          <xdr:colOff>579120</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>388620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6168" name="Check Box 24" hidden="1">
+            <xdr:cNvPr id="6169" name="Check Box 25" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6168"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000018180000}"/>
+                  <a14:compatExt spid="_x0000_s6169"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6451,7 +6589,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6465,7 +6603,7 @@
                   <a:latin typeface="Malgun Gothic"/>
                   <a:ea typeface="Malgun Gothic"/>
                 </a:rPr>
-                <a:t>N/A</a:t>
+                <a:t>OK </a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -6480,25 +6618,22 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:colOff>525780</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
+          <xdr:colOff>967740</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>390525</xdr:rowOff>
+          <xdr:rowOff>381000</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6169" name="Check Box 25" hidden="1">
+            <xdr:cNvPr id="6170" name="Check Box 26" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6169"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000019180000}"/>
+                  <a14:compatExt spid="_x0000_s6170"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6537,7 +6672,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6551,7 +6686,7 @@
                   <a:latin typeface="Malgun Gothic"/>
                   <a:ea typeface="Malgun Gothic"/>
                 </a:rPr>
-                <a:t>OK </a:t>
+                <a:t>NG</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -6566,25 +6701,22 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
+          <xdr:colOff>952500</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>91440</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>971550</xdr:colOff>
+          <xdr:colOff>1447800</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>381000</xdr:rowOff>
+          <xdr:rowOff>403860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6170" name="Check Box 26" hidden="1">
+            <xdr:cNvPr id="6171" name="Check Box 27" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6170"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001A180000}"/>
+                  <a14:compatExt spid="_x0000_s6171"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6623,7 +6755,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6637,7 +6769,7 @@
                   <a:latin typeface="Malgun Gothic"/>
                   <a:ea typeface="Malgun Gothic"/>
                 </a:rPr>
-                <a:t>NG</a:t>
+                <a:t>N/A</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -6652,25 +6784,22 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>952500</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:colOff>91440</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>106680</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>1447800</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>400050</xdr:rowOff>
+          <xdr:colOff>579120</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>388620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6171" name="Check Box 27" hidden="1">
+            <xdr:cNvPr id="6172" name="Check Box 28" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6171"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001B180000}"/>
+                  <a14:compatExt spid="_x0000_s6172"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6709,7 +6838,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6723,7 +6852,7 @@
                   <a:latin typeface="Malgun Gothic"/>
                   <a:ea typeface="Malgun Gothic"/>
                 </a:rPr>
-                <a:t>N/A</a:t>
+                <a:t>OK </a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -6738,25 +6867,22 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:colOff>525780</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
+          <xdr:colOff>967740</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>390525</xdr:rowOff>
+          <xdr:rowOff>381000</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6172" name="Check Box 28" hidden="1">
+            <xdr:cNvPr id="6173" name="Check Box 29" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6172"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001C180000}"/>
+                  <a14:compatExt spid="_x0000_s6173"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6795,7 +6921,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6809,7 +6935,7 @@
                   <a:latin typeface="Malgun Gothic"/>
                   <a:ea typeface="Malgun Gothic"/>
                 </a:rPr>
-                <a:t>OK </a:t>
+                <a:t>NG</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -6824,25 +6950,22 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
+          <xdr:colOff>952500</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>91440</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>971550</xdr:colOff>
+          <xdr:colOff>1447800</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>381000</xdr:rowOff>
+          <xdr:rowOff>403860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6173" name="Check Box 29" hidden="1">
+            <xdr:cNvPr id="6174" name="Check Box 30" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6173"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001D180000}"/>
+                  <a14:compatExt spid="_x0000_s6174"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6881,7 +7004,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6895,7 +7018,7 @@
                   <a:latin typeface="Malgun Gothic"/>
                   <a:ea typeface="Malgun Gothic"/>
                 </a:rPr>
-                <a:t>NG</a:t>
+                <a:t>N/A</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -6910,25 +7033,22 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>952500</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:colOff>91440</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>1447800</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>400050</xdr:rowOff>
+          <xdr:colOff>579120</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>396240</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6174" name="Check Box 30" hidden="1">
+            <xdr:cNvPr id="6175" name="Check Box 31" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6174"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001E180000}"/>
+                  <a14:compatExt spid="_x0000_s6175"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6967,7 +7087,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -6981,7 +7101,7 @@
                   <a:latin typeface="Malgun Gothic"/>
                   <a:ea typeface="Malgun Gothic"/>
                 </a:rPr>
-                <a:t>N/A</a:t>
+                <a:t>OK </a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -6996,25 +7116,22 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:colOff>525780</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:rowOff>129540</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
+          <xdr:colOff>967740</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>400050</xdr:rowOff>
+          <xdr:rowOff>388620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6175" name="Check Box 31" hidden="1">
+            <xdr:cNvPr id="6176" name="Check Box 32" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6175"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001F180000}"/>
+                  <a14:compatExt spid="_x0000_s6176"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7053,7 +7170,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7067,7 +7184,7 @@
                   <a:latin typeface="Malgun Gothic"/>
                   <a:ea typeface="Malgun Gothic"/>
                 </a:rPr>
-                <a:t>OK </a:t>
+                <a:t>NG</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -7082,25 +7199,22 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
+          <xdr:colOff>952500</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>99060</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>971550</xdr:colOff>
+          <xdr:colOff>1447800</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>390525</xdr:rowOff>
+          <xdr:rowOff>411480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6176" name="Check Box 32" hidden="1">
+            <xdr:cNvPr id="6177" name="Check Box 33" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6176"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000020180000}"/>
+                  <a14:compatExt spid="_x0000_s6177"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7139,93 +7253,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Malgun Gothic"/>
-                  <a:ea typeface="Malgun Gothic"/>
-                </a:rPr>
-                <a:t>NG</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>952500</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>1447800</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>409575</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="6177" name="Check Box 33" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6177"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000021180000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -7607,60 +7635,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="3.125" customWidth="1"/>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="1" max="1" width="3.09765625" customWidth="1"/>
+    <col min="2" max="2" width="20.796875" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="58.125" customWidth="1"/>
-    <col min="5" max="5" width="34.75" customWidth="1"/>
-    <col min="6" max="6" width="21.25" customWidth="1"/>
+    <col min="4" max="4" width="58.09765625" customWidth="1"/>
+    <col min="5" max="5" width="34.69921875" customWidth="1"/>
+    <col min="6" max="6" width="21.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="17.25" thickBot="1"/>
+    <row r="1" spans="2:6" ht="18" thickBot="1"/>
     <row r="2" spans="2:6">
-      <c r="B2" s="104"/>
-      <c r="C2" s="106" t="s">
+      <c r="B2" s="102"/>
+      <c r="C2" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="107"/>
-    </row>
-    <row r="3" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B3" s="105"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="109"/>
-    </row>
-    <row r="4" spans="2:6" ht="17.25" thickBot="1"/>
+      <c r="D2" s="105"/>
+    </row>
+    <row r="3" spans="2:6" ht="18" thickBot="1">
+      <c r="B3" s="103"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="107"/>
+    </row>
+    <row r="4" spans="2:6" ht="18" thickBot="1"/>
     <row r="5" spans="2:6">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="110" t="s">
+      <c r="D5" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="110" t="s">
+      <c r="F5" s="108" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
+    <row r="6" spans="2:6" ht="18" thickBot="1">
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="62" t="s">
@@ -7694,32 +7722,32 @@
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="67" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C9" s="67">
         <v>1.2</v>
       </c>
-      <c r="D9" s="102" t="s">
-        <v>103</v>
+      <c r="D9" s="68" t="s">
+        <v>101</v>
       </c>
       <c r="E9" s="67"/>
       <c r="F9" s="69" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="67" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C10" s="67">
         <v>1.3</v>
       </c>
-      <c r="D10" s="103" t="s">
-        <v>102</v>
+      <c r="D10" s="68" t="s">
+        <v>105</v>
       </c>
       <c r="E10" s="67"/>
       <c r="F10" s="69" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="2:6">
@@ -7771,7 +7799,7 @@
       <c r="E17" s="67"/>
       <c r="F17" s="69"/>
     </row>
-    <row r="18" spans="2:6" ht="17.25" thickBot="1">
+    <row r="18" spans="2:6" ht="18" thickBot="1">
       <c r="B18" s="70"/>
       <c r="C18" s="70"/>
       <c r="D18" s="70"/>
@@ -7796,7 +7824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z509"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -7804,18 +7832,18 @@
       <selection pane="topRight" activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="1.375" style="24" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.75" style="9" customWidth="1"/>
+    <col min="1" max="1" width="1.3984375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="13.69921875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.09765625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.69921875" style="9" customWidth="1"/>
     <col min="5" max="5" width="13" style="9" customWidth="1"/>
-    <col min="6" max="6" width="21.25" style="9" customWidth="1"/>
-    <col min="7" max="7" width="7.125" style="9" customWidth="1"/>
-    <col min="8" max="9" width="3.125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="3.125" style="9" hidden="1" customWidth="1"/>
-    <col min="11" max="22" width="3.125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="21.19921875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="7.09765625" style="9" customWidth="1"/>
+    <col min="8" max="9" width="3.09765625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="3.09765625" style="9" hidden="1" customWidth="1"/>
+    <col min="11" max="22" width="3.09765625" style="9" customWidth="1"/>
     <col min="23" max="23" width="23" style="9" customWidth="1"/>
     <col min="24" max="16384" width="9" style="9"/>
   </cols>
@@ -7845,7 +7873,7 @@
       <c r="V1" s="24"/>
       <c r="W1" s="24"/>
     </row>
-    <row r="2" spans="1:24" ht="17.25" thickBot="1">
+    <row r="2" spans="1:24" ht="18" thickBot="1">
       <c r="B2" s="72"/>
       <c r="C2" s="72"/>
       <c r="D2" s="72"/>
@@ -7871,11 +7899,11 @@
       <c r="X2" s="24"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="B3" s="146"/>
-      <c r="C3" s="142" t="s">
+      <c r="B3" s="114"/>
+      <c r="C3" s="110" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="143"/>
+      <c r="D3" s="111"/>
       <c r="E3" s="72"/>
       <c r="F3" s="73" t="s">
         <v>28</v>
@@ -7899,10 +7927,10 @@
       <c r="W3" s="24"/>
       <c r="X3" s="24"/>
     </row>
-    <row r="4" spans="1:24" ht="17.25" thickBot="1">
-      <c r="B4" s="147"/>
-      <c r="C4" s="144"/>
-      <c r="D4" s="145"/>
+    <row r="4" spans="1:24" ht="18" thickBot="1">
+      <c r="B4" s="115"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="113"/>
       <c r="E4" s="72"/>
       <c r="F4" s="74" t="s">
         <v>46</v>
@@ -7926,7 +7954,7 @@
       <c r="W4" s="24"/>
       <c r="X4" s="24"/>
     </row>
-    <row r="5" spans="1:24" ht="17.25" thickBot="1">
+    <row r="5" spans="1:24" ht="18" thickBot="1">
       <c r="B5" s="72"/>
       <c r="C5" s="72"/>
       <c r="D5" s="72"/>
@@ -7951,77 +7979,77 @@
       <c r="W5" s="24"/>
       <c r="X5" s="24"/>
     </row>
-    <row r="6" spans="1:24" ht="17.25" thickBot="1">
-      <c r="B6" s="121" t="s">
+    <row r="6" spans="1:24" ht="18" thickBot="1">
+      <c r="B6" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="121" t="s">
+      <c r="C6" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="121" t="s">
+      <c r="D6" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="122" t="s">
+      <c r="E6" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="112"/>
-      <c r="G6" s="121" t="s">
+      <c r="F6" s="141"/>
+      <c r="G6" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="127" t="s">
+      <c r="H6" s="150" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="127"/>
-      <c r="M6" s="127"/>
-      <c r="N6" s="127"/>
-      <c r="O6" s="127"/>
-      <c r="P6" s="127"/>
-      <c r="Q6" s="127"/>
-      <c r="R6" s="127"/>
-      <c r="S6" s="127"/>
-      <c r="T6" s="127"/>
-      <c r="U6" s="127"/>
-      <c r="V6" s="112"/>
-      <c r="W6" s="112" t="s">
+      <c r="I6" s="150"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="150"/>
+      <c r="L6" s="150"/>
+      <c r="M6" s="150"/>
+      <c r="N6" s="150"/>
+      <c r="O6" s="150"/>
+      <c r="P6" s="150"/>
+      <c r="Q6" s="150"/>
+      <c r="R6" s="150"/>
+      <c r="S6" s="150"/>
+      <c r="T6" s="150"/>
+      <c r="U6" s="150"/>
+      <c r="V6" s="141"/>
+      <c r="W6" s="141" t="s">
         <v>47</v>
       </c>
       <c r="X6" s="24"/>
     </row>
-    <row r="7" spans="1:24" ht="17.25" thickBot="1">
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="128"/>
-      <c r="N7" s="128"/>
-      <c r="O7" s="128"/>
-      <c r="P7" s="128"/>
-      <c r="Q7" s="128"/>
-      <c r="R7" s="128"/>
-      <c r="S7" s="128"/>
-      <c r="T7" s="128"/>
-      <c r="U7" s="128"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="113"/>
+    <row r="7" spans="1:24" ht="18" thickBot="1">
+      <c r="B7" s="146"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="151"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="151"/>
+      <c r="L7" s="151"/>
+      <c r="M7" s="151"/>
+      <c r="N7" s="151"/>
+      <c r="O7" s="151"/>
+      <c r="P7" s="151"/>
+      <c r="Q7" s="151"/>
+      <c r="R7" s="151"/>
+      <c r="S7" s="151"/>
+      <c r="T7" s="151"/>
+      <c r="U7" s="151"/>
+      <c r="V7" s="143"/>
+      <c r="W7" s="142"/>
       <c r="X7" s="24"/>
     </row>
-    <row r="8" spans="1:24" ht="17.25" thickBot="1">
-      <c r="B8" s="121"/>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="121"/>
+    <row r="8" spans="1:24" ht="18" thickBot="1">
+      <c r="B8" s="146"/>
+      <c r="C8" s="146"/>
+      <c r="D8" s="146"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="143"/>
+      <c r="G8" s="146"/>
       <c r="H8" s="33">
         <v>17</v>
       </c>
@@ -8067,25 +8095,25 @@
       <c r="V8" s="32">
         <v>30</v>
       </c>
-      <c r="W8" s="114"/>
+      <c r="W8" s="143"/>
       <c r="X8" s="24"/>
     </row>
-    <row r="9" spans="1:24" ht="17.25" thickBot="1">
-      <c r="A9" s="115"/>
-      <c r="B9" s="116" t="s">
+    <row r="9" spans="1:24" ht="18" thickBot="1">
+      <c r="A9" s="131"/>
+      <c r="B9" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="117" t="s">
+      <c r="C9" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="119" t="s">
+      <c r="D9" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="130" t="s">
+      <c r="E9" s="124" t="s">
         <v>69</v>
       </c>
       <c r="F9" s="125"/>
-      <c r="G9" s="152" t="s">
+      <c r="G9" s="120" t="s">
         <v>4</v>
       </c>
       <c r="H9" s="34"/>
@@ -8106,14 +8134,14 @@
       <c r="W9" s="125"/>
       <c r="X9" s="24"/>
     </row>
-    <row r="10" spans="1:24" ht="17.25" thickBot="1">
-      <c r="A10" s="115"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="153"/>
+    <row r="10" spans="1:24" ht="18" thickBot="1">
+      <c r="A10" s="131"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="121"/>
       <c r="H10" s="76"/>
       <c r="I10" s="77"/>
       <c r="J10" s="77"/>
@@ -8129,25 +8157,25 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="19"/>
-      <c r="W10" s="126"/>
+      <c r="W10" s="127"/>
       <c r="X10" s="24"/>
     </row>
     <row r="11" spans="1:24" ht="17.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A11" s="115"/>
-      <c r="B11" s="129" t="s">
+      <c r="A11" s="131"/>
+      <c r="B11" s="136" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="117" t="s">
+      <c r="C11" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="120" t="s">
+      <c r="D11" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="130" t="s">
+      <c r="E11" s="124" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="125"/>
-      <c r="G11" s="117" t="s">
+      <c r="G11" s="122" t="s">
         <v>4</v>
       </c>
       <c r="H11" s="20"/>
@@ -8169,13 +8197,13 @@
       <c r="X11" s="24"/>
     </row>
     <row r="12" spans="1:24" ht="17.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A12" s="115"/>
-      <c r="B12" s="133"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="118"/>
+      <c r="A12" s="131"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="123"/>
       <c r="H12" s="39"/>
       <c r="I12" s="40"/>
       <c r="J12" s="40"/>
@@ -8191,23 +8219,23 @@
       <c r="T12" s="40"/>
       <c r="U12" s="40"/>
       <c r="V12" s="41"/>
-      <c r="W12" s="126"/>
+      <c r="W12" s="127"/>
       <c r="X12" s="24"/>
     </row>
-    <row r="13" spans="1:24" ht="17.25" thickBot="1">
-      <c r="A13" s="115"/>
-      <c r="B13" s="133"/>
-      <c r="C13" s="129" t="s">
+    <row r="13" spans="1:24" ht="18" thickBot="1">
+      <c r="A13" s="131"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="136" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="120" t="s">
+      <c r="D13" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="130" t="s">
+      <c r="E13" s="124" t="s">
         <v>36</v>
       </c>
       <c r="F13" s="125"/>
-      <c r="G13" s="117" t="s">
+      <c r="G13" s="122" t="s">
         <v>4</v>
       </c>
       <c r="H13" s="50"/>
@@ -8228,14 +8256,14 @@
       <c r="W13" s="125"/>
       <c r="X13" s="24"/>
     </row>
-    <row r="14" spans="1:24" ht="17.25" thickBot="1">
-      <c r="A14" s="115"/>
-      <c r="B14" s="133"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="118"/>
+    <row r="14" spans="1:24" ht="18" thickBot="1">
+      <c r="A14" s="131"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="123"/>
       <c r="H14" s="78"/>
       <c r="I14" s="79"/>
       <c r="J14" s="79"/>
@@ -8251,25 +8279,25 @@
       <c r="T14" s="35"/>
       <c r="U14" s="35"/>
       <c r="V14" s="36"/>
-      <c r="W14" s="126"/>
+      <c r="W14" s="127"/>
       <c r="X14" s="24"/>
     </row>
     <row r="15" spans="1:24" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A15" s="115"/>
-      <c r="B15" s="117" t="s">
+      <c r="A15" s="131"/>
+      <c r="B15" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="117" t="s">
+      <c r="C15" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="120" t="s">
+      <c r="D15" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="134" t="s">
+      <c r="E15" s="140" t="s">
         <v>72</v>
       </c>
       <c r="F15" s="125"/>
-      <c r="G15" s="152" t="s">
+      <c r="G15" s="120" t="s">
         <v>4</v>
       </c>
       <c r="H15" s="37"/>
@@ -8292,14 +8320,14 @@
       </c>
       <c r="X15" s="24"/>
     </row>
-    <row r="16" spans="1:24" ht="17.25" thickBot="1">
-      <c r="A16" s="115"/>
-      <c r="B16" s="133"/>
-      <c r="C16" s="133"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="153"/>
+    <row r="16" spans="1:24" ht="18" thickBot="1">
+      <c r="A16" s="131"/>
+      <c r="B16" s="139"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="121"/>
       <c r="H16" s="48"/>
       <c r="I16" s="49"/>
       <c r="J16" s="49"/>
@@ -8315,25 +8343,25 @@
       <c r="T16" s="80"/>
       <c r="U16" s="80"/>
       <c r="V16" s="41"/>
-      <c r="W16" s="132"/>
+      <c r="W16" s="138"/>
       <c r="X16" s="24"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" thickBot="1">
-      <c r="A17" s="115"/>
-      <c r="B17" s="117" t="s">
+    <row r="17" spans="1:26" ht="18" thickBot="1">
+      <c r="A17" s="131"/>
+      <c r="B17" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="117" t="s">
+      <c r="C17" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="138" t="s">
+      <c r="D17" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="140" t="s">
+      <c r="E17" s="134" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="141"/>
-      <c r="G17" s="117" t="s">
+      <c r="F17" s="135"/>
+      <c r="G17" s="122" t="s">
         <v>4</v>
       </c>
       <c r="H17" s="44"/>
@@ -8354,14 +8382,14 @@
       <c r="W17" s="125"/>
       <c r="X17" s="24"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" thickBot="1">
-      <c r="A18" s="115"/>
-      <c r="B18" s="118"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="118"/>
+    <row r="18" spans="1:26" ht="18" thickBot="1">
+      <c r="A18" s="131"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="123"/>
       <c r="H18" s="4"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
@@ -8377,7 +8405,7 @@
       <c r="T18" s="35"/>
       <c r="U18" s="79"/>
       <c r="V18" s="81"/>
-      <c r="W18" s="126"/>
+      <c r="W18" s="127"/>
       <c r="X18" s="24"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" customHeight="1">
@@ -8434,7 +8462,7 @@
       <c r="Y20" s="24"/>
       <c r="Z20" s="24"/>
     </row>
-    <row r="435" spans="1:24" s="18" customFormat="1" ht="17.25" thickBot="1">
+    <row r="435" spans="1:24" s="18" customFormat="1" ht="18" thickBot="1">
       <c r="A435" s="24"/>
       <c r="B435" s="9"/>
       <c r="C435" s="9"/>
@@ -8462,12 +8490,12 @@
     </row>
     <row r="436" spans="1:24">
       <c r="H436" s="21"/>
-      <c r="I436" s="148"/>
-      <c r="J436" s="149"/>
-      <c r="M436" s="150" t="s">
+      <c r="I436" s="116"/>
+      <c r="J436" s="117"/>
+      <c r="M436" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="N436" s="151"/>
+      <c r="N436" s="119"/>
       <c r="O436" s="21"/>
       <c r="P436" s="21"/>
       <c r="Q436" s="21"/>
@@ -8477,14 +8505,14 @@
       <c r="U436" s="21"/>
       <c r="V436" s="25"/>
     </row>
-    <row r="437" spans="1:24" ht="17.25" thickBot="1">
+    <row r="437" spans="1:24" ht="18" thickBot="1">
       <c r="H437" s="14"/>
-      <c r="I437" s="135"/>
-      <c r="J437" s="136"/>
-      <c r="M437" s="131" t="s">
+      <c r="I437" s="128"/>
+      <c r="J437" s="129"/>
+      <c r="M437" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="N437" s="137"/>
+      <c r="N437" s="130"/>
       <c r="O437" s="14"/>
       <c r="P437" s="14"/>
       <c r="Q437" s="14"/>
@@ -8507,24 +8535,18 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="I436:J436"/>
-    <mergeCell ref="M436:N436"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="E11:F12"/>
-    <mergeCell ref="I437:J437"/>
-    <mergeCell ref="M437:N437"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="W6:W8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="H6:V7"/>
     <mergeCell ref="W11:W12"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="C13:C14"/>
@@ -8541,18 +8563,24 @@
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
-    <mergeCell ref="W6:W8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="H6:V7"/>
+    <mergeCell ref="I437:J437"/>
+    <mergeCell ref="M437:N437"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="I436:J436"/>
+    <mergeCell ref="M436:N436"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="E11:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D9:D10 D13:D18">
@@ -8591,7 +8619,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G18" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G18">
       <formula1>$B$508:$B$509</formula1>
     </dataValidation>
   </dataValidations>
@@ -8622,7 +8650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8630,57 +8658,57 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11:G11"/>
+      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
+    <col min="1" max="1" width="4.69921875" customWidth="1"/>
     <col min="2" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="15.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="16.875" customWidth="1"/>
-    <col min="8" max="8" width="15.875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="21" width="5.625" customWidth="1"/>
-    <col min="22" max="22" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="56.25" customWidth="1"/>
+    <col min="3" max="3" width="15.59765625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="15.59765625" customWidth="1"/>
+    <col min="7" max="7" width="16.8984375" customWidth="1"/>
+    <col min="8" max="8" width="15.8984375" style="9" customWidth="1"/>
+    <col min="9" max="9" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="21" width="5.59765625" customWidth="1"/>
+    <col min="22" max="22" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="56.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="17.25" thickBot="1"/>
+    <row r="1" spans="1:23" ht="18" thickBot="1"/>
     <row r="2" spans="1:23" ht="16.5" customHeight="1">
-      <c r="B2" s="130"/>
-      <c r="C2" s="160"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="178"/>
       <c r="D2" s="125"/>
-      <c r="E2" s="163" t="s">
+      <c r="E2" s="181" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="164"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="182"/>
       <c r="M2" s="1"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="B3" s="161"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
-      <c r="L3" s="166"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="183"/>
+      <c r="L3" s="184"/>
       <c r="M3" s="1"/>
       <c r="N3" s="17"/>
       <c r="O3" s="17"/>
@@ -8692,18 +8720,18 @@
       <c r="U3" s="10"/>
       <c r="V3" s="10"/>
     </row>
-    <row r="4" spans="1:23" ht="17.25" thickBot="1">
-      <c r="B4" s="131"/>
-      <c r="C4" s="137"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
-      <c r="L4" s="168"/>
+    <row r="4" spans="1:23" ht="18" thickBot="1">
+      <c r="B4" s="126"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="185"/>
+      <c r="I4" s="185"/>
+      <c r="J4" s="185"/>
+      <c r="K4" s="185"/>
+      <c r="L4" s="186"/>
       <c r="M4" s="1"/>
       <c r="N4" s="17"/>
       <c r="O4" s="17"/>
@@ -8717,65 +8745,65 @@
     </row>
     <row r="5" spans="1:23" ht="18" customHeight="1" thickBot="1">
       <c r="N5" s="5"/>
-      <c r="O5" s="171"/>
-      <c r="P5" s="171"/>
-      <c r="Q5" s="171"/>
-      <c r="R5" s="171"/>
-      <c r="S5" s="171"/>
-      <c r="T5" s="171"/>
-      <c r="U5" s="171"/>
+      <c r="O5" s="166"/>
+      <c r="P5" s="166"/>
+      <c r="Q5" s="166"/>
+      <c r="R5" s="166"/>
+      <c r="S5" s="166"/>
+      <c r="T5" s="166"/>
+      <c r="U5" s="166"/>
       <c r="V5" s="6"/>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="2"/>
-      <c r="B6" s="169" t="s">
+      <c r="B6" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="175" t="s">
+      <c r="C6" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="177" t="s">
+      <c r="D6" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="177"/>
-      <c r="F6" s="177"/>
-      <c r="G6" s="177"/>
-      <c r="H6" s="173" t="s">
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="167" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="175" t="s">
+      <c r="I6" s="165" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="175"/>
-      <c r="K6" s="175"/>
-      <c r="L6" s="175" t="s">
+      <c r="J6" s="165"/>
+      <c r="K6" s="165"/>
+      <c r="L6" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="175" t="s">
+      <c r="M6" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="175"/>
-      <c r="O6" s="175"/>
-      <c r="P6" s="175"/>
-      <c r="Q6" s="175"/>
-      <c r="R6" s="175"/>
-      <c r="S6" s="175"/>
-      <c r="T6" s="175"/>
-      <c r="U6" s="175"/>
-      <c r="V6" s="175"/>
-      <c r="W6" s="179" t="s">
+      <c r="N6" s="165"/>
+      <c r="O6" s="165"/>
+      <c r="P6" s="165"/>
+      <c r="Q6" s="165"/>
+      <c r="R6" s="165"/>
+      <c r="S6" s="165"/>
+      <c r="T6" s="165"/>
+      <c r="U6" s="165"/>
+      <c r="V6" s="165"/>
+      <c r="W6" s="152" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="17.25" thickBot="1">
+    <row r="7" spans="1:23" ht="18" thickBot="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="170"/>
-      <c r="C7" s="176"/>
-      <c r="D7" s="178"/>
-      <c r="E7" s="178"/>
-      <c r="F7" s="178"/>
-      <c r="G7" s="178"/>
-      <c r="H7" s="174"/>
+      <c r="B7" s="188"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="168"/>
       <c r="I7" s="56" t="s">
         <v>0</v>
       </c>
@@ -8785,39 +8813,39 @@
       <c r="K7" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="176"/>
+      <c r="L7" s="169"/>
       <c r="M7" s="57">
         <v>0</v>
       </c>
-      <c r="N7" s="172"/>
-      <c r="O7" s="172"/>
-      <c r="P7" s="172"/>
-      <c r="Q7" s="190">
+      <c r="N7" s="164"/>
+      <c r="O7" s="164"/>
+      <c r="P7" s="164"/>
+      <c r="Q7" s="163">
         <v>0.5</v>
       </c>
-      <c r="R7" s="172"/>
-      <c r="S7" s="172"/>
-      <c r="T7" s="172"/>
-      <c r="U7" s="172"/>
+      <c r="R7" s="164"/>
+      <c r="S7" s="164"/>
+      <c r="T7" s="164"/>
+      <c r="U7" s="164"/>
       <c r="V7" s="57">
         <v>1</v>
       </c>
-      <c r="W7" s="180"/>
+      <c r="W7" s="153"/>
     </row>
     <row r="8" spans="1:23" ht="45" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="104">
+      <c r="B8" s="102">
         <v>1</v>
       </c>
-      <c r="C8" s="155" t="s">
+      <c r="C8" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="158" t="s">
+      <c r="D8" s="176" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="159"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="159"/>
+      <c r="E8" s="177"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="177"/>
       <c r="H8" s="46" t="s">
         <v>16</v>
       </c>
@@ -8833,30 +8861,30 @@
       <c r="L8" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="184">
+      <c r="M8" s="157">
         <v>100</v>
       </c>
-      <c r="N8" s="184"/>
-      <c r="O8" s="184"/>
-      <c r="P8" s="184"/>
-      <c r="Q8" s="184"/>
-      <c r="R8" s="184"/>
-      <c r="S8" s="184"/>
-      <c r="T8" s="184"/>
-      <c r="U8" s="184"/>
-      <c r="V8" s="184"/>
+      <c r="N8" s="157"/>
+      <c r="O8" s="157"/>
+      <c r="P8" s="157"/>
+      <c r="Q8" s="157"/>
+      <c r="R8" s="157"/>
+      <c r="S8" s="157"/>
+      <c r="T8" s="157"/>
+      <c r="U8" s="157"/>
+      <c r="V8" s="157"/>
       <c r="W8" s="59"/>
     </row>
     <row r="9" spans="1:23" ht="45" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="154"/>
-      <c r="C9" s="156"/>
-      <c r="D9" s="185" t="s">
+      <c r="B9" s="172"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="158" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="186"/>
-      <c r="F9" s="186"/>
-      <c r="G9" s="187"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="160"/>
       <c r="H9" s="11" t="s">
         <v>17</v>
       </c>
@@ -8872,30 +8900,30 @@
       <c r="L9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="188">
+      <c r="M9" s="161">
         <v>100</v>
       </c>
-      <c r="N9" s="188"/>
-      <c r="O9" s="188"/>
-      <c r="P9" s="188"/>
-      <c r="Q9" s="188"/>
-      <c r="R9" s="188"/>
-      <c r="S9" s="188"/>
-      <c r="T9" s="188"/>
-      <c r="U9" s="188"/>
-      <c r="V9" s="188"/>
+      <c r="N9" s="161"/>
+      <c r="O9" s="161"/>
+      <c r="P9" s="161"/>
+      <c r="Q9" s="161"/>
+      <c r="R9" s="161"/>
+      <c r="S9" s="161"/>
+      <c r="T9" s="161"/>
+      <c r="U9" s="161"/>
+      <c r="V9" s="161"/>
       <c r="W9" s="13"/>
     </row>
     <row r="10" spans="1:23" ht="45" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="154"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="185" t="s">
+      <c r="B10" s="172"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="158" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="186"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="187"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="160"/>
       <c r="H10" s="11" t="s">
         <v>18</v>
       </c>
@@ -8911,30 +8939,30 @@
       <c r="L10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="188">
+      <c r="M10" s="161">
         <v>100</v>
       </c>
-      <c r="N10" s="188"/>
-      <c r="O10" s="188"/>
-      <c r="P10" s="188"/>
-      <c r="Q10" s="188"/>
-      <c r="R10" s="188"/>
-      <c r="S10" s="188"/>
-      <c r="T10" s="188"/>
-      <c r="U10" s="188"/>
-      <c r="V10" s="188"/>
+      <c r="N10" s="161"/>
+      <c r="O10" s="161"/>
+      <c r="P10" s="161"/>
+      <c r="Q10" s="161"/>
+      <c r="R10" s="161"/>
+      <c r="S10" s="161"/>
+      <c r="T10" s="161"/>
+      <c r="U10" s="161"/>
+      <c r="V10" s="161"/>
       <c r="W10" s="13"/>
     </row>
     <row r="11" spans="1:23" ht="45" customHeight="1" thickBot="1">
       <c r="A11" s="3"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="157"/>
-      <c r="D11" s="181" t="s">
+      <c r="B11" s="103"/>
+      <c r="C11" s="175"/>
+      <c r="D11" s="154" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="182"/>
-      <c r="F11" s="182"/>
-      <c r="G11" s="183"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="156"/>
       <c r="H11" s="60" t="s">
         <v>19</v>
       </c>
@@ -8950,18 +8978,18 @@
       <c r="L11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M11" s="189">
+      <c r="M11" s="162">
         <v>100</v>
       </c>
-      <c r="N11" s="189"/>
-      <c r="O11" s="189"/>
-      <c r="P11" s="189"/>
-      <c r="Q11" s="189"/>
-      <c r="R11" s="189"/>
-      <c r="S11" s="189"/>
-      <c r="T11" s="189"/>
-      <c r="U11" s="189"/>
-      <c r="V11" s="189"/>
+      <c r="N11" s="162"/>
+      <c r="O11" s="162"/>
+      <c r="P11" s="162"/>
+      <c r="Q11" s="162"/>
+      <c r="R11" s="162"/>
+      <c r="S11" s="162"/>
+      <c r="T11" s="162"/>
+      <c r="U11" s="162"/>
+      <c r="V11" s="162"/>
       <c r="W11" s="61"/>
     </row>
     <row r="136" spans="3:3">
@@ -8969,6 +8997,20 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:L4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="O5:U5"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="D6:G7"/>
     <mergeCell ref="W6:W7"/>
     <mergeCell ref="D11:G11"/>
     <mergeCell ref="M8:V8"/>
@@ -8979,20 +9021,6 @@
     <mergeCell ref="M11:V11"/>
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="M6:V6"/>
-    <mergeCell ref="O5:U5"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="D6:G7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:L4"/>
-    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D8:D11">
@@ -9058,7 +9086,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8:L11" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8:L11">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -9144,422 +9172,422 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="1" max="1" width="3.8984375" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="17.25" thickBot="1"/>
+    <row r="1" spans="2:9" ht="18" thickBot="1"/>
     <row r="2" spans="2:9">
-      <c r="B2" s="117"/>
-      <c r="C2" s="201" t="s">
+      <c r="B2" s="122"/>
+      <c r="C2" s="199" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-    </row>
-    <row r="3" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B3" s="118"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-    </row>
-    <row r="4" spans="2:9" ht="17.25" thickBot="1"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+    </row>
+    <row r="3" spans="2:9" ht="18" thickBot="1">
+      <c r="B3" s="123"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
+    </row>
+    <row r="4" spans="2:9" ht="18" thickBot="1"/>
     <row r="5" spans="2:9">
       <c r="B5" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="207" t="s">
+      <c r="C5" s="205" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="208"/>
-      <c r="E5" s="208"/>
-      <c r="F5" s="208"/>
-      <c r="G5" s="208"/>
-      <c r="H5" s="208"/>
-      <c r="I5" s="209"/>
-    </row>
-    <row r="6" spans="2:9" ht="17.45" customHeight="1">
-      <c r="B6" s="198" t="s">
+      <c r="D5" s="206"/>
+      <c r="E5" s="206"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="206"/>
+      <c r="I5" s="207"/>
+    </row>
+    <row r="6" spans="2:9" ht="17.399999999999999" customHeight="1">
+      <c r="B6" s="196" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="191"/>
-      <c r="D6" s="192"/>
-      <c r="E6" s="192"/>
-      <c r="F6" s="192"/>
-      <c r="G6" s="192"/>
-      <c r="H6" s="192"/>
-      <c r="I6" s="193"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="190"/>
+      <c r="G6" s="190"/>
+      <c r="H6" s="190"/>
+      <c r="I6" s="191"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="199"/>
-      <c r="C7" s="194"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="156"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="195"/>
+      <c r="B7" s="197"/>
+      <c r="C7" s="192"/>
+      <c r="D7" s="174"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="174"/>
+      <c r="H7" s="174"/>
+      <c r="I7" s="193"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="199"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="195"/>
+      <c r="B8" s="197"/>
+      <c r="C8" s="192"/>
+      <c r="D8" s="174"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="174"/>
+      <c r="G8" s="174"/>
+      <c r="H8" s="174"/>
+      <c r="I8" s="193"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="199"/>
-      <c r="C9" s="194"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="156"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="195"/>
+      <c r="B9" s="197"/>
+      <c r="C9" s="192"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="174"/>
+      <c r="G9" s="174"/>
+      <c r="H9" s="174"/>
+      <c r="I9" s="193"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="199"/>
-      <c r="C10" s="194"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="195"/>
+      <c r="B10" s="197"/>
+      <c r="C10" s="192"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="174"/>
+      <c r="I10" s="193"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="199"/>
-      <c r="C11" s="194"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="195"/>
+      <c r="B11" s="197"/>
+      <c r="C11" s="192"/>
+      <c r="D11" s="174"/>
+      <c r="E11" s="174"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="193"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="199"/>
-      <c r="C12" s="194"/>
-      <c r="D12" s="156"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="156"/>
-      <c r="I12" s="195"/>
+      <c r="B12" s="197"/>
+      <c r="C12" s="192"/>
+      <c r="D12" s="174"/>
+      <c r="E12" s="174"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="174"/>
+      <c r="I12" s="193"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="199"/>
-      <c r="C13" s="194"/>
-      <c r="D13" s="156"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="156"/>
-      <c r="G13" s="156"/>
-      <c r="H13" s="156"/>
-      <c r="I13" s="195"/>
+      <c r="B13" s="197"/>
+      <c r="C13" s="192"/>
+      <c r="D13" s="174"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="174"/>
+      <c r="H13" s="174"/>
+      <c r="I13" s="193"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="199"/>
-      <c r="C14" s="194"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="156"/>
-      <c r="G14" s="156"/>
-      <c r="H14" s="156"/>
-      <c r="I14" s="195"/>
+      <c r="B14" s="197"/>
+      <c r="C14" s="192"/>
+      <c r="D14" s="174"/>
+      <c r="E14" s="174"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="174"/>
+      <c r="H14" s="174"/>
+      <c r="I14" s="193"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="199"/>
-      <c r="C15" s="194"/>
-      <c r="D15" s="156"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="156"/>
-      <c r="G15" s="156"/>
-      <c r="H15" s="156"/>
-      <c r="I15" s="195"/>
+      <c r="B15" s="197"/>
+      <c r="C15" s="192"/>
+      <c r="D15" s="174"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="174"/>
+      <c r="I15" s="193"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="203"/>
-      <c r="C16" s="204"/>
-      <c r="D16" s="205"/>
-      <c r="E16" s="205"/>
-      <c r="F16" s="205"/>
-      <c r="G16" s="205"/>
-      <c r="H16" s="205"/>
-      <c r="I16" s="206"/>
+      <c r="B16" s="201"/>
+      <c r="C16" s="202"/>
+      <c r="D16" s="203"/>
+      <c r="E16" s="203"/>
+      <c r="F16" s="203"/>
+      <c r="G16" s="203"/>
+      <c r="H16" s="203"/>
+      <c r="I16" s="204"/>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="198" t="s">
+      <c r="B17" s="196" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="191"/>
-      <c r="D17" s="192"/>
-      <c r="E17" s="192"/>
-      <c r="F17" s="192"/>
-      <c r="G17" s="192"/>
-      <c r="H17" s="192"/>
-      <c r="I17" s="193"/>
+      <c r="C17" s="189"/>
+      <c r="D17" s="190"/>
+      <c r="E17" s="190"/>
+      <c r="F17" s="190"/>
+      <c r="G17" s="190"/>
+      <c r="H17" s="190"/>
+      <c r="I17" s="191"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="199"/>
-      <c r="C18" s="194"/>
-      <c r="D18" s="156"/>
-      <c r="E18" s="156"/>
-      <c r="F18" s="156"/>
-      <c r="G18" s="156"/>
-      <c r="H18" s="156"/>
-      <c r="I18" s="195"/>
+      <c r="B18" s="197"/>
+      <c r="C18" s="192"/>
+      <c r="D18" s="174"/>
+      <c r="E18" s="174"/>
+      <c r="F18" s="174"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="193"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="199"/>
-      <c r="C19" s="194"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
-      <c r="H19" s="156"/>
-      <c r="I19" s="195"/>
+      <c r="B19" s="197"/>
+      <c r="C19" s="192"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="174"/>
+      <c r="I19" s="193"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="199"/>
-      <c r="C20" s="194"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="156"/>
-      <c r="I20" s="195"/>
+      <c r="B20" s="197"/>
+      <c r="C20" s="192"/>
+      <c r="D20" s="174"/>
+      <c r="E20" s="174"/>
+      <c r="F20" s="174"/>
+      <c r="G20" s="174"/>
+      <c r="H20" s="174"/>
+      <c r="I20" s="193"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="199"/>
-      <c r="C21" s="194"/>
-      <c r="D21" s="156"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="156"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="156"/>
-      <c r="I21" s="195"/>
+      <c r="B21" s="197"/>
+      <c r="C21" s="192"/>
+      <c r="D21" s="174"/>
+      <c r="E21" s="174"/>
+      <c r="F21" s="174"/>
+      <c r="G21" s="174"/>
+      <c r="H21" s="174"/>
+      <c r="I21" s="193"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="199"/>
-      <c r="C22" s="194"/>
-      <c r="D22" s="156"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="195"/>
+      <c r="B22" s="197"/>
+      <c r="C22" s="192"/>
+      <c r="D22" s="174"/>
+      <c r="E22" s="174"/>
+      <c r="F22" s="174"/>
+      <c r="G22" s="174"/>
+      <c r="H22" s="174"/>
+      <c r="I22" s="193"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="199"/>
-      <c r="C23" s="194"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
-      <c r="H23" s="156"/>
-      <c r="I23" s="195"/>
+      <c r="B23" s="197"/>
+      <c r="C23" s="192"/>
+      <c r="D23" s="174"/>
+      <c r="E23" s="174"/>
+      <c r="F23" s="174"/>
+      <c r="G23" s="174"/>
+      <c r="H23" s="174"/>
+      <c r="I23" s="193"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="199"/>
-      <c r="C24" s="194"/>
-      <c r="D24" s="156"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="156"/>
-      <c r="I24" s="195"/>
+      <c r="B24" s="197"/>
+      <c r="C24" s="192"/>
+      <c r="D24" s="174"/>
+      <c r="E24" s="174"/>
+      <c r="F24" s="174"/>
+      <c r="G24" s="174"/>
+      <c r="H24" s="174"/>
+      <c r="I24" s="193"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="199"/>
-      <c r="C25" s="194"/>
-      <c r="D25" s="156"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="156"/>
-      <c r="H25" s="156"/>
-      <c r="I25" s="195"/>
+      <c r="B25" s="197"/>
+      <c r="C25" s="192"/>
+      <c r="D25" s="174"/>
+      <c r="E25" s="174"/>
+      <c r="F25" s="174"/>
+      <c r="G25" s="174"/>
+      <c r="H25" s="174"/>
+      <c r="I25" s="193"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="199"/>
-      <c r="C26" s="194"/>
-      <c r="D26" s="156"/>
-      <c r="E26" s="156"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="156"/>
-      <c r="H26" s="156"/>
-      <c r="I26" s="195"/>
+      <c r="B26" s="197"/>
+      <c r="C26" s="192"/>
+      <c r="D26" s="174"/>
+      <c r="E26" s="174"/>
+      <c r="F26" s="174"/>
+      <c r="G26" s="174"/>
+      <c r="H26" s="174"/>
+      <c r="I26" s="193"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="199"/>
-      <c r="C27" s="194"/>
-      <c r="D27" s="156"/>
-      <c r="E27" s="156"/>
-      <c r="F27" s="156"/>
-      <c r="G27" s="156"/>
-      <c r="H27" s="156"/>
-      <c r="I27" s="195"/>
+      <c r="B27" s="197"/>
+      <c r="C27" s="192"/>
+      <c r="D27" s="174"/>
+      <c r="E27" s="174"/>
+      <c r="F27" s="174"/>
+      <c r="G27" s="174"/>
+      <c r="H27" s="174"/>
+      <c r="I27" s="193"/>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="203"/>
-      <c r="C28" s="204"/>
-      <c r="D28" s="205"/>
-      <c r="E28" s="205"/>
-      <c r="F28" s="205"/>
-      <c r="G28" s="205"/>
-      <c r="H28" s="205"/>
-      <c r="I28" s="206"/>
+      <c r="B28" s="201"/>
+      <c r="C28" s="202"/>
+      <c r="D28" s="203"/>
+      <c r="E28" s="203"/>
+      <c r="F28" s="203"/>
+      <c r="G28" s="203"/>
+      <c r="H28" s="203"/>
+      <c r="I28" s="204"/>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="198" t="s">
+      <c r="B29" s="196" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="191"/>
-      <c r="D29" s="192"/>
-      <c r="E29" s="192"/>
-      <c r="F29" s="192"/>
-      <c r="G29" s="192"/>
-      <c r="H29" s="192"/>
-      <c r="I29" s="193"/>
+      <c r="C29" s="189"/>
+      <c r="D29" s="190"/>
+      <c r="E29" s="190"/>
+      <c r="F29" s="190"/>
+      <c r="G29" s="190"/>
+      <c r="H29" s="190"/>
+      <c r="I29" s="191"/>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="199"/>
-      <c r="C30" s="194"/>
-      <c r="D30" s="156"/>
-      <c r="E30" s="156"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="156"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="195"/>
+      <c r="B30" s="197"/>
+      <c r="C30" s="192"/>
+      <c r="D30" s="174"/>
+      <c r="E30" s="174"/>
+      <c r="F30" s="174"/>
+      <c r="G30" s="174"/>
+      <c r="H30" s="174"/>
+      <c r="I30" s="193"/>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="199"/>
-      <c r="C31" s="194"/>
-      <c r="D31" s="156"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="156"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="195"/>
+      <c r="B31" s="197"/>
+      <c r="C31" s="192"/>
+      <c r="D31" s="174"/>
+      <c r="E31" s="174"/>
+      <c r="F31" s="174"/>
+      <c r="G31" s="174"/>
+      <c r="H31" s="174"/>
+      <c r="I31" s="193"/>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="199"/>
-      <c r="C32" s="194"/>
-      <c r="D32" s="156"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="156"/>
-      <c r="H32" s="156"/>
-      <c r="I32" s="195"/>
+      <c r="B32" s="197"/>
+      <c r="C32" s="192"/>
+      <c r="D32" s="174"/>
+      <c r="E32" s="174"/>
+      <c r="F32" s="174"/>
+      <c r="G32" s="174"/>
+      <c r="H32" s="174"/>
+      <c r="I32" s="193"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="199"/>
-      <c r="C33" s="194"/>
-      <c r="D33" s="156"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="156"/>
-      <c r="H33" s="156"/>
-      <c r="I33" s="195"/>
+      <c r="B33" s="197"/>
+      <c r="C33" s="192"/>
+      <c r="D33" s="174"/>
+      <c r="E33" s="174"/>
+      <c r="F33" s="174"/>
+      <c r="G33" s="174"/>
+      <c r="H33" s="174"/>
+      <c r="I33" s="193"/>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="199"/>
-      <c r="C34" s="194"/>
-      <c r="D34" s="156"/>
-      <c r="E34" s="156"/>
-      <c r="F34" s="156"/>
-      <c r="G34" s="156"/>
-      <c r="H34" s="156"/>
-      <c r="I34" s="195"/>
+      <c r="B34" s="197"/>
+      <c r="C34" s="192"/>
+      <c r="D34" s="174"/>
+      <c r="E34" s="174"/>
+      <c r="F34" s="174"/>
+      <c r="G34" s="174"/>
+      <c r="H34" s="174"/>
+      <c r="I34" s="193"/>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="199"/>
-      <c r="C35" s="194"/>
-      <c r="D35" s="156"/>
-      <c r="E35" s="156"/>
-      <c r="F35" s="156"/>
-      <c r="G35" s="156"/>
-      <c r="H35" s="156"/>
-      <c r="I35" s="195"/>
+      <c r="B35" s="197"/>
+      <c r="C35" s="192"/>
+      <c r="D35" s="174"/>
+      <c r="E35" s="174"/>
+      <c r="F35" s="174"/>
+      <c r="G35" s="174"/>
+      <c r="H35" s="174"/>
+      <c r="I35" s="193"/>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="199"/>
-      <c r="C36" s="194"/>
-      <c r="D36" s="156"/>
-      <c r="E36" s="156"/>
-      <c r="F36" s="156"/>
-      <c r="G36" s="156"/>
-      <c r="H36" s="156"/>
-      <c r="I36" s="195"/>
+      <c r="B36" s="197"/>
+      <c r="C36" s="192"/>
+      <c r="D36" s="174"/>
+      <c r="E36" s="174"/>
+      <c r="F36" s="174"/>
+      <c r="G36" s="174"/>
+      <c r="H36" s="174"/>
+      <c r="I36" s="193"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="199"/>
-      <c r="C37" s="194"/>
-      <c r="D37" s="156"/>
-      <c r="E37" s="156"/>
-      <c r="F37" s="156"/>
-      <c r="G37" s="156"/>
-      <c r="H37" s="156"/>
-      <c r="I37" s="195"/>
+      <c r="B37" s="197"/>
+      <c r="C37" s="192"/>
+      <c r="D37" s="174"/>
+      <c r="E37" s="174"/>
+      <c r="F37" s="174"/>
+      <c r="G37" s="174"/>
+      <c r="H37" s="174"/>
+      <c r="I37" s="193"/>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="199"/>
-      <c r="C38" s="194"/>
-      <c r="D38" s="156"/>
-      <c r="E38" s="156"/>
-      <c r="F38" s="156"/>
-      <c r="G38" s="156"/>
-      <c r="H38" s="156"/>
-      <c r="I38" s="195"/>
+      <c r="B38" s="197"/>
+      <c r="C38" s="192"/>
+      <c r="D38" s="174"/>
+      <c r="E38" s="174"/>
+      <c r="F38" s="174"/>
+      <c r="G38" s="174"/>
+      <c r="H38" s="174"/>
+      <c r="I38" s="193"/>
     </row>
     <row r="39" spans="2:9">
-      <c r="B39" s="199"/>
-      <c r="C39" s="194"/>
-      <c r="D39" s="156"/>
-      <c r="E39" s="156"/>
-      <c r="F39" s="156"/>
-      <c r="G39" s="156"/>
-      <c r="H39" s="156"/>
-      <c r="I39" s="195"/>
+      <c r="B39" s="197"/>
+      <c r="C39" s="192"/>
+      <c r="D39" s="174"/>
+      <c r="E39" s="174"/>
+      <c r="F39" s="174"/>
+      <c r="G39" s="174"/>
+      <c r="H39" s="174"/>
+      <c r="I39" s="193"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="199"/>
-      <c r="C40" s="194"/>
-      <c r="D40" s="156"/>
-      <c r="E40" s="156"/>
-      <c r="F40" s="156"/>
-      <c r="G40" s="156"/>
-      <c r="H40" s="156"/>
-      <c r="I40" s="195"/>
-    </row>
-    <row r="41" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B41" s="200"/>
-      <c r="C41" s="196"/>
-      <c r="D41" s="157"/>
-      <c r="E41" s="157"/>
-      <c r="F41" s="157"/>
-      <c r="G41" s="157"/>
-      <c r="H41" s="157"/>
-      <c r="I41" s="197"/>
+      <c r="B40" s="197"/>
+      <c r="C40" s="192"/>
+      <c r="D40" s="174"/>
+      <c r="E40" s="174"/>
+      <c r="F40" s="174"/>
+      <c r="G40" s="174"/>
+      <c r="H40" s="174"/>
+      <c r="I40" s="193"/>
+    </row>
+    <row r="41" spans="2:9" ht="18" thickBot="1">
+      <c r="B41" s="198"/>
+      <c r="C41" s="194"/>
+      <c r="D41" s="175"/>
+      <c r="E41" s="175"/>
+      <c r="F41" s="175"/>
+      <c r="G41" s="175"/>
+      <c r="H41" s="175"/>
+      <c r="I41" s="195"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -9581,622 +9609,872 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B1:I61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="1" max="1" width="3.296875" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="9" max="9" width="8.75" customWidth="1"/>
+    <col min="9" max="9" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="17.25" thickBot="1"/>
+    <row r="1" spans="2:9" ht="18" thickBot="1"/>
     <row r="2" spans="2:9">
-      <c r="B2" s="117"/>
-      <c r="C2" s="201" t="s">
+      <c r="B2" s="122"/>
+      <c r="C2" s="199" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-    </row>
-    <row r="3" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B3" s="118"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-    </row>
-    <row r="4" spans="2:9" ht="17.25" thickBot="1"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+    </row>
+    <row r="3" spans="2:9" ht="18" thickBot="1">
+      <c r="B3" s="123"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
+    </row>
+    <row r="4" spans="2:9" ht="18" thickBot="1"/>
     <row r="5" spans="2:9">
-      <c r="B5" s="210" t="s">
+      <c r="B5" s="208" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="199"/>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
+      <c r="B6" s="197"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="199"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
+      <c r="B7" s="197"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="199"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="133"/>
-      <c r="H8" s="133"/>
-      <c r="I8" s="133"/>
+      <c r="B8" s="197"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="139"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="199"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
+      <c r="B9" s="197"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="139"/>
+      <c r="H9" s="139"/>
+      <c r="I9" s="139"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="199"/>
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="133"/>
+      <c r="B10" s="197"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="139"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="199"/>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
+      <c r="B11" s="197"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="139"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="139"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="199"/>
-      <c r="C12" s="133"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
+      <c r="B12" s="197"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="139"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="199"/>
-      <c r="C13" s="133"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="133"/>
+      <c r="B13" s="197"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="139"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="199"/>
-      <c r="C14" s="133"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
+      <c r="B14" s="197"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="139"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="199"/>
-      <c r="C15" s="133"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
+      <c r="B15" s="197"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="199"/>
-      <c r="C16" s="133"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
+      <c r="B16" s="197"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="139"/>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="199"/>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="133"/>
+      <c r="B17" s="197"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="139"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="199"/>
-      <c r="C18" s="133"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="133"/>
+      <c r="B18" s="197"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="139"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="199"/>
-      <c r="C19" s="133"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="133"/>
-      <c r="G19" s="133"/>
-      <c r="H19" s="133"/>
-      <c r="I19" s="133"/>
+      <c r="B19" s="197"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="139"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="199"/>
-      <c r="C20" s="133"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="133"/>
-      <c r="H20" s="133"/>
-      <c r="I20" s="133"/>
+      <c r="B20" s="197"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="139"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="199"/>
-      <c r="C21" s="133"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="133"/>
-      <c r="F21" s="133"/>
-      <c r="G21" s="133"/>
-      <c r="H21" s="133"/>
-      <c r="I21" s="133"/>
+      <c r="B21" s="197"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="139"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="199"/>
-      <c r="C22" s="133"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="133"/>
+      <c r="B22" s="197"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="139"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="199"/>
-      <c r="C23" s="133"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="133"/>
-      <c r="G23" s="133"/>
-      <c r="H23" s="133"/>
-      <c r="I23" s="133"/>
+      <c r="B23" s="197"/>
+      <c r="C23" s="139"/>
+      <c r="D23" s="139"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="139"/>
+      <c r="I23" s="139"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="199"/>
-      <c r="C24" s="133"/>
-      <c r="D24" s="133"/>
-      <c r="E24" s="133"/>
-      <c r="F24" s="133"/>
-      <c r="G24" s="133"/>
-      <c r="H24" s="133"/>
-      <c r="I24" s="133"/>
-    </row>
-    <row r="25" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B25" s="200"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="118"/>
-      <c r="I25" s="118"/>
+      <c r="B24" s="197"/>
+      <c r="C24" s="139"/>
+      <c r="D24" s="139"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="139"/>
+      <c r="H24" s="139"/>
+      <c r="I24" s="139"/>
+    </row>
+    <row r="25" spans="2:9" ht="18" thickBot="1">
+      <c r="B25" s="198"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="123"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="210" t="s">
+      <c r="B26" s="208" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="117"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="117"/>
-      <c r="H26" s="117"/>
-      <c r="I26" s="117"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="122"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="199"/>
-      <c r="C27" s="133"/>
-      <c r="D27" s="133"/>
-      <c r="E27" s="133"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="133"/>
-      <c r="H27" s="133"/>
-      <c r="I27" s="133"/>
+      <c r="B27" s="197"/>
+      <c r="C27" s="139"/>
+      <c r="D27" s="139"/>
+      <c r="E27" s="139"/>
+      <c r="F27" s="139"/>
+      <c r="G27" s="139"/>
+      <c r="H27" s="139"/>
+      <c r="I27" s="139"/>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="199"/>
-      <c r="C28" s="133"/>
-      <c r="D28" s="133"/>
-      <c r="E28" s="133"/>
-      <c r="F28" s="133"/>
-      <c r="G28" s="133"/>
-      <c r="H28" s="133"/>
-      <c r="I28" s="133"/>
+      <c r="B28" s="197"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="139"/>
+      <c r="I28" s="139"/>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="199"/>
-      <c r="C29" s="133"/>
-      <c r="D29" s="133"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="133"/>
-      <c r="G29" s="133"/>
-      <c r="H29" s="133"/>
-      <c r="I29" s="133"/>
+      <c r="B29" s="197"/>
+      <c r="C29" s="139"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="139"/>
+      <c r="H29" s="139"/>
+      <c r="I29" s="139"/>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="199"/>
-      <c r="C30" s="133"/>
-      <c r="D30" s="133"/>
-      <c r="E30" s="133"/>
-      <c r="F30" s="133"/>
-      <c r="G30" s="133"/>
-      <c r="H30" s="133"/>
-      <c r="I30" s="133"/>
+      <c r="B30" s="197"/>
+      <c r="C30" s="139"/>
+      <c r="D30" s="139"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="139"/>
+      <c r="I30" s="139"/>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="199"/>
-      <c r="C31" s="133"/>
-      <c r="D31" s="133"/>
-      <c r="E31" s="133"/>
-      <c r="F31" s="133"/>
-      <c r="G31" s="133"/>
-      <c r="H31" s="133"/>
-      <c r="I31" s="133"/>
+      <c r="B31" s="197"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="139"/>
+      <c r="I31" s="139"/>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="199"/>
-      <c r="C32" s="133"/>
-      <c r="D32" s="133"/>
-      <c r="E32" s="133"/>
-      <c r="F32" s="133"/>
-      <c r="G32" s="133"/>
-      <c r="H32" s="133"/>
-      <c r="I32" s="133"/>
+      <c r="B32" s="197"/>
+      <c r="C32" s="139"/>
+      <c r="D32" s="139"/>
+      <c r="E32" s="139"/>
+      <c r="F32" s="139"/>
+      <c r="G32" s="139"/>
+      <c r="H32" s="139"/>
+      <c r="I32" s="139"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="199"/>
-      <c r="C33" s="133"/>
-      <c r="D33" s="133"/>
-      <c r="E33" s="133"/>
-      <c r="F33" s="133"/>
-      <c r="G33" s="133"/>
-      <c r="H33" s="133"/>
-      <c r="I33" s="133"/>
+      <c r="B33" s="197"/>
+      <c r="C33" s="139"/>
+      <c r="D33" s="139"/>
+      <c r="E33" s="139"/>
+      <c r="F33" s="139"/>
+      <c r="G33" s="139"/>
+      <c r="H33" s="139"/>
+      <c r="I33" s="139"/>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="199"/>
-      <c r="C34" s="133"/>
-      <c r="D34" s="133"/>
-      <c r="E34" s="133"/>
-      <c r="F34" s="133"/>
-      <c r="G34" s="133"/>
-      <c r="H34" s="133"/>
-      <c r="I34" s="133"/>
+      <c r="B34" s="197"/>
+      <c r="C34" s="139"/>
+      <c r="D34" s="139"/>
+      <c r="E34" s="139"/>
+      <c r="F34" s="139"/>
+      <c r="G34" s="139"/>
+      <c r="H34" s="139"/>
+      <c r="I34" s="139"/>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="199"/>
-      <c r="C35" s="133"/>
-      <c r="D35" s="133"/>
-      <c r="E35" s="133"/>
-      <c r="F35" s="133"/>
-      <c r="G35" s="133"/>
-      <c r="H35" s="133"/>
-      <c r="I35" s="133"/>
+      <c r="B35" s="197"/>
+      <c r="C35" s="139"/>
+      <c r="D35" s="139"/>
+      <c r="E35" s="139"/>
+      <c r="F35" s="139"/>
+      <c r="G35" s="139"/>
+      <c r="H35" s="139"/>
+      <c r="I35" s="139"/>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="199"/>
-      <c r="C36" s="133"/>
-      <c r="D36" s="133"/>
-      <c r="E36" s="133"/>
-      <c r="F36" s="133"/>
-      <c r="G36" s="133"/>
-      <c r="H36" s="133"/>
-      <c r="I36" s="133"/>
+      <c r="B36" s="197"/>
+      <c r="C36" s="139"/>
+      <c r="D36" s="139"/>
+      <c r="E36" s="139"/>
+      <c r="F36" s="139"/>
+      <c r="G36" s="139"/>
+      <c r="H36" s="139"/>
+      <c r="I36" s="139"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="199"/>
-      <c r="C37" s="133"/>
-      <c r="D37" s="133"/>
-      <c r="E37" s="133"/>
-      <c r="F37" s="133"/>
-      <c r="G37" s="133"/>
-      <c r="H37" s="133"/>
-      <c r="I37" s="133"/>
+      <c r="B37" s="197"/>
+      <c r="C37" s="139"/>
+      <c r="D37" s="139"/>
+      <c r="E37" s="139"/>
+      <c r="F37" s="139"/>
+      <c r="G37" s="139"/>
+      <c r="H37" s="139"/>
+      <c r="I37" s="139"/>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="199"/>
-      <c r="C38" s="133"/>
-      <c r="D38" s="133"/>
-      <c r="E38" s="133"/>
-      <c r="F38" s="133"/>
-      <c r="G38" s="133"/>
-      <c r="H38" s="133"/>
-      <c r="I38" s="133"/>
+      <c r="B38" s="197"/>
+      <c r="C38" s="139"/>
+      <c r="D38" s="139"/>
+      <c r="E38" s="139"/>
+      <c r="F38" s="139"/>
+      <c r="G38" s="139"/>
+      <c r="H38" s="139"/>
+      <c r="I38" s="139"/>
     </row>
     <row r="39" spans="2:9">
-      <c r="B39" s="199"/>
-      <c r="C39" s="133"/>
-      <c r="D39" s="133"/>
-      <c r="E39" s="133"/>
-      <c r="F39" s="133"/>
-      <c r="G39" s="133"/>
-      <c r="H39" s="133"/>
-      <c r="I39" s="133"/>
+      <c r="B39" s="197"/>
+      <c r="C39" s="139"/>
+      <c r="D39" s="139"/>
+      <c r="E39" s="139"/>
+      <c r="F39" s="139"/>
+      <c r="G39" s="139"/>
+      <c r="H39" s="139"/>
+      <c r="I39" s="139"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="199"/>
-      <c r="C40" s="133"/>
-      <c r="D40" s="133"/>
-      <c r="E40" s="133"/>
-      <c r="F40" s="133"/>
-      <c r="G40" s="133"/>
-      <c r="H40" s="133"/>
-      <c r="I40" s="133"/>
+      <c r="B40" s="197"/>
+      <c r="C40" s="139"/>
+      <c r="D40" s="139"/>
+      <c r="E40" s="139"/>
+      <c r="F40" s="139"/>
+      <c r="G40" s="139"/>
+      <c r="H40" s="139"/>
+      <c r="I40" s="139"/>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="199"/>
-      <c r="C41" s="133"/>
-      <c r="D41" s="133"/>
-      <c r="E41" s="133"/>
-      <c r="F41" s="133"/>
-      <c r="G41" s="133"/>
-      <c r="H41" s="133"/>
-      <c r="I41" s="133"/>
+      <c r="B41" s="197"/>
+      <c r="C41" s="139"/>
+      <c r="D41" s="139"/>
+      <c r="E41" s="139"/>
+      <c r="F41" s="139"/>
+      <c r="G41" s="139"/>
+      <c r="H41" s="139"/>
+      <c r="I41" s="139"/>
     </row>
     <row r="42" spans="2:9">
-      <c r="B42" s="199"/>
-      <c r="C42" s="133"/>
-      <c r="D42" s="133"/>
-      <c r="E42" s="133"/>
-      <c r="F42" s="133"/>
-      <c r="G42" s="133"/>
-      <c r="H42" s="133"/>
-      <c r="I42" s="133"/>
+      <c r="B42" s="197"/>
+      <c r="C42" s="139"/>
+      <c r="D42" s="139"/>
+      <c r="E42" s="139"/>
+      <c r="F42" s="139"/>
+      <c r="G42" s="139"/>
+      <c r="H42" s="139"/>
+      <c r="I42" s="139"/>
     </row>
     <row r="43" spans="2:9">
-      <c r="B43" s="199"/>
-      <c r="C43" s="133"/>
-      <c r="D43" s="133"/>
-      <c r="E43" s="133"/>
-      <c r="F43" s="133"/>
-      <c r="G43" s="133"/>
-      <c r="H43" s="133"/>
-      <c r="I43" s="133"/>
+      <c r="B43" s="197"/>
+      <c r="C43" s="139"/>
+      <c r="D43" s="139"/>
+      <c r="E43" s="139"/>
+      <c r="F43" s="139"/>
+      <c r="G43" s="139"/>
+      <c r="H43" s="139"/>
+      <c r="I43" s="139"/>
     </row>
     <row r="44" spans="2:9">
-      <c r="B44" s="199"/>
-      <c r="C44" s="133"/>
-      <c r="D44" s="133"/>
-      <c r="E44" s="133"/>
-      <c r="F44" s="133"/>
-      <c r="G44" s="133"/>
-      <c r="H44" s="133"/>
-      <c r="I44" s="133"/>
+      <c r="B44" s="197"/>
+      <c r="C44" s="139"/>
+      <c r="D44" s="139"/>
+      <c r="E44" s="139"/>
+      <c r="F44" s="139"/>
+      <c r="G44" s="139"/>
+      <c r="H44" s="139"/>
+      <c r="I44" s="139"/>
     </row>
     <row r="45" spans="2:9">
-      <c r="B45" s="199"/>
-      <c r="C45" s="133"/>
-      <c r="D45" s="133"/>
-      <c r="E45" s="133"/>
-      <c r="F45" s="133"/>
-      <c r="G45" s="133"/>
-      <c r="H45" s="133"/>
-      <c r="I45" s="133"/>
+      <c r="B45" s="197"/>
+      <c r="C45" s="139"/>
+      <c r="D45" s="139"/>
+      <c r="E45" s="139"/>
+      <c r="F45" s="139"/>
+      <c r="G45" s="139"/>
+      <c r="H45" s="139"/>
+      <c r="I45" s="139"/>
     </row>
     <row r="46" spans="2:9">
-      <c r="B46" s="199"/>
-      <c r="C46" s="133"/>
-      <c r="D46" s="133"/>
-      <c r="E46" s="133"/>
-      <c r="F46" s="133"/>
-      <c r="G46" s="133"/>
-      <c r="H46" s="133"/>
-      <c r="I46" s="133"/>
+      <c r="B46" s="197"/>
+      <c r="C46" s="139"/>
+      <c r="D46" s="139"/>
+      <c r="E46" s="139"/>
+      <c r="F46" s="139"/>
+      <c r="G46" s="139"/>
+      <c r="H46" s="139"/>
+      <c r="I46" s="139"/>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="199"/>
-      <c r="C47" s="133"/>
-      <c r="D47" s="133"/>
-      <c r="E47" s="133"/>
-      <c r="F47" s="133"/>
-      <c r="G47" s="133"/>
-      <c r="H47" s="133"/>
-      <c r="I47" s="133"/>
+      <c r="B47" s="197"/>
+      <c r="C47" s="139"/>
+      <c r="D47" s="139"/>
+      <c r="E47" s="139"/>
+      <c r="F47" s="139"/>
+      <c r="G47" s="139"/>
+      <c r="H47" s="139"/>
+      <c r="I47" s="139"/>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="199"/>
-      <c r="C48" s="133"/>
-      <c r="D48" s="133"/>
-      <c r="E48" s="133"/>
-      <c r="F48" s="133"/>
-      <c r="G48" s="133"/>
-      <c r="H48" s="133"/>
-      <c r="I48" s="133"/>
+      <c r="B48" s="197"/>
+      <c r="C48" s="139"/>
+      <c r="D48" s="139"/>
+      <c r="E48" s="139"/>
+      <c r="F48" s="139"/>
+      <c r="G48" s="139"/>
+      <c r="H48" s="139"/>
+      <c r="I48" s="139"/>
     </row>
     <row r="49" spans="2:9">
-      <c r="B49" s="199"/>
-      <c r="C49" s="133"/>
-      <c r="D49" s="133"/>
-      <c r="E49" s="133"/>
-      <c r="F49" s="133"/>
-      <c r="G49" s="133"/>
-      <c r="H49" s="133"/>
-      <c r="I49" s="133"/>
+      <c r="B49" s="197"/>
+      <c r="C49" s="139"/>
+      <c r="D49" s="139"/>
+      <c r="E49" s="139"/>
+      <c r="F49" s="139"/>
+      <c r="G49" s="139"/>
+      <c r="H49" s="139"/>
+      <c r="I49" s="139"/>
     </row>
     <row r="50" spans="2:9">
-      <c r="B50" s="199"/>
-      <c r="C50" s="133"/>
-      <c r="D50" s="133"/>
-      <c r="E50" s="133"/>
-      <c r="F50" s="133"/>
-      <c r="G50" s="133"/>
-      <c r="H50" s="133"/>
-      <c r="I50" s="133"/>
+      <c r="B50" s="197"/>
+      <c r="C50" s="139"/>
+      <c r="D50" s="139"/>
+      <c r="E50" s="139"/>
+      <c r="F50" s="139"/>
+      <c r="G50" s="139"/>
+      <c r="H50" s="139"/>
+      <c r="I50" s="139"/>
     </row>
     <row r="51" spans="2:9">
-      <c r="B51" s="199"/>
-      <c r="C51" s="133"/>
-      <c r="D51" s="133"/>
-      <c r="E51" s="133"/>
-      <c r="F51" s="133"/>
-      <c r="G51" s="133"/>
-      <c r="H51" s="133"/>
-      <c r="I51" s="133"/>
+      <c r="B51" s="197"/>
+      <c r="C51" s="139"/>
+      <c r="D51" s="139"/>
+      <c r="E51" s="139"/>
+      <c r="F51" s="139"/>
+      <c r="G51" s="139"/>
+      <c r="H51" s="139"/>
+      <c r="I51" s="139"/>
     </row>
     <row r="52" spans="2:9">
-      <c r="B52" s="199"/>
-      <c r="C52" s="133"/>
-      <c r="D52" s="133"/>
-      <c r="E52" s="133"/>
-      <c r="F52" s="133"/>
-      <c r="G52" s="133"/>
-      <c r="H52" s="133"/>
-      <c r="I52" s="133"/>
+      <c r="B52" s="197"/>
+      <c r="C52" s="139"/>
+      <c r="D52" s="139"/>
+      <c r="E52" s="139"/>
+      <c r="F52" s="139"/>
+      <c r="G52" s="139"/>
+      <c r="H52" s="139"/>
+      <c r="I52" s="139"/>
     </row>
     <row r="53" spans="2:9">
-      <c r="B53" s="199"/>
-      <c r="C53" s="133"/>
-      <c r="D53" s="133"/>
-      <c r="E53" s="133"/>
-      <c r="F53" s="133"/>
-      <c r="G53" s="133"/>
-      <c r="H53" s="133"/>
-      <c r="I53" s="133"/>
+      <c r="B53" s="197"/>
+      <c r="C53" s="139"/>
+      <c r="D53" s="139"/>
+      <c r="E53" s="139"/>
+      <c r="F53" s="139"/>
+      <c r="G53" s="139"/>
+      <c r="H53" s="139"/>
+      <c r="I53" s="139"/>
     </row>
     <row r="54" spans="2:9">
-      <c r="B54" s="199"/>
-      <c r="C54" s="133"/>
-      <c r="D54" s="133"/>
-      <c r="E54" s="133"/>
-      <c r="F54" s="133"/>
-      <c r="G54" s="133"/>
-      <c r="H54" s="133"/>
-      <c r="I54" s="133"/>
+      <c r="B54" s="197"/>
+      <c r="C54" s="139"/>
+      <c r="D54" s="139"/>
+      <c r="E54" s="139"/>
+      <c r="F54" s="139"/>
+      <c r="G54" s="139"/>
+      <c r="H54" s="139"/>
+      <c r="I54" s="139"/>
     </row>
     <row r="55" spans="2:9">
-      <c r="B55" s="199"/>
-      <c r="C55" s="133"/>
-      <c r="D55" s="133"/>
-      <c r="E55" s="133"/>
-      <c r="F55" s="133"/>
-      <c r="G55" s="133"/>
-      <c r="H55" s="133"/>
-      <c r="I55" s="133"/>
+      <c r="B55" s="197"/>
+      <c r="C55" s="139"/>
+      <c r="D55" s="139"/>
+      <c r="E55" s="139"/>
+      <c r="F55" s="139"/>
+      <c r="G55" s="139"/>
+      <c r="H55" s="139"/>
+      <c r="I55" s="139"/>
     </row>
     <row r="56" spans="2:9">
-      <c r="B56" s="199"/>
-      <c r="C56" s="133"/>
-      <c r="D56" s="133"/>
-      <c r="E56" s="133"/>
-      <c r="F56" s="133"/>
-      <c r="G56" s="133"/>
-      <c r="H56" s="133"/>
-      <c r="I56" s="133"/>
+      <c r="B56" s="197"/>
+      <c r="C56" s="139"/>
+      <c r="D56" s="139"/>
+      <c r="E56" s="139"/>
+      <c r="F56" s="139"/>
+      <c r="G56" s="139"/>
+      <c r="H56" s="139"/>
+      <c r="I56" s="139"/>
     </row>
     <row r="57" spans="2:9">
-      <c r="B57" s="199"/>
-      <c r="C57" s="133"/>
-      <c r="D57" s="133"/>
-      <c r="E57" s="133"/>
-      <c r="F57" s="133"/>
-      <c r="G57" s="133"/>
-      <c r="H57" s="133"/>
-      <c r="I57" s="133"/>
+      <c r="B57" s="197"/>
+      <c r="C57" s="139"/>
+      <c r="D57" s="139"/>
+      <c r="E57" s="139"/>
+      <c r="F57" s="139"/>
+      <c r="G57" s="139"/>
+      <c r="H57" s="139"/>
+      <c r="I57" s="139"/>
     </row>
     <row r="58" spans="2:9">
-      <c r="B58" s="199"/>
-      <c r="C58" s="133"/>
-      <c r="D58" s="133"/>
-      <c r="E58" s="133"/>
-      <c r="F58" s="133"/>
-      <c r="G58" s="133"/>
-      <c r="H58" s="133"/>
-      <c r="I58" s="133"/>
+      <c r="B58" s="197"/>
+      <c r="C58" s="139"/>
+      <c r="D58" s="139"/>
+      <c r="E58" s="139"/>
+      <c r="F58" s="139"/>
+      <c r="G58" s="139"/>
+      <c r="H58" s="139"/>
+      <c r="I58" s="139"/>
     </row>
     <row r="59" spans="2:9">
-      <c r="B59" s="199"/>
-      <c r="C59" s="133"/>
-      <c r="D59" s="133"/>
-      <c r="E59" s="133"/>
-      <c r="F59" s="133"/>
-      <c r="G59" s="133"/>
-      <c r="H59" s="133"/>
-      <c r="I59" s="133"/>
+      <c r="B59" s="197"/>
+      <c r="C59" s="139"/>
+      <c r="D59" s="139"/>
+      <c r="E59" s="139"/>
+      <c r="F59" s="139"/>
+      <c r="G59" s="139"/>
+      <c r="H59" s="139"/>
+      <c r="I59" s="139"/>
     </row>
     <row r="60" spans="2:9">
-      <c r="B60" s="199"/>
-      <c r="C60" s="133"/>
-      <c r="D60" s="133"/>
-      <c r="E60" s="133"/>
-      <c r="F60" s="133"/>
-      <c r="G60" s="133"/>
-      <c r="H60" s="133"/>
-      <c r="I60" s="133"/>
-    </row>
-    <row r="61" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B61" s="200"/>
-      <c r="C61" s="118"/>
-      <c r="D61" s="118"/>
-      <c r="E61" s="118"/>
-      <c r="F61" s="118"/>
-      <c r="G61" s="118"/>
-      <c r="H61" s="118"/>
-      <c r="I61" s="118"/>
+      <c r="B60" s="197"/>
+      <c r="C60" s="139"/>
+      <c r="D60" s="139"/>
+      <c r="E60" s="139"/>
+      <c r="F60" s="139"/>
+      <c r="G60" s="139"/>
+      <c r="H60" s="139"/>
+      <c r="I60" s="139"/>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" s="197"/>
+      <c r="C61" s="139"/>
+      <c r="D61" s="139"/>
+      <c r="E61" s="139"/>
+      <c r="F61" s="139"/>
+      <c r="G61" s="139"/>
+      <c r="H61" s="139"/>
+      <c r="I61" s="139"/>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" s="197"/>
+      <c r="C62" s="139"/>
+      <c r="D62" s="139"/>
+      <c r="E62" s="139"/>
+      <c r="F62" s="139"/>
+      <c r="G62" s="139"/>
+      <c r="H62" s="139"/>
+      <c r="I62" s="139"/>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="B63" s="197"/>
+      <c r="C63" s="139"/>
+      <c r="D63" s="139"/>
+      <c r="E63" s="139"/>
+      <c r="F63" s="139"/>
+      <c r="G63" s="139"/>
+      <c r="H63" s="139"/>
+      <c r="I63" s="139"/>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" s="197"/>
+      <c r="C64" s="139"/>
+      <c r="D64" s="139"/>
+      <c r="E64" s="139"/>
+      <c r="F64" s="139"/>
+      <c r="G64" s="139"/>
+      <c r="H64" s="139"/>
+      <c r="I64" s="139"/>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" s="197"/>
+      <c r="C65" s="139"/>
+      <c r="D65" s="139"/>
+      <c r="E65" s="139"/>
+      <c r="F65" s="139"/>
+      <c r="G65" s="139"/>
+      <c r="H65" s="139"/>
+      <c r="I65" s="139"/>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="B66" s="197"/>
+      <c r="C66" s="139"/>
+      <c r="D66" s="139"/>
+      <c r="E66" s="139"/>
+      <c r="F66" s="139"/>
+      <c r="G66" s="139"/>
+      <c r="H66" s="139"/>
+      <c r="I66" s="139"/>
+    </row>
+    <row r="67" spans="2:9">
+      <c r="B67" s="197"/>
+      <c r="C67" s="139"/>
+      <c r="D67" s="139"/>
+      <c r="E67" s="139"/>
+      <c r="F67" s="139"/>
+      <c r="G67" s="139"/>
+      <c r="H67" s="139"/>
+      <c r="I67" s="139"/>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="B68" s="197"/>
+      <c r="C68" s="139"/>
+      <c r="D68" s="139"/>
+      <c r="E68" s="139"/>
+      <c r="F68" s="139"/>
+      <c r="G68" s="139"/>
+      <c r="H68" s="139"/>
+      <c r="I68" s="139"/>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69" s="197"/>
+      <c r="C69" s="139"/>
+      <c r="D69" s="139"/>
+      <c r="E69" s="139"/>
+      <c r="F69" s="139"/>
+      <c r="G69" s="139"/>
+      <c r="H69" s="139"/>
+      <c r="I69" s="139"/>
+    </row>
+    <row r="70" spans="2:9">
+      <c r="B70" s="197"/>
+      <c r="C70" s="139"/>
+      <c r="D70" s="139"/>
+      <c r="E70" s="139"/>
+      <c r="F70" s="139"/>
+      <c r="G70" s="139"/>
+      <c r="H70" s="139"/>
+      <c r="I70" s="139"/>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71" s="197"/>
+      <c r="C71" s="139"/>
+      <c r="D71" s="139"/>
+      <c r="E71" s="139"/>
+      <c r="F71" s="139"/>
+      <c r="G71" s="139"/>
+      <c r="H71" s="139"/>
+      <c r="I71" s="139"/>
+    </row>
+    <row r="72" spans="2:9">
+      <c r="B72" s="197"/>
+      <c r="C72" s="139"/>
+      <c r="D72" s="139"/>
+      <c r="E72" s="139"/>
+      <c r="F72" s="139"/>
+      <c r="G72" s="139"/>
+      <c r="H72" s="139"/>
+      <c r="I72" s="139"/>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="B73" s="197"/>
+      <c r="C73" s="139"/>
+      <c r="D73" s="139"/>
+      <c r="E73" s="139"/>
+      <c r="F73" s="139"/>
+      <c r="G73" s="139"/>
+      <c r="H73" s="139"/>
+      <c r="I73" s="139"/>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="B74" s="197"/>
+      <c r="C74" s="139"/>
+      <c r="D74" s="139"/>
+      <c r="E74" s="139"/>
+      <c r="F74" s="139"/>
+      <c r="G74" s="139"/>
+      <c r="H74" s="139"/>
+      <c r="I74" s="139"/>
+    </row>
+    <row r="75" spans="2:9">
+      <c r="B75" s="197"/>
+      <c r="C75" s="139"/>
+      <c r="D75" s="139"/>
+      <c r="E75" s="139"/>
+      <c r="F75" s="139"/>
+      <c r="G75" s="139"/>
+      <c r="H75" s="139"/>
+      <c r="I75" s="139"/>
+    </row>
+    <row r="76" spans="2:9">
+      <c r="B76" s="197"/>
+      <c r="C76" s="139"/>
+      <c r="D76" s="139"/>
+      <c r="E76" s="139"/>
+      <c r="F76" s="139"/>
+      <c r="G76" s="139"/>
+      <c r="H76" s="139"/>
+      <c r="I76" s="139"/>
+    </row>
+    <row r="77" spans="2:9">
+      <c r="B77" s="197"/>
+      <c r="C77" s="139"/>
+      <c r="D77" s="139"/>
+      <c r="E77" s="139"/>
+      <c r="F77" s="139"/>
+      <c r="G77" s="139"/>
+      <c r="H77" s="139"/>
+      <c r="I77" s="139"/>
+    </row>
+    <row r="78" spans="2:9">
+      <c r="B78" s="197"/>
+      <c r="C78" s="139"/>
+      <c r="D78" s="139"/>
+      <c r="E78" s="139"/>
+      <c r="F78" s="139"/>
+      <c r="G78" s="139"/>
+      <c r="H78" s="139"/>
+      <c r="I78" s="139"/>
+    </row>
+    <row r="79" spans="2:9">
+      <c r="B79" s="197"/>
+      <c r="C79" s="139"/>
+      <c r="D79" s="139"/>
+      <c r="E79" s="139"/>
+      <c r="F79" s="139"/>
+      <c r="G79" s="139"/>
+      <c r="H79" s="139"/>
+      <c r="I79" s="139"/>
+    </row>
+    <row r="80" spans="2:9">
+      <c r="B80" s="197"/>
+      <c r="C80" s="139"/>
+      <c r="D80" s="139"/>
+      <c r="E80" s="139"/>
+      <c r="F80" s="139"/>
+      <c r="G80" s="139"/>
+      <c r="H80" s="139"/>
+      <c r="I80" s="139"/>
+    </row>
+    <row r="81" spans="2:9">
+      <c r="B81" s="197"/>
+      <c r="C81" s="139"/>
+      <c r="D81" s="139"/>
+      <c r="E81" s="139"/>
+      <c r="F81" s="139"/>
+      <c r="G81" s="139"/>
+      <c r="H81" s="139"/>
+      <c r="I81" s="139"/>
+    </row>
+    <row r="82" spans="2:9">
+      <c r="B82" s="197"/>
+      <c r="C82" s="139"/>
+      <c r="D82" s="139"/>
+      <c r="E82" s="139"/>
+      <c r="F82" s="139"/>
+      <c r="G82" s="139"/>
+      <c r="H82" s="139"/>
+      <c r="I82" s="139"/>
+    </row>
+    <row r="83" spans="2:9">
+      <c r="B83" s="197"/>
+      <c r="C83" s="139"/>
+      <c r="D83" s="139"/>
+      <c r="E83" s="139"/>
+      <c r="F83" s="139"/>
+      <c r="G83" s="139"/>
+      <c r="H83" s="139"/>
+      <c r="I83" s="139"/>
+    </row>
+    <row r="84" spans="2:9">
+      <c r="B84" s="197"/>
+      <c r="C84" s="139"/>
+      <c r="D84" s="139"/>
+      <c r="E84" s="139"/>
+      <c r="F84" s="139"/>
+      <c r="G84" s="139"/>
+      <c r="H84" s="139"/>
+      <c r="I84" s="139"/>
+    </row>
+    <row r="85" spans="2:9">
+      <c r="B85" s="197"/>
+      <c r="C85" s="139"/>
+      <c r="D85" s="139"/>
+      <c r="E85" s="139"/>
+      <c r="F85" s="139"/>
+      <c r="G85" s="139"/>
+      <c r="H85" s="139"/>
+      <c r="I85" s="139"/>
+    </row>
+    <row r="86" spans="2:9" ht="18" thickBot="1">
+      <c r="B86" s="198"/>
+      <c r="C86" s="123"/>
+      <c r="D86" s="123"/>
+      <c r="E86" s="123"/>
+      <c r="F86" s="123"/>
+      <c r="G86" s="123"/>
+      <c r="H86" s="123"/>
+      <c r="I86" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C26:I61"/>
-    <mergeCell ref="B26:B61"/>
+    <mergeCell ref="B26:B86"/>
+    <mergeCell ref="C26:I86"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:I3"/>
     <mergeCell ref="B5:B25"/>
@@ -10210,37 +10488,37 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:N17"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="72" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="19.2"/>
   <cols>
-    <col min="1" max="1" width="3.875" style="82" customWidth="1"/>
-    <col min="2" max="2" width="4.875" style="91" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.875" style="92" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" style="82" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="82" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.8984375" style="82" customWidth="1"/>
+    <col min="2" max="2" width="4.8984375" style="91" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.8984375" style="92" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.19921875" style="82" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.8984375" style="82" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="82" customWidth="1"/>
-    <col min="7" max="7" width="17.75" style="82" customWidth="1"/>
-    <col min="8" max="8" width="6.25" style="82" customWidth="1"/>
-    <col min="9" max="9" width="17.75" style="82" customWidth="1"/>
-    <col min="10" max="10" width="19.75" style="82" customWidth="1"/>
-    <col min="11" max="11" width="19.375" style="82" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.125" style="93" customWidth="1"/>
-    <col min="13" max="13" width="21.125" style="82" customWidth="1"/>
-    <col min="14" max="14" width="4.75" style="82" customWidth="1"/>
-    <col min="15" max="15" width="1.875" style="82" customWidth="1"/>
+    <col min="7" max="7" width="17.69921875" style="82" customWidth="1"/>
+    <col min="8" max="8" width="6.19921875" style="82" customWidth="1"/>
+    <col min="9" max="9" width="17.69921875" style="82" customWidth="1"/>
+    <col min="10" max="10" width="19.69921875" style="82" customWidth="1"/>
+    <col min="11" max="11" width="19.3984375" style="82" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.09765625" style="93" customWidth="1"/>
+    <col min="13" max="13" width="21.09765625" style="82" customWidth="1"/>
+    <col min="14" max="14" width="4.69921875" style="82" customWidth="1"/>
+    <col min="15" max="15" width="1.8984375" style="82" customWidth="1"/>
     <col min="16" max="16384" width="8" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="17.45" customHeight="1" thickBot="1">
+    <row r="1" spans="2:14" ht="17.399999999999999" customHeight="1" thickBot="1">
       <c r="B1" s="82"/>
       <c r="C1" s="83"/>
       <c r="D1" s="83"/>
@@ -10254,19 +10532,19 @@
       <c r="L1" s="83"/>
       <c r="M1" s="84"/>
     </row>
-    <row r="2" spans="2:14" ht="17.45" customHeight="1">
-      <c r="B2" s="223"/>
-      <c r="C2" s="224"/>
-      <c r="D2" s="227" t="s">
+    <row r="2" spans="2:14" ht="17.399999999999999" customHeight="1">
+      <c r="B2" s="209"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="213" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
-      <c r="G2" s="227"/>
-      <c r="H2" s="227"/>
-      <c r="I2" s="227"/>
-      <c r="J2" s="227"/>
-      <c r="K2" s="228"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="213"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="213"/>
+      <c r="K2" s="214"/>
       <c r="L2" s="97" t="s">
         <v>98</v>
       </c>
@@ -10274,17 +10552,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="17.45" customHeight="1" thickBot="1">
-      <c r="B3" s="225"/>
-      <c r="C3" s="226"/>
-      <c r="D3" s="229"/>
-      <c r="E3" s="229"/>
-      <c r="F3" s="229"/>
-      <c r="G3" s="229"/>
-      <c r="H3" s="229"/>
-      <c r="I3" s="229"/>
-      <c r="J3" s="229"/>
-      <c r="K3" s="230"/>
+    <row r="3" spans="2:14" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="B3" s="211"/>
+      <c r="C3" s="212"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="215"/>
+      <c r="G3" s="215"/>
+      <c r="H3" s="215"/>
+      <c r="I3" s="215"/>
+      <c r="J3" s="215"/>
+      <c r="K3" s="216"/>
       <c r="L3" s="99" t="s">
         <v>99</v>
       </c>
@@ -10292,7 +10570,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="17.45" customHeight="1" thickBot="1">
+    <row r="4" spans="2:14" ht="17.399999999999999" customHeight="1" thickBot="1">
       <c r="B4" s="89"/>
       <c r="C4" s="83"/>
       <c r="D4" s="83"/>
@@ -10306,7 +10584,7 @@
       <c r="L4" s="83"/>
       <c r="M4" s="84"/>
     </row>
-    <row r="5" spans="2:14" s="85" customFormat="1" ht="23.45" customHeight="1">
+    <row r="5" spans="2:14" s="85" customFormat="1" ht="23.4" customHeight="1">
       <c r="B5" s="95" t="s">
         <v>79</v>
       </c>
@@ -10316,233 +10594,233 @@
       <c r="D5" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="213" t="s">
+      <c r="E5" s="222" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="213"/>
-      <c r="G5" s="213"/>
-      <c r="H5" s="213"/>
-      <c r="I5" s="213"/>
-      <c r="J5" s="213"/>
+      <c r="F5" s="222"/>
+      <c r="G5" s="222"/>
+      <c r="H5" s="222"/>
+      <c r="I5" s="222"/>
+      <c r="J5" s="222"/>
       <c r="K5" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="L5" s="213" t="s">
+      <c r="L5" s="222" t="s">
         <v>84</v>
       </c>
-      <c r="M5" s="214"/>
-    </row>
-    <row r="6" spans="2:14" ht="37.9" customHeight="1">
-      <c r="B6" s="215">
+      <c r="M5" s="223"/>
+    </row>
+    <row r="6" spans="2:14" ht="37.950000000000003" customHeight="1">
+      <c r="B6" s="224">
         <v>1</v>
       </c>
-      <c r="C6" s="218" t="s">
+      <c r="C6" s="227" t="s">
         <v>97</v>
       </c>
       <c r="D6" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="221" t="s">
+      <c r="E6" s="219" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="221"/>
-      <c r="G6" s="221"/>
-      <c r="H6" s="221"/>
-      <c r="I6" s="221"/>
-      <c r="J6" s="221"/>
+      <c r="F6" s="219"/>
+      <c r="G6" s="219"/>
+      <c r="H6" s="219"/>
+      <c r="I6" s="219"/>
+      <c r="J6" s="219"/>
       <c r="K6" s="86"/>
-      <c r="L6" s="211"/>
-      <c r="M6" s="212"/>
+      <c r="L6" s="220"/>
+      <c r="M6" s="221"/>
       <c r="N6" s="87"/>
     </row>
-    <row r="7" spans="2:14" ht="37.9" customHeight="1">
-      <c r="B7" s="215"/>
-      <c r="C7" s="219"/>
+    <row r="7" spans="2:14" ht="37.950000000000003" customHeight="1">
+      <c r="B7" s="224"/>
+      <c r="C7" s="228"/>
       <c r="D7" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="221" t="s">
+      <c r="E7" s="219" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="221"/>
-      <c r="G7" s="221"/>
-      <c r="H7" s="221"/>
-      <c r="I7" s="221"/>
-      <c r="J7" s="221"/>
+      <c r="F7" s="219"/>
+      <c r="G7" s="219"/>
+      <c r="H7" s="219"/>
+      <c r="I7" s="219"/>
+      <c r="J7" s="219"/>
       <c r="K7" s="86"/>
-      <c r="L7" s="211"/>
-      <c r="M7" s="212"/>
+      <c r="L7" s="220"/>
+      <c r="M7" s="221"/>
       <c r="N7" s="87"/>
     </row>
-    <row r="8" spans="2:14" ht="37.9" customHeight="1">
-      <c r="B8" s="215"/>
-      <c r="C8" s="219"/>
+    <row r="8" spans="2:14" ht="37.950000000000003" customHeight="1">
+      <c r="B8" s="224"/>
+      <c r="C8" s="228"/>
       <c r="D8" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="221" t="s">
+      <c r="E8" s="219" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="221"/>
-      <c r="G8" s="221"/>
-      <c r="H8" s="221"/>
-      <c r="I8" s="221"/>
-      <c r="J8" s="221"/>
+      <c r="F8" s="219"/>
+      <c r="G8" s="219"/>
+      <c r="H8" s="219"/>
+      <c r="I8" s="219"/>
+      <c r="J8" s="219"/>
       <c r="K8" s="86"/>
-      <c r="L8" s="211"/>
-      <c r="M8" s="212"/>
+      <c r="L8" s="220"/>
+      <c r="M8" s="221"/>
       <c r="N8" s="87"/>
     </row>
-    <row r="9" spans="2:14" ht="37.9" customHeight="1">
-      <c r="B9" s="215"/>
-      <c r="C9" s="219"/>
+    <row r="9" spans="2:14" ht="37.950000000000003" customHeight="1">
+      <c r="B9" s="224"/>
+      <c r="C9" s="228"/>
       <c r="D9" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="221" t="s">
+      <c r="E9" s="219" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="221"/>
-      <c r="G9" s="221"/>
-      <c r="H9" s="221"/>
-      <c r="I9" s="221"/>
-      <c r="J9" s="221"/>
+      <c r="F9" s="219"/>
+      <c r="G9" s="219"/>
+      <c r="H9" s="219"/>
+      <c r="I9" s="219"/>
+      <c r="J9" s="219"/>
       <c r="K9" s="86"/>
-      <c r="L9" s="211"/>
-      <c r="M9" s="212"/>
+      <c r="L9" s="220"/>
+      <c r="M9" s="221"/>
       <c r="N9" s="87"/>
     </row>
-    <row r="10" spans="2:14" ht="37.9" customHeight="1">
-      <c r="B10" s="215"/>
-      <c r="C10" s="219"/>
+    <row r="10" spans="2:14" ht="37.950000000000003" customHeight="1">
+      <c r="B10" s="224"/>
+      <c r="C10" s="228"/>
       <c r="D10" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="221" t="s">
+      <c r="E10" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="221"/>
-      <c r="G10" s="221"/>
-      <c r="H10" s="221"/>
-      <c r="I10" s="221"/>
-      <c r="J10" s="221"/>
+      <c r="F10" s="219"/>
+      <c r="G10" s="219"/>
+      <c r="H10" s="219"/>
+      <c r="I10" s="219"/>
+      <c r="J10" s="219"/>
       <c r="K10" s="86"/>
-      <c r="L10" s="211"/>
-      <c r="M10" s="212"/>
+      <c r="L10" s="220"/>
+      <c r="M10" s="221"/>
       <c r="N10" s="87"/>
     </row>
-    <row r="11" spans="2:14" ht="37.9" customHeight="1">
-      <c r="B11" s="215"/>
-      <c r="C11" s="219"/>
+    <row r="11" spans="2:14" ht="37.950000000000003" customHeight="1">
+      <c r="B11" s="224"/>
+      <c r="C11" s="228"/>
       <c r="D11" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="221" t="s">
+      <c r="E11" s="219" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="221"/>
-      <c r="G11" s="221"/>
-      <c r="H11" s="221"/>
-      <c r="I11" s="221"/>
-      <c r="J11" s="221"/>
+      <c r="F11" s="219"/>
+      <c r="G11" s="219"/>
+      <c r="H11" s="219"/>
+      <c r="I11" s="219"/>
+      <c r="J11" s="219"/>
       <c r="K11" s="86"/>
-      <c r="L11" s="211"/>
-      <c r="M11" s="212"/>
+      <c r="L11" s="220"/>
+      <c r="M11" s="221"/>
       <c r="N11" s="87"/>
     </row>
-    <row r="12" spans="2:14" ht="37.9" customHeight="1">
-      <c r="B12" s="215"/>
-      <c r="C12" s="219"/>
+    <row r="12" spans="2:14" ht="37.950000000000003" customHeight="1">
+      <c r="B12" s="224"/>
+      <c r="C12" s="228"/>
       <c r="D12" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="221" t="s">
+      <c r="E12" s="219" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="221"/>
-      <c r="G12" s="221"/>
-      <c r="H12" s="221"/>
-      <c r="I12" s="221"/>
-      <c r="J12" s="221"/>
+      <c r="F12" s="219"/>
+      <c r="G12" s="219"/>
+      <c r="H12" s="219"/>
+      <c r="I12" s="219"/>
+      <c r="J12" s="219"/>
       <c r="K12" s="86"/>
-      <c r="L12" s="211"/>
-      <c r="M12" s="212"/>
+      <c r="L12" s="220"/>
+      <c r="M12" s="221"/>
       <c r="N12" s="87"/>
     </row>
-    <row r="13" spans="2:14" ht="37.9" customHeight="1">
-      <c r="B13" s="215"/>
-      <c r="C13" s="219"/>
+    <row r="13" spans="2:14" ht="37.950000000000003" customHeight="1">
+      <c r="B13" s="224"/>
+      <c r="C13" s="228"/>
       <c r="D13" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="221" t="s">
+      <c r="E13" s="219" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="221"/>
-      <c r="G13" s="221"/>
-      <c r="H13" s="221"/>
-      <c r="I13" s="221"/>
-      <c r="J13" s="221"/>
+      <c r="F13" s="219"/>
+      <c r="G13" s="219"/>
+      <c r="H13" s="219"/>
+      <c r="I13" s="219"/>
+      <c r="J13" s="219"/>
       <c r="K13" s="86"/>
-      <c r="L13" s="211"/>
-      <c r="M13" s="212"/>
+      <c r="L13" s="220"/>
+      <c r="M13" s="221"/>
       <c r="N13" s="87"/>
     </row>
-    <row r="14" spans="2:14" ht="37.9" customHeight="1">
-      <c r="B14" s="215"/>
-      <c r="C14" s="219"/>
+    <row r="14" spans="2:14" ht="37.950000000000003" customHeight="1">
+      <c r="B14" s="224"/>
+      <c r="C14" s="228"/>
       <c r="D14" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="221" t="s">
+      <c r="E14" s="219" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="221"/>
-      <c r="G14" s="221"/>
-      <c r="H14" s="221"/>
-      <c r="I14" s="221"/>
-      <c r="J14" s="221"/>
+      <c r="F14" s="219"/>
+      <c r="G14" s="219"/>
+      <c r="H14" s="219"/>
+      <c r="I14" s="219"/>
+      <c r="J14" s="219"/>
       <c r="K14" s="86"/>
-      <c r="L14" s="211"/>
-      <c r="M14" s="212"/>
+      <c r="L14" s="220"/>
+      <c r="M14" s="221"/>
       <c r="N14" s="87"/>
     </row>
-    <row r="15" spans="2:14" ht="37.9" customHeight="1">
-      <c r="B15" s="216"/>
-      <c r="C15" s="219"/>
+    <row r="15" spans="2:14" ht="37.950000000000003" customHeight="1">
+      <c r="B15" s="225"/>
+      <c r="C15" s="228"/>
       <c r="D15" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="222" t="s">
+      <c r="E15" s="230" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="222"/>
-      <c r="G15" s="222"/>
-      <c r="H15" s="222"/>
-      <c r="I15" s="222"/>
-      <c r="J15" s="222"/>
+      <c r="F15" s="230"/>
+      <c r="G15" s="230"/>
+      <c r="H15" s="230"/>
+      <c r="I15" s="230"/>
+      <c r="J15" s="230"/>
       <c r="K15" s="101"/>
-      <c r="L15" s="211"/>
-      <c r="M15" s="212"/>
+      <c r="L15" s="220"/>
+      <c r="M15" s="221"/>
       <c r="N15" s="87"/>
     </row>
-    <row r="16" spans="2:14" ht="37.9" customHeight="1" thickBot="1">
-      <c r="B16" s="217"/>
-      <c r="C16" s="220"/>
+    <row r="16" spans="2:14" ht="37.950000000000003" customHeight="1" thickBot="1">
+      <c r="B16" s="226"/>
+      <c r="C16" s="229"/>
       <c r="D16" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="231" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="231"/>
-      <c r="G16" s="231"/>
-      <c r="H16" s="231"/>
-      <c r="I16" s="231"/>
-      <c r="J16" s="231"/>
+      <c r="E16" s="217" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="217"/>
+      <c r="G16" s="217"/>
+      <c r="H16" s="217"/>
+      <c r="I16" s="217"/>
+      <c r="J16" s="217"/>
       <c r="K16" s="96"/>
-      <c r="L16" s="226"/>
-      <c r="M16" s="232"/>
+      <c r="L16" s="212"/>
+      <c r="M16" s="218"/>
       <c r="N16" s="87"/>
     </row>
     <row r="17" spans="2:13">
@@ -10561,6 +10839,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B6:B16"/>
+    <mergeCell ref="C6:C16"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="L15:M15"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="D2:K3"/>
     <mergeCell ref="E16:J16"/>
@@ -10577,22 +10867,10 @@
     <mergeCell ref="E10:J10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="E11:J11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="B6:B16"/>
-    <mergeCell ref="C6:C16"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="L15:M15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K4" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K4">
       <formula1>평가결과</formula1>
     </dataValidation>
   </dataValidations>
@@ -10614,15 +10892,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:colOff>91440</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>106680</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>581025</xdr:colOff>
+                    <xdr:colOff>579120</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>390525</xdr:rowOff>
+                    <xdr:rowOff>388620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10636,13 +10914,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:colOff>525780</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>121920</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>971550</xdr:colOff>
+                    <xdr:colOff>967740</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>381000</xdr:rowOff>
                   </to>
@@ -10660,13 +10938,13 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>952500</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>95250</xdr:rowOff>
+                    <xdr:rowOff>91440</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>1447800</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>400050</xdr:rowOff>
+                    <xdr:rowOff>403860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10680,15 +10958,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:colOff>91440</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>106680</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>581025</xdr:colOff>
+                    <xdr:colOff>579120</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>390525</xdr:rowOff>
+                    <xdr:rowOff>388620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10702,13 +10980,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:colOff>525780</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>121920</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>971550</xdr:colOff>
+                    <xdr:colOff>967740</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>381000</xdr:rowOff>
                   </to>
@@ -10726,13 +11004,13 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>952500</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>95250</xdr:rowOff>
+                    <xdr:rowOff>91440</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>1447800</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>400050</xdr:rowOff>
+                    <xdr:rowOff>403860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10746,15 +11024,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:colOff>91440</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>106680</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>581025</xdr:colOff>
+                    <xdr:colOff>579120</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>390525</xdr:rowOff>
+                    <xdr:rowOff>388620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10768,13 +11046,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:colOff>525780</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>121920</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>971550</xdr:colOff>
+                    <xdr:colOff>967740</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>381000</xdr:rowOff>
                   </to>
@@ -10792,13 +11070,13 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>952500</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>95250</xdr:rowOff>
+                    <xdr:rowOff>91440</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>1447800</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>400050</xdr:rowOff>
+                    <xdr:rowOff>403860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10812,15 +11090,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:colOff>91440</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>121920</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>581025</xdr:colOff>
+                    <xdr:colOff>579120</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>400050</xdr:rowOff>
+                    <xdr:rowOff>403860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10834,15 +11112,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:colOff>525780</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>129540</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>971550</xdr:colOff>
+                    <xdr:colOff>967740</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>390525</xdr:rowOff>
+                    <xdr:rowOff>388620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10858,13 +11136,13 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>952500</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>106680</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>1447800</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
+                    <xdr:rowOff>411480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10878,15 +11156,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:colOff>91440</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>106680</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>581025</xdr:colOff>
+                    <xdr:colOff>579120</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>390525</xdr:rowOff>
+                    <xdr:rowOff>388620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10900,13 +11178,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:colOff>525780</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>121920</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>971550</xdr:colOff>
+                    <xdr:colOff>967740</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>381000</xdr:rowOff>
                   </to>
@@ -10924,13 +11202,13 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>952500</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>95250</xdr:rowOff>
+                    <xdr:rowOff>91440</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>1447800</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>400050</xdr:rowOff>
+                    <xdr:rowOff>403860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10944,15 +11222,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:colOff>91440</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>85725</xdr:rowOff>
+                    <xdr:rowOff>83820</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>581025</xdr:colOff>
+                    <xdr:colOff>579120</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>371475</xdr:rowOff>
+                    <xdr:rowOff>373380</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10966,15 +11244,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:colOff>525780</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>95250</xdr:rowOff>
+                    <xdr:rowOff>99060</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>971550</xdr:colOff>
+                    <xdr:colOff>967740</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>361950</xdr:rowOff>
+                    <xdr:rowOff>358140</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11010,13 +11288,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:colOff>91440</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>95250</xdr:rowOff>
+                    <xdr:rowOff>99060</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>581025</xdr:colOff>
+                    <xdr:colOff>579120</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>381000</xdr:rowOff>
                   </to>
@@ -11032,15 +11310,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:colOff>525780</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>106680</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>971550</xdr:colOff>
+                    <xdr:colOff>967740</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>361950</xdr:rowOff>
+                    <xdr:rowOff>365760</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11056,13 +11334,13 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>952500</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>85725</xdr:rowOff>
+                    <xdr:rowOff>83820</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>1447800</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>390525</xdr:rowOff>
+                    <xdr:rowOff>388620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11076,13 +11354,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:colOff>91440</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>95250</xdr:rowOff>
+                    <xdr:rowOff>99060</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>581025</xdr:colOff>
+                    <xdr:colOff>579120</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>381000</xdr:rowOff>
                   </to>
@@ -11098,15 +11376,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:colOff>525780</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>106680</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>971550</xdr:colOff>
+                    <xdr:colOff>967740</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>361950</xdr:rowOff>
+                    <xdr:rowOff>365760</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11122,13 +11400,13 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>952500</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>85725</xdr:rowOff>
+                    <xdr:rowOff>83820</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>1447800</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>390525</xdr:rowOff>
+                    <xdr:rowOff>388620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11142,15 +11420,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:colOff>91440</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>106680</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>581025</xdr:colOff>
+                    <xdr:colOff>579120</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>390525</xdr:rowOff>
+                    <xdr:rowOff>388620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11164,13 +11442,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:colOff>525780</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>121920</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>971550</xdr:colOff>
+                    <xdr:colOff>967740</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>381000</xdr:rowOff>
                   </to>
@@ -11188,13 +11466,13 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>952500</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>95250</xdr:rowOff>
+                    <xdr:rowOff>91440</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>1447800</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>400050</xdr:rowOff>
+                    <xdr:rowOff>403860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11208,15 +11486,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:colOff>91440</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>106680</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>581025</xdr:colOff>
+                    <xdr:colOff>579120</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>390525</xdr:rowOff>
+                    <xdr:rowOff>388620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11230,13 +11508,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:colOff>525780</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>121920</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>971550</xdr:colOff>
+                    <xdr:colOff>967740</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>381000</xdr:rowOff>
                   </to>
@@ -11254,13 +11532,13 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>952500</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>95250</xdr:rowOff>
+                    <xdr:rowOff>91440</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>1447800</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>400050</xdr:rowOff>
+                    <xdr:rowOff>403860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11274,15 +11552,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:colOff>91440</xdr:colOff>
                     <xdr:row>14</xdr:row>
                     <xdr:rowOff>114300</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>581025</xdr:colOff>
+                    <xdr:colOff>579120</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>400050</xdr:rowOff>
+                    <xdr:rowOff>396240</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11296,15 +11574,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>523875</xdr:colOff>
+                    <xdr:colOff>525780</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>129540</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
-                    <xdr:colOff>971550</xdr:colOff>
+                    <xdr:colOff>967740</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>390525</xdr:rowOff>
+                    <xdr:rowOff>388620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11320,13 +11598,13 @@
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>952500</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>95250</xdr:rowOff>
+                    <xdr:rowOff>99060</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>10</xdr:col>
                     <xdr:colOff>1447800</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
+                    <xdr:rowOff>411480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
